--- a/기사데이터/토스/엑셀파일/news(토스, 2023.05.16~2023.05.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.05.16~2023.05.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.05.29.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>인뱅 자산건전성 악화에…중저신용자 대출 증가세 둔화</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013969062?sid=004</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 오지은 기자 = 인터넷은행 3사(카카오·케이·토스뱅크)의 자산건전성 지표가 악화하며 중·저신용자 대출 증가세가 둔화한 것으로 나타났다.인터넷은행[연합뉴스 자료사진]    29일 금융권에 따르면 지난 3월 말 기준 중·저신용자 대상 신용대출 비중(잔액 기준)은 카카오뱅크 25.7%, 케이뱅크 23.9%, 토스뱅크 42.06%로 집계됐다.     카카오뱅크와 토스뱅크는 이 비중이 지난해 12월 말 대비 0.3%포인트(p), 1.69%포인트 늘었지만, 케이뱅크는 1.2%포인트 줄었다.     지난해 4분기에는 전분기 대비 증가 폭이 카카오뱅크 2.2%포인트, 케이뱅크 0.4%포인트, 토스뱅크 1.37%포인트 등을 기록했지만, 올해 1분기에는 전반적으로 증가 폭이 둔화했다.    이런 둔화세는 지난해 인터넷은행이 중·저신용자 대출 비중을 늘려 건전성 지표가 악화한 데 따른 것으로 풀이된다.    금융당국은 지난 2021년 인터넷 전문은행이 중·저신용층에 대한 대출 공급을 확대하겠다는 출범 취지에 맞게 영업하도록 중·저신용 대출 규모를 늘리도록 주문해왔다.    중·저신용자 대출은 개인신용평가회사 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%에 대한 대출로 고신용자 대출에 비해 자산건전성 악화 위험이 크다.    3월 말 기준 카카오뱅크와 케이뱅크의 연체 기간 3개월 이상인 고정이하여신 잔액은 각각 1천250억원, 1천123억원으로 집계됐다. 이는 지난해 동기와 비교해 각각 92.6%, 126% 증가한 수치다.     같은 기간 고정이하여신 비율을 보면 카카오뱅크는 0.18%포인트 상승한 0.43%였다. 케이뱅크도 0.64%에서 0.94%로 0.3%포인트 올랐다.     또한 연체율의 경우 카카오뱅크는 지난해 1분기 0.26%에서 올해 1분기 0.58%로 올랐고, 케이뱅크도 같은 기간 0.48%에서 0.82%로 높아졌다.    이런 건전성 지표 악화에 대응해 대손충당금 적립 규모도 늘렸다.    카카오뱅크의 1분기 충당금 전입액은 552억원으로 지난해 같은 분기(202억원)의 2.5배 수준이었으며 케이뱅크는 612억원으로 작년 동기(207억원)의 3배 규모로 적립했다.     built@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.05.27.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>중·저신용자 대출 비중 1등은 토뱅 42%… 카뱅 26% 케뱅 24%</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000924054?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>그래픽=김은옥 기자 카카오뱅크·케이뱅크·토스뱅크 등 인터넷전문은행 3사가 올 1분기 중·저신용자 대출 실적을 나란히 공개했다. 중·저신용자 대출 비중이 가장 높은 곳은 토스뱅크로 42.06%에 달했고 카카오뱅크와 케이뱅크가 각각 25.7%, 23.9%로 그 뒤를 이었다.27일 금융권에 따르면 토스뱅크는 올 1분기 중·저신용자(KCB 신용점수 기준 하위 50%) 고객을 대상으로 공급한 신용대출(무보증)의 비중이 대출 잔액 기준 42.06%를 달성했다.올 1분기 말 기준 토스뱅크 신용대출 가운데 중·저신용자 대출 규모는 잔액 기준 총 3조1000억원에 달했다.토스뱅크는 올 1분기 대손충당금 760억원을 추가 적립하며 총 2600억원의 충당금을 확보했다. 전체 여신잔액 대비 대손충당금 잔액 비중을 의미하는 커버리지 비율은 2.8%로 기존 은행권 평균을 상회했다.토스뱅크에 따르면 중·저신용 고객들은 제1금융권에서 소외된 경험을 했던 것으로 나타났다. 이들 고객은 토스뱅크에서 대출을 실행한 후 제2, 제3금융권에서 받은 대출을 상환하면서 2명 중 1명 이상(60%)은 평균 68.3점의 신용점수 상승 등 '크레딧빌딩' 효과를 누렸다.토스뱅크는 자체적으로 개발한 신용평가모형 'TSS(Toss Scoring System)'를 고도화하며 중·저신용자 포용을 이어갈 방침이다.고객들을 정당하게 평가할 수 있는 금융정보와 이를 보완할 수 있는 대안정보 분석 및 활용을 통해 건전한 중·저신용자를 발굴할 예정이다.━카카오뱅크, 1분기 중·저신용자 대출 전년比 24%↑━카카오뱅크의 경우 고신용대출 없이 중·저신용 대출만 공급했던 지난해 1분기(6235억원)와 비교해 공급 규모가 23.6% 증가했다.올 1분기 말 기준 중·저신용 대출 잔액은 3조4774억원, 잔액 비중은 25.7%를 기록했다.카카오뱅크는 연말 목표치인 30% 달성을 위한 노력을 지속한다는 방침이다.카카오뱅크는 신용평가모형 고도화, 대출 비교 서비스 입점 등을 통해 중·저신용 고객 접점과 공급 규모를 점차 확대하고 있다. 지난 4월 월간 기준 역대 최대치인 3193억원을 중·저신용 고객에게 공급했다. 올해 1~4월 카카오뱅크가 취급한 중·저신용 대출은 1조900억원 규모다.━케이뱅크, 4~5월 중·저신용 고객 비중 33% 달해━케이뱅크는 지난 2017년 4월 출범 이후 올해 1분기까지 공급한 중·저신용자 신용대출 규모가 4조3569억원으로 집계됐다.지난 2022년 한 해에만 중·저신용 대출 2조265억원을 공급했다.이 같은 중·저신용 대출 공급 확대에 따라 케이뱅크의 올 1분기 기준 중·저신용자 대출 잔액은 2조622억원으로 전년 동기(1조2332억원) 대비 67% 증가했다. 중·저신용자 신용대출 비중은 올 1분기 기준 23.9%였다.지난 4월부터 5월 현재까지 약 두 달간 취급한 신용대출 중 중·저신용 고객 비중은 약 33% 수준으로 대출 공급이 증가하고 있다는 게 케이뱅크 측의 설명이다.케이뱅크는 카드·캐피탈 신용대출 대환상품을 올 3분기에 출시해 중·저신용자의 1금융권 대출 접근성을 높이고 중·저신용자 대출을 확대할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>"더 싼 금리 찾기 힘들수도" 대환대출에 의문 품는 이유</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005266138?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>31일 원스톱 대환대출 서비스 개시  신용대출 금리는 주거래은행 실적 따라 좌지우지 돼 "주거래은행 있다면 더 싼 금리 제공하는 곳 찾기 힘들 것"[이미지출처=연합뉴스]"주거래은행이 있는 사람들은 더 싼 금리를 찾기 힘들 겁니다."31일 기존 신용대출을 더 저렴한 금리로 즉시 갈아탈 수 있도록 하는 원스톱 대환대출 서비스가 시작됐다. 하지만 5대 은행(KB국민·신한·하나· 우리·NH농협)의 기대감은 높지 않은 편이다. 신용대출의 특징을 짚어봤을 때 주거래 은행이 있는 금융소비자들이 기존 대출보다 더 낮은 금리를 찾아 갈아탈 수 있는 가능성은 높지 않을 것으로 보고 있다.원스톱 대환대출이 가능한 앱은 네이버페이·뱅크샐러드·카카오페이·토스·핀다 등이다. 이곳에서 마이데이터를 통해 기존 신용대출을 확인하고 여러 금융사들과  대출 조건을 비교한 후 선택한 금융회사의 앱으로 이동해 대출을 갈아탈 수 있다.그동안 이들 대출금리 비교 앱과 거리를 뒀던 5대 은행이 이번에는 대거 참여해 금융 소비자들의 대출 금리를 끌어내리는 게 원스톱 대환대출의 목표다. 그러나 시중은행들은 이 서비스를 통해 금융 소비자들이 얼마나 금리를 낮출 수 있을 진 의문이라고 했다.시중은행 관계자는 "연봉이 높고 신용점수가 높다고 무조건 은행마다 저렴한 대출금리를 내주는 게 아니다"라며 "신용대출 금리는 해당 은행 거래실적에 의해서 가장 크게 영향을 받기 때문에 주거래은행이 아닌 다른 은행에서 더 낮은 금리로 대출받을 가능성은 높지 않다"고 말했다.주택담보대출이나 전세자금대출의 경우 신용등급에 따른 차이가 거의 없는 편이라 오히려 가산금리 조정으로 은행 간 경쟁이 가능하다. 하지만 신용대출금리는 다르다. 은행별로 내부시스템을 통해 대출받는 사람의 신용등급을 매기고 각 등급 간 금리 차이도 크게 난다. 전국은행연합회 공시(5대 은행 4월 신규취급대출액 기준)에 따르면, 가장 높은 등급(951점~1000점)에서 낮은 등급(600점 이하) 간 금리 차이는 주담대의 경우 최대 0.5%포인트인데 반해, 신용대출은 6%포인트까지 차이가 났다.높은 등급을 받는 조건으로 가장 중요한 건 '거래 내역'이다. 다른 시중은행 관계자도 "같은 조건이라면 예치금액, 여·수신 상품 가입, 급여통장, 카드 명세 같은 기록이 있는 주거래은행에서 받은 신용등급이 가장 높고 이자도 싼 편"이라며 "전업주부라도 해당 은행 파킹통장에 예치금이 많으면 1등급을 받고, 대기업에 다녀도 그 은행에 거래 내역이 없으면 3~4등급이 나오는 경우가 많다"고 설명했다.시중은행 중에선 원스톱 대환대출 출범에 맞춰 전용상품을 내놓거나 준비하는 곳도 있다. 하지만 이들이 기존 대출 상품보다 금리를 눈에 띄게 낮추지 못하고 뜨뜻미지근한 태도를 취하는 것도 이유가 있다. 기존 대출자들과의 역차별 문제를 우려해서다.또 다른 시중은행 관계자는 "대환대출한 사람들에게 더 싼 금리를 제공하는 건 기존에 오랫동안 대출자들 입장에서 보면 손해라는 느낌을 주게 될 것"이라며 "적금이나 정기예금은 내 금리보다 다른 사람 금리가 좀 높아도 사람들이 별 불만을 가지지 않지만, 대출금리는 내 금리가 다른 사람 금리보다 높으면 반발이 거세서 은행 입장에서도 조심스럽다"라고 분위기를 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.05.29.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>케이뱅크, 6년간 중·저신용 대출 4조3000억 공급</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002574321?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>토스뱅크, 중·저신용 대출 비중 42% 달성인터넷은행 업계의 중·저신용자 대출 비중이 30~40%에 달하는 것으로 집계됐다. 상대적으로 대출 금리가 낮은 1금융권의 문턱을 그만큼 낮추고 있다는 평가다. 케이뱅크는 2017년 4월 출범 이후 올해 1분기까지 공급한 중·저신용자 신용대출 규모(누적 기준)가 4조3569억 원으로 집계됐다고 29일 밝혔다. 이 회사 관계자는 "지난 한 해에만 2조265억 원을 공급하는 등 중·저신용자 대출 확대를 위해 노력하고 있다"면서 "올해 1분기 기준 관련 대출 잔액은 2조622억 원으로 전년동기(1조2332억원)대비 67% 증가했다"고 말했다. 관련 신용대출 비중은 올 1분기 기준 23.9%였으며, 최근 4~5월 두 달 동안 취급한 중·저신용자 신용대출 약 33% 수준이었다.토스뱅크는 지난 1분기 중·저신용자(KCB 신용점수 기준 하위 50%) 고객을 대상으로 공급한 신용대출(무보증) 비중이 42.06%를 달성했다고 밝혔다. 잔액 기준으론 총 3조1000억 원이다. 이 회사 관계자는 "지난 1분기 기준 대손충당금 760억 원을 추가 적립하며, 총 2600억 원의 충당금을 확보했다"면서 "전체 여신잔액 대비 대손충당금 잔액 비중을 뜻하는 ‘커버리지 비율’은 2.8%로, 은행권 평균을 훨씬 웃돌았다"고 말했다. 이어 "당사에서 받은 대출로 제2, 3금융권 대출을 상환해 2명 중 1명 이상(60%)은 평균 68.3점의 신용점수가 오르는 등 이른바 ‘크레딧 빌딩’ 효과를 누렸다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>대환대출 인프라 "주담대 포함시 시장 영향 상당할 것"</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005496362?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>주담대, 작은 금리차에도 절감분 커져은행주 모멘텀 적지만 하방 리스크도 제한적[이데일리 노희준 기자] 최정욱 하나증권 애널리스트는 31일부터 가동되는 온라인 원스톱 대출 갈아타기 플랫폼인 ‘대환대출 인프라’와 관련, “연말경 주택담보대출까지 확대시 전체 시장 규모와 건당 취급액 측면 등을 고려할 때 시장에 미치는 영향이 상당할 것”이라고 전망했다. 최정욱 애널리스트는 30일자 보고서를 통해 “건당 취급 규모가 큰 상품의 경우 약간의 금리 차이에도 이자 절감분이 상당히 커질 수 있다”면서 이같이 밝혔다. 대환대출 인프라는 개인 신용대출을 대상으로 일단 시작된다. 이르면 올해 연말께 주담대도 대환대출 인프라에서 갈아탈 수 있을 전망이다. 대환대출 인프라는 온라인 상에서 여러 금융회사 대출을 비교한 뒤 한번에 갈아탈 수 있도록 돕는 시스템이다. 토스, 카카오페이 등 온라인 대출 비교 서비스에서 갈아타고 싶은 저금리 대출을 선택한 뒤 연결된 저금리 대출을 취급하는 금융기관 앱으로 이동해 대출을 갈아타면 된다.최 애널리스트는 “(대환대출 인프라는) 경쟁 효과 유발과 금리 인하가 불가피해 은행 순이자마진(NIM)에 부정적일 수 밖에 없는 요인”이라면서도 “당장은 신용대출상품에 한정돼 있고(전체 신용대출시장 규모는 약 250조원, 1년간 취급 규모는 약 63조원 추정), 회사별 취급한도 제약이 있고 중도상환수수료까지 감안한 은행별 금리 차이가 크지는 않을 것으로 추정돼 당장은 대환 수요가 매우 커지지는 않을 것”이라고 예상했다. 그는 “카카오뱅크는 최근 1개월간 주가가 큰폭의 강세를 보였지만 기존 은행들과는 달리 성장성이 크게 차별화될 수 있다는 점에서 주가배수(multiple, 주가와 순이익, 순자산 등의 비율) 상승 기대가 커질 수 있을 전망”이라며 “대환대출 인프라가 주담대까지 확대될 경우 플랫폼 가치가 크게 부각될 것”이라고 예상했다. 최 애널리스트는 은행주 전반의 투자에 대해검 “현 은행 평균 주가순자산비율(PBR)은 0.29배로 0.3배를 하회하지만 낮아진 가격에도 금리 상승과 경기 둔화와 관련된 충당금 불확실성 우려가 계속되고 있는 데다 미국 중소 지역은행 관련 시스템 리스크 우려가 조기에 해결되지 못하면서 국내 은행주에 대한 투자심리가 좀처럼 되살아나지 못하고 있다”고 설명했다. 지난주 은행주는 1.9% 하락해 코스피 상승률 0.8% 대비 또다시 초과하락을 기록했다. 외국인의 매도세가 은행주에 이어지며 주가가 계속 약세를 나타내는 형국이다. 외국인들은 약 960억원을 순매도했다. 지난주 국내 기관은 은행주 매수가 거의 없었다. 글로벌 국채금리가 2주 연속으로 큰폭 상승하고 있다. 긴축 완화 기대감이 줄고 있기 때문이다. 실제 24일 공개된 미국 5월 연방공개시장위원회(FOMC) 정례회의 의사록에서 일부 연준 위원들의 공격적인 긴축 발언이 확인됐다. 미국 4월 개인소비지출(PCE) 물가지수가 예상치를 상회하면서 6월 금리 인상가능성이 커지고, 연내 금리 인하 기대감 또한 빠르게 소멸되고 있다는 분석이다.  26일(현지시간) 미국 상무부는 4월 근원 PCE 물가지수가 전월보다 0.4% 올랐다고 밝혔다. 미 월가 예상치(0.3%)를 우회한 수치다. 근원 물가는 변동성이 큰 에너지와 식료품을 제외한 물가 추이를 말한다. 근원 PCE 물가지수는 연준이 인플레이션 정책목표 기준으로 삼는 지표다. 전년 대비 근원 PCE 물가지수도 4.7%로 전월의 4.6%보다 다시 올랐다. 연준 목표치 2%를 크게 상회한 수준이다.이에 미국 연방기금 금리선물시장에서의 6월 금리 인상확률은 71%까지 상승 중이다. 전주 미국 10년물 국채금리는 3.81%로 한주간 13bp 상승했고, 2년물 국채금리는 4.57%로 한주동안 27bp 추가 올랐다. 2년물 국채금리는 최근 2주 동안 58bp나 급등하는 모습이다. 국내 국고채 3년물 금리는 3.52%로 한주간 18bp 상승했다. 10년물 금리는 3.64%로 22bp 상승해 1년이상 전구간에서 모두 기준금리를 상회하고 있다. 한편 원 달러 환율은 1,324.5원으로 마감해 한주동안 2.2원 하락했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>토스, 17개 금융사와 '대출 갈아타기' 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006838495?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>(토스 제공)(서울=뉴스1) 김정은 기자 = 토스는 금융위원회가 주도해 온 원스톱·비대면 대환대출 인프라 가동에 맞춰 '대출 갈아타기' 서비스를 오늘부터 시작한다고 31일 밝혔다. 서비스 첫날 토스와 함께 대출 갈아타기를 제공하는 금융사는 17곳이다. 농협은행과 하나은행을 비롯한 1금융권 6개사, 신한카드, KB캐피탈 등 2금융권 11개사다. 다음 달 초까지 약 22개 금융사로 제휴처가 늘어날 예정이다.대출 갈아타기 서비스는 고객이 기존에 보유하고 있는 대출보다 더 낮은 금리의 대출 상품으로 이동할 수 있는지 조회 결과를 보여준다. 기존 대출이 여러 개라면 대출이동이 가능한 상품을 구분해 알려준다. 실제로 얼마나 많은 이자비용을 절약할 수 있는지, 우대금리와 중도상환 수수료는 어느 정도인지 요약보고서 형식으로 제공한다.토스는 각 업권별로 금융사가 고르게 입점해 다양한 대출상품을 고객에게 안내할 수 있을 것으로 기대하고 있다. 대출을 받은 이후에도 신용점수 관리와 금리인하 알림 등 대출조회부터 상환에 이르기까지 대출 라이프사이클에 맞는 관리 서비스를 제공할 예정이다.대출 갈아타기에 성공하지 못한 이용자를 위한 프로모션도 진행한다. 더 나은 조건의 대출 상품을 찾지 못한 이용자에겐 월 1회에 한정해 소정의 응원금을 지급한다. 신용점수와 소득관리에 지속적인 관심을 가질 수 있는 건강한 금융생활을 돕겠다는 취지다.한편 토스 대출 갈아타기 서비스 시작을 알려주는 사전신청에 40만명이 넘게 몰리는 등 뜨거운 관심을 받은 바 있다.토스는 올해 안에 제휴 금융사를 50개사까지 확대한다는 목표다. 대출 갈아타기는 토스 앱 내 전체 탭, 대출 받기 메뉴에서 이용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.05.24.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 파킹통장 세이프박스 `이자 바로 받기` 출시</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002802676?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>카카오뱅크 제공.    카카오뱅크가 세이프박스 '이자 바로 받기' 서비스를 출시한다고 24일 밝혔다.세이프박스는 카카오뱅크의 파킹통장이다. 하루만 맡겨도 연 2.40% 금리를 준다. 그동안 카카오뱅크 세이프박스 고객들은 한 달에 한 번, 매월 네번째 금요일의 다음날에 이자를 수령했다. 이번 '이자 바로 받기' 서비스 출시로 고객들은 원할 때 바로 카카오뱅크 앱에서 이자를 받을 수 있게 됐다. 예를 들어 매일 혹은 매주 이자를 받고 싶은 고객들은 이자 수령을 원할 때 카카오뱅크 앱에 접속하여 어제까지 쌓인 이자를 조회한 뒤 '받기' 버튼을 누르면 바로 이자를 받을 수 있다.또한 이자가 기존 입출금통장이 아닌 세이프박스에 지급되기 때문에 보다 편리하게 복리효과를 누릴 수 있는 점도 특징이다. 카카오뱅크는 알림 기능을 설정한 고객들에 한해 별도의 알림을 통해 잊지 않고 이자를 받을 수 있도록 안내할 계획이다.카카오뱅크 관계자는 "파킹통장에 대한 고객들의 관심과 이용이 늘어나고 있어 보다 많은 혜택을 제공하기 위해 이번 서비스를 준비하게 됐다"라며 "이번 서비스 개선으로 고객들이 보다 빠르고 편리하게 복리효과를 누리실 것으로 기대된다"고 말했다. 한편 인터넷은행 토스뱅크와 케이뱅크도 선이자 지급 상품을 선보이고 있다. 토스뱅크는 올 3월 '먼저 이자 받는 정기예금'을 출시했다. 먼저 이자 받는 정기예금은 출시 이후 가입액이 나흘 만에 1000억원, 15일 만에 5000억원을 돌파하는 등 큰 인기를 끌었다. 케이뱅크는 올 1월 파킹통장인 플러스박스에 '바로 이자받기' 서비스를 추가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.05.21.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>토스, 지역기반 '올인원' 멤버십 서비스 운영한다</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013954100?sid=105</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>금융당국 신고도 최근 마쳐토스[비바리퍼블리카 제공, 재판매 및 DB 금지](서울=연합뉴스) 오규진 오지은 기자 = 모바일 금융 플랫폼 토스가 멤버십을 한데 모으고, 지역 기반으로 혜택을 제공하는 '통합 멤버십 서비스'를 준비한다.    21일 정보기술(IT) 업계에 따르면 토스를 운영하는 비바리퍼블리카는 지난달 28일 카드 결제내용을 바탕으로 이용자가 방문한 매장 정보를 지도에 구현하는 부수업무를 금융위원회에 신고했다.     신고 내용엔 흩어져 있는 각종 멤버십을 마이데이터로 불러오는 '멤버십 지갑'도 포함됐다. 마이데이터는 소비자가 여러 금융사에 분산된 자신의 신용 정보를 받아 통합 조회할 수 있는 서비스다.    비바리퍼블리카는 이용자 결제 정보를 토대로 거래가 많은 지역에 있는 제휴 매장에서 쿠폰·포인트를 제공하는 방식으로 서비스를 운영할 것으로 전망된다.    아울러 프랜차이즈는 물론 소상공인이 운영하는 기존 멤버십과 연동해, 토스 앱에서 멤버십 발급, 관리, 리워드 지급 기능을 지원할 것으로 보인다.    비바리퍼블리카가 통합 멤버십 서비스를 준비하는 것은 그간 추구해온 '금융 수퍼앱' 비전과 맞닿아 있는 것으로 풀이된다.    '수퍼앱'은 고객이 금융과 관련한 서비스가 필요할 때 어렵고 복잡한 탐색 과정을 거치거나 고민할 필요 없이 토스에 들어오면 모든 것을 해결할 수 있게 만든다는 비바리퍼블리카의 목표다.    비바리퍼블리카는 현재 토스 앱에서 토스뱅크와 토스증권, 토스모바일 등의 서비스를 제공하고 있다.    비바리퍼블리카 관계자는 "이용자 친화 측면에서 신규 서비스들을 고민하고 있다"면서도 "정식 출시 시점은 확정되지 않았다"고 말했다.    acdc@yna.co.kr, built@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.05.29.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>알뜰폰에 진심인 카카오…"플랫폼 총동원"</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004849949?sid=105</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>스테이지파이브 공격 행보카카오톡 앱 통해 가입 받고카카오페이 포인트도 나눠줘5G 상용화한 전직 차관도 영입플랫폼 격전장 된 알뜰폰 시장KB 이어 토스도 도전장정부 "대형 업체 등장 환영할 일"카카오가 계열사인 스테이지파이브를 통해 알뜰폰 사업을 강화하고 있다. 카카오톡, 카카오페이 등 카카오가 가진 플랫폼과 알뜰폰 서비스를 결합하는 방법으로 이용자 확대를 꾀하고 있다. 통신사의 입김에서 자유로운 플랫폼 업체들이 알뜰폰 시장의 ‘메기’ 역할을 맡을지 여부에 관심이 쏠리고 있다. 알뜰폰 행보 빨라진 카카오29일 정보기술(IT) 업계에 따르면 스테이지파이브는 최근 자사 서비스 이용자를 대상으로 카카오페이 포인트를 지급하기 시작했다. 스테이지파이브의 알뜰폰 요금제, 로밍 서비스에 가입하거나 친구 추천을 하면 현금처럼 쓸 수 있는 카카오페이 포인트를 주는 식이다.지난 15일에는 카카오페이 플랫폼 내 통신·로밍 메뉴를 추가해 이용자의 접근성을 높였다. 카카오페이 앱은 물론 카카오톡 내에서 스테이지파이브의 요금제를 살펴보고 가입까지 할 수 있다.카카오가 가진 인공지능(AI) 기술도 접목했다. 카카오엔터프라이즈의 AI 엔진 ‘카카오i’를 적용해 번호이동 사전동의 요청, ARS 또는 문자 인증, 사전동의 진행 등 개통 절차를 간소화했다.스테이지파이브는 2015년 설립됐다. 사업 초기에는 키즈폰, 키즈 워치 등을 중심으로 성장했다. 2017년 카카오인베스트먼트의 투자를 받으면서 카카오 계열사로 편입됐다. 2020년 알뜰폰 브랜드 핀다이렉트를 내놨지만, 그동안 시장에서 두각을 드러내진 못했다. 작년 10월 기준 가입자는 3만3000여 명에 그쳤다.업계에선 스테이지파이브가 올해 초 민원기 전 과학기술정보통신부 차관을 이사회 의장으로 영입한 이후 본격적인 사업 확장에 나선 것으로 보고 있다. 민 전 차관은 과기정통부에서 5세대(5G) 이동통신 상용화 작업을 주도했다. 알뜰폰 통해 시장 재편 꾀하는 정부알뜰폰을 둘러싼 시장 환경이 바뀐 것도 카카오 전략이 변화한 배경으로 손꼽힌다. 그동안 알뜰폰 시장의 주요 플레이어는 SK텔링크(SK텔레콤 계열), KT엠모바일·KT스카이라이프(KT 계열), 미디어로그·LG헬로비전(LG유플러스 계열) 등 통신 3사 자회사와 중소 업체로 구분할 수 있었다. 작년 11월 기준 통신 3사 자회사의 알뜰폰 시장 점유율은 50.7%, 그 외 기업이 나머지를 차지했다.분위기가 바뀐 것은 윤석열 대통령이 지난 2월 비상경제민생회의에서 “통신 시장 과점 해소와 경쟁 촉진을 위한 특단의 대책을 마련하라”고 지시하면서다. 여기에 통신 3사가 5G용으로 할당받은 28기가헤르츠(㎓) 대역에 투자하지 않아 주파수 할당 취소 처분을 받은 것도 영향을 미쳤다.정부는 알뜰폰 시장 활성화를 통해 통신 3사 중심의 시장 구조를 바꿀 수 있을 것으로 보고 있다. 과기정통부 관계자는 “대형 사업자들이 알뜰폰 시장에 진출해 기존 자사 서비스와 결합한 새로운 상품을 선보인다면 굳어진 시장에 변화가 생겨날 것”이라며 “소규모 알뜰폰 업체 간 인수합병(M&amp;A)을 통해 대형 알뜰폰 사업자가 등장하는 것도 필요한 시점”이라고 설명했다.현재 가장 발 빠른 움직임을 보이는 곳은 금융권이다. 2019년 금융규제 샌드박스 형식으로 알뜰폰 사업을 시작한 국민은행이 지난달 정식 인가를 받으면서 다른 금융회사의 알뜰폰 시장 진출이 가능해졌다. 핀테크 기업 토스도 토스모바일을 통해 알뜰폰 사업을 벌이고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.05.24.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>“대출이자 부담이라면 앱을 켜세요” 금융업계, 대환대출 플랫폼 이용자 확보 나서</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/117/0003732687?sid=103</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>[마이데일리 = 구현주 기자] 금융업계가 이달 말 대환대출 서비스 출시를 앞두고 ‘플랫폼’ 이용자 선점을 위해 치열하게 경쟁하고 있다. 대환대출 플랫폼은 은행, 저축은행, 카드, 캐피털사 등 대출을 온라인에서 비교해 소비자가 유리한 상품으로 쉽게 갈아타게 하는 대출이동 시스템이다. 개인 신용대출 대상으로 먼저 시작되며, 연말에는 주택담보대출도 포함될 예정이다. 24일 금융업계에 따르면 토스와 OK금융그룹이 대환대출 플랫폼을 준비했다. 토스 대환대출 서비스 ‘대출 갈아타기’는 사전 신청자가 30만명을 넘어섰다. 지난 10일 처음 사전 신청을 받은 지 2주 만이다.대출 갈아타기 서비스 고객은 새로 대출받을 금융기관만 결정하면 기존처럼 대출이 있는 곳과 새로 받을 곳을 번갈아 방문하지 않아도 된다. 대환대출 이후 대출 상환과 신용점수 관리 등 부가 기능도 제공받을 수 있다.OK캐피탈은 대출비교 플랫폼 ‘OK비교대출’을 공식 오픈했다.OK비교대출은 저축은행, 캐피탈 등 대출상품 금리와 한도를 비교해 소비자에게 적합한 조건 대출을 추천해주고, 대출 신청을 도와주는 서비스다. 신용조회 한 번으로 제휴된 모든 금융기관 대출을 1분 이내에 확인할 수 있다.출시 초기 BNK저축은행, JB우리캐피탈 등 10여개 금융기관과 제휴를 시작으로 시중은행 등 1금융권으로 제휴처를 지속 확대할 방침이다. OK캐피탈 관계자는 “향후 OK비교대출은 주택담보대출, 예·적금 등으로 비교 가능한 금융상품을 확대하는 동시에 고객 맞춤형 콘텐츠를 제공해 ‘종합 금융 큐레이션 서비스’로 발돋움할 예정”이라고 말했다. [사진 = 픽사베이](구현주 기자 winter@mydaily.co.kr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.05.28.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>31일부터 이자 비교하고 실시간 대출 갈아탄다</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001214433?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>31일 온라인·원스톱 대환대출 선보여53개 금융·23개 대출 비교 플랫폼 참여신용대출 우선… 연내 주담대로 확대핀테크·금융사, 고객유치 총력전 나서오는 31일 클릭 몇 번으로 신용대출을 저렴한 금리로 갈아탈 수 있는 인프라가 공식 출범한다. 김주현 금융위원장이 지난 12일 정부서울청사에서 열린 대환대출 인프라 사전점검 간담회에서 발언하고 있는 모습. 연합뉴스#시중은행에서 2000만 원의 신용대출을 보유한 40대 직장인 김 모 씨는 현재 8%대의 금리를 적용받고 있다. 높아진 금리로 이자 부담이 높아진 그는 평소 자주 쓰는 핀테크 앱을 통해 갈아탈 수 있는 대환 대출 상품을 조회했다. 그 결과 다른 시중은행에서 6%대 금리로 갈아탈 수 있다는 것을 알게 됐다. 김 씨는 몇 번의 클릭으로 10분 만에 대출을 옮겨 이자 부담을 줄였다.오는 31일 기존 신용대출을 저렴한 금리로 갈아탈 수 있는 ‘온라인·원스톱 대환대출 인프라’가 공식 출범한 뒤에 펼쳐질 풍경이다. 대출 상품을 온라인으로 단순 비교하는 서비스는 이미 있었다. 하지만 금융사 간 대출을 실시간으로 갈아탈 수 있는 인프라 출시는 전 세계에서 ‘최초’다.대환대출 인프라는 네이버, 카카오, 토스, 핀다와 같은 온라인 플랫폼을 통해 대출 상품을 비교한 후에 더 낮은 금리의 상품으로 손쉽게 갈아탈 수 있는 시스템이다. 지금까지는 소비자가 더 낮은 금리로 대출을 갈아타기 위해선 각 금융사에서 일일이 상품별 금리를 조회하고, 원하는 상품을 찾았다 해도 직접 영업 창구를 찾아야만 하는 불편함이 컸다.하지만 31일부터는 은행과 저축은행, 카드, 캐피털사 등 53개 금융사와 23개 대출비교 플랫폼을 통해 전 금융권의 대출 이자를 한눈에 비교해고 단 10분 만에 원하는 상품으로 갈아탈 수 있다.특히 소비자가 대출을 갈아탈 때 실질적으로 이득을 볼 수 있도록 편의성을 극대화했다. 대환대출 상품의 기본금리와 조건에 따른 우대금리도 함께 확인할 수 있게 된 것이다.중도상환 수수료가 있는 상품을 이용하고 있다면 이에 따른 금액도 한눈에 볼 수 있다. 소비자 입장에서는 이자 경감 수준과 내야 할 수수료 등을 비교한 뒤에 본인에게 가장 유리한 상품을 고를 수 있는 셈이다.다만 모든 소비자가 대환대출 플랫폼을 통해 더 낮은 금리의 상품으로 이동할 수 있는 건 아니다. 이미 최저 수준의 금리를 적용 받고 있는 고객의 경우 자신에게 맞는 대환대출 상품을 찾지 못할 가능성이 크다.일단은 신용대출, 마이너스통장 등 담보가 없어 대출 조건을 비교하기 쉬운 상품이 대상이다. 금융당국에 따르면 250조~270조 원이 대환대출 인프라 출범에 따라 혜택을 누릴 것으로 보인다.또 연말까지 대환대출 가능 범위를 주택담보대출로 확대한다는 방침이다. 주담대가 전체 가계대출에서 차지하는 비중이 76%(800조 원)에 달하는 점을 볼 때 소비자들의 금리 인하 혜택을 더욱 커질 것으로 보인다.대환대출 플랫폼 출시를 앞두고 핀테크 기업과 금융사는 고객 유치를 위한 ‘총력전’에 나서고 있다. 플랫폼 사업 특성상 초기에 고객을 최대한 확대하는 것이 유리한 만큼 선제적으로 대응하고 있는 셈이다.핀테크 플랫폼 토스에 따르면 ‘대출 갈아타기’ 사전 신청에 불과 2주 만에 30만 명이 몰렸다. 카카오페이의 경우 유일하게 5대 시중은행이 모두 입점해 있다는 사실을 앞세워 적극 홍보에 나서고 있다. 네이버파이낸셜과 뱅크샐러드 등의 경우 ‘이자 지원’ 등으로 고객 유치 경쟁에 동참했다.시중은행들도 관련 이벤트를 잇따라 출시 중이다. 우리은행은 기존 타 은행 대출을 자사 신규 대출로 전환하는 고객에 대해 중도상환수수료 등 1인당 최대 10만 원까지 지원한다고 밝혔다.한편 금융당국은 6개월 간 준비한 대환대출 플랫폼의 성공을 위해 지난 12일 김주현 금융위원장 주재로 최종점검 간담회도 개최했다.김 위원장은 이날 “대환대출 인프라 구축 목적이 투명하고 공정한 경쟁을 통해 소비자 이익을 증진시키기 위한 것임을 명심해 달라”고 주문했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.05.26.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>토뱅·카뱅 1분기 중저신용 비중↑</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004195363?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>케뱅은 1.2%포인트 줄어[서울경제] 토스뱅크와 카카오뱅크의 가계 신용대출 가운데 중·저신용자 대출 비중이 올 들어 더 늘었다. 반면 케이뱅크의 대출 비중은 지난해보다 줄었다.26일 은행연합회 공시에 따르면 토스뱅크의 '중·저신용자 대상 신용대출 비중(잔액 기준)'은 1분기 기준 42.06%로 집계됐다. 직전 분기인 지난해 12월 말에 견줘 1.69%포인트 늘었다. 카카오뱅크의 중·저신용자 대출 비중도 1분기 25.7%를 기록, 직전 분기 대비 0.3%포인트 증가했다.반면 케이뱅크의 중·저신용자 대출 비중은 1분기 23.9%로 집계됐다. 직전 분기보다 1.2%포인트 줄어든 수치다. 케이뱅크는 “3월 이후 두달여 간 취급한 중저신용 대출 비중은 33% 수준으로 관련 대출을 늘리고 있다”고 밝혔다.중·저신용자 대출 비중은 각 인터넷 은행의 전체 가계 신용대출에서 개인신용평가회사 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%(KCB 850점 이하) 대출자에 대한 대출이 차지하는 비중을 뜻한다. 금융 당국은 시중은행에서 돈을 빌리기 어려운 금융 소비자에 대출 공급을 확대한다는 인터넷은행 설립 취지에 따라 인터넷은행에 중·저신용대출 비율 목표치와 실적을 공시하도록 하고 있다. 토스뱅크와 카카오뱅크, 케이뱅크의 올해 말 목표 대출 비중은 각 44%, 30%, 32%다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.05.23.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>여전히 높은 중·저신용 대출 문턱···건전성 관리 고삐 죄는 금융권</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003225312?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>연합뉴스올해 들어 연체율이 상승하는 등 금융회사 건전성에 경고등이 들어오자 금융권이 중·저신용자에 대한 신용대출을 축소하고 있다. 급전이 필요한 저신용·저소득자들이 1·2금융권에서 대출받기는 어려운 환경이 되고 있다.23일 저축은행중앙회에 따르면 지난달 가계 신용대출의 신규 취급액이 3억원 이상인 저축은행 33개사 중에서 12개사는 신용점수 600점 이하의 저신용자에게 대출을 실행하지 않았다.21개사는 신용점수 501~600점 구간 차주(대출받는 사람)에게 대출해줬지만, 이 중 13개사는 해당 대출액의 비중이 1% 미만이었다.‘중·저신용자 포용’을 기치로 내걸고 출범한 인터넷전문은행도 저신용자 대출을 항상 취급하지는 않는다. 케이뱅크는 지난해 10월부터 신용점수 650점 이하에 대한 신용대출을 중단한 상태다.지난달 케이뱅크가 취급한 신규 대출의 평균 신용점수는 909점으로, 카카오뱅크(908점)와 비슷했고 토스뱅크(893점)보다 소폭 높았다. 인터넷은행 3사 모두 사실상 고신용자 위주로 대출이 이뤄진 셈이다.인터넷은행이나 저축은행이 저신용 대출에 소극적인 이유 중 하나는 연체율이다. 인터넷은행은 중·저신용자를 포용하라는 당국의 요구에 따라 중·저신용 대출을 빠르게 확대했다. 이런 상황에 금리 인상, 경기둔화가 겹치자 연체율이 일반 시중은행보다 큰 폭으로 오르고 있다.케이뱅크의 지난 1분기 연체율은 0.82%로, 전년 동기보다 0.34%포인트 급등했다. 카카오뱅크 연체율도 같은 기간 0.26%에서 0.58%로 뛰었다. 지난 3월 은행권 평균 연체율이 0.33%인 것과 비교하면 인터넷은행 연체율은 높은 편이다.저축은행업계는 지난해 말 3.41%였던 연체율이 지난 1분기 5.1%로 상승했다. 5%대 연체율은 2016년 말 이후 처음이다.연체율뿐만 아니라 수지타산 문제도 저신용 대출을 가로막고 있다. 저축은행은 지난해 10~11월 은행권과 자금조달 경쟁을 벌이면서 연 5~6%대 정기 예·적금을 판매했는데, 이들 상품의 만기가 도래했을 때 가입자에게 지급해야 할 이자 비용이 만만치 않은 상황이다. 조달 원가가 아직 높아 저신용 대출상품 판매를 늘리면 역마진이 발생할 수 있다는 게 업계 입장이다.저축은행 관계자는 “수신상품 신규 금리가 많이 떨어졌지만 평균 잔액 금리는 여전히 높다”며 “지난해 판매했던 수신상품의 만기가 도래해 전체적으로 평잔 금리가 떨어지면 저신용 대출 창구가 다시 열릴 수 있을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>10조여원 '금리 경쟁' 막 오른다…온라인 대환대출 오늘 개시</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013972755?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>앱 설치부터 계약 완료까지 15분 소요…연내 주담대로도 확대발언하는 김소영 부위원장(서울=연합뉴스) 김소영 금융위원회 부위원장이 30일 서울 정부서울청사 합동브리핑실에서 온라인·원스톱 대환대출 인프라 개시 관련 브리핑을 하고 있다. 2023.5.30 [금융위원회 제공. 재판매 및 DB 금지] photo@yna.co.kr    (서울=연합뉴스) 임수정 기자 = 스마트폰 앱을 통해 기존에 받은 신용대출을 더 유리한 조건으로 한 번에 갈아탈 수 있는 대환대출 플랫폼이 31일부터 가동된다.     금융위원회에 따르면 이날 개시되는 '온라인·원스톱 대환대출 인프라'에서는 53개 금융회사의 대출 상품과 조건을 비교할 수 있다.    업계에서는 연간 10조∼11조원을 대환대출 시장 규모로 추산하고 있다.     금융위가 대환대출 서비스로 개별 금융회사가 신규 유치할 수 있는 신용대출 규모를 전년도 신규 신용대출 취급액의 10% 또는 4천억원 중 적은 금액으로 설정했기 때문이다. 작년 전 금융권 신규 취급액 기준 신용대출은 110조원 규모다.     대출 갈아타기가 가능한 앱은 크게 대출 비교 플랫폼 앱(네이버페이, 뱅크샐러드, 카카오페이, 토스, 핀다 등)과 주요 금융회사 앱(NH농협은행, 신한은행, 우리은행. KB국민은행, 하나은행 등) 등 2가지가 있다.    특히 대출 비교 플랫폼에서는 기존에 받은 대출 금리 및 갈아탈 수 있는 여러 금융회사의 대출 상품을 한꺼번에 조회할 수 있다.    유리한 조건의 대출 상품이 있다면 해당 금융회사 앱으로 이동해 새로운 대출을 실행하면 된다.     기존 대출금은 금융결제원 망을 통해 자동 상환된다.     금융위는 앱을 설치하는 것부터 새 대출 계약을 완료하기까지 소요되는 시간이 15분 남짓이라고 설명했다.     옮겨가고 싶은 특정 금융회사가 있는 경우 해당 금융회사 앱에 바로 접속한 뒤 갈아타기를 진행하면 된다.      해당 금융회사가 제시하는 대출 조건이 기존 상품에 비해 유리한지 확인한 뒤 대출 계약을 실행하면 된다.     금융위는 "과거 소비자가 대출을 갈아타려면 금융회사 영업점 두 곳을 방문하며 최소 2영업일을 기다려야 했다"며 "인프라 가동으로 편의성이 크게 개선될 것"이라고 설명했다.[그래픽] 온라인 대환대출 서비스 이용 절차(서울=연합뉴스) 원형민 기자 = 금융위원회는 31일부터 금융소비자가 스마트폰 앱을 통해 은행, 저축은행, 카드·캐피탈사에서 기존에 받은 신용대출 정보를 조회해 유리한 조건으로 한 번에 갈아탈 수 있는 '온라인·원스톱 대환대출 인프라'를 개시한다고 30일 밝혔다.    circlemin@yna.co.kr    페이스북 tuney.kr/LeYN1 트위터 @yonhap_graphics    대환대출 서비스는 은행 영업시간인 영업일 오전 9시부터 오후 4시까지 이용할 수 있으며 이용 횟수의 제한은 없다.    플랫폼이나 금융회사 앱에서 대출 조건을 반복 조회해도 신용점수에 영향이 없기 때문에 최대한 꼼꼼하게 따져본 뒤 유리한 조건의 상품을 선택하면 된다.    금융당국은 은행권 등과 협의를 통해 대출금 규모가 큰 주택담보대출(주담대)을 대상으로 하는 대환대출 인프라도 연내 구축할 예정이다.    sj9974@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>토스증권, 전 직군 공개채용</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005491384?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>6월 11일까지 3주간 진행[이데일리 원다연 기자] 토스증권이 출범 후 첫 단독 공개채용에 나선다. 토스증권은 22일 이날부터 다음달 11일까지 3주간 공개채용을 진행한다고 밝혔다. 채용은 개발, 디자인, 컴플라이언스, 전략기획, 홍보, 재무 등 전 직군을 대상으로 하며, 채용 예정 인원은 50명 수준이다. 이번 공개채용에서 지원 자격으로 요구하는 최소 인정경력은 따로 없으며, 각 직무에 맞는 경험과 역량이 있다면 지원할 수 있다. 입사 지원은 토스증권 채용 홈페이지를 통해 할 수 있다. 토스증권은 회사 비전과 일하는 방식 등 지원자에게 도움이 될 수 있는 영상 콘텐츠를 제작해 유튜브와 채용 홈페이지를 통해 공개할 예정이다. 토스증권 관계자는 “지난 2년간 토스증권은 모바일에 최적화된 서비스로 고객의 지지를 얻으며 외적 성장과 함께 내실도 다져가고 있다”며 “이번 대규모 공채는 한단계 더 높은 곳을 향하기 위한 첫번째 준비로 토스증권과 혁신을 함께 할 많은 지원자의 참여를 기다린다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>“대출이자 0.1%라도 낮출수만 있다면”… 금융플랫폼‧은행 , ‘대환대출’ 유치전 본격 점화</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002149578?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>&lt;사진&gt;토스[디지털데일리 박기록기자] 연간 10조원 규모로 추산되는 ‘대환대출’ 시장을 잡기위한 금융플랫폼업계와 은행권의 각축이 본격적으로 막이 올랐다.은행 영업점을 방문하지않고도 이제는 간단히 스마트폰 앱을 이용해 기존 대출보다 유리한 조건으로 타 금융회사의 신용대출로 갈아탈 수 있는 ‘온라인 대환대출 플랫폼’이 31일부터 본격 가동에 들어감에 따라 치열한 고객 유치전이 막오른 것이다.특히 대환대출을 위한 금리비교 조회를 한다해도 신용평가 점수에는 영향을 미치지 않기 때문에 조금이라도 대출금리를 낮춰보려는 금융소비자들의 클릭도 불이날 것으로 보인다. ‘대환대출서비스’는 금융플랫폼 앱 또는 은행 앱 등을 통해 손쉽게 이용 가능하다.31일 금융위원회에 따르면, 이날부터 ‘온라인·원스톱 대환대출 인프라’를 통해 국내 53개 금융회사의 대출 상품과 조건을 비교해 대출전환이 가능하다.다만 개별 금융회사 신규 유치할 수 있는 대환대출서비스 규모는 신규 신용대출 취급액의 10% 또는 4000억원 중 적은 금액이기 때문에 특정 금융회사로의 쏠림 현상은 제한적일 것으로 예상된다.앞서 김소영 금융위원회 부위원장은 전날(30일) 금융감독원과 함께 대환대출 인프라의 주요한 축인 대출이동 시스템이 운영되고 있는 금융결제원 분당센터 통합 관제실에 방문해 직원들을 격려하고, 시스템의 정상 가동 여부를 점검했다.이날 부산은행은 자사의 모바일뱅킹 앱에서 간편하게 대환 신청이 가능한 대환대출 서비스 ‘대출이동GO!’를 출시했다고 밝혔다. 즉, “모바일뱅킹을 통해 타금융기관 개인 신용대출을 부산은행 통합 대출상품인 ‘ONE신용대출’로 대환이 가능하다”는 설명이다.부산은행은 고령자 등 모바일뱅킹에서 진행이 어려운 경우에도 가까운 부산은행 영업점을 방문해 대환대출 심사를 받을 수 있도록 했다.부산은행측은 “과거 타금융기관 대출 대환을 위해 영업점 방문 시 보유대출의 잔액, 이자, 중도상환수수료 등을 고객이 직접 확인해야 했던 번거로운 과정을 생략하고, 고객동의를 통해 부산은행 직원이 직접 확인 후 대출심사 및 상환을 진행한다”고 설명했다.아울러 부산은행은 ‘대출이동GO!’ 서비스 출시에 맞춰 더 많은 고객이 대출상품을 비교할 수 있도록 카카오페이의 대환대출비교플랫폼과 연계를 실시하고 토스, 네이버페이 등으로 플랫폼 제휴사를 확대할 예정이라고 밝혔다.결제서비스 전문기업 카카오페이도 이날 자사의 플랫폼을 활용한 ‘대출 갈아타기’ 서비스를 개시했다고 밝혔다. 카카오페이는 대환대출 서비스 플랫폼을 제공하기 위해 5대 시중은행을 포함한 1금융권 10개사 등 모두 24개 금융사와 제휴를 맺었다.&lt;이미지&gt;카카오페이관련하여 카카오페이는 1금융권 8개사 (KB국민은행, NH농협은행, 신한은행, 우리은행, 하나은행, SC제일은행, 광주은행, 부산은행)와 2금융권 8개사 (JT저축은행, JT친애저축은행, 모아저축은행, HB저축은행, 예가람저축은행, 고려저축은행, 신한카드, JB우리캐피탈) 등 총 16개 금융사와 제휴를 시작했다.추가적으로 ▲1금융권 2개사 (IBK기업은행, 경남은행)와 ▲2금융권 6개사 (SBI저축은행, KB저축은행, 국민카드, 신한저축은행, 우리금융캐피탈, 한국투자저축은행)도 6월초부터 순차적으로 입점을 준비 중이다.카카오페이 ‘대출 갈아타기’ 서비스를 이용하면 자신이 보유하고 있는 대출 상품과 카카오페이에 입점한 제휴사의 대출 상품을 한눈에 비교할 수 있다. 카카오페이 ‘대출 갈아타기’ 서비스는 카카오톡이나 카카오페이앱의 ‘대출’ 영역에서 ‘대출 갈아타기’를 통해 가능하다.아울러 카카오페이는 이용자들이 좀 더 유리한 대출로 갈아탈 수 있도록 마이데이터 기반 '신용점수 올리기' 함께 제공한다고 밝혔다.카카오페이 '신용점수 올리기'는 신용평가에 반영되지 못한 개인의 자산・공공 정보를 손쉽게 제출하여 신용점수가 오를 수 있도록 돕는다.마이데이터로 연결된 자산 정보와 공공 정보를 곧바로 신용평가사에 제출해 개인이 본인의 정보를 직접 신용평가사에 제출해 신용점수를 올려야 했던 기존 서비스의 번거로움을 줄였다는 설명이다.사용자들은 ‘신용점수 올리기’로 자신의 은행 계좌 정보, 보험 및 통신비 납부내역, 투자내역 등을 간편하게 금융기관에 제출하고 카카오톡 알림톡으로 변동 결과를 확인할 수 있다.한편 토스도 이날 17개 제휴 금융사와 함께 ‘대출 갈아타기’ 서비스 출시한다고 밝혔다. 토스는 농협은행과 하나은행을 비롯한 1금융권 6개사, 신한카드, KB캐피탈 등 2금융권 11개사이다. 6월 초까지 약 22개 금융사로 제휴처를 늘릴 계획이다.토스는 각 업권별로로 금융사가 고르게 입점해 다양한 대출상품을 고객에게 안내할 수 있을 것으로 기대하고 있다. 대출을 받은 이후에도 신용점수 관리와 금리인하 알림 등 대출조회부터 상환에 이르기까지 대출 라이프사이클에 맞는 관리 서비스를 제공할 예정이라고 밝혔다.토스 관계자는 “2019년 4개 제휴 금융사로 시작한 개인신용대출 비교서비스는 현재 59개 금융사와 서비스를 제공하며 업계 1위 대출플랫폼으로 성장했다”며 “이번 ‘대출 갈아타기’에서도 토스만의 노하우를 담아, 다양한 대출상품을 가장 편리하고 안전한 방법으로 고객이 이용하실 수 있게 모든 준비를 마쳤다”고 말했다.앞서 토스 ‘대출 갈아타기’ 서비스 시작을 알려주는 사전신청에는 40만명이 넘게 몰려 높은 관심을 나타냈다. 토스는 올해 안에 제휴 금융사를 50개사까지 확대한다는 목표다. ‘대출 갈아타기’는 토스 앱 내 전체 탭, 대출 받기 메뉴에서 이용할 수 있다.한편 금융당국은주택담보대출(주담대)을 대상으로 하는 대환대출 인프라도 연내 구축함으로써 갈아타기가 가능하도록 할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>전경련, 이번엔 '토크콘서트' 개최…분위기 확 바꾼다</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011886200?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>토스 이승건·닥터나우 장지호·타일러 라쉬 참석MZ세대와 도전과 열정·혁신에 대해 소통 예정[서울=뉴시스] 이승건(왼쪽부터) 비바리퍼블리카 대표, 장지호 닥터나우 대표, 방송인 타일러 라쉬가 전경련 드림워크 토크콘서트에 멘토로 참석한다. (사진=전국경제인연합회) 2023.05.30. photo@newsis.com  *재판매 및 DB 금지[서울=뉴시스] 동효정 기자 = 전국경제인연합회가 국민 소통 두 번째 프로젝트로 토크콘서트를 개최한다. 전경련은 국민과의 소통을 강화하기 위해 한국판 버핏과의 식사 '갓생 한 끼'에 이어 드림워크 토크콘서트를 개최한다고 30일 밝혔다.드림워크 토크콘서트는 MZ세대와 시대 리더가 함께 꿈을 향한 도전과 열정, 혁신의 이야기를 나누는 시간이다. 이승건 비바리퍼블리카(토스) 대표, 장지호 닥터나우 대표, 방송인 타일러 라쉬가 멘토로 출격하며 아나운서 장성규가 MC를 맡는다.멘토 3인방은 젊은 세대에게 선한 영향력을 확산하기 위해 청년들과 미래가치에 대한 생각을 나누고 다양한 메시지를 전할 계획이다. 드림워크 토크콘서트 참석 희망자는 전경련 홈페이지에서 6월 1일부터 신청할 수 있으며, 접수는 선착순으로 마감된다.이상윤 CSR본부장은 이번 행사에 대해 "토크콘서트는 한국판 테드(TED) 형식으로 시대 리더와의 소통공감이 콘셉트"라며 "전경련이 미래를 준비하는 청년들에게 꿈과 희망의 허브가 될 수 있도록 더욱 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.05.16.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>인터넷은행 중저신용대출 비중 30% 돌파…2년반 동안 13%p↑</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013943485?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>금융당국 "인터넷은행이 시중은행 중저신용대출 취급 흡수"(서울=연합뉴스) 오지은 기자 = 인터넷은행의 중저신용자 대상 대출 비중이 계속해서 높아지고 있다. 시중은행에서 돈을 빌리기 어려운 이들의 대출 문턱을 낮춰주자는 인터넷은행 설립 취지에 부합하는 추세라는 게 금융당국의 평가다. 인터넷은행[연합뉴스TV 제공]    16일 국회 정무위원회 소속 송석준 국민의힘 의원이 금융감독원에서 제출받은 자료에 따르면 인터넷은행 3개사(케이·카카오·토스뱅크)의 중저신용대출 잔액은 2020년 6월 2조3천900억원에서 지난해 말 8조5천800억원으로 259% 급증했다.    중저신용대출은 개인신용평가회사 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%에 대한 대출이다.    이 기간 인터넷은행 3사의 전체 가계 신용대출에서 중저신용대출이 차지하는 비중은 17.4%에서 30.4%로 13%포인트(p) 상승했다.    이들 3사의 중저신용대출 연간 취급액 역시 2020년 8천212억원에서 지난해에는 8조4천882억원으로 10배 수준으로 급증했다.    이처럼 인터넷은행이 중저신용대출 공급 비중과 규모를 확대하는 동안 4개 시중은행(KB·신한·하나·우리은행)은 이를 축소한 것으로 나타났다.    4개 시중은행의 중저신용대출 비중은 2020년 6월 25.2%에서 지난해 말에는 16.9%까지 떨어졌다. 대출 잔액은 이 기간 24조8천600억원에서 16조5천500억원으로 줄었다.     4개 시중은행의 연간 중저신용대출 취급액은 2020년 8조3천666억원에서 지난해 2조8천89억원으로 급감했다.     시중은행은 기준금리 인상에 따라 건전성 관리 등을 이유로 2년 반 동안 중저신용대출 규모를 5조원 넘게 줄였지만, 인터넷은행은 10배가량 규모를 불렸다고 송 의원실은 설명했다.    금융당국 관계자는 "인터넷은행이 시중은행의 중저신용대출 취급을 흡수하며 공급 규모를 키운 것으로 보인다"고 설명했다.     앞서 금융당국은 지난 2021년부터 인터넷은행이 중저신용층에 대한 대출 공급을 확대하겠다는 출범 취지에 맞게 영업하도록 중저신용대출 비중 목표치를 공시하도록 했다.     올해 연말까지 인터넷은행의 중저신용대출 비중 목표치는 카카오뱅크 30%, 케이뱅크 32%, 토스뱅크 44%로 지난해(25%, 25%, 42%)보다 상향 조정됐다.    올해 1분기 카카오뱅크의 중저신용대출 비중은 25.7%로 집계됐으며 케이뱅크와 토스뱅크는 오는 26일 공시할 예정이다.    built@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.05.17.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>[금융라운지] 끈끈한 예금 확보하라 … 은행 '모임통장' 경쟁</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005131669?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>최근 '모임통장'이 금융권에서 화두다. 4년 넘게 시장을 장악하고 있는 카카오뱅크의 아성에 맞서 은행들의 시장 진입이 잇따른다. 예금금리 인하에 따른 '머니 무브'(시중자금이 안전자산에서 위험자산으로 이동하는 것), 실리콘밸리은행(SVB) 사태 이후 뱅크런 우려에 맞서 안정성이 높은 '끈적끈적한(sticky) 예금'을 확보하려는 차원이다.KB국민은행은 지난 11일 기존 통장을 모임통장으로 쓸 수 있도록 하는 'KB국민총무서비스'를 출시했다. 금리 연 0.1% 내외 저원가성 예금이 은행들 중 가장 많음에도 불구하고 확보에 열심이다. 앞서 지난 2월엔 토스뱅크가 연 2%대 이자율과 모임카드 혜택을 앞세우며 모임통장을 출시했다. 하나은행과 케이뱅크도 모임통장 서비스를 준비 중이다.모임통장 자체가 새로운 건 아니다. 이용이 저조해 중단된 경우도 많다. 현재는 카카오뱅크가 편리성과 투명성, 카카오톡 연동을 비롯한 강점으로 지배적인 사업자다. 그럼에도 불구하고 은행들이 시장에 눈독을 들이는 건 최근 예금 이탈 추세에 대비해 '끈적끈적한 예금'을 확보하기 위한 목적이 크다. '끈적끈적한 예금'은 금리에 대한 민감도가 낮아 다른 곳으로 쉽게 옮겨가지 않는 상품이다. 급여통장, 모임통장이 대표적이다. 특히 기업 영업이 필요한 급여통장과 달리 모임통장은 상품 경쟁력을 바탕으로 한번 유치하면 계속 이어진다는 점에서 더 각광받는다. 한 은행 관계자는 "모임통장은 매월 현금이 꾸준히 들어오고, 여러 사람이 같이 쓰기 때문에 은행을 바꾸는 일이 거의 없다는 점에서 효자상품"이라고 했다.다만 모임통장이 끈적끈적한 예금인 만큼 기존 강자인 카카오뱅크 점유율을 어떻게 뺏어올지가 은행들의 고민거리다. 토스뱅크는 체크카드를 여러 장 발급할 수 있다는 점을, KB국민은행은 통장을 신규 개설하지 않아 편리하다는 점을 내세운다. [서정원 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.05.19.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>“고객 절반이 3%대 금리”… ‘저금리 주담대’ 내세운 인뱅</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003814214?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>은행보다 평균 금리 1%P 저렴상대적 낮은 금리에 소비자 호응카뱅, 1분기만 1조4000억 늘어케뱅, 아담대 금리 최대 0.2%P↓중저신용대출 비중 30% 넘어서주담대 공격적 확대로 리스크 회피   인터넷전문은행이 공격적인 주택담보대출(주담대) 확장에 나섰다. 하단 3%대 금리로 대출이 가능해, 시중은행 대비 낮은 금리로 소비자의 호응을 얻고 있다. 규모가 크게 늘어나는 등 인터넷은행의 주담대가 시장에 안착하자 각 사는 추가 금리 인하 등으로 영업을 강화하고 있다.  18일 은행연합회에 따르면 인터넷은행 케이뱅크와 카카오뱅크의 분할상환방식 주담대 평균 금리는 3월 기준 각각 4.04%, 4.09%로 5대 시중은행(KB국민·신한·하나·우리·NH농협) 대비 최대 1%포인트 이상 저렴한 것으로 나타났다.  인터넷은행은 시중은행 대비 저렴한 금리를 강점으로 내세우고 있다. 카카오뱅크와 케이뱅크 주담대 고객 중 3%대 금리로 상품을 이용하는 고객은 각각 전체의 55.9%, 45.1%였다. 4.5% 미만까지 합치면 전체의 90% 가까운 고객이 4% 초반대에서 주담대를 이용하는 셈이다. 3%대 금리 비중이 극히 미미한 시중은행과는 큰 차이를 보인다. 인건비·임대료 등 고정비용이 적은 인터넷은행 특성상 상대적으로 낮은 금리 제공이 가능하다는 설명이다.  600조원이 넘는 5대 시중은행과 비교하면 아직 적은 규모지만 인터넷은행의 주담대는 성장 돌풍을 이어가고 있다. 카카오뱅크 주택담보대출은 출시 1년 만에 잔액 2조4000억원을 달성했다. 신규 취급액도 올해 1분기 1조4370억원으로 지난해 4분기 7940억원에 비해 80% 급증했다.    인터넷은행의 주담대가 시장에서 호응을 보이자 각 사는 공격적인 영업 확대에 나서고 있다. 케이뱅크는 이날 아파트담보대출(아담대)과 전세대출 상품의 금리를 최대 0.20%포인트 인하했다. 아담대 고정혼합상품 금리는 최대 0.20%포인트 내려 연 3.69~4.73%로 인하했고, 변동상품 금리는 최대 0.14%포인트 인하해 3.95~5.72%를 형성했다. 3월에는 인터넷은행 최초로 고정금리 전세자금대출을 출시했다. 카카오뱅크도 지난달 주담대 취급 대상을 기존 아파트에서 연립·다세대주택까지 확장했다. 최저 연 3.57%에 이용 가능한 1조원 규모 주담대 특판도 진행 중이다. 토스뱅크는 상반기 중으로 전세자금대출 상품을 출시한다는 계획이다.  인터넷은행이 주담대 확대에 나선 이유를 놓고 대출 안정성을 높이기 위해서라는 분석이 나온다. 당국은 인터넷은행 설립 취지 중 하나로 중저신용자(신용평점 하위 50%) 대상 대출 확대를 들고 있고, 인터넷은행들도 중저신용자 대출을 확대하고 있다. 국회 정무위원회 소속 국민의힘 송석준 의원이 금융감독원으로부터 제출받은 자료에 따르면, 인터넷은행 3사(카카오뱅크, 케이뱅크, 토스뱅크)의 중저신용대출 잔액은 지난해 말 8조5800억원으로 2020년 6월 2조3900억원에서 259% 급증했다. 전체 가계 신용대출에서 중저신용대출이 차지하는 비중도 이 기간 17.4%에서 30.4%로 13%포인트 상승했다.  중저신용자 대출 확대는 필연적으로 연체율 리스크(위험) 상승으로 이어진다. 인터넷은행 3사의 지난해 말 연체율은 지난해 대비 0.27∼0.72%포인트 뛰었다. 시중은행의 상승폭이 0.03∼0.04%포인트 수준이었던 것에 비하면 증가세가 가파르다. 연체율 우려가 높아지는 상황에서 비교적 안정성이 높은 대출상품인 주담대를 확대해 리스크 회피 효과를 가져오려는 전략인 것이다.  윤호영 카카오뱅크 대표는 지난달 “신용대출의 경우 연체율 증가가 영업이익, 대손충당금에 반영되겠지만 담보대출은 상대적으로 연체율에 안정적”이라고 설명한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>5대 시중은행 예대금리차 소폭 감소</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005262633?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>4월 1.152%포인트…전달比 0.01%p↓우리·하나·농협·국민·신한 순지난달 KB국민·신한·우리·하나·NH농협 등 5대 시중은행의 가계 예대금리차가 전달보다 소폭 줄어든 것으로 나타났다. 서민금융을 제외한 가계 예대금리차가 가장 큰 곳은 우리은행이었다.22일 은행연합회 공시에 따르면 KB국민·신한·우리·하나·NH농협은행의 4월 평균 가계 예대금리차(정책서민금융 제외)는 1.152%포인트로 집계됐다. 이는 전월(1.162%포인트) 대비 0.01%포인트 줄어든 수치다. 가계 예대금리차는 가계대출금리에서 저축성수신금리를 뺀 값으로 클수록 대출·예금 금리 격차에 따른 마진(이익)이 많다는 뜻이다.이는 가계대출금리 하락폭이 예금금리 하락폭보다 컸기 때문이다. 이들 은행의 가계대출금리는 3월 4.692%포인트에서 지난달 4.56%로 0.132%포인트 떨어졌고 예금금리는 같은 기간 3.53%에서 3.408%로 0.122% 떨어졌다.우리은행의 가계 예대금리차가 1.22%포인트로 가장 컸고 하나은행 1.20%포인트, 농협은행 1.18%포인트, 국민은행 1.13%포인트, 신한은행 1.02%포인트 순이었다.정책서민금융을 포함한 가계 예대금리차는 하나은행이 1.24%포인트로 가장 컸다. 우리은행 1.23%포인트, 농협은행 1.20%포인트, KB국민은행 1.14%포인트, 신한은행 1.13%포인트 순이었다.인터넷전문은행 중 정책서민금융 제외 가계 예대금리차가 가장 큰 곳은 토스뱅크로 4.28%포인트로 나타났다. 케이뱅크 1.54%포인트, 카카오뱅크 1.12%포인트가 뒤를 이었다.지방은행을 포함한 19개 전체 은행 중에선 전북은행이 4.94%포인트로 가장 컸다. 가장 작은 곳은 IBK기업은행(0.91%포인트)이었다.[이미지출처=연합뉴스]</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.05.26.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>인뱅, 1Q 중금리 대출 성적표 나왔다…치솟는 연체율에 '주춤'</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000337470?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[앵커]중·저신용자 대출 활성화라는 인터넷전문은행들의 설립 취지가 무색해지고 있습니다.지난해 중금리대출 목표치를 턱걸이로 넘기더니 올해 1분기 실적은 지난해 말보다도 대폭 줄었습니다.어찌 된 영문인지 취재기자 연결합니다.오서영 기자, 중·저신용자 대출의 1분기 성적표가 나왔죠?[기자]인터넷은행 3사의 지난 1분기 중·저신용자 대출 취급 실적이 발표됐는데요.은행연합회 공시에 따르면 케이뱅크 23.9%, 카카오뱅크 25.7%, 토스뱅크 42.06%입니다.이들의 올해 연말까지 목표치는 각각 32%, 30%, 44%인데요. 아직 모두 목표치 미달입니다.앞서 케이뱅크와 카카오뱅크는 지난해 목표치인 25%를 겨우 넘겼는데요.케이뱅크는 이때 당시 취급 규모보다 1.2%p나 줄었습니다.카카오뱅크도 지난해 말보다 0.3%p 느는 데 그쳤습니다.지난해 유일하게 목표치를 못 맞췄던 토스뱅크는 이번 1분기 상승 폭은 가장 컸습니다.[앵커]인터넷은행들이 이 대출을 막 늘릴 수만은 없는 상황이죠?[기자]그렇습니다.중금리 대출의 경우 건전성 관리가 까다롭기 때문인데요.인터넷은행들이 대출 취급에 주춤한 모습인데, 연간 목표치 달성을 하지 못하면 신사업 인허가 등에서 불이익을 받게 됩니다.하지만 중·저신용자를 늘릴수록 신용 리스크는 높아질 수밖에 없는데요.지난 1분기 역대 최대 실적을 기록한 카카오뱅크도 1분기 연체율이 0.58%로 지난해 1분기 0.26%보다 두 배 넘게 높아졌습니다.케이뱅크 역시 지난 1분기 연체율 0.82%로 1년 전보다 급증했습니다.인터넷은행들은 자체 개발한 신용평가모형을 고도화해 리스크를 관리하고, 우량한 중·저신용자 고객을 선별해 대출을 확대하겠다는 방침입니다.SBS Biz 오서영입니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>10조원 ‘금리 경쟁’ 막 오른다…온라인 대환대출 오늘 개시</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/144/0000890546?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>총 10조원 규모에 달할 것으로 예상되는 온라인 대환대출 시장이 열렸다.스마트폰 앱을 통해 기존에 받은 신용대출을 더 유리한 조건으로 갈아탈 수 있는 대환대출 플랫폼이 전 금융권에서 동시에 서비스가 시작된 것. 이에따라 기존 신용대출 소비자들은 ‘온라인·원스톱 대환대출 인프라’를 통해 이 날 부터 53개 금융회사의 대출 상품과 조건을 비교할 수 있게 됐다.앞서 금융위원회는 31일부터 금융소비자가 스마트폰 앱을 통해 은행, 저축은행, 카드·캐피탈사에서 기존에 받은 신용대출 정보를 조회해 유리한 조건으로 한 번에 갈아탈 수 있는 ‘온라인·원스톱 대환대출 인프라’를 개시한다고 지난 30일 밝혔다.김소영 금융위원회 부위원장이 30일 오전 서울 종로구 정부서울청사에서 온라인 원스톱 전환 대출 인프라 개시와 관련해 발표하고 있다. 연합뉴스업계는 이번 온라인·원스톱 대환대출 인프라를 통해 이뤄질 대환대출의 규모가 연간 10조∼11조원 규모가 될 것으로 추산하고 있다.금융위가 대환대출 서비스로 개별 금융회사가 신규 유치할 수 있는 신용대출 규모를 전년도 신규 신용대출 취급액의 10% 또는 4천억원 중 적은 금액으로 설정했기 때문. 지난 해 전 금융권 신규 취급액 기준 신용대출은 110조원 규모다.대출 갈아타기는 네이버페이와 카카오페이, 뱅크샐러드, 토스, 핀다 등 대출 비교 플랫폼 앱과 주NH농협은행, 신한은행, 우리은행. KB국민은행, 하나은행 등 요 금융회사 앱을 통해 이용할 수 있다. 다만 금융회사 앱과는 달리 대출 비교 플랫폼의 경우 기존에 받은 대출 금리 및 갈아탈 수 있는 여러 금융회사의 대출 상품을 한꺼번에 조회할 수 있는 장점이 있다. 각 금융회사 앱의 경우 해당 은해의 대출상품으로만 갈아탈 수 있다.유리한 조건의 대출 상품이 있다면 해당 금융회사 앱으로 이동해 새로운 대출을 실행하면 되며, 기존 대출금은 금융결제원 망을 통해 자동 상환된다.다만 여러 개의 대출을 하나로 묶어서 갈아타는 건 안된다. 시스템상 대출 한건은 신규 대출 한 건으로 갈아탈 수 있기 때문이다.금융위는 “과거 소비자가 대출을 갈아타려면 금융회사 영업점 두 곳을 방문하며 최소 2영업일을 기다려야 했다”며 “인프라 가동으로 편의성이 크게 개선될 것”이라고 설명했다.대환대출 서비스는 은행 영업시간인 영업일 오전 9시부터 오후 4시까지 이용할 수 있으며 이용 횟수의 제한은 없다. 또한 대출 조건을 반복 조회해도 신용점수에 영향이 없기 때문에 최대한 꼼꼼하게 따져본 뒤 유리한 조건의 상품을 선택하면 된다.금융당국은 이번 ‘온라인·원스톱 대환대출 인프라’에 이어 대출금 규모가 큰 주택담보대출(주담대)을 대상으로 하는 대환대출 인프라 역시 은행권 등과 협의를 통해 연내 구축할 예정이다.이충진 기자 hot@kyunghyang.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>[POWER COMPANY] `지금 이자받기`·`굴비 적금`… 은행 패러다임 바꾼 유쾌한 반란</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002803820?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>출범 1년 반만에 고객 660만명 돌파원할때 이자 받는 통장 첫 출시 화제높은 금리에 재미 더한 적금도 인기중저신용자 위한 맞춤 신용평가까지기존 은행 서비스 틀 깨며 고속성장인터넷은행 막내서 혁신 선두주자로홍민택 토스뱅크 대표. 토스뱅크 제공    혁신과 포용을 내세우는 토스뱅크가 100년된 은행의 경험을 바꾸며 그동안 없었던 은행을 만들어가고 있다.인터넷전문은행 막내인 토스뱅크는 지난 2021년 6월 본인가, 같은 해 10월 출범했다. 출범 이후 사용자 관점에서 설계한 혁신적인 뱅킹 서비스를 제공하며, 은행의 문턱을 넘기 어려웠던 중저신용자들에게 제1금융권의 혜택을 제공하고 있다.토스뱅크 제공    이뿐만 아니라 하루를 맡겨도 이자를 받는 수시입출금 통장인 '토스뱅크통장', 즉시 캐시백 혜택을 제공하는 '토스뱅크 체크카드', 클릭 한 번으로 대출한도와 금리를 조회할 수 있는 '토스뱅크대출'을 선보이며, 한 번만 써보면 이전 은행 서비스로 돌아갈 수 없는 편의성과 혁신을 속속 선보이며 인기를 끌고 있다. 인터넷전문은행 최초로 선보인 개인사업자 대출인 '토스뱅크 사장님 대출'을 비롯해 '먼저 이자 받는 예금' '굴비적금' '키워봐요 적금' 등 여수신 포트폴리오 강화도 지속하며 성장을 거듭하고 있다.◇출범 1년 반만에 660만명 고객 모여들어토스뱅크의 올해 1분기 기준 고객 수는 607만명으로 지난해 1분기 대비(331만명) 2배 가까이 성장했다. 토스뱅크 모임통장, 먼저 이자 받는 정기예금, 굴비적금 등 신상품 호조세에 힘입어 5월말 현재 기준 고객 수는 약 660만명으로 가파른 고객 성장세를 이어가고 있다.  아울러 2023년 1분기 기준 여신잔액은 9조3000억원으로 10조원대 돌파를 눈앞에 두고 있다. 수신잔액은 22조원으로 20조원대를 안정적으로 유지 중이다. 예대율은 44.53%로, 전년 동기 14.64%에서 1년 만에 3배 이상 증가했다. 분기 순이자이익도 대폭 늘었다. 올해 1분기 순이자이익은 1120억원으로, 한 분기만에 지난해 연간 순이자이익(2174억원)의 절반 이상을 달성했다. 명목순이자마진(NIM)은 지난해 1분기 -0.21%에서 올해 1분기 1.76%으로 2%포인트(p) 가까이 증가했다.충당금적립전이익은 492억원 흑자로 전년 동기(-401억원) 대비 893억원 증가했으며, 비이자수익은 125억원으로 전년 동기(24억원) 대비 5배로 늘어나며 출범 이래 최고치를 달성했다. 이는 금융권에서 가장 경쟁력 있는 금융상품을 소개하는 '목돈 굴리기' 서비스와 즉시 캐시백을 제공하는 '토스뱅크 체크카드'의 흥행 때문인 것으로 분석된다. 이에 수익성 개선도 가파르다. 올해 1분기 당기순손실은 280억원으로 지난해 분기 평균 손실(-661억원) 대비 절반 이상으로 축소됐다. 출범 이래 분기 손실 최저치를 기록하기도 했다. 토스뱅크 제공    토스뱅크 제공    토스뱅크 제공    ◇'지금 이자 받기' 등 혁신적인 수신상품 인기토스뱅크 인기는 고객들이 자주 사용하는 수신 상품의 혁신에서 시작된다. 매일 사용하는 '토스뱅크 통장'에 고객이 원할 때 마다 이자를 지급하는 '지금 이자 받기' 서비스가 주역이다. '지금 이자 받기'는 지난해 3월 토스뱅크가 국내 금융사 최초로 선보인 서비스다. 수시입출금 통장인 '토스뱅크 통장'을 보유한 고객은 매일 한 번씩, 자신이 원할 때 즉시 이자를 받을 수 있다. 매일 남은 잔액을 기준으로 이자가 쌓이는 '일 복리' 구조가 적용됨에 따라 고객들은 돈을 많이 보관할수록 또 이자를 매일 받을수록 유리하다.지난 1년2개월 동안 고객들은 총 1억8000만회에 걸쳐 이 서비스를 이용했다. 1년 365일 내내 '지금 이자 받기'를 이용하는 매니아층 고객도 형성됐다.지난 3월 토스뱅크는 '먼저 이자 받는 정기예금'을 선보였다. 인터넷전문은행 최초로 가입과 동시에 이자를 먼저 제공한다. 금리는 연 3.5%(세전, 만기일에 세금 차감)로, 가입한도는 최소 100만원에서 최대 10억원까지다. 가입 기간도 3개월 또는 6개월로 짧게 유지해 고객 편의에 따라 운용할 수 있다. 먼저 이자 받는 정기예금은 고객들의 흥행으로 출시 약 33일만에 판매액 1조원을 돌파했으며, 5월 말 현재 2조원을 돌파했다. 토스뱅크가 선보인 먼저 이자 받는 정기예금은 입소문을 타 인기를 끌며 일부 은행들에서도 선이자 지급 예금을 내놓고 있다. 만기만 채우면 우대금리를 주는 '키워봐요 적금'과 '굴비 적금'도 인기다. '키워봐요 적금'은 가입 시 지급된 동물의 알이 이튿날 부화되면서 6개월 동안 열 단계에 거처 자란다. 동물은 유령·거북이·문어·망아지 네 종으로 랜덤 지급되며, 매주 적금 자동이체를 달성하면 최종 만기 시 전설의 동물로 진화하며 연 4.5% 금리 혜택을 제공한다. 토스뱅크 제공    '굴비 적금'은 고객들이 저금을 하는 과정에서 느낄 수 있는 재미요소에 주목해 고객들의 높은 호응을 이끌어내고 있다. '굴비 적금'은 고객이 매번 입금할 때마다 천장 위에 매달려 있는 굴비가 밥상으로 조금씩 내려오는, 이른바 '이색 적금'이다. 고객이 5번 이상 저축하면 굴비가 밥상에 도달해 고객들이 원하는 반찬을 하나씩 추가할 수 있다. '굴비 적금' 금리는 최고 연 5.0%(세전)로, 기본금리 연 2.0%에 최대 연 3.0%p의 우대금리가 적용된다. 별다른 조건 없이 6개월 만기까지 유지할 경우 자동으로 우대금리가 적용되는 구조다. 이처럼 높은 금리 혜택과 함께, 재미 요소를 더한 '굴비 적금'은 MZ세대는 물론 전 연령대에서 호응을 얻고 있다. 가입 연령대를 분석한 결과 40대(26.0%)가 가장 많았고, 20대(24.5%), 30대(23.2%), 50대 이상 (20.6%), 10대(17세 이상, 5.7%) 순이었다.토스뱅크 제공    토스뱅크 제공    ◇자체 신용평가모형 통해 중조신용자 포용토스뱅크는 자체 신용평가 모형인 TSS(Toss Scoring System)에 기반해 국내 제1금융권 중 제일 많은 중저신용자를 포용하고자 노력하고 있다. 기존 금융권에서는 건강보험료 납부내역과 소득수준만을 고려했다면 토스뱅크는 이들의 대출상환능력을 정교하게 평가하기 위한 기반을 마련해 시장에서 신용도를 제대로 평가받지 못했던 중저신용자의 가능성을 확인하고 있다. 토스뱅크의 포용은 변화하는 시장환경 속에 발맞춰 진화한다. 급격한 금리 상승과 인플레이션 등 시장의 악조건에 내몰린 고객들에게 실질적인 도움이 될 수 있는 방안을 마련해 국내 은행 최초로 대출 고객들의 상환 부담을 덜어주는 '매달 내는 돈 낮추기' 서비스를 지난해 10월 선보였다. 원리금균등상환 대출을 이용 중인 고객은 누구나 상환 기간을 최장 10년 이내에서 자신이 원하는 만큼 연장함으로써, 매월 부담하는 원리금을 줄일 수 있다. 토스뱅크는 은행 최초로 고객들에게 금리인하 기회를 먼저 안내하는 서비스도 도입했다. 지난해 토스뱅크의 전체 금리인하요구 건수는 총 18만9000건에 달했으며, 고객 수 기준 총 8만6000명이 금리인하 요구권을 행사해 3명 중 1명(32.1%)에게 금리 인하 혜택이 제공됐다. 또한 금리인하가 승인된 고객들은 최대 7.3%p 금리가 낮아지는 효과를 누릴 수 있었다.이밖에도 토스뱅크는 은행 최초 도입한 안심보상제도와 중도상환수수료 무료 정책, 인터넷전문은행 최초로 신용보증기금과 손잡고 선보인 '사장님 대환대출' 등을 제공하며 고객의 '금융주권'을 되찾아주기 위한 노력을 이어가고 있다. 토스뱅크 제공    ◇별도 앱 필요 없이 '토스'에서 바로 이용 가능토스뱅크는 이용을 위한 별도 앱 다운로드가 필요 없이 토스 앱에서 토스뱅크에 가입하고 서비스를 이용할 수 있는 '원앱' 전략을 채택하고 있다. 토스뱅크를 토스 앱에서 바로 이용할 수 있게 함으로써 토스 앱 하나로 '금융에 필요한 모든 것을 토스에서 해결'할 수 있는 목표를 실현해 나간다.원앱은 별도 앱 개발에 필요한 비용, 오프라인 지점 및 창구 운영비용 등이 절감되는 저비용 구조다. 상품과 서비스의 가격 경쟁력 확보가 가능해 절감된 운영비용을 고객에게 혜택으로 돌려줄 수 있다. 토스는 대한민국 국민 3명 중 1명이 이용하는 대표적 모바일 '금융 슈퍼앱'이다. 토스는 2013년 법인 설립 후 약 2500만명 이상의 금융 소비자의 트래픽을 경험하고, 보안과 안정성을 유지해 온 노하우가 축적돼 있다. 토스뱅크는 원앱 전략 아래서도 앱 성능을 떨어뜨리지 않고 보안과 장애에 안정적으로 대응할 수 있도록 데이터 센터는 물리적으로 분리해 운영한다. 토스뱅크는 원앱 전략을 통해 사용자의 접근성과 편의성을 높이고, 다른 금융 앱과 차별화되는 통합적이고 완결성 높은 금융서비스 제공을 이어갈 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.05.23.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>'온라인 대출 전쟁' 긴장하는 금융권…"플랫폼만 이득" vs "금리경쟁"</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004890845?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>[MT리포트]대출 전쟁 열린다②[편집자주] 오는 31일부터 온라인에서 클릭 몇 번으로 더 싼 대출로 갈아탈 수 있는 대환대출 서비스가 세계 최초로 시작된다. 고금리 시대, 더 낮은 이자를 찾아 이동하는 '대출 노마드'가 늘어날 것으로 예상된다. 이들을 정착시키려는 은행을 비롯한 금융회사간 금리 경쟁도 기대된다.오는 31일 '대환대출 플랫폼' 출범을 앞두고 금융회사의 긴장감이 높아지고 있다. 대출금리를 두고 금융사끼리 출혈 경쟁을 벌이다 수익성이 악화할 수 있어서다. 앞으로 금융사가 빅테크에 종속될 수 있다는 지적도 나온다. 반면 대형 은행 사이에서는 금리 차이가 크지 않아 플랫폼 효과가 크지 않을 것이란 예상도 나온다. 23일 금융권에 따르면 5대 은행(국민·하나·신한·우리·농협은행)의 신용대출 금리구간은 연 4.69~6.29%이고, 은행별 금리 구간의 중간값은 5.24~5.585%다.5대 은행은 금리가 비슷한 수준이어서 대환대출 플랫폼이 시작되더라도 이동이 크지 않을 것으로 보고 있다. 특히 신용대출 실행 3년 이내에는 대출을 갚으면 0.7% 안팎의 중도상환수수료가 부과된다. 금리차이가 크지 않기 때문에 대환대출을 통한 금리 인하 효과보다 중도상환수수료가 더 큰 '배보다 배꼽이 큰' 결과가 초래될 수 있다. 결국 플랫폼사만 이득을 보고 금융소비자는 좋을 게 없다는 지적도 나온다. 금융사는 소비자들이 대환하면 중개수수료 명목으로 플랫폼에 수수료를 지급한다. 수수료가 결국 소비자들에게 전가될 수 있다. 처음 대환대출 플랫폼 도입을 논의했을 때부터 나온 얘기다. 대형은행 관계자는 "판매자도 손해보고 소비자도 손해보고 결국 중간에 수수료 챙기는 플랫폼만 이득을 볼 수 있다"고 말했다. 대형 플랫폼 종속도 금융회사가 걱정하는 부분 중 하나다. 토스(비바리퍼블리카)·카카오페이·네이버파이낸셜 등 빅테크가 대환대출플랫폼 시장을 사실상 장악할 수 있어서다. 실제 대부분의 시중은행은 중소형 규모의 핀테크와는 입점 논의를 하지 않는 것으로 알려졌다. 한 핀테크 관계자는 "중소형 핀테크 중 금융사를 한 군데도 입점시키지 못해 대환대출플랫폼을 포기할 수밖에 없는 상황에 처한 곳도 있다"며 "비교적 다양한 핀테크가 플레이어로 뛰는 대출비교서비스 시장과 달리 대환대출플랫폼 시장에선 빅테크 쏠림 현상이 더 심해질 것으로 보인다"고 말했다. 일부 대형 은행은 자신들이 쌓아온 '데이터'가 '빅테크'에 넘어갈 수 있다는 우려도 크다. 이에 신한은행은 자체 플랫폼을 오픈할 준비를 하고 있고, 국민은행은 플랫폼사 가운데 카카오페이와만 제휴를 맺었다. 또 다른 대형은행 관계자는 "국내에서 리테일 규모가 가장 큰 국민은행이 카카오페이만 제휴를 맺은 것은 의미가 있다"며 "자신들의 데이터를 조건 없이 타 플랫폼에 넘기는 게 받아들이기 어려울 것"이라고 설명했다. 저축은행 등 2금융권은 수익성 우려와 함께 고객 이탈을 우려한다. 우량 고객을 두고 업권 내 치열한 경쟁을 하다보면 수익성이 악화할 수 있다. 한 저축은행 관계자는 "저축은행은 시중은행과 달리 영업점이 많지 않아 대출의 상당 부분이 플랫폼을 통해 일어난다"며 "플랫폼 의존도가 높은 만큼 우량 고객을 빼앗기지 않기 위한 경쟁도 치열할 것으로 본다"고 말했다. 이어 "대환대출플랫폼의 등장은 금융소비자 입장에선 긍정적인 일이지만 금융사의 수익성 측면에선 좋은 일이라고 보기 어렵다"고 했다.반면 인터넷은행 업계는 이번 대환대출 플랫폼이 금융소비자의 편익을 올릴 기회가 될 수 있다고 보고 있다. 특히 인터넷은행측은 중저신용자를 중심으로 보다 많은 고객이 인터넷은행으로 유입될 것이라고 예측하고 있다. 한 인터넷은행 관계자는 "상대적으로 대출 금리가 낮은 인터넷은행에 고객들이 유입되는 효과가 있을 것으로 본다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.05.29.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>[돈을 만지는 사람들] “67개사 200여 상품 중개… 대환대출 서비스 자신”</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001611889?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>이혜민 국내 첫 대출비교 플랫폼 스타트업 ‘핀다’대표사진=최현규 기자출범 9년 차를 맞은 핀테크 스타트업 ‘핀다’는 국내 1호 대출 비교 플랫폼이다. 핀다는 빠르게 성장했다. 2019년 7월 앱 출시 이후 3년 반 동안 총 7조원의 대출을 중개했는데, 이중 4조원이 지난해 이뤄졌다. 올해는 6조원 대출 중개를 목표로 삼고 있다.‘혁신’은 개인적인 경험에서 시작됐다. 이혜민(39·사진) 대표는 대출을 받으려고 할 때 어려움을 겪었던 과거를 떠올렸다. 프리랜서로 근무하던 시절 은행에서 전세자금을 대출받으려고 했지만 번번이 거절 당했다. 이같은 경험은 비단 이 대표만의 것은 아니었다. 핀다 창업은 ‘대출 주도권을 소비자에게 줄 수 없을까’라는 고민에서 시작됐다.핀다는 현재 대출 비교 플랫폼 중 가장 많은 총 67개의 금융사와 200여개의 대출 상품을 중개한다. 카카오페이(63개), 토스·네이버페이(59개)보다 앞선다. 대환대출 서비스에서 우위를 점할 수 있을 것이라는 자신감도 여기서 나온다. 이 대표는 28일 국민일보와의 인터뷰에서 “핀다는 대환에 대한 성과가 가장 많고, 대환을 필요로 하는 고객들도 이미 가장 많이 확보하고 있다”면서 “대환은 ‘역선택’ 문제가 심각하다. 얼마나 관련 정보가 정확하고, 신뢰할 수 있는지가 관건인데 그 부분에서 핀다의 강점이 가장 잘 드러날 것”이라고 말했다.핀다는 개인 신용 대출 중심 플랫폼을 넘어 프리랜서·소상공인 등 사업자 대상으로 영역을 확장해가고 있다. 기존 금융기관은 아무래도 소상공인이나 프리랜서 등 소득이 정기적이지 않은 이들에게 보수적인 대출 기준을 적용할 수밖에 없는데, 이들을 위한 ACSS(대안신용평가) 모델을 만드는 데 심혈을 기울이고 있다.이미 핀다는 지난해 빅데이터 상권분석 스타트업 ‘오픈업’을 인수하며 한 단계 몸집을 키웠다. 또 현대기아차, 배달의 민족 등 기업과 협업해 ACSS 모델을 만드는 성과도 냈다. 이 대표는 “프리랜서 등 긱워커(초단시간 임시 노동자)가 국내에 약 1000만명으로 추산된다”며 “소득을 창출하는 방법과 삶의 형태는 많이 바뀌고 있는데 신용을 평가하는 틀은 잘 바뀌지 않는다”고 말했다.오는 31일 정부 주도의 대환대출 인프라 출범을 앞두고 핀다의 행보는 다시 주목받고 있다. 대환대출 인프라에 참여한 플랫폼업체는 토스·카카오페이·핀다·네이버파이낸셜인데, 이중 빅테크가 아닌 곳은 핀다뿐이다. 그럼에도 이 대표는 자신감을 드러낸다. 일찍이 대출 비교 서비스를 선보인 뒤 주도해왔기 때문이다. 이미 하루 평균 4000여명의 사용자가 핀다에 ‘대출 갈아타기’ 사전 신청을 하고 있다.핀다는 내년에 본격적인 해외 진출을 목표로 하고 있을 뿐 아니라, 2~3년 뒤에는 상장도 목표로 하고 있다. 이를 위한 투자 유치가 한창이다. 이 대표는 “장기적으로 핀다는 ‘1000만의 주거래 은행’이 되는 게 목표”라며 “고객들이 각 개인에 잘 맞는 상품을 안전하게 가입할 수 있는 뱅킹 서비스를 만들고 싶다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.05.24.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>클립소프트, 저축은행중앙회에 전자서식 ‘클립이폼’ 공급</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002149180?sid=105</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 전자문서·리포팅 솔루션 기업 클립소프트는 저축은행중앙회 디지털창구시스템 구축 사업에 자사 전자서식 솔루션 ‘클립이폼’을 공급했다고 24일 밝혔다.이번 저축은행 디지털창구시스템 구축은 중앙회 통합금융정보시스템(IFIS)를 사용하는 67개 저축은행 중 사업 참여를 신청한 저축은행을 대상으로 진행됐다. 영업점 내부 문서와 63개 저축은행의 표준화된 종이 서식 약 200여 종(여신 포함)의 전자서식을 10개월여에 걸쳐 디지털화했다.사업에 활용된 클립이폼은 서명이 필요한 계약서, 신청서와 같은 종이서식을 디지털화해서 PC나 스마트폰, 태블릿PC 등 디바이스를 통해 서식 입력, 자필서명 후 원본 전자문서로 보관 등 기능을 제공하는 솔루션이다.클림이폼을 통해 저축은행 디지털창구 방문 고객은 종이 서식 대신 터치스크린을 통해 전자서식을 작성하고 각종 은행 업무를 처리하는 등의 종이 없는 ‘페이퍼리스’ 환경을 경험할 수 있다.클립소프트는 통상 한 기관에서 추진하는 사업과 달리 60여개의 서로 다른 은행 서식을 표준화하고 관리하는 것이 쉬운 일이 아니라고 전했다. 여러 금융권 사업 경험을 바탕으로 서식을 분석·정의하고 룰엔진과 클립이폼 솔루션 간 연계를 통해 사업을 성공적으로 마쳤다는 설명이다.또 창구 고객의 작성 편의와 효율성을 위해 63개 저축은행별 다수의 고객이 만족할 아이디어 접목 및 기능 고도화에 주안점 뒀다고도 강조했다. 특히 창구직원이 직접 고객 모니터의 화면을 확대/축소 제어할 수 있는 뷰어 애플리케이션 프로그래밍 인터페이스(API)가 저축은행중앙회로부터 호평을 받았다.이번 사업을 통해 클립소프트는 ▲신한은행, 우리은행, 기업은행, 산업은행, 수출입은행 등 비대면 여신 사업 ▲국내 유일 인터넷전문은행(케이뱅크, 카카오뱅크, 토스뱅크) 3사 석권 ▲KB국민은행 ODS, 부산은행, 산업은행에 이은 저축은행중앙회 63개 디지털창구 사업까지 영위하며 다수 금융권 레퍼런스를 확보하게 됐다고 피력했다.김대훈 클립소프트 사업본부장은 “저축은행중앙회의 ESG 강화 및 페이퍼리스 구현에 동참할 수 있게 되어 영광이고, 이어질 저축은행 디지털 금융 혁신의 성공을 추호도 의심치 않는다”면서 “올해는 업계 최다 금융권 사업 경험을 살려 공격적으로 디지털창구 등 페이퍼리스 사업 수주에 나설 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.05.26.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>1분기 인뱅 중저신용자 신용대출 비중 '주춤'…케이뱅크는 감소</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013966902?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>카카오뱅크 25.7%·케이뱅크 23.9%·토스뱅크 42.1% (서울=연합뉴스) 오지은 기자 = 인터넷은행 3사의 중·저신용자 대상 신용대출 비중 증가세가 1분기에 다소 주춤한 것으로 나타났다.중저신용자 대상 신용대출 비중[은행연합회 캡쳐. 재판매 및 DB 금지]    26일 은행연합회 공시에 따르면 인터넷전문은행의 중·저신용자 대상 신용대출 비중(잔액 기준)은 카카오뱅크 25.7%, 케이뱅크 23.9%, 토스뱅크 42.06%로 각각 집계됐다.     이 수치는 각 인터넷은행의 전체 가계 신용대출에서 KCB 기준 신용평점 하위 50%(KCB 860점 이하)에 대한 대출이 차지하는 비중을 의미한다.     케이뱅크의 중·저신용자 신용대출 비중은 지난해 말 25.1%에서 1.2%포인트 낮아졌으며 카카오뱅크는 전분기 대비 0.3%포인트 증가에 그쳤다.    이 비중이 40%대로 가장 높은 토스뱅크는 전분기 대비 1.69%포인트 늘렸다.    금융당국은 지난 2021년 인터넷은행이 중·저신용층에 대한 대출 공급을 확대하겠다는 출범 취지에 맞게 영업하도록 매년 중·저신용자 대출 비중 목표치를 정해 공시하도록 했다.    3사가 올해 말 목표치로 제시한 비중은 카카오뱅크 30%, 케이뱅크 32%, 토스뱅크 44% 등이다.    built@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>토스뱅크, 투자소식 알림 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011872128?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이주혜 기자 = 토스뱅크가 투자에 참고할 수 있는 정보를 받아볼 수 있는 '투자소식 알림 서비스'를 출시한다고 22일 밝혔다. 토스뱅크가 지난해 8월부터 운영 중인 '목돈 굴리기'의 후속 서비스로 투자 정보에 대한 고객의 필요를 해소하고 알림으로 고객의 접근성을 높여 편리하게 투자 상품과 정보를 제공하고자 기획했다. 토스뱅크는 '투자소식'에서 국내 대형 증권사 상품 중 우수한 경쟁력을 가진 상품들을 선별해 소개하고, 자산관리 전문가들이 소개하는 유용한 투자 정보, 제휴사 새 상품 등을 모아 알린다.투자소식을 받기 원하는 고객은 토스뱅크 내 '목돈 굴리기' 화면에서 '새 소식 알림받기' 배너를 누르면 된다.토스뱅크는 이번 서비스 출시에 맞춰 총 1억원 상당의 프로모션도 진행한다. 이날부터 6월 말까지 토스뱅크 투자소식을 알림 신청하면 무작위로 현금을 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.05.29.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>애플이 쏘아올린 공?…"카드사, 간편결제 낼 수수료 연 수천억대"</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000816666?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>작년 삼성페이 이용액 기반 애플페이 요율 적용시 수수료 1천14억원 추산서울 용산구 이마트24 R한남제일점에서 한 시민이 애플페이로 상품을 결제하는 모습. 연합뉴스국내 간편결제 업체가 애플페이처럼 수수료 유료화에 나설 경우 카드사가 부담해야 할 금액이 한해 수천억원대에 이를 것이라는 예상이 나온다.29일 한국은행의 '2022년 간편결제 서비스 이용 현황'에 따르면 휴대전화 제조사를 통한 간편결제 이용 금액은 하루 평균 1천853억2천만원, 이용건수는 717만3천건으로 나타났다. 이는 2021년과 비교해 각각 34.7%, 29.4% 확대된 수치다.간편결제는 지난 2015년 3월 공인인증서 의무사용이 폐지된 이후 도입된 것으로 비밀번호와 생체정보 등의 인증수단을 통한 결제 서비스다. 지난해 기준 간편결제를 지원하는 휴대전화 제조사는 삼성페이를 가진 삼성전자와 LG페이의 LG전자 두 곳뿐이었지만, LG전자가 2021년 스마트폰 사업에서 철수한 터라 휴대전화 제조사를 통한 간편결제 이용액 대부분은 삼성페이를 통한 것으로 분석된다.올해 이용 금액이 작년과 비슷하다는 가정 아래 애플페이가 현대카드에 받는 것으로 알려진 수수료율 0.15%를 삼성페이에도 적용하면 올해 카드사가 삼성전자에 지불할 수수료는 1천14억원으로 추산된다.삼성전자는 최근 카드사에 삼성페이와 관련해 별도 수수료를 받지 않는다는 내용이 포함됐던 기존 계약을 연장하지 않겠다고 통보했다. 이 때문에 삼성페이도 애플페이처럼 카드사로부터 수수료를 유료화하는 수순 아니냐는 추측이 나온다.이에 대해 삼성전자 측은 "수수료 유료화 여부와 방식 모두 결정된 게 없다"고만 밝혔다.간편결제 업계에서는 네이버페이, 카카오페이 등 다른 대형 간편결제 서비스 제공자들도 카드사로부터 수수료를 받는 작업에 시동을 걸 수 있다는 관측이 제기된다.한국은행 간편결제 이용 현황을 보면 지난해 전자금융업자를 통한 하루 평균 간편결제 이용 금액은 3천511억5천만원이다. 이를 삼성페이와 같은 방식으로 계산하면 올해 이들 업체에 카드사가 지불할 수수료는 1천922억원에 이른다.전자금융업자 간편결제에는 카카오페이, 네이버페이, 토스, 스마일페이, SSG페이, 배민페이 등이 있다. 매일신문 | '애플페이' 한국 공식 출시, 이용 가능한 가맹점은?</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.05.28.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>중저신용자 대출액 늘린 인뱅…건전성 괜찮나</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005265321?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>전년比 카뱅 23.6%, 케뱅 67%↑ 연체율도 1년 전보다 2배 이상↑업계 “충당금 추가 적립, CSS 고도화 주력”카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷전문은행 3사가 올해 중·저신용자 대출 비중 목표치를 향해 순항하고 있다. 금융당국 주문에 공급액 자체도 1년 전보다 크게 증가했다. 하지만 고금리에 차주 상환 능력이 줄어들면서 건전성 관리는 과제로 남아 있다.28일 은행연합회 공시에 따르면 인터넷은행의 중·저신용자 대상 신용대출 비중(잔액 기준)은 카카오뱅크가 25.7%, 케이뱅크가 23.9%, 토스뱅크가 42.06%를 기록했다. 중·저신용자 대상 신용대출은 KCB 기준 신용평점 하위 50% 차주에 대한 대출을 의미한다. 이들 은행은 올해 말까지 중·저신용자 대출 비중을 각각 32%, 30%, 44%까지 달성해야 한다.인터넷전문은행 중·저신용자 대상 신용대출 비중(잔액 기준). 출처=전국은행연합회 제공대출액 자체도 큰 폭으로 늘었다. 카카오뱅크는 올해 1분기에만 중·저신용 고객에게 7708억원의 대출을 내줬는데, 이는 지난해 1분기 6235억원 대비 23.6% 증가한 수치다. 이들의 올해 1분기 말까지 대출 잔액은 3조4774억원으로 전체 여신의 25.7%를 차지했다. 케이뱅크는 올 1분기 기준 중·저신용자 대출 잔액이 2조622억원으로 전년 동기(1조2332억원) 대비 67% 증가했다. 같은 시기 토스뱅크 대출잔액은 3조1000억원 수준이었다.중·저신용자 대출 비중 확대는 금융당국 주문에 따른 것이지만 이들 은행에 대한 건전성 악화 우려는 커지고 있다. 고금리 속에 취약 차주들의 대출상환 부담이 늘어나면서다. 실제 이들 은행의 연체율은 빠르게 증가하고 있다. 카카오뱅크는 올해 1분기 연체율이 0.58%로 지난해 1분기 0.26%보다 두 배 이상 급증했다. 케이뱅크 역시 같은 기간 0.48%에서 0.82%로 올랐다. 연체기간이 3개월 이상인 부실채권을 의미하는 고정이하여신비율도 올해 1분기 기준 카카오뱅크 0.43%, 케이뱅크 0.94%로 전년 동기 대비 각각 0.18%포인트, 0.3%포인트 늘어났다.이에 업계는 연체율 증가에 따른 건전성 관리를 위해 대손충당금을 대폭 늘렸다. 토스뱅크는 올해 1분기 760억원을 추가 적립해 총 2600억원의 충당금을 확보한 상황이다. 카카오뱅크는 지난해 1분기 충당금 전입액이 350억원이었는데 올해 1분기에는 그보다 202억원 많은 552억원을 추가 적립했다. 케이뱅크는 같은 기간 충당금 전입액 규모가 207억원에서 612억원으로 세 배 이상 증가했다.신용평가모델(CSS) 고도화 등 건전한 중·저신용자 발굴도 지속한다는 입장이다. 카카오뱅크는 “‘대출이동제(대환대출 플랫폼)’ 시행에 맞춰 타행 대환대출 특화 모형을 개발·적용하고, 신용평가모형을 고도화해 보다 많은 중·저신용 고객을 포용하겠다”고 밝혔고, 토스뱅크는 “자체적으로 개발한 신용평가모형 ‘TSS(Toss Scoring System)’를 한층 고도화해나가고 대안정보 분석 및 활용을 통해 건전한 신용자를 발굴해 나갈 예정”이라고 밝혔다. 케이뱅크 관계자 역시 “CSS 고도화 등을 통해 리스크 관리에 노력할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.05.26.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>1분기 중저신용자 대출 비중, 카뱅·토뱅 늘고 케뱅 줄어</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011882614?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>카뱅 25.7%·케뱅 23.9%·토뱅 42.06%[서울=뉴시스]이주혜 기자 = 인터넷전문은행 카카오뱅크와 토스뱅크의 1분기 중저신용자 대상 신용대출 비중이 전 분기보다 늘어난 것으로 나타났다. 반면 케이뱅크는 3개월 사이 중저신용 대출 비중이 줄었다. 26일 은행연합회 공시에 따르면 인터넷전문은행의 중저신용자 대상 신용대출 비중(잔액 기준)은 카카오뱅크 25.7%, 케이뱅크 23.9%, 토스뱅크 42.06%로 집계됐다.지난해 말과 비교하면 3개월 사이 카카오뱅크는 25.4%에서 0.03%포인트, 토스뱅크는 40.37%에서 1.69%포인트 비중을 늘렸다. 같은 기간 케이뱅크는 25.1%에서 1.2%포인트 줄었다.중저신용자 대상 대출 비중이란 각 인터넷 은행의 가계 신용대출에서 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%(KCB 850점 이하) 차주에 대한 대출이 차지하는 비중이다.카카오뱅크가 올해 1분기 중저신용자에게 공급한 무보증 신용대출 규모는 7708억원으로 집계됐다. 1분기 말 기준 중저신용 대출 잔액은 3조4774억원이다. 카카오뱅크 관계자는 "고신용대출 없이 중저신용 대출만 공급했던 지난해 1분기(6235억원)와 비교해 공급 규모가 23.6% 증가했다"며 "올해도 연말 목표치인 30% 달성을 위한 노력을 지속할 계획"이라고 말했다.케이뱅크에 따르면 1분기 기준 중저신용자 대출 잔액은 2조622억원으로 전년 동기(1조2332억원) 대비 67% 증가했다. 2017년 출범 이후 올해 1분기까지 공급한 중저신용자 신용대출 규모는 4조3569억원으로 집계됐다. 케이뱅크 관계자는 "4월부터 5월 현재까지 약 두 달간 취급한 신용대출 중 중저신용 고객 비중은 약 33% 수준으로 대출 공급이 증가하고 있다"며 "카드·캐피탈 신용대출 대환상품을 3분기 내 출시해 중저신용자의 1금융권 대출 접근성을 높이고 중저신용자 대출을 확대할 예정"이라고 말했다.토스뱅크의 신용대출 중 중저신용자 대출 규모는 잔액 기준 1분기 말 총 3조1000억원에 달한다. 토스뱅크는 1분기 기준 대손충당금 760억원을 추가 적립해 총 2600억원의 충당금을 확보했다. 전체 여신잔액 대비 대손충당금 잔액 비중을 의미하는 '커버리지 비율'은 2.8%다. 토스뱅크 관계자는 "자체적으로 개발한 신용평가모형 'TSS(Toss Scoring System)'를 한층 고도화해 나가며 지속가능한 중저신용자 포용을 이어갈 방침"이라고 말했다.한편 각 인터넷은행이 올해 연말 목표치로 제시한 비중은 카카오뱅크 30%, 케이뱅크 32%, 토스뱅크 44%다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.05.21.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>또 도지는 수신경쟁? 5%대 적금·4%대 예금 내놓는 은행들</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005491080?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>올 들어 은행권 수신 잔액 감소세 지속시중은행, 5%대 적금 상품 잇따라 출시저축은행 예금금리 4%대로···'수신고 확보'(사진=연합뉴스)[이데일리 유은실 기자] 최근 기준금리 동결 영향 등으로 은행권의 예금 금리 매력도가 뚝 떨어지면서 수신잔액이 빠지자 은행들이 다시 금리를 올리고 있다. 시중은행 및 저축은행들은 연 4~5%대 고금리 상품이나 특판을 내놓으며 고객 잡기에 나섰다. 21일 한국은행에 따르면 예금은행의 4월 말 수신 잔액은 2204조9000억원으로 전월 대비 13조4000억원 줄었다. 올해 들어 은행권 수신 잔액은 지속 감소하는 모습을 보였다. 국내 5대 시중은행(KB국민·신한·하나·우리·NH농협은행)의 1분기 예적금 잔액은 858조5171억원으로 3개월 만에 3조 가까이 감소했다. 같은 기간 저축은행 역시 4조원 넘는 수신잔액이 빠졌다. 저축은행의 수식액은 지난해 12월 120조2384억원에서 올해 3월 116조431억원으로 줄어든 뒤 지난달 114조5969억원으로 쪼그라들었다.은행권은 고객들이 조금이라도 더 나은 금리를 주는 곳이나 투자처로 돈을 옮기면서 수신잔액이 준 것으로 보고 있다. 지난해 연일 상승세를 보이던 은행권 예적금 금리가 올해 1분기 2~3%까지 떨어질 동안 4%대 금리를 제공하던 상호금융의 수신 잔액은 오히려 2조 이상 증가했다. 지난달 자산운용사의 수신잔액은 전월 대비 8조6000억원 늘기도 했다.상황이 이렇게 흘러가자 은행 및 저축은행들은 떠났던 고객이나 신규 고객 모시기에 속도를 내며 예적금 금리 높이기 경쟁을 펼치고 있다. 우리은행은 지난 17일 최고 금리가 연 5.5%인 ‘우리 퍼스트 정기적금’을 출시했다. 이 상품은 직적 1년간 입출식 상품을 제외한 우리은행 예적금 상품을 보유하지 않았던 고객에게 기본금리 2.4%에 3.0%포인트(p)의 우대금리를 적용하는 상품이다. 18일엔 연 최대 0.3%포인트 우대금리를 얹어주는 ‘우리 WON 외화정기예금’ 특판 상품을 내놓았다. 이 상품 역시 우리은행 계좌 미보유 고객 및 1년간 예적금 상품 미보유 고객을 대상으로 우대금리를 제공한다.신한은행도 이달 5대 연금(국민연금·공무원연금·사학연금·군인연금·보훈연금)을 신한은행 계좌로 수령하는 고객에게 연 5.5%의 최고금리를 제공하는 적금 상품을 내놨다. 토스뱅크는 지난달 최고 연 5%의 금리를 제공하는 자유적립식 상품 ‘굴비적금’을 출시했다. 하나은행은 지난달 아동 양육을 위한 수당 수급자 및 임산부 대상으로 최고 연 8.0% 금리를 주는 적금을 새로 출시했다.저축은행들도 예금 상품 금리를 높이는 추세다. 21일 저축은행중앙회에 따르면  79개 저축은행의 평균 예금금리는 12개월 만기 상품 기준으로 연 3.95%로 집계됐다. 이는 전월 대비 0.02%포인트 높아진 수치다. 실제 OK저축은행·페퍼저축은행·상상인저축은행 등은 이달 정기 예금 상품 금리 4%대로 올렸다. 적금 금리도 5%대로 다시 올라섰다. 더케이저축은행은 이달 교수·교사 대상으로 최고 연 5.0%를 제공하는 온라인용 특판 상품을 선보였다. 은행권 관계자는 “국내 은행들이 떠나간 고객과 신규 고객을 잡기 위해 금리를 높이는 추세”라며 “특히 4~5월은 은행권 수신 잔액 확보 경쟁이 심화되는 시기이기도 하다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.05.28.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>[단독]‘대출 갈아타기’ 전쟁…초반 카카오페이·토스 2강 구도</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005495666?sid=105</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>모바일 앱서 더 싼 금리 갈아타기 31일 시작카카오페이, 시중은행 5개 포함 15~16개 입점토스, 시중은행 4개 포함 총 17~18개 입점네이버페이 시중은행 2곳 포함 15개 안팎핀다와 뱅크샐러드는 시중은행 제휴 고전시중은행 제휴에 미온적..핀테크 업계 "답답하다"[이데일리 임유경 기자] [이데일리 김정훈 기자]모바일 앱에서 손쉽게 더 싼 금리의 신용대출로 갈아탈 수 있는 ‘대환대출 서비스’가 오는 31일부터 시작되는 가운데, 카카오페이와 토스가 초반 ‘금융사 입점 경쟁’에서 유리한 고지를 선점한 것으로 확인됐다. 5대 시중은행 입점 여부가 ‘대환대출 플랫폼 전쟁’의 관전 포인트였는데, 카카오페이와 토스는 각각 5개, 4개사와 계약을 맺으며 우위를 점했다.28일 이데일리 취재를 종합하면 금융당국이 ‘온라인·원스톱 대환대출 인프라’를 시작하는 이달 말일에 맞춰 △네이버파이낸셜(네이버페이) △카카오페이 △비바리퍼블리카(토스) △핀다 △뱅크샐러드 5개 업체가 ‘대출 갈아타기 서비스’를 시작한다.초반 카카오페이·토스 2강, 네이버페이 1중 구도이데일리가 핀테크사별로 입점이 확정된 금융사를 확인한 결과, 카카오페이와 토스가 가장 많은 시중은행과 손잡은 데다가 전체 입점 금융사의 수도 20개에 육박해 경쟁 우위를 선점한 것으로 보인다.카카오페이 대출 갈아타기에는 시중 5대 은행인 KB국민은행·NH농협은행·신한은행·우리은행·하나은행이 모두 입점한다. 이달 말 서비스 오픈 때 5대 시중은행을 포함해  총 15~16개의 금융사가 신용대출 상품을 제공할 것으로 보인다. KB국민은행은 카카오페이 전용 상품을 내놓을 것으로 알려졌다.토스는 시중은행 4곳과 계약을 맺었다. 하나와 NH농협 2개 은행은 서비스 오픈시점에 맞춰 입점하고, 나머지 2개 은행은 시스템 연동 작업이 완료되는 대로 입점할 예정이다. 업계에선 나머지 2개 은행도 최소 일주일에서 최대 두 달 안에 입점이 이뤄질 것으로 보고 있다. 오픈 시점 전체 금융사 수는 17~18개 사이로 추산된다.빅테크로 묶이는 ‘네카토’ 중 대출비교 서비스 후발주자인 네이버페이는 시중은행 유치전에서 다소 고전한 모습이다. 현재 시중은행 2곳의 입점을 확정했고, 한 곳과는 논의를 진행 중이다. 대신 대환대출 인프라에 참여하는 18개 저축은행과 모두 입점 계약을 맺으며 상품 경쟁력을 보강했다. 저축은행중앙회와 업무협약을 맺고 중개수수료를 1% 미만으로 낮춰, 얻어낸 성과다. 단, 시스템 연동에 시간이 걸려, 서비스 출시 시점에는 총 15개 안팎의 금융사가 입점할 것으로 보인다.핀다는 현재까지 1개의 시중은행 입점이 확정됐고, 한 곳과 논의를 진행 중이다. 전체 입점 수는 10개 내외가 될 것으로 보인다. 뱅크샐러드에는 5대 시중은행이 입점하지 않았다. 1금융권 중에는 SC제일은행이 확정됐고 지방은행과도 입점 논의를 진행 중이다.“시중은행 참여 미온적”…핀테크 업계 답답함 호소결과적으로 금융사 입점 성적표만 놓고 보면 카카오페이와 토스 2강에, 네이버페이 1중, 핀다와 뱅크샐러드 2약 구조로 대출 갈아타기 시장 판세가 짜졌다. 업계 관계자는 “대출 비교 시장에서의 시장 점유율이 초반 대출 갈아타기 시장으로 이어질 가능성이 커 보인다”고 했다. 핀테크 업체들이 시중은행을 포함해 다양한 금융사들과 논의를 계속하고 있는 만큼, 시장 판도는 달라질 수 있다. 네이버페이와 핀다가 각각 시중은행 한 곳과 추가 논의 중에 있고, 아직 카드사·캐피탈사의 대출 갈아타기 입점도 본격화되지 않은 상황이다. 또 신규로 핀크가 6월 중, NHN페이코가 3분기 중 대출 갈아타기 시장에 뛰어들 예정이다.핀테크 업계는 공통적으로 5대 시중은행이 대출 갈아타기 참여가 미온적이라고 지적하고 있다. 실제 정부 대환대출 인프라에 총 23개 핀테크사가 참여하는데, 일명 ‘네카토핀’ 4곳을 빼고 시중은행과 입점 계약을 맺은 곳이 없다.핀테크 업체 관계자는 “금융 당국이 시중은행에게 한 개 이상의 플랫폼에는 반드시 참여하라고 눈치를 주니까 마지못해 시늉만 내는 모양새다”며 “그러다 보니 대출비교 서비스 1·2위 업체인 카카오페이와 토스에만 몰린 것 아니냐”고 지적했다. 또 “건전하게 운영되고 있는 플랫폼에는 시중은행을 포함해 금융사들이 적극적으로 참여해야 금융 당국이 대환대출 인프라를 도입한 취지에 맞는 게 아니겠냐”고 토로했다.*대환대출 인프라란?금융당국이 구축한 대환대출 인프라를 통하면, 차주(대출받은 사람)가 다른 금융사 상품으로 대출을 갈아탈 때 금융사 간 상환이 자동으로 이뤄지게 된다. 지금까지는 차주가 필요한 서류를 들고 금융사 영업점을 직접 방문해야 했다. 대환대출 인프라에 53개 금융사와 23개 플랫폼 사가 참여해, 금융소비자들이 모바일을 통해 터치 몇 번으로 대출 금리를 비교하고 갈아타기까지 가능하게 만들었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.05.26.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>대환대출 플랫폼 출시 초읽기…빅테크 경쟁 벌써부터 치열</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003364260?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜오는 25일 대환대출 플랫폼 출시를 앞두고 핀테크와 금융회사 간 전운이 감돌고 있다. 타 금융회사의 대출을 뺏어와 대환 대출 시장을 선점할 수 있는 기회가 될 수도 있기 때문이다.25일 금융권에 따르면 오는 31일 대환대출 플랫폼이 출시된다. 대환대출 플랫폼은 고객이 은행 영업점을 방문하지 않아도, 모바일 애플리케이션(앱)을 통해 대출 상품을 비교하고 금리가 낮은 상품으로 갈아탈 수 있는 서비스다. 먼저 신용대출을 적용한 후, 올해 말 주택담보대출 서비스까지 확대할 예정이다.네이버파이낸셜, 카카오페이, 토스, 핀다, 뱅크샐러드 등 핀테크사와 은행중에서는 신한은행이 대환대출 플랫폼 서비스를 시작할 예정이다.이 중에서도 특히 빅테크 3사인 네이버파이낸셜과 카카오페이, 토스가 대환대출 서비스 오픈 전부터 치열한 경쟁을 벌이고 있다.네이버페이를 운영하는 네이버파이낸셜은 이날 ‘네이버페이 대출 갈아타기’ 오픈을 예고하며 ‘전 국민 이자 지원 이벤트’ 사전 신청 접수를 시작했다. 네이버페이에서 대출을 갈아타는 모든 사용자들에게 이자 부담을 더 줄일 수 있는 ‘이자 지원 포인트 티켓’을 제공할 예정이다. 이벤트 페이지에서 미리 티켓 신청을 할 수 있다. 이자 지원 포인트 티켓의 상세 혜택은 오는 31일 대환대출 서비스가 개시된 후 공개된다.카카오페이카카오페이도 현재 ‘대출 갈아타기’ 서비스 사전 신청을 받고 있다. 카카오톡이나 카카오페이앱의 ‘대출’ 영역에서 ‘대출 갈아타기 사전 신청’을 통해 신청이 가능하다. 카카오페이는 대환대출 플랫폼 중 유일하게 KB국민은행·신한은행·우리은행·하나은행·NH농협은행 등 5대 은행이 모두 입점했다고 홍보하고 있다.토스는 지난 10일부터 대환대출 서비스 ‘대출 갈아타기’의 사전신청을 받았다. 약 2주 만에 사전신청자가 30만 명을 넘어서며 주목받고 있다.토스다만 일각에서는 금융당국이 예상하는 만큼 소비자 편익이 얼마나 늘어날지 우려하는 목소리도 나온다. 일단, 현재 각사가 출시하는 대환대출 플랫폼마다 입점한 금융사가 차이가 있다. 모든 금융사의 상품을 플랫폼 한 곳에서 비교해볼 수 있는 것은 아니라는 얘기다. 또 저축은행이나 카드사 등 2금융권은 시중은행보다 금리가 높다 보니 대환대출 플랫폼 참여에 소극적인 상황이다.자칫 빅테크 기업이 시장을 독점할 수 있다는 우려도 크다. 그간 빅테크는 처음에는 저렴한 수수료를 제공했다가 시장 지배력이 높아진 이후 수수료를 올리는 전략을 취해 왔다. 금융회사의 플랫폼에 대한 수수료 부담이 결국 소비자에게 전가될 수 있다는 우려가 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.05.21.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>"父 죽여놓고, 송금 메모에 '아버지상' 적은 이기영"..딸은 슬픔에 울부짖었다</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005015216?sid=102</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>택시 기사와 동거녀를 살해한 혐의로 구속된 이기영이 1월 6일 오후 경기도 파주 공릉천변에서 검찰 관계자들과 현장검증을 하고 있다. 사진=연합뉴스 [파이낸셜뉴스] 동거녀와 택시기사를 살해한 혐의로 이기영(32)에 대해 1심 법원이 무기징역을 선고한 가운데, 숨진 택시기사의 딸이라고 밝힌 한 누리꾼이 "슬픔과 더불어 분통 터지는 상황"이라며 호소했다.   지난 20일 온라인 커뮤니티 '네이트판'에는 '이기영 살인사건의 피해자였던 택시기사의 딸입니다'이라는 제목으로 누리꾼 A씨의 글이 올라왔다.   이날 A씨는 "사람을 두 명이나 죽인 살인범에게 사형 아닌 판결이 내려질 것이라고 생각하지 않았기 때문에, 저희 가족은 슬픔과 더불어 분통 터지는 상황이 됐다"라며 말문을 열었다.   그는 "수사 과정이나 재판에 있어서 누가 될까 언론에 한마디 내뱉는 것도 정말 조심스럽고 노출을 극도로 자제해왔다"라며 "하지만 돌아가는 상황을 보아하니 이대로 가만히만 있는 것이 정답은 아닌 것 같다. 인터넷 공간을 빌려 더 많은 사람들에게 공론화하고 공감을 얻고 싶어 글을 작성하게 됐다"라고 밝혔다.    이기영(왼쪽)이 숨진 택시기사인 척 그의 아내와 나눈 카카오톡 대화. 네이트판 캡처 A씨는 먼저 이기영이 아버지인 척 카톡을 주고받았을 때를 회상했다.   그는 "이기영은 저희 가족과 카톡을 하는 내내 본인이 교통사고를 냈는데 사망자가 생겨 그 뒤처리를 하고 있다고 거짓말했다. 대화상대가 아버지가 아닐 거라고는 꿈에도 생각하지 못했다"라고 했다.   이어 "경찰서에 도착해 사고 조회를 한 결과, 교통사고 접수가 아예 없다는 얘길 듣고 손발이 떨리고 심장이 쿵 떨어지는 기분을 처음 알게 됐다"라며 "지금도 그날의 충격은 말로는 표현할 수가 없다"라고 토로했다.   그러면서 "결국 위치 추적 요청과 함께 아버지의 실종 신고를 하고 저희가 할 수 있는 것은 그저 아버지가 무사히 돌아오시길 바라며 기다리는 것밖에 없었다. 하지만 정오가 돼서 제 전화로 경찰이 알려준 사실은 아버지 부고 소식이었다"라고 전했다.    숨진 택시기사의 통장의 이체 내역. 메모에 '아버지상'이라고 적혀있다. 네이트판 캡처 A씨는 "이기영은 아버지를 살해한 직후 아버지 휴대전화에 토스 앱(은행 앱)을 다운받아 본인 통장으로 잔고를 이체했다. 남의 아버지 죽여놓고 보란 듯이 '아버지상'이라고 메모해 사람 우롱하는 전형적인 사이코패스"라고 분노했다.   그는 "아버지 시신의 신원확인을 위해 간 장례식장 영안실에서 장례지도사님이 제게 아버지 얼굴의 훼손이 심하니 많이 충격받을 거라고 보는 것을 극구 말렸다"라며 "남동생이 유일하게 봤지만, 오랜 시간 트라우마에 시달렸다"라고 하소연했다.   한편 이기영은 지난해 12월 20일 밤 경기 고양에서 음주운전을 하다 택시와 접촉사고를 낸 뒤 "합의금과 수리비를 주겠다"라며 파주 소재 아파트로 택시기사를 유인해 둔기로 살해한 후 시신을 옷장에 숨긴 혐의를 받았다. 또 지난해 8월에는 동거하던 50대 여자친구를 살해하고 신을 공릉천변에 유기한 혐의를 받는다.   이달 19일 의정부지법 고양지원 형사1부(부장판사 최종원)는 이기영에게 무기징역을 선고했다.   재판부는 "검찰이 사형을 구형했는데, 사형제도는 인간의 생명을 박탈하는 극히 예외적 형벌이고 명백히 정당화할 수 있는 특정한 사실이 있을 때 허용돼야 한다"라며 양형 사유를 밝혔다. #이기영 #택시기사딸</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.05.16.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>“신용점수 낮은데, 은행 대출 받았다”…인터넷銀, 중저신용자 대출 크게 늘려</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005130613?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>인뱅, 중저신용대출 비중 30% 돌파2년 6개월새 13%p 늘어 [사진 = 각사]인터넷전문은행들이 돈을 빌리기 어려운 서민들의 대출 문턱을 낮춰 중저신용자 대출 비중을 크게 늘린 것으로 나타났다. 반면 시중은행의 중저신용자 대출은 감소세를 보이고 있다.중저신용대출은 개인신용평가회사 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%에 대한 대출이다.16일 국회 송석준 의원이 금융감독원에서 제출받은 자료에 따르면 인터넷은행 3개사(카카오뱅크·토스뱅크·케이뱅크)의 중저신용대출 잔액은 2020년 6월 2조3900억원에서 지난해 말 8조5800억원으로 259% 급증했다.이 기간 인터넷은행 3사의 전체 가계 신용대출에서 중저신용대출이 차지하는 비중은 17.4%에서 30.4%로 13%포인트 올랐다.이들 3사의 중저신용대출 연간 취급액 역시 2020년 8212억원에서 지난해에는 8조4882억원으로 10배 수준으로 급증했다.이에 반해 4개 시중은행(KB·신한·하나·우리은행)은 중저신용대출 규모를 축소했다.4개 시중은행의 중저신용대출 비중은 2020년 6월 25.2%에서 지난해 말에는 16.9%까지 하락했다. 대출잔액은 이 기간 24조8600억원에서 16조5500억원으로 감소했다.4개 시중은행의 연간 중저신용대출 취급액은 2020년 8조3666억원에서 지난해 2조889억원으로 급감했다.시중은행은 기준금리 인상에 따라 건전성 관리 등을 이유로 2년 반 동안 중저신용대출 규모를 5조원 넘게 줄였으나 인터넷은행은 10배가량 규모를 불렸다고 송 의원실은 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>"15분 만에 갈아타기 가능" 스마트폰 대출 출시한 금융당국 [Y녹취록]</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001891327?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>■ 진행 : 나경철 앵커, 유다원 앵커■ 출연 : 석병훈 이화여자대학교 경제학과 교수* 아래 텍스트는 실제 방송 내용과 차이가 있을 수 있으니 보다 정확한 내용은 방송으로 확인하시기 바랍니다. 인용 시 [굿모닝 와이티엔] 명시해주시기 바랍니다.[앵커]금융당국이 대출을 쉽게 갈아탈 수 있는 서비스를 선보였더라고요. 이게 어떤 내용인지 설명해 주시죠. [석병훈] 이것은 비상경제대책회의에서 여러 번 논의가 됐던 사안이고요. 윤석열 대통령이 직접 지시를 했던 사항의 후속대책으로 나온 것인데요. 무엇이냐 하면 53개 금융사가 참여를 해서 기존에 네이버, 카카오, 토스 같은 대출 비교 플랫폼 앱, 혹은 기존 은행 금융사별 앱을 활용해서 제가 기존에 우리 시청자분들이 가지고 있는 신용대출, 특히 10억 원 이하의 보증이나 담보가 없는 신용대출, 직장인 대출이나 마이너스대출을 포함한 신용대출을 대상으로 하고 있습니다. 이것을 가지고 본인의 대출을 일단 조회한 다음에 그다음에 이 앱을 이용해서 타사에서 동종의 대출에 대해서 우대금리가 무엇인지, 본인의 소득과 자산을 입력한 다음에 우대 조건을 선택하게 되면 지금의 대출과 동일한 조건의 대출 중에서 현재와 대출금리 상황, 그다음에 중도상환 수수료까지 감안해서 과연 갈아타는 게 얼마나 이득인지를 알려주는 서비스를 스마트폰을 이용해서 확인할 수 있는 서비스입니다. 그래서 보통 15분 정도면 내가 과연 대출을 갈아타는 것이, 다른 금융기관으로 갈아타는 것이 이득인지, 중도상환수수료까지 감안하더라도 이득인지 아닌지를 알려줘서 이것을 즉시, 15분 만에 대출을 갈아탈 수 있는 획기적인 서비스라서 이 서비스를 이용하게 되면 당장은 고금리 신용대출을 쓰고 있는 소비자분들 같은 경우에는 금리를 인하하는 혜택을 볼 수가 있고요. 그다음에 장기적으로는 금융기관들끼리도 서로 경쟁을 해서 고객 이탈을 막기 위해서 경쟁을 하다 보면 여러 신용대출들의 금리가 일정 부분 낮은 수준으로 수렴하는 현상이 있습니다. 그래서 제가 직접 대출을 갈아타지 않더라도 대출금리가 일정 수준으로 수렴하기 때문에 대출금리가 낮아지는 이득을 보게 되는 효과. 이런 효과를 보게 돼서 소비자에게는 이득을 줄 가능성이 크다, 이렇게 보고 있습니다. [앵커] 그러니까 소비자들 입장에서는 조금 더 합리적인 대출을 할 수 있는 그런 시스템이 아닌가 생각이 되는데 이 서비스가 자리를 잡게 되면 은행들 간에 대출금리 인하 경쟁이 이루어질 거다, 이런 기대감도 있고요. 반면에 이렇게 되면 또 더 적극적으로 대출하는 것 아니냐. 안 그래도 우리나라 가계대출 규모가 굉장히 큰데, 이 부분에 악영향을 끼치는 게 아니냐 이런 우려도 있거든요. [석병훈] 사실 한국은행이 공격적으로 기준금리를 인상해서 기준금리가 연 3.5% 수준이고요. 그 고금리 상황이 지속되고 있음에도 불구하고 금융위에서 최근에 발표한 4월 중 가계대출 동향에 따르면 전 금융권 가계대출은 오히려 4월에 2000억 원 증가를 했습니다. 이것은 작년 8월 이후 처음으로 상승 전환한 것이고요. 가장 큰 이유는 주택담보대출이 증가한 것이 주요 원인이었습니다. 그래서 지금 시장에서는 기준금리가 동결되면서 지금 연속적으로 동결되면서 사실상 금리 인상이 중단된 것이 아니냐. 그리고 최근에 부동산 시장 경착륙을 막기 위해서 정부에서 부동산 대출 관련된 규제도 풀고 여러 가지 세금 관련된 규제도 풀면서 부동산 시장에서도 훈풍이 불기 시작했습니다. 그래서 2030들도 영끌을 해서 주택을 구매하고자 하고 있고요. 빚투도 늘어나고 있고요. 주식 같은 경우도. 이런 식으로 하다 보니까 지금 주택담보대출 위주로 가계대출이 다시 증가할 가능성이 큽니다. 왜냐하면 대출금리가 하락하는 추세를 보이게 되면요, 이런 서비스를 이용해서. 그런데 문제는 한국의 가계대출이 GDP 대비 100%가 넘어가죠. 102.2%고요. 이창용 총재 같은 경우도 최근에 금융통화위원회 회의가 끝난 다음에 기자회견에서 중장기적으로 GDP 대비 가계부채 규모를 80% 수준으로 낮추는 것을 목표로 하고 있다고 밝혔을 정도로 지금 GDP 대비 100%가 넘어간다는 것은 사실은 심각한 수준이고요, 가계부채 규모가. 그리고 지금 대출 연체율 같은 경우도 고금리 영향으로 꾸준히 올라가고 있기 때문에 사실은 지금 이렇게 대출금리가 낮아지고 있는 것은 소위 말하는 금리가 높아야만 채무자들 같은 경우는 이자비용이 높아져서 소비지출을 줄이고 소비지출을 줄여서 대출을 상환해서 소위 말하는 GDP 대비 가계부채 비율이 낮아지는 디레버리징이 가능한데요. 벌써부터 지금 대출금리가 여러 가지로 낮아지고 시장금리도 선반영해서 기준금리 인하를 선반영해서 낮아지고 있는 상황을 보이기 시작하면 지금 디레버리징이 더 어려워지는 것이 아니냐. 그리고 오히려 가계대출 대비 GDP 비율은 올라갈 수도 있는 것이 아니냐. 저도 이렇게 예측을 하고 있습니다. ※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.05.18.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>중앙아시아 찾은 김소영 "금융협력은 성장의 열쇠…시너지 효과도 기대"</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006814531?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>김소영 금융위원회 부위원장(사진 가운데)이 17일(현지시간) 우즈베키스탄 타슈켄트 소재 우즈베키스탄 은행협회에서 열린 '한-우즈벡 은행협회 공동 세미나'에 참석했다. (금융위 제공)(서울=뉴스1) 신병남 기자 = 금융위원회는 김소영 부위원장이 국내 금융회사의 중앙아시아 진출을 지원하기 위해 지난 16일부터 오는 19일까지 4일간 우즈베키스탄과 키르기스스탄을 방문하는 일정을 진행하고 있다고 18일 밝혔다.김 부위원장은 지난 17일 오후 우즈베키스탄 타슈켄트에서 열린 한국핀테크지원센터와 우즈베키스탄 핀테크협회 간 업무협약(MOU) 체결행사에 참석했다. 이 행사에서는 토스, 아이벡스랩, 에프엔에스벨류 등 국내 핀테크 업체들이 블록체인 기반 결제, 인증솔루션 등 우리 기술을 소개하고 향후 진출방안을 논의했다.이어 한국 은행연합회-우즈베키스탄 은행협회 공동 주관 세미나에 참석해 '한국 금융산업 현황과 한-중앙아 금융부문 협력 방향'을 주제로 기조연설을 했다.김 부위원장은 "금융부문 협력은 중앙아시아 국가 성장잠재력 극대화의 열쇠"라며 △ICT 기술을 접목한 금융·지급결제 인프라 확충 △금융-비금융 융합 활성화 노하우 공유 △부존자원 개발 관련 금융수요 발굴 및 지원 등 협력방향을 제시했다. 또한 우리 금융회사들이 중앙아시아 국가들에 진출함으로써 기대되는 시너지 효과에 대해서 강조했다.한편, 김 부위원장은 18일 오후 키르기스스탄 비슈케크로 이동해 BNK파이낸스 개소식과 키르기스스탄 대통령실 경제수석 주최 환영만찬에 참석한다. 19일에는 BC카드와 키르기스스탄 중앙은행 산하 공기업이 참여하는 키르기스스탄 금융 선진화를 위한 결제인프라 구축 협약식에 참석한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.05.23.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>[관가 in]한은서 블룸버그로…엘리트의 속사정</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005262746?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>통화정책국 팀장 블룸버그行입행 20년차에 새로운 도전활발한 인적교류 선례될 수도"한은에서 능력을 인정받으면 시장에서도 팔린다는 것을 보여준 좋은 선례가 될 것이다."한국은행에서 연봉을 크게 높여 이직하는 팀장이 나오면서 한은 내부의 부러움을 사고 있다. 이직 주인공은 권효성 한은 통화정책국 정책분석팀장. 권 팀장은 이달 한은 금융통화위원회 통화정책방향 결정회의 직후인 오는 30일 블룸버그코리아 이코노미스트로 첫 출근을 앞두고 있다. 1976년생인 권 팀장의 이직이 화제가 된 것은 연봉만이 전부가 아니라는 게 안팎의 평가다. 올해로 입행 20년차인 권 팀장은 한은 내부에서도 소위 '엘리트 코스'를 밟으며 승승장구하던 정통 한은맨이다. 서울대 경제학과를 졸업한 후 2003년 한은에 입행해 통화정책국, 조사국, 인사경영국, 국제협력국 등 핵심 부서를 두루 거치며 실력을 인정받았다. 그가 안정된 직장을 박차고 새로운 도전에 나서면서 그 이유에 대한 궁금증도 증폭되고 있다. 권 팀장은 22일 아시아경제와의 인터뷰에서 "올해로 한은 입행 20년차인데 새로운 도전을 할 수 있는 마지막 기회일 수 있겠다는 생각이 들었다"고 이직 이유를 밝혔다. 권 팀장은 "한은에서 통화정책국·조사국 등을 거치며 정부 정책들을 종합적으로 평가하는 업무를 할 수 있었던 과정은 큰 밑거름과 자산이 됐다"면서 "이를 발판으로 삼아 시장에서 더욱 역량을 펼칠 수 있게 되길 희망한다"고 말했다. 권 팀장은 블룸버그코리아에서 한국 담당 이코노미스트를 맡게 된다. 블룸버그 측은 글로벌 시장에서 한국 시장의 중요도가 커진 만큼 권 팀장을 영입하면서 한국 시장을 제대로 평가·전망할 수 있는 이코노미스트 직책을 신설했다. 권 팀장은 "한국 경제 담당으로 우리나라 경제 전망과 분석을 비롯해 통화정책에 대한 평가까지 맡게 된다"면서 "한은 업무의 연장선상으로 투자은행(IB)의 이코노미스트 역할"이라고 말했다. 그는 "더 늦기 전에 새로운 도전을 해보고 싶다는 마음이 간절했다"며 "인생에 변화가 필요한 시점에서 좋은 기회를 맞게 됐다"고 전했다. 특히 권 팀장이 기대하는 것 중의 하나는 보다 자유로운 시각에서 본인의 판단을 펼치고 이를 외부와 공유할 수 있다는 점이다. 그는 "한국 경제에 대한 전망과 분석 등을 한은에서 담당했지만 중앙은행 소속으로 기관의 목소리를 내야 한다는 한계가 있었다"면서 "시장에서는 아무래도 좀 더 자유롭게 견해를 펼칠 수 있고 이를 다른 사람들과 적극 공유할 수 있는 기회가 될 것 같아 어렵지 않게 결정할 수 있었다"고 설명했다.  권 팀장의 행보는 이창용 한은 총재가 외부와의 소통을 강조하면서 활발한 인적교류를 통해 내부 역량 강화를 요청한 것과 일맥상통하는 것으로 해석하는 시각도 있다. 이 총재는 취임 이후 한은이 국내 최고의 싱크탱크 역할에 보다 적극 나서야 한다면서 활발한 대외활동을 주문한 바 있다. 내부 직원들이 외부 기관으로 적극 파견·이직하면서 역량을 키울 수 있는 기회로 활용해야 한다는 것이다. 한은의 전직자 재채용 제도에 따르면 퇴사 이후 5년 이내 재입사가 가능하기 때문에 외부에 이직했던 직원은 자신이 원할 경우 다시 복귀할 수 있는 기회가 열려있다. 많지는 않지만 과거에도 골드만삭스 등으로 이직했다가 한은으로 복귀한 전례가 있다. 권 팀장 역시 "총재님이 말씀하신 것처럼 한은 직원들이 시장으로 나가고, 외부에서도 한은으로 와 근무하면서 교류를 통해 실력을 쌓을 수 있는 계기가 되길 바란다"고 덧붙였다. 다만 권 팀장은 자신의 이직이 최근 한은 내부에서 불거져나오는 타 금융사 대비 낮은 연봉이나 복지 수준에 대한 불만으로 해석하는 것을 경계했다. 권 팀장은 "전직자 재채용 제도는 이직하는 직원들에게 좋은 옵션이 될 수 있다"면서 "외부에서 시야를 넓히는 계기가 될 수 있을 것"이라고 강조했다. 최근 한은에서는 젊은 직원들이 몸값을 높이며 이직하는 사례가 증가하고 있다. 지난해에는 조사국 과장이 한국투자증권으로, 지역본부 과장이 한국증권금융으로 옮겼다. 금융결제국에서 토스로 이직한 사례도 있으며, 회계펌으로 적을 옮기는 사례도 잇따랐다. 한은 직원들의 이같은 이직러시는 과거같지 않은 한은의 위상을 반영한 결과라는 시각도 적지 않다. 유희준 한은 노조위원장은 "이전에는 한은 직원이라는 명예와 자부심, 정년까지 다닐 수 있는 안정적 직장이라는 이점이 각광받으면서 특정대학 출신들이 주를 이뤘지만, 최근 동종 업계 대비 낮은 연봉, 물가상승률에 훨씬 못 미치는 임금상승률에 대한 불만 등이 더해지면서 직원 이탈이 가속화되고 있다"고 토로했다. 실제 올해 신입행원 63명의 출신 대학을 분석해보면 특정대학에 집중된 과거와 달리 2022년 14곳에서 올해 22곳으로 다양해지고 있다. 한은 관계자는 "올해 채용된 한은 신입직원(종합기획직원 G5)의 초봉은 5100만원으로 은행권에서는 높은 편이 아니다"며 "대규모 성과급을 받는 대기업에 비해 상대적인 박탈감을 느끼다 보니 '신의 직장'으로 불리던 한은이 MZ세대(밀레니얼+Z세대)들에게는 과거만큼 인기 직장이 아닌 것 같다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>전경련, 유니콘 기업 대표 등 토크콘서트 개최… 국민 소통 두번째 프로젝트</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003817718?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>전국경제인연합회가 국민 소통 두 번째 프로젝트로 토크콘서트 ‘드림워크 콘서트’를 다음달 23일에 개최한다. 이승건 비바리퍼블리카(토스) 대표, 장지호 닥터나우 대표, 방송인 타일러 라쉬가 멘토로 등장하고, 아나운서 장성규가 MC를 맡을 예정이다.     올해 2월 전경련은 중장기 발전안을 발표하고 ‘국민 소통’ 프로젝트를 추진하기로 했다. 전경련은 25일 개최한 한국판 버핏과의 점심 ‘갓생 한 끼’에 이어, 두 번째 프로젝트로 다음달 23일 동대문 V.SPACE에서 MZ(1980년대 초~2000년대 초 출생)세대 300여명을 초대해 ‘토크콘서트’를 열기로 했다.     멘토들은 MZ세대와의 소통 및 꿈을 향해 도전하는 젊은 세대들에게 선한 영향력을 확산하고자 동 행사에 참여하기로 했다고 밝혔다.        이승건 대표가 이끄는 토스는 새로운 차원의 금융 경험으로 스마트시대 정보기술(IT)과 친숙한 청춘들에게 지지를 얻고 있다. ‘자율과 책임’을 강조한 혁신적인 기업문화로 잡플래닛이 2022년도에 선정한 ‘다니고 싶은 기업’에서 6위를 차지했다.     이승건 비바리퍼블리카 대표는 2015년 간편송금 서비스 ‘토스’를 출시하며, 국내 핀테크 최초로 유니콘 기업(기업가치 1조원 이상)의 성공신화를 이뤘다. 토스는 이승건 대표가 여덟 번의 실패를 거친 끝에 선보인 혁신 서비스였으나, 처음부터 그 도전이 환영받지는 못했다. 보다 쉽고 편리한 금융 서비스를 만들겠다는 도전이 시장에 새로운 변화를 만들어냈고, 토스는 현재 대한민국 국민 3명 중 1명이 쓰는 모바일 금융플랫폼으로 변모했다. 이 대표는 스타트업 경연대회 ‘파운드(FOUND)’ 개최 등 스타트업 생태계를 조성하는 일에도 적극적으로 나서며 선한 영향력을 행사하고 있다.       장지호 닥터나우 대표는 20대 사업가로 국내 최초 비대면진료 및 처방약 배송 서비스를 선보이며 효율적이고 안전한 의료 체계 구축을 선도하고 있다. 국민 편익 기여 및 사회적 영향력 측면에서 높은 평가를 받으며 작년 포브스 ‘30세 이하 아시아 리더’로 선정됐다. 공급자 중심인 의료 서비스를 이용자 중심으로 전환하기 위해 낡은 규제를 혁파하는 ‘고객 집착’을 모토로 대한민국에 없던 의료 혁신을 일궈가고 있다.       타일러 라쉬는 토크콘서트를 통해 내일을 준비하는 청년들에게 더 나은 미래가치를 위한 생각을 나누고 다양한 메시지를 전해줄 예정이다.     MZ세대 중 드림워크 토크콘서트 참석 희망자는 전경련 홈페이지를 통해 1일부터 신청할 수 있고, 접수는 선착순으로 마감된다.     이상윤 CSR본부장은 “버핏과의 점심이 일대일 맞춤형 멘토링과 재능기부가 콘셉트라면, 토크콘서트는 한국판 TED형식의 시대 리더와의 소통공감 콘셉트”라면서 “전경련이 미래를 준비하는 청년들에게 꿈과 희망의 허브가 될 수 있도록 더욱 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.05.26.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>하나銀 자회사 GLN인터내셔널, 대만 관광객 국내서 QR 결제 가능케 한다</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002148740?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>대만 타이신은행 전자지갑 타이신페이국내 가맹점 QR 결제 서비스 국내 최초 오픈한국을 여행하는 대만 관광객이 국내 편의점에서 상품을 결제하기 위해 타이신페이로 OR 결제 서비스를 이용하고 있다.[하나은행 제공][헤럴드경제=홍승희 기자] GLN인터내셔널은 대만 타이신은행 전자지갑 타이신페이를 통해 대만 관광객들이 국내 가맹점에서 편리하게 QR로 결제하는 서비스를 국내 최초로 개시한다고 26일 밝혔다.GLN-타이신의 QR 결제 서비스는 타이신 신용카드를 기반으로 한 포인트 결제 수단이다. 이를 통해 한국을 여행하는 대만 관광객들은 카드와 현금을 소지하지 않더라도 타이신페이를 이용해 원큐페이로 결제가 가능한 7만 여개의 국내 가맹점에서 편리하게 결제할 수 있게 됐다. 이번 QR 결제 서비스는 GS25 매장을 비롯한 국내 편의점 및 면세점, 마트, 커피숍 등에서 사용 가능하며, 국제카드 이용 대비 낮은 수수료의 혜택을 추가로 누릴 수 있다.타이신은 타이신페이을 이용하는 한국 방문 손님들을 위해서 한국 결제 캐시백 프로모션을 진행할 예정이며, 향후 다양한 한국 내 가맹점 및 관광 콘텐츠와의 협업을 통해 손님들이 선호하는 여행 서비스를 확대 제공할 예정이다.GLN은 2019년 타이신과의 제휴를 통해 대만을 방문하는 한국 관광객들이 하나은행, 하나머니, 토스앱을 통해서 대만 전역 3만개 가맹점에서 결제할 수 있는 서비스를 제공 중이다. 특히, 대만 패밀리마트, 하이라이프 편의점에서 100대만달러 이상을 구매하면 10대만달러를 즉시 할인해주는 행사를 진행 중이며, 에버리치 면세점에서는 200대만달러 이하의 상품을 구매 시 동일 상품을 추가로 증정해주는 1+1 프로모션도 진행 중이다.이번 대만 타이신페이의 한국 가맹점 결제 서비스 개시를 통해 GLN은 한국과 대만의 양방향 결제 서비스를 제공할 수 있게 됐으며, 추후 양방향으로 이용 가능한 ATM 출금 서비스까지 확대할 계획이다.김경호(오른쪽) GLN인터내셔널 대표가 올리버 샹(Oliver Shang) 타이신은행장과 함께 GLN 대만-한국 양방향 모바일 결제 서비스 오픈을 기념하며 촬영을 하고 있다.[하나은행 제공]김경호 GLN인터내셔널 대표는 “향후 일본, 싱가포르, 베트남, 태국 등에서 전자지갑을 사용하는 손님들도 한국에서 결제서비스를 이용할 수 있도록 네트워크를 구축하고, 제로페이 가맹점을 포함해 국내 전역 약 150만개 가맹점을 대상으로 서비스를 제공할 계획”이라고 밝혔다.GLN인터네셔널은 하나은행이 글로벌 지불결제 네트워크 사업을 위해 2021년 7월 분사하여 설립한 핀테크 자회사로, 국내외 금융기관 등과의 협력체를 구성해 현재 일본, 베트남, 태국, 대만, 홍콩, 싱가포르, 라오스, 괌 등 글로벌 주요 지역에서 QR 결제 및 QR ATM 출금, 등록금 납부 서비스 등을 제공하고 있다.코로나 엔데믹 이후 한국을 방문하는 대만 관광객은 꾸준한 증가를 보이고 있다. 한국관광공사의 자료에 따르면 올 3월에 방한한 대만 관광객이 6만3000여명에 달하고 있어, 코로나 이전 방한 관광객의 약 80%를 회복하며 한국의 여행 업계에서 중요한 자리를 차지하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>'대출 갈아타기' 첫날 원활…금융사, 고객이탈 방지 채비에 분주</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013973822?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>대환대출 플랫폼·금융사 앱 가동 큰 문제 없어…일부 연결 오류는 발생우대금리·쿠폰 통해 기존고객 단속·신규고객 유치 경쟁 시작금리 제시 방식·과당경쟁 등 우려…사업자간 형평성 문제 제기도 대출[연합뉴스 자료사진](서울=연합뉴스) 금융팀 = 스마트폰 앱을 통해 기존에 받은 신용대출을 더 유리한 조건으로 한 번에 갈아탈 수 있는 대환대출 플랫폼이 본격 가동된 31일 실수요자들이 관심을 보였지만 서버 문제 등이 발생하지는 않았다.    금융권에 따르면 이날 오전 9시부터 대출 비교 플랫폼 앱(네이버페이, 뱅크샐러드, 카카오페이, 토스, 핀다 등)과 주요 금융회사 앱(NH농협은행, 신한은행, 우리은행. KB국민은행, 하나은행 등) 등에서 대출 갈아타기가 본격 시행됐다.    특히 대출 비교 플랫폼에서는 기존에 받은 대출 금리 및 갈아탈 수 있는 여러 금융회사의 대출 상품을 한꺼번에 조회한 뒤, 유리한 조건의 대출 상품이 있다면 해당 금융회사 앱으로 이동해 새로운 대출을 실행할 수 있다.[네이버파이낸셜 제공. 재판매 및 DB 금지] 신청 첫날부터 대환대출 발생…별다른 혼란 없어    이날 오전 10시께 대환대출 플랫폼 중 하나인 토스 앱에서 현재 보유한 A은행 대출을 조회했다.    A은행 대출금액과 금리 등의 조건이 나오고 앱 하단에는 '내 대출 X.X% 보다 더 싼 금리 있을까?'라는 문구와 확인하기 버튼이 보였다.    이를 누르자 별다른 지체 없이 심사 결과를 받아볼 수 있었다.     토스 앱에서는 금리와 한도를 기준으로 각 금융사의 조건을 차례로 제시하면서 손쉽게 대출을 갈아탈 수 있도록 했다.    비슷한 시각 카카오페이 앱에서 대출을 조회한 결과도 비슷했다.    별다른 접속 지연 없이 빠른 속도로 조회가 가능했다.    다만 일부 플랫폼과 금융사를 연결하는 과정에서 오류가 발생하는 경우도 발생했다.    이날 대환대출 플랫폼에 참여하는 은행과 카드사, 저축은행 등 대부분 금융사들은 큰 문제 없이 신청 첫날부터 대환대출이 원활히 이뤄지고 있다고 전했다.    KB국민카드 관계자는 "플랫폼을 오픈한 9시부터 대환대출이 발생하고 있으며 접속도 꾸준하다"면서 "전산장애가 발생하지 않을까 우려했는데 원활한 상황"이라고 밝혔다.    아직은 대환대출에 대한 홍보가 덜된 데다, 금융당국이 업체별로 신규 유치할 수 있는 신용대출 규모를 제한하면서 첫날부터 수요가 몰리거나 하는 일은 발생하지 않은 것으로 풀이된다.    앞서 금융위는 대환대출 서비스로 개별 금융회사가 신규 유치할 수 있는 신용대출 규모를 전년도 신규 신용대출 취급액의 10% 또는 4천억원 중 적은 금액으로 설정했다.    실제 금융위는 각 금융기관에 대환대출 관련 과당경쟁 자제를 주문한 것으로 알려졌다.    다른 카드사의 한 관계자는 "아직 고객들이 서비스에 관심을 보이면서 신청이 몰리거나 하지는 않는 것 같다"면서 "카드론이 비교적 고금리라 금리 비교가 제일 중요할 텐데, 현재는 대환대출 플랫폼에서 카드론이 다 조회되지 않고 7월 1일부터 가능한 만큼 향후 수요가 늘어날 것"이라고 전망했다.대환대출플랫폼 금리 비교 결과[토스 앱 캡처] "고객 이탈 막아라" 각 금융사 금리 인하 등 마케팅 시동    금융계에서는 대환대출 플랫폼이 활성화되면 금융소비자가 여러 영업점을 방문하고 대출 실행까지 대기해야 하는 불편함을 덜 수 있을 것으로 보고 있다.    무엇보다 여러 곳의 대출금리를 손쉽게 비교할 수 있어 소비자가 실질적인 금리 인하 혜택을 누릴 수 있을 것으로 기대하고 있다.    한 시중은행 관계자는 "기존 은행연합회를 통해서 일괄적으로 공시되는 신용대출 금리보다 개인별로 적용되는 금리를 직접 확인할 수 있게 됐다"면서 "금융기관의 금리 인하 여부와 관계없이 가장 저렴한 금리를 찾을 수 있어서 소비자가 실질적인 금리 인하 효과를 누리게 될 것"이라고 말했다.    금융사들은 고객에게 적용하는 금리가 사실상 공개되는 만큼 기존 고객을 유지하고 신규 고객을 유치하기 위한 다양한 금리 마케팅을 시행하거나 준비하고 있다.    5대 시중은행 중 유일하게 대출비교 플랫폼(6월 21일 오픈 예정)과 대출이동 시스템에 동시 참여하고 있는 신한은행은 신용대출 상품의 첫 달 이자 지원 및 리워드 제공 등의 혜택을 준비하고 있다.    KB국민은행은 플랫폼 도입 전부터 이탈이 우려되는 타깃 고객을 대상으로 2만원 상당의 금융쿠폰(예금전용 1만원, 적금전용 5천원, 외화 환전 5천원)을 발송하는 한편, 영업점을 대상으로 고객 이탈 방지 마케팅 지원 가이드를 제공했다.    하나은행은 대환대출 플랫폼 가동에 맞춰 전용 특화 상품 '하나원큐 신용대출 갈아타기'를 출시했다.    우리은행은 타금융기관 대출을 우리은행 대출로 신규 대환하는 경우 우수 신용등급 고객에게 최초 약정기간 대출금리 0.5%포인트(p) 추가 우대 혜택을 준비했다.    NH농협은행은 금리와 한도 등에서 고객을 끌어올 수 있는 대환대출 상품 개발을 검토하는 한편, 6월 중 이용 고객을 대상으로 경품과 쿠폰 증정 이벤트를 실시할 예정이다.    현재 네이버페이, 카카오페이, 토스, 핀다 등 4개 플랫폼과 제휴한 JT저축은행은 네이버페이를 통해 유입된 고객에 대해 0.1%p 금리 인하 혜택을 제공하고 있으며, 확대 여부를 검토하고 있다.[그래픽] 온라인 대환대출 서비스 이용 절차(서울=연합뉴스) 원형민 기자 = 금융위원회는 31일부터 금융소비자가 스마트폰 앱을 통해 은행, 저축은행, 카드·캐피탈사에서 기존에 받은 신용대출 정보를 조회해 유리한 조건으로 한 번에 갈아탈 수 있는 '온라인·원스톱 대환대출 인프라'를 개시한다고 30일 밝혔다.    circlemin@yna.co.kr    페이스북 tuney.kr/LeYN1 트위터 @yonhap_graphics "우대금리 제시 못 해 고객 뺏길 수도…출혈경쟁 우려"    금융사들은 시행 첫날 원활한 운영에도 불구하고 오픈 초기 당분간의 시행착오는 불가피할 것으로 보고 있다.    1금융권과 저축은행, 여신전문사 등 50개가 넘는 금융사와 20개 넘는 플랫폼사가 참여하는 사업인 만큼 예상치 못한 문제가 발생할 수 있다는 설명이다.    금융당국의 지침이나 규제가 현실과 맞지 않다는 지적도 나온다.    우선 총부채원리금상환비율(DSR) 규제로 인해 대출 이동에 제한이 발생할 수 있다.    기존 대출이 DSR 규제를 충족하더라도 대출 이후 자산 및 부채 현황이 변동되면서 대환대출 시 DSR 규제 내에 들어가지 못하면 대환이 불가능하다.    금융당국이 대출금리를 제시할 때 금융사별 우대금리를 빼도록 한 점도 문제로 지적된다.    현재 대출금리는 기준금리에 가산금리를 더한 뒤 금융사별로 우대금리를 적용하는 방식으로 산정된다.    금융당국은 대환대출 플랫폼에서는 우대금리를 제외한 '기준금리+가산금리' 형태로만 금리를 제시하도록 지침을 내린 것으로 전해졌다.    한 금융사 관계자는 "우대금리가 최대한 적용한 산출금리를 보여주면 소비자들이 오해할 소지가 있다는 것이 당국의 입장"이라며 "그러나 실제 주거래은행 등에서 우대금리를 적용받으면 대환대출 플랫폼에서 나오는 금리보다 더 저렴하게 대출을 이용할 수 있는 경우도 있을 수 있다"고 말했다.대환대출 서비스[금융위원회 제공. 재판매 및 DB 금지]    기존 은행과 인터넷 은행, 전통 금융기관과 빅테크 간 형평성 문제 등을 제기하는 목소리도 나온다.     대환대출 비교 플랫폼의 경우 플랫폼(빅테크 등)이 '쇼핑몰' 역할을 하고 금융사는 '상품'(대출)을 입점하는 형태다.    금융사는 고객 개방뿐만 아니라 중개수수료까지 플랫폼에 지급하는 부담을 지게 된다는 설명이다.    한 금융사 관계자는 "중개수수료 등으로 인한 금융사의 비용 증가는 대출금리 또는 타 수수료 조정으로 금융소비자에게 전가될 수 있다"면서 "특히 상대적으로 대출 대환이 어려운 저신용자 등 금융취약계층에게 부담이 집중될 우려가 있다"고 말했다.    대환대출 플랫폼 등장으로 금리 경쟁이 격화되면 상대적인 금리경쟁력을 가진 인터넷은행이 유리할 수 있다는 분석도 있다.    한 카드사 관계자는 "대출에 따른 리스크 측면에서 보면 안 그래도 카드사 연체율이 상승하면서 건전성 문제가 지적되는 상황에서 빅테크나 신규 사업자들이 공격적으로 나올 경우 카드사 입장에서는 건전성 확보와 대출 영업 사이에서 눈치를 보지 않을 수 없다"고 밝혔다.    아울러 비대면으로 이뤄지는 대환대출 플랫폼이 활성화될수록 은행권이 비대면 전용상품 등 플랫폼 경쟁에 역량을 집중할 가능성이 크고, 이 경우 고령층·장애인 등 디지털 소외계층의 불이익이 확대될 수 있다는 우려도 나온다.    (신호경 박대한 임수정 채새롬 오지은 기자)    pdhis959@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>KB·신한·우리 5%적금… `미끼상품` 판촉</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002802228?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>신한, 41일 만에 가입자 10만명가입·친구초대 등 조건만 3~4개고금리 미끼에 신뢰 하락 우려도예금금리가 하락하고 있는 상황에서 일부 은행들이 앞다투어 '연 5%대' 고금리 적금을 내놓고 있다.대부분 젊은 층을 겨냥한 상품으로 인기가 높다. 하지만 월 납입 한도가 낮고 우대금리를 받으려면 조건에 조건이 붙어 실제 소비자들이 받는 이자혜택을 크지 않은 경우가 많다.은행들이 '미끼상삼품' 마케팅에 집착하는 것 아니냐는 논란도 인다.22일 은행권에 따르면 KB국민·신한·우리은행과 인터넷은행인 토스뱅크 등에서 5%가 넘는 적금 상품을 판매하고 있다.KB국민은행은 지난달 12일 최소 1개월부터 가입가능한 초단기 적금 'KB 특별한 적금'을 내놨다. 해당 상품은 기본금리 연 2.0%에 목표금액 달성 시 최고 연 1.0%포인트(p), 별 모으기 달성 시 최고 연 1.0%p, 친구 추천 시 최고 연 2.0%p의 우대금리를 준다. 가입은 1000원 이상부터 30만원 이하까지 가능하다. 만기는 1개월 이상 6개월 이하다.우리은행은 최고 연 5.5%의 금리를 주는 '우리 퍼스트 정기적금'을 지난 17일 출시했다. 기본금리 연 2.5%에 조건이 맞으면 3.0%의 우대금리를 제공한다. 가입 기간은 1년이다. 최대 월 50만원까지 가입할 수 있다. 하지만 대상은 '직전 1년동안 입출식 상품을 제외하고 우리은행 적금이나 예금상품이 없던 고객'으로 한정된다.신한은행은 최고 연 5.85% 금리의 '신한 청년저축왕 적금'을 판매중이다. 월 30만원까지 납입할 수 있는 이 상품은 12개월 기준 최고 연 5.65%(기본 4.35%), 24개월 기준 최고 연 5.75%(기본 4.45%), 36개월 기준 최고 연 5.85%(기본 4.55%) 금리를 준다. 우대금리 적용 조건은 △△신한 청년저축왕 적금 가입 후 '급여클럽' 서비스를 통해 월 50만원 이상의 소득을 입금하면 0.5%p △△△적금 만기까지 원금 300만원 이상 납입 시 0.3%p △△△신한은행 첫거래 우대 0.3%p △△△친구초대 시 0.2%p다. 가입은 만 18세 이상 39세 이하까지만 가능하다. 이 역시 조건에 조건이 붙는다.인터넷은행에서도 고금리 적금 상품을 찾아볼 수 있다. 토스뱅크는 지난달 13일 최고 연 5.0%의 '굴비 적금'을 선보였다. 기본금리 연 2.0%에 별다른 조건 없이 6개월 만기까지 유지할 경우 자동으로 우대금리 3.0%p가 적용된다. 만기는 6개월이다. 납입한도는 매달 최대 30만원까지다. 은행의 예금금리가 2%대까지 떨어진 상황에서 '5% 적금'이 등장하자 고객들의 관심이 커지고 있다.지난 3월 15일 나온 신한은행의 청년저축왕 적금은 출시 41일만에 가입자가 10만명을 넘어섰다. 토스뱅크의 굴비적금은 출시 한 달여 만에 가입 계좌 수가 30만좌를 돌파했다.일각에서는 금리가 높아도 가입 기간이 짧고 납입 한도가 낮아 실제 이자 혜택을 체감하기는 어렵다는 지적이 나온다.국민은행의 KB 특별한 적금의 경우 만기 6개월로 월 최대 금액인 30만원을 넣었을 때 세후 2만6649원의 이자를 받을 수 있다. 여기에 나의 추천인 코드를 3명이 입력해야 2.0%p의 우대금리를 받을 수 있는 등 조건이 까다롭다. 우리은행의 우리 퍼스트 정기적금은 1년 만기로 최대 50만원을 넣었을 때 15만1222원(세후)을 받게 된다.금융권 관계자는 "최근 선보이는 고금리 상품은 사회초년생을 비롯한 청년층이 소액으로 목돈을 만들 수 있다는 점에서 유용한 측면도 있다"면서도 "다만 이러한 고금리 '미끼마케팅'이 계속될 경우 고객들의 신뢰를 잃게 될 수도 있다"고 전했다.사진 연합뉴스.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>어디가 대출금리 제일 낮을까... 내일부터 스마트폰으로 한눈에 보고 갈아탄다</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003364959?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>‘온라인·원스톱 대환대출 인프라’ 31일 개시플랫폼·금융사 앱 통해 금리 비교 후 갈아타기당국 “대출금리 일정 수준 수렴 가능성 있다”김소영 금융위원회 부위원장이 30일 오전 서울 종로구 정부서울청사에서  31일 개시하는 ‘온라인·원스톱 대환대출 인프라’에 대해 설명하고 있다. 금융위원회 제공내일부터 스마트폰 애플리케이션(앱)을 통해 한눈에 대출 금리를 비교하고, 유리한 조건으로 단번에 ‘대출 갈아타기’(대환대출)가 가능해진다. 금융당국은 이번 조치가 금융사간 경쟁이 촉진되고 대출 금리가 내려갈 것으로 기대하고 있다.금융위원회는 31일부터 스마트폰 앱에서 은행, 저축은행, 카드·캐피탈사 등에서 기존에 받은 신용대출 정보를 조회해 유리한 조건으로 갈아탈 수 있는 ‘온라인·원스톱 대환대출 인프라’를 개시한다고 30일 밝혔다.대출 갈아타기는 네이버페이, 뱅크샐러드, 카카오페이, 토스 등 대출비교 플랫폼 앱에서 가능하다. 마이데이터를 통해 기존 대출을 확인하고 여러 금융사의 대출조건을 비교한 후 원하는 금융사 앱으로 이동해 대출을 갈아타는 식이다. 당국은 플랫폼별 제휴 금융사가 계속 늘어날 것으로 보고 있다.NH농협은행, 신한은행, 우리은행, 하나은행, 카카오뱅크, 케이뱅크, 롯데카드, 우리카드, 삼성카드, 신한카드 등 주요 금융사 앱애서도 대출 갈아타기가 가능하다. 마이데이터에 가입하지 않아도 다른 금융사에서 받은 기존 대출을 확인할 수 있고 대출 갈아타기도 바로 할 수 있다.옮길 수 있는 기존 대출은 53개 금융사에서 받은 10억원 이하의 직장인 대출, 마이너스통장 등 보증 및 담보가 없는 신용 대출이다. 갈아탈 수 있는 새로운 대출도 동일하다. 기존 대출을 새희망홀씨대출, 징검다리론, 햇살론 등 서민·중저신용자 대상 정책 대출로 갈아타는 것은 보증 여부와 관계 없이 가능하다.7월부터는 대출비교 플랫폼에서도 모든 카드론을 조회해 다른 대출로 갈아탈 수 있게 되지만, 연체 대출 또는 법률 분쟁, 압류 및 거래 정지 상태의 대출 등은 이 시스템을 이용해 갈아탈 수 없다.주택담보대출(주담대) 대환대출 서비스 출시는 12월 시작이 목표다. 이와 관련해 신진창 금융위 금융산업국장은 “주담대 대환대출은 플랫폼에서 원스톱으로 구현하기 어려운 점이 있다. 따라서 등기나 표준화 측면에서 가격 확인이 용이한 아파트 대상의 주담대부터 대환대출을 시작하는 것을 생각하고 있다”고 밝혔다.대환대출 서비스 이용 절차는 비교적 간단하다. 대출비교 플랫폼 또는 금융사 앱 내 대환대출 서비스를 선택하면 자신이 기존에 받은 대출의 금리, 갚아야 할 금액을 먼저 확인하게 된다. 이후 자신의 소득, 직장, 자산 정보를 입력해 새로 받을 수 있는 대출 조건을 조회해 더 나은 대출로 갈아탈 수 있는지 알아볼 수 있다.가장 유리한 조건의 대출로 갈아타기 위해서는 자신이 받을 수 있는 우대금리를 확인하는 것이 좋다. 이후 아낄 수 있는 이자와 기존 대출을 갚을 때 내는 중도상환 수수료를 비교해 갈아타는 게 얼마나 유리한지 파악할 수 있다.이런 과정을 거쳐 새 대출을 최종 선택하면 해당 금융회사 앱에서 대출 계약을 진행하게 된다. 계약이 완료되면 기존 대출금은 대출 이동 시스템을 통해 자동으로 상환된다. 소비자가 기존 대출이 완전히 갚아진 사실과 새 대출을 받은 결과를 모두 확인하면 갈아타기가 끝나게 된다.서비스는 은행 영업시간인 오전 9시부터 오후 4시까지 이용할 수 있고 이용 횟수에는 제한이 없다. 플랫폼 이용 시 앱 설치, 마이데이터 가입, 계좌 개설 등을 포함해 15분 이내로 상품을 갈아탈 수 있다. 스마트폰 이용에 익숙하지 않은 고령자 등은 금융사 영업점에서 대출 갈아타기를 신청할 수 있다.김소영 금융위원회 부위원장은 이날 브리핑에서 “서비스 개시 초반에는 지난해 고금리 대출을 받은 차주, 2금융권 고신용 차주를 중심으로 이자 경감 혜택이 있을 것”이라면서 “향후 소비자의 지속적인 이동과 금융회사 간 경쟁으로 각 금융회사의 대출금리가 일정한 범위 내로 수렴할 가능성도 있다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.05.29.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>제테크도 재미있게…`겟생`부터 `잼테크`까지 Z세대 트렌드</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002803398?sid=105</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>참가자들이 컨퍼런스를 마치고 기념 촬영을 하고 있다. KT 제공    Z세대들의 키워드로 '겟(Get)생', '잼테크', '쇼트폴리오' 등이 꼽혔다. KT는 자사 공식 대학생 마케팅 서포터즈인 'Y퓨처리스트'와 Z세대 트렌드 전문 연구기관인 대학내일20대연구소와 협업해 선정한 Z세대 트렌드 키워드를 공개했다.이 중 '겟생'은 단순히 열심히 삶을 살아가는 '갓생'에서 한 단계 더 나아가 잘 놀고, 잘 쉬는 것까지 포함해 삶의 조화를 추구하는 삶의 형태를 말한다. 학업, 대외활동, 아르바이트로 바쁘게 살아가는 와중 힐링 카페, 글램핑 등 자신에 초점을 맞춘 쉼 활동을 통해 에너지를 보충한다. 이외에도 '재미'와 '재테크'의 합성어인 '잼테크'는 Z세대가 금융 플랫폼의 가장 큰 특징으로 재미를 뽑았다는 점을 나타낸다. 지인들과 토스를 통해 함께 포인트를 받거나 캐릭터를 공유하고 함께 미션을 수행하는 과정을 재밌게 느끼면서 재테크로 이어진다는 설명이다. 기존의 포트폴리오와는 다르게 온라인 플랫폼에서 가볍게 나를 전시하는 Z세대의 특징인 '쇼트폴리오' 등도 꼽혔다.KT는 Y퓨처리스트들이 직접 선정한 Z세대 트렌드 키워드를 Y 마케팅에 반영했다.   구강본 KT 커스터머사업본부장(상무)는 "이 트렌드 키워드들을 상품 기획과 마케팅에 반영해 Z세대 고객이 원하는 혜택을 제공하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>"15분이면 끝…집에서 대출 갈아타세요"</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004196059?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>◆31일부터 온라인 대환대출 시작7개 플랫폼에 53개 금융사 참여10억원 이하 신용대출 환승 가능조회만으로 신용점수 안 떨어져우대금리 등 꼼꼼히 확인해봐야김소영 금융위원회 부위원장이 30일 정부서울청사에서 온라인 원스톱 대환대출 인프라 개시 관련 브리핑을 하고 있다. 오승현 기자[서울경제] 금융 소비자가 은행 영업점을 방문하지 않아도 토스 등 대출 비교 플랫폼에서 15분 만에 더 낮은 금리의 대출로 갈아탈 수 있는 ‘온라인 대환대출 서비스’가 31일 시작된다. 금융 당국은 이 서비스를 통해 약 4000억 원 규모가 이동할 것으로 보고 있다.30일 금융위원회는 1·2금융권 53개 금융회사가 참여하는 ‘온라인·원스톱 대환대출 인프라’를 개시한다고 밝혔다. 인프라에서 대출 조회가 가능한 금융사는 은행 19곳, 저축은행 18곳, 카드사 7곳, 캐피털 9곳 등이다.소비자가 스마트폰에 대출 비교 플랫폼이나 주요 금융 회사 애플리케이션을 설치하면 기존 대출 조회는 물론 금융사별 금리나 한도, 대환 서비스 등을 확인해 비교할 수 있다. 대출 비교 플랫폼을 통해서는 기존 대출을 확인하고 여러 금융회사의 대출 조건을 비교한 후 선택한 금융회사의 앱으로 이동해 대출 환승이 가능하다. 대출 비교 플랫폼은 △네이버페이 △뱅크샐러드 △카카오페이 △토스 △핀다 △KB국민카드 △웰컴저축은행 등 7개이며 향후 신한은행도 참여할 예정이다. 개별 금융회사 앱에서는 다른 금융회사에서 받은 기존 대출을 확인하고 해당 금융회사의 대출로 곧바로 갈아탈 수 있다.서비스 대상은 53개 금융회사에서 받은 10억 원 이하의 보증이나 담보가 없는 신용대출이다. 다만 기존 대출을 새희망홀씨 등 서민·중저신용자 대상 정책대출로 갈아타는 것은 보증 여부와 관계없이 가능하다. 인터넷은행 비상금대출 등은 SGI보증이 있어 대상이 아니다. 일부 카드론(장기카드대출)의 경우 플랫폼에서 기존 대출로 조회가 되지 않아 갈아타려는 금융회사 앱을 이용해야 하지만 7월 1일부터는 플랫폼에서도 모든 카드론을 조회할 수 있다. 또 연체된 대출이나 법률 분쟁, 압류 및 거래 정지 상태의 대출 등은 갈아탈 수 없다.서비스 이용 가능 횟수는 제한이 없으며 플랫폼에서 대출 조건을 수차례 조회해도 신용점수에 영향을 주지 않는다. 다만 중도 상환 수수료가 없는 대출의 경우 대출 계약을 실행한 지 6개월이 경과한 후에만(오프라인은 미해당) 이용 가능하다. 대출 이동 서비스 가능 시간은 영업일 기준 오전 9시부터 오후 4시까지다.금융 당국은 대환대출을 통해 자신이 아낄 수 있는 이자와 기존 대출을 갚을 때 내는 중도 상환 수수료를 비교해 대출 유지 및 환승 중에 어느 쪽이 유리한지 파악해야 한다고 강조했다. 갈아타려는 대출을 최종 선택하면 해당 금융회사 앱에서 대출 계약이 진행된다. 계약이 완료되면 소비자의 기존 대출금은 대출 이동 시스템을 통해 자동 상환된다. 스마트폰 이용에 익숙하지 않은 고령자 등 금융 소외 계층은 주요 은행 등의 영업점에 방문해 대출 갈아타기를 신청하면 된다.김소영 금융위원회 부위원장은 “지난해 고금리 대출을 받은 차주가 상대적으로 낮아진 금리로 이동하거나 2금융권 고신용자가 1금융권 중금리 상품으로 이동하는 경우 등을 중심으로 이자 경감 혜택이 있을 것으로 보인다”고 말했다. 김 부위원장은 이날 대출 이동 시스템이 운영되고 있는 금융결제원 분당센터 통합 관제실을 찾아 트래픽 관리 등 철저한 대응을 주문했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.05.24.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>대출도 예금도 실시간 이동…대환 경쟁, 진짜 소비자한테 좋을까</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004891065?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>[MT리포트]대출 전쟁 열린다(下)[편집자주] 오는 31일부터 온라인에서 클릭 몇 번으로 더 싼 대출로 갈아탈 수 있는 대환대출 서비스가 세계 최초로 시작된다. 고금리 시대, 더 낮은 이자를 찾아 이동하는 '대출 노마드'가 늘어날 것으로 예상된다. 이들을 정착시키려는 은행을 비롯한 금융회사간 금리 경쟁도 기대된다.━'온라인 대출 전쟁' 긴장하는 금융권…"플랫폼만 이득" vs "금리경쟁"━오는 31일 '대환대출 플랫폼' 출범을 앞두고 금융회사의 긴장감이 높아지고 있다. 대출금리를 두고 금융사끼리 출혈 경쟁을 벌이다 수익성이 악화할 수 있어서다. 앞으로 금융사가 빅테크에 종속될 수 있다는 지적도 나온다. 반면 대형 은행 사이에서는 금리 차이가 크지 않아 플랫폼 효과가 크지 않을 것이란 예상도 나온다. 23일 금융권에 따르면 5대 은행(국민·하나·신한·우리·농협은행)의 신용대출 금리구간은 연 4.69~6.29%이고, 은행별 금리 구간의 중간값은 5.24~5.585%다.5대 은행은 금리가 비슷한 수준이어서 대환대출 플랫폼이 시작되더라도 이동이 크지 않을 것으로 보고 있다. 특히 신용대출 실행 3년 이내에는 대출을 갚으면 0.7% 안팎의 중도상환수수료가 부과된다. 금리차이가 크지 않기 때문에 대환대출을 통한 금리 인하 효과보다 중도상환수수료가 더 큰 '배보다 배꼽이 큰' 결과가 초래될 수 있다. 결국 플랫폼사만 이득을 보고 금융소비자는 좋을 게 없다는 지적도 나온다. 금융사는 소비자들이 대환하면 중개수수료 명목으로 플랫폼에 수수료를 지급한다. 수수료가 결국 소비자들에게 전가될 수 있다. 처음 대환대출 플랫폼 도입을 논의했을 때부터 나온 얘기다. 대형은행 관계자는 "판매자도 손해보고 소비자도 손해보고 결국 중간에 수수료 챙기는 플랫폼만 이득을 볼 수 있다"고 말했다. 대형 플랫폼 종속도 금융회사가 걱정하는 부분 중 하나다. 토스(비바리퍼블리카)·카카오페이·네이버파이낸셜 등 빅테크가 대환대출플랫폼 시장을 사실상 장악할 수 있어서다. 실제 대부분의 시중은행은 중소형 규모의 핀테크와는 입점 논의를 하지 않는 것으로 알려졌다. 한 핀테크 관계자는 "중소형 핀테크 중 금융사를 한 군데도 입점시키지 못해 대환대출플랫폼을 포기할 수밖에 없는 상황에 처한 곳도 있다"며 "비교적 다양한 핀테크가 플레이어로 뛰는 대출비교서비스 시장과 달리 대환대출플랫폼 시장에선 빅테크 쏠림 현상이 더 심해질 것으로 보인다"고 말했다. 일부 대형 은행은 자신들이 쌓아온 '데이터'가 '빅테크'에 넘어갈 수 있다는 우려도 크다. 이에 신한은행은 자체 플랫폼을 오픈할 준비를 하고 있고, 국민은행은 플랫폼사 가운데 카카오페이와만 제휴를 맺었다. 또 다른 대형은행 관계자는 "국내에서 리테일 규모가 가장 큰 국민은행이 카카오페이만 제휴를 맺은 것은 의미가 있다"며 "자신들의 데이터를 조건 없이 타 플랫폼에 넘기는 게 받아들이기 어려울 것"이라고 설명했다. 저축은행 등 2금융권은 수익성 우려와 함께 고객 이탈을 우려한다. 우량 고객을 두고 업권 내 치열한 경쟁을 하다보면 수익성이 악화할 수 있다. 한 저축은행 관계자는 "저축은행은 시중은행과 달리 영업점이 많지 않아 대출의 상당 부분이 플랫폼을 통해 일어난다"며 "플랫폼 의존도가 높은 만큼 우량 고객을 빼앗기지 않기 위한 경쟁도 치열할 것으로 본다"고 말했다. 이어 "대환대출플랫폼의 등장은 금융소비자 입장에선 긍정적인 일이지만 금융사의 수익성 측면에선 좋은 일이라고 보기 어렵다"고 했다.반면 인터넷은행 업계는 이번 대환대출 플랫폼이 금융소비자의 편익을 올릴 기회가 될 수 있다고 보고 있다. 특히 인터넷은행측은 중저신용자를 중심으로 보다 많은 고객이 인터넷은행으로 유입될 것이라고 예측하고 있다. 한 인터넷은행 관계자는 "상대적으로 대출 금리가 낮은 인터넷은행에 고객들이 유입되는 효과가 있을 것으로 본다"고 말했다.━ 대출부터 예금, 보험까지…온라인서 한눈에 비교한다━ 3일 오후 시민들이 서울의 한 은행 자동입출금기 앞을 지나고 있다. /사진=뉴스1이달말 신용대출을 온라인에서 한번에 갈아탈 수 있게 된데 이어 연말에는 주택담보대출도 갈아탈 수 있는 길이 열린다. 다음달에는 예금도 갈아탈 수 있다. 연말에는 보험도 온라인으로 비교·추천하는 서비스가 나올 예정이다. 23일 금융당국에 따르면 오는 6월부터 온라인 예금 중개 서비스가 순차적으로 출시될 예정이다. 은행, 빅테크, 핀테크 등 9개 기업이 서비스를 준비 중이다. 규제 샌드박스를 통해 시범 운영한 뒤 내년 정식 제도화를 추진할 계획이다. 온라인 비교 대상은 은행과 저축은행의 정기 예·적금 상품이다. 예금 금리를 비교하고, 플랫폼 내에서 가입까지 가능하다. 다만 실제 가입절차와 예금 수취 등은 금융회사가 수행한다. 혹시 있을지 모를 예금 편취 등의 부작용을 방지하기 위해서다. 과도한 자금이동을 막기 위해 금융회사별로 판매비중 한도가 제한된다. 전년도 예적금 신규모집액 기준에서 은행은 5% 이내, 기타 금융회사는 3% 이내까지 비교 플랫폼을 통해 판매할 수 있다. 플랫폼은 예금 비교 뿐만 아니라 개인의 마이데이터를 활용해 우대금리를 포함한 맞춤형 '최고 금리' 추천 서비스를 할 수 있다. 저금리의 수시입출금 계좌에 남아있는 금액을 고금리의 예금이나 적금에 가입할 수 있게 추천해주는 서비스도 예상해 볼 수 있다. 가입 후에는 만기 알림, 갈아타기 추천 등의 서비스도 가능하다. 금융당국은 은행간의 경쟁을 촉진하기 위해 중개상품 범위를 저축성 상품에서 수시입출금식 예금상품으로 확대하는 방안을 검토 중이다. 추가 혁신금융서비스 지정해 플랫폼 간의 경쟁도 강화할 예정이다.이와 함께 이르면 올해 말 여러 가지 보험상품을 한눈에 비교할 수 있는 '보험 비교·추천 서비스'도 출시될 예정이다. 보험설계사 등에 미치는 영향을 고려해 우선 온라인 보험 상품(CM) 중 여행자보험 등 단기보험, 자동차보험, 실손보험, 저축성보험(연금 제외)이 비교·추천 대상이 된다. 금융업계 관계자는 "금융상품의 제조와 판매가 분리되는 것이 시대의 흐름이 됐다"며 "중개 플랫폼을 통해 소비자가 신용대출 한도나 예금금리 정보를 비교하는 것이 가능해지면서 소비자의 선택권이 확대되고, 동시에 은행 간의 경쟁도 강화될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.05.29.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>경기도, '경기청년 일자리 매치업' 2차 사업 참여 청년 모집</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/002/0002287479?sid=102</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>경기도와 경기도일자리재단은 올해 2차 '경기청년 일자리 매치업' 사업 참여자를 다음 달 14일까지 모집한다. 29일 도에 따르면 이 사업은 청년 구직자가 연결(매칭)된 우수 중소기업에서 3개월 동안 근무(일 경험)한 뒤 해당 기업의 자체 평가를 통해 정규직으로 채용하는 방식으로 진행된다. ▲'경기청년 일자리 매치업' 2차 모집 안내문, ⓒ경기도 도는 기업이 부담해야 할 3개월 인건비 중 경기도 생활임금 수준의 인건비(240만원)를 지원한다. 또 기업과 연결된 청년에게 기본교육(비즈니스 매너, 노동법 등)과 직장 적응 컨설팅, 잡아바 내 러닝센터를 활용한 맞춤형 직무교육 등 프로그램도 함께 제공한다. 이번 2차 모집에는 24개 기업이 참여해 △정보기술(IT) △기계 △영업 △마케팅 등 직무에서 근무할 청년을 채용할 계획이다. 특히 도는 2차 기업 모집부터 고용 안정성, 워라밸(일과 삶의 균형), 복리후생 등 청년들이 기업을 선택할 때 중시하는 요소를 평가표에 반영해 청년 친화적인 기업이 선발될 수 있도록 했다.  토스(toss) 앱 내 배너광고를 활용한 ‘타깃형 홍보’도 실시해 거주지·나이·소비 패턴 등 빅데이터를 분석, 도내 청년 구직자의 사업 참여도 적극 유도하기로 했다. 안치권 도 일자리경제정책과장은 “매치업 사업을 통해 청년에게는 ‘우수기업에서 일할 기회’, 기업에는 ‘우수 인재를 채용할 기회’를 각각 제공함으로써 청년과 기업 모두가 혜택을 받을 수 있도록 앞으로도 일자리재단·민간 등과 긴밀하게 협력해나가겠다”라고 말했다. 참여를 희망하는 경기도 거주 청년 구직자(만 18세~39세 이하)는 다음 달 14일까지 온라인 구인·구직 매칭 플랫폼 잡코리아(www.jobkorea.co.kr)를 통해 신청하면 된다. 앞서 도는 올해 1차 모집을 통해 기업 12곳과 청년 21명이 연결되는 성과를 거뒀다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>토스증권, 전 직군 50여명 공개채용 실시…내달 11일까지</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005262230?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>토스증권이 공개채용을 실시한다고 22일 밝혔다. 이날부터 다음 달 11일까지 총 3주간 전 직군에서 약 50여명을 채용할 계획이다.2021년 3월 공식 출범한 토스증권은 올해로 출범 3년 차를 맞았다. 현재 가입자 500만명, 해외주식 거래 시장점유율 20% 등 성과를 달성했다. 토스증권은 올해 첫 손익분기 달성이 가능할 것으로 보고 있다.토스증권은 이번 공개채용을 통해 회사의 성장속도를 높이고 향후 비즈니스 확장을 준비할 계획이다. 올해 서비스 출시를 앞둔 웹 주식거래 시스템(WTS), 해외 옵션 서비스와 함께 기존 서비스의 고도화 등을 계획하고 있다. 채용은 개발, 디자인, 컴플라이언스, 전략기획, 홍보, 재무 등 전 직군 대상이다.이번 공개채용에서 요구되는 최소 인정 경력은 별도로 없다. 입사 지원은 토스증권 채용 홈페이지를 통해 할 수 있다. 토스증권은 지원자에게 관련 정보를 제공하기 위해 유튜브 및 채용 홈페이지를 통해 관련 영상 콘텐츠를 제작해 공개할 예정이다.토스증권 관계자는 "토스증권은 모바일에 최적화된 서비스로 고객의 지지를 얻으며 외적 성장과 함께 내실도 다져가고 있다"며 "이번 대규모 공채는 한 단계 더 높은 곳을 향하기 위한 첫 번째 준비로 토스증권과 혁신을 함께할 많은 지원자의 참여를 기다린다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>5대 은행 예대금리차, 우리은행 1.22%p ‘최대’</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000045253?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>4월 집계, 하나·농협·국민·신한은행 순은행권 전체, 전북은행·토스뱅크 4%p대서울 시내에 설치된 은행 현금자동인출기(ATM). [사진 연합뉴스][이코노미스트 마켓in 김윤주 기자] 지난달 5대 시중은행 중 서민금융을 제외한 가계대출 예대금리차가 가장 컸던 곳은 우리은행으로 조사됐다. 은행권 전체에서는 전북은행의 가계대출 예대금리차가 가장 컸다.22일 은행연합회 소비자 포털에 공시된 ‘예대금리차 비교’ 통계에 따르면 올해 4월 햇살론뱅크·햇살론15·안전망 대출 등 정책서민금융을 뺀 가계 예대금리차(가계대출금리-저축성수신금리)는 우리은행이 1.22%p로 가장 컸다. 이어 ▲하나은행 1.20%p ▲NH농협은행 1.18%p ▲KB국민은행 1.13%p ▲신한은행1.02%p 순으로 가계 예대금리차가 컸다.인터넷은행, 지방은행, 외국계 은행을 포함해 이날 공시에 참여한 19개 은행 가운데 정책서민금융 제외한 가계 예대금리차가 가장 큰 곳은 전북은행으로 4.94%p를 기록했다. 이어 토스뱅크가 4.28%p를 나타냈다. 기업 대출까지 포함한 전체 은행의 예대금리차는 5대 은행 가운데 우리은행이 1.60%p로 가장 컸다. KB국민은행과 하나은행이 1.59%p를 기록했으며, NH농협은행 1.53%p, 신한은행 1.38%p로 뒤를 이었다.지난해 7월부터 19개 은행의 월별 예대금리차 공시가 시작됐다. 지나친 ‘이자 장사’를 막자는 취지다. 예대금리차가 상대적으로 크다는 것은 산술적으로 대출·예금 금리 격차에 따른 마진(이익)이 많은 것으로 해석된다. 지난해 7월 첫 공시 후 은행권이 저소득·저신용 서민 대상 정책금융상품의 금리가 높아 이를 많이 취급할수록 예대금리차가 커지는 왜곡 현상을 지적하자, 한달 뒤인 8월부터 일부 정책금융상품을 제외한 예대금리차가 따로 공개되고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>코스트코, 안진·한영 회계법인 올해도 어린이집 설치 의무 안 지켜</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000905365?sid=102</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>컬리 ‘보육수요 없음’ 소명했으나 인정 안 돼토스 운영 비바리퍼블리카는 설치 중        코스트코 코리아와 딜로이트안진회계법인, 한영회계법인 등이 지난해에 이어 올해에도 직장어린이집을 설치해야 하는 의무를 이행하지 않은 것으로 나타났다. 코스트코는 어린이집을 설치하지 않는 이유를 밝히지 않았고, 딜로이트안진회계법인과 한영회계법인은 보육 수요가 없다고 소명했다.경기도 의정부시 민락동 코스트코 의정부점. /조선DB        보건복지부와 고용노동부는 지난해 말 기준 직장어린이집 설치 의무를 이행하고 있는지 실태를 조사한 후 의무를 다하지 않은 27개 사업장의 명단을 공표한다고 30일 밝혔다.상시 여성근로자가 300명 이상이거나 성별 구분 없이 상시 근로자가 500명 이상 고용하고 있는 사업장은 직장어린이집을 설치하거나, 어린이집과 계약을 체결해 위탁보육을 실시해야 한다. 직장어린이집을 설치할 경우 운영 비용 50% 이상을 부담해야 한다. 외부 어린이집을 활용할 경우 근로자 자녀의 30% 이상을 위탁해야 하고, 보육에 필요한 비용의 50% 이상을 지원해야 한다. 고용부는 직장어린이집 설치비 최대 6억원, 보육교사 인건비 1명당 월 최대 60만원을 지원하고 있다. 의무를 이행하지 않을 경우 영유아보육법에 따라 명단이 매년 공표된다.정부 조사 결과 지난해 말 기준 직장어린이집 설치 의무가 있는 사업장은 1602곳이다. 그 중 1466곳(91.5%)가 직장어린이집을 설치(1088곳)하거나 위탁보육(378곳)으로 의무를 이행했다. 의무를 이행하지 않은 사업장 136곳 중 직장어린이집을 설치 중이거나, 사업장 특성상 보육 수요가 없는 경우(109곳)을 뺀 27곳이 이번에 공표 대상이 됐다.지난해 말 기준 직장어린이집 설치 의무 미이행 사업장은 ▲나노마이크로텍 ▲다스 ▲더블유씨피 ▲딜로이트 안진회계법인 ▲메가스터디교육 ▲비바리퍼블리카 ▲비즈테크아이 ▲신성통상 ▲쌍용정보통신 ▲씨젠의료재단 ▲에듀윌 ▲의료법인 거붕 백병원 ▲이와이컨설팅 ▲컬리 ▲코스맥스 ▲코스트코 코리아 ▲쿠팡풀필먼트서비스 유한회사 대구1,2센터 ▲쿠팡풀필먼트서비스 유한회사목천센터 ▲쿠팡풀필먼트서비스 유한회사양산센터 ▲쿠팡풀필먼트서비스 유한회사 창원1센터 ▲쿠팡풀필먼트서비스 유한회사 창원4센터 ▲쿠팡풀필먼트서비스 유한회사평택센터 ▲한국잡월드파트너즈 ▲한영회계법인 ▲현대아이에스씨주식회사 ▲혜명심의료재단 울산병원 ▲중앙대학교 산학협력단 등이다.보건복지부·고용노동부 제공        이 중 ▲다스 ▲딜로이트 안진회계법인 ▲비즈테크아이 ▲이와이컨설팅 ▲코스트코코리아 ▲한영회계법인 등 6곳은 지난해에 이어 올해까지 연속으로 직장어린이집 설치 의무를 이행하지 않아 명단이 공표됐다. 코스트코는 특별한 사유를 소명하지 않았고, 딜로이트안진과 한영 회계법인은 ‘보육수요가 없다’고 소명했으나 ‘직장어린이집 명단공표심의위원회’가 인정하지 않았다. 다스와 비즈테크아이, 이와이컨설팅도 보육수요가 없다고 했으나 역시 인정되지 않았다.쿠팡의 물류센터들인 쿠팡풀필먼트서비스 6곳은 소명 사유가 ‘기타’였다. 모바일 금융 플랫폼 ‘토스’를 운영하는 비바리퍼블리카는 직장어린이집을 설치 중이다. 컬리와 신성통상은 ‘보육 수요가 없다’고 소명했으나 인정되지 않았다.정부는 직장어린이집 설치 의무를 이행하지 않은 136개 사업장을 지방자치단체에 통보하여 설치 이행 명령, 이행강제금 부과 등 후속 조치를 이어갈 예정이다. 1회 이상 이행강제금이 부과된 이후에도 직장어린이집을 설치할 계획이 없으면 근로복지공단이 개별 상담을 실시하여 의무 이행을 유도한다.이기일 보건복지부 제1차관은 “직장어린이집은 이용 부모의 만족도가 높고, 일과 가정의 양립을 위한 중요한 역할을 하고 있다”며 “더 많은 사업장에 직장어린이집이 설치되도록 해 일하는 부모의 양육부담을 줄여 나가겠다”고 했다. 권기섭 고용노동부 차관은 “미이행 사업장에 대해 설명회·컨설팅을 제공하겠다”며 “향후 중소기업·대기업 근로자가 공동으로 이용하는 다양한 형태의 직장어린이집을 확충하도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.05.25.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>여기어때, 국내 숙소 5만원 할인 쿠폰 쏜다</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002293497?sid=105</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>‘대한민국 숙박 세일 페스타’ 참여여행·여가 플랫폼 여기어때(대표 정명훈)가 문화체육관광부와 한국관광공사가 주관하는 ‘대한민국 숙박 세일 페스타 지역편’에 참여한다.이달 30일부터 다음달 2일까지 국내 숙소 5만원 할인 쿠폰을 제공한다. 여기어때 앱에서는 지역별로 쿠폰 사용이 가능한 숙소 리스트를 따로 볼 수 있어 보다 효율적인 예약이 가능하다.쿠폰은 이벤트 기간 동안 매일 선착순 발행한다. 오전 10시에 시작해, 수량이 소진되지 되지 않는다면 다음날 오전 7시에 종료한다. 쿠폰은 발급 후 다음날 오전 7시까지 사용해야 하며, 미사용 시에는 재발급이 가능하다. 쿠폰 발급부터 사용까지 모두 2일 오전 7시에 최종 마감하는 일정이다.여기어때쿠폰은 경기, 인천, 부산, 강원, 경북 등 지역 1곳을 선택한 후, ‘숙박 페스타’ 뱃지가 표시된 숙소에서 자유롭게 사용할 수 있다. 7만원 초과 숙박 시 쿠폰이 적용된다. 체크인 기간은 이달 30일부터 7월14일까지다.여기어때는 예약 편의성을 높이고자 지역별로 쿠폰을 쓸 수 있는 숙소 리스트도 공개한다. 원하는 관광지를 선택하면 쿠폰 사용이 가능한 숙소들만 따로 볼 수 있어 예약 절차가 간편하다.쿠폰 외, 여기어때 전용 결제사 혜택도 가득하다. 토스, 카카오페이 등 간편 결제 서비스로 국내 숙박을 예약하면 최대 10% 추가 할인을 받을 수 있다.여기어때 임세빈 마케팅총괄은 “당분간 국내 숙소를 저렴한 가격으로 이용할 수 있는 숙박 행사가 계속 이어진다”며 “본격 휴가철을 앞두고 국내 관광이 활발해 지도록 기회를 만들겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.05.21.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>금리 상승, 이자 부담에···2년간 670만건 대출 연체이자 냈다</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003224754?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>지난달 서울의 한 은행에 대출 광고가 붙어있다.  연합뉴스지난 2년간 5대 시중은행과 인터넷전문은행 3개사가 신용대출 및 주택담보대출 상환을 연체한 차주(대출받은 사람)에게 지연배상금(연체 이자)을 부과한 건수가 670만건에 이르는 것으로 나타났다. 금리 상승으로 이자 부담이 커진 탓에 빚을 제때 갚지 못한 차주가 그만큼 많았던 것으로 해석된다.21일 국회 정무위원회 소속 최승재 국민의힘 의원이 금융감독원에서 받은 자료에 따르면 2021~2022년 KB국민·신한·하나·우리·NH농협은행 등 5대 은행과 카카오·케이·토스뱅크 등 인터넷은행 3사가 차주에게 지연배상금을 부과한 건수는 약 670만건, 규모는 총 460억원가량이었다.지연배상금은 차주가 이자를 연체했을 때 은행이 차주에게 추가로 부과하는 이자다. 일반적으로 대출 약정이자율에 3%포인트를 더한 이자율과 최고 15% 중에서 낮은 것을 적용해 지연배상금액을 산출한다.가계대출의 경우 연체 기간이 1개월 미만이면 밀린 이자에 연체이자율을 적용해 지연배상금을 정한다. 연체 기간이 1개월 이상이면 밀린 이자가 아닌 원금에 연체이자율을 적용하기 때문에 지연배상금이 급증하게 된다.5대 은행과 인터넷은행이 1개월 미만 연체한 신용대출 차주에게 지연배상금을 납부한 건수는 2021년 139만건에서 2022년 145만건으로 늘었고, 납부 총액은 26억9000만원에서 37억7000만원으로 증가했다.그러나 1개월 이상 연체에 대한 지연배상금 납부 건수는 같은 기간 27만건에서 26만건으로, 납부 총액도 44억원에서 43억원으로 소폭 감소했다. 1개월 이상 연체하면 지연배상금이 많이 늘어나므로 차주들이 장기 연체를 먼저 상환한 것으로 보인다.고신용자(코리아크레딧뷰로 820점 이상)의 신용대출 지연배상금액이 중·저신용자(820점 미만)보다 더 큰 폭으로 늘어난 것도 눈에 띈다.중·저신용자의 지연배상금 납부액이 2021년 54억원에서 2022년 61억원으로 12.7% 증가하는 동안 고신용자는 137억원에서 194억원으로 38.5% 늘었다. 일반적으로 고신용자는 중·저신용자보다 더 많은 액수를 빌리는 데다 금리까지 급등하자 이자를 밀린 것으로 풀이된다.최 의원은 “연체하면 가산 이자가 붙는 것은 당연하지만, 경기침체로 차주의 상환 부담이 가중될 수 있는 상황”이라며 “부채 상황을 주시하면서 건전성을 신중하게 관리할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>"더 싼 금리로 15분 만에 갈아타세요" 대환대출, 이용 방법은?</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000219543?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>대출비교 플랫폼이나 금융사 앱에서 이용 가능 스마트폰 애플리케이션(앱)으로 간단히 대출을 갈아탈 수 있는 온라인·원스톱 대환대출 서비스가 31일부터 개시된다. 이날 가동되는 대환대출 서비스는 대출비교 플랫폼 앱과 금융회사 앱 등 크게 두 가지 방법으로 이용할 수 있다. /더팩트 DB스마트폰 터치 몇 번으로 대출을 갈아탈 수 있는 온라인·원스톱 대환대출 서비스가 31일부터 개시된다. 시중은행뿐 아니라 저축은행, 카드·캐피탈 등 기존에 받은 신용대출을 더 유리한 조건으로 한번에 갈아탈 수 있어 차주들의 관심이 뜨거울 전망이다.대환대출 서비스는 소비자가 과거에 받은 대출을 타 금융사 대출로 쉽게 옮길 수 있는 서비스다. 옮기고 싶은 금융사에 대출을 신청하면 기존 대출은 금융회사 간 대출이동시스템을 통해 안전하고 신속하게 옮겨진다.기존엔 금융회사 2곳을 방문하고 최소 2영업일을 기다려야 했으나 영업점에 방문하지 않고 대출 갈아타기가 가능해진다는 점이 가장 큰 특징이다. 모바일 앱 설치부터 대환 결과 확인까지 15분 내외가 소요될 것으로 전망된다.이 서비스가 가능한 상품은 해당 서비스에 참여한 53개 금융회사에서 받은 10억 원 이하의 기존 신용대출이다. 무보증 상품이어야 하나 기존 대출을 중저신용자대상 정책대출로 갈아타는 경우에는 보증 여부와 관계 없이 가능하다. 금융위는 연내 신용대출에 국한된 대환대출 대상을 주택담보대출로까지 확대할 계획이다.온라인·원스톱 대환대출 서비스는 대출비교 플랫폼 애플리케이션(앱)과 금융회사 앱 등 두 가지 방법을 통해 이용할 수 있다. 여러 금융회사 대출 조건을 비교하고 싶다면 대출비교 플랫폼을, 갈아타려는 회사를 정해놨다면 금융회사 앱에서 바로 이용하면 된다.두 가지 방법 중 대출비교 플랫폼을 이용한다면 우선 마이데이터 가입을 해야 한다. 마이데이터는 대출비교 플랫폼 앱 내에서 간단히 가입할 수 있다. 이후 해당 앱 내 대환대출(대출 갈아타기) 메뉴를 선택하면 된다. 본인이 기존에 받은 대출의 금리, 갚아야 할 금액 등을 바로 확인할 수 있으며, 이 중 대환대출하려는 상품을 선택한다.직장, 소득, 자산 정보를 입력하면 갈아탈 수 있는 금융회사와 대출 상품을 보여준다. 금리, 한도 등 원하는 조건별로 정렬해서 비교할 수 있다. 갈아탈 대출의 변동·고정금리 여부, 중도상환수수료 등을 확인할 수 있고, 급여이체, 카드 실적 등 우대조건을 입력하면 우대금리도 확인 가능하다. 갈아탈 대출을 최종 선택하면 자동으로 해당 금융사 앱으로 이동해 새 대출 계약이 이뤄진다.대출비교 플랫폼을 이용하면 여러 금융회사 금융상품을 한눈에 비교할 수 있어 더 나은 조건의 상품을 찾기 쉽다. 대출비교 플랫폼은 카카오페이, 네이버페이, 비바리퍼블리카(토스), 뱅크샐러드, 핀다, KB국민카드, 웰컴저축은행 등 7개사가 참여했다. 향후 신한은행과 키움증권도 이러한 플랫폼을 구축할 계획이다.다만, 비교 추천 과정에선 플랫폼마다 차이가 발생한다. 플랫폼 회사들이 제휴를 맺은 금융회사 수가 다르기 때문이다. 대출을 옮기고자 하는 금융사를 미리 결정한 경우라면 금융사 앱에서 진행할 수 있다. 해당 금융사 앱에 접속해 대환대출 메뉴를 선택하면 된다. 기존 대출 중 바꾸고 싶은 대출을 선택하고, 갈아탈 상품을 조회하면 된다. 대출비교 플랫폼과 같이 변동·고정금리 여부나 상환방식, 기존 대출 상환 시 중도상환수수료, 갈아탈 대출에서 적용받을 수 있는 우대금리 등을 확인하고 새로운 대출계약을 실행하면 된다.금융사 앱을 통해 대환대출하면 마이데이터에 가입하지 않아도 된다. 다만, 금융사 앱에선 다른 금융사 대출 비교가 안 되거나 되더라도 타사 상품 대환은 불가능하다. 오직 자사 상품 대환만 가능하다.은행 15곳, 저축은행 7곳, 카드 7곳, 캐피털 4곳 등 33개 금융회사가 자사 앱에서 대환 서비스를 제공한다. 은행이나 저축은행으로 갈아탈 경우 대출금을 받기 위한 계좌를 개설해야 하는 경우도 있다.금융위원회는 대환을 완료하면 기존 대출을 완전히 갚은 사실과 새로운 금융회사에서 대출받은 사실을 모두 정확히 확인해야 한다고 당부했다.아울러 대환대출 서비스 개시에 맞춰 보이스피싱 등의 금융 범죄가 활개를 칠 가능성도 있는 만큼 소비자들의 주의도 요구된다. 소비자는 대환대출 서비스와 관련해 전화, 문자메시지 등을 통해 특정 계좌에 입금할 것을 요구받는 경우 주의해야 한다. 대출 심사에 필요한 정보를 제공하지 않았는데도 과도하게 낮은 금리 등을 제시하며 특정 금융회사로 갈아탈 것을 유도하는 경우도 유의해야 한다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>토스증권, 전 직군 공개채용…개발·디자인·기획·재무 등 약 50명 뽑는다</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006821102?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>(토스증권 제공)(서울=뉴스1) 이기림 기자 = 토스증권은 6월11일까지 3주간 전 직군을 대상으로 대규모 공개채용을 연다고 22일 밝혔다. 토스증권이 희망하는 채용 인력은 약 50명 수준으로, 단독 공채는 출범 이후 처음이다.2021년 3월 공식 출범한 토스증권은 5월 현재 가입자 500만명, 해외주식 거래 시장점유율 20%, 적립식 주식투자 '주식 모으기' 이용자 60만명 달성 등 성과를 보여왔다. 그 결과 경영성과 측면에서도 출범 3년차만에 손익분기 달성이 가시화되고 있다.토스증권은 이번 공개채용을 통해 회사의 성장속도를 높이고 향후 비즈니스 확장을 준비할 계획이다. 올해 서비스 출시를 앞두고 있는 웹 주식거래 시스템(WTS), 해외 옵션 서비스와 함께 기존 서비스의 고도화 등을 토스증권은 계획하고 있다. 채용은 개발, 디자인, 컴플라이언스, 전략기획, 홍보, 재무 등 전 직군을 대상으로 한다.토스증권 관계자는 "지난 2년간 토스증권은 모바일에 최적화된 서비스로 고객의 지지를 얻으며 외적 성장과 함께 내실도 다져가고 있다"며 "이번 대규모 공채는 한단계 더 높은 곳을 향하기 위한 첫번째 준비로 토스증권과 혁신을 함께 할 많은 지원자의 참여를 기다린다"고 밝혔다.전 직군에 걸쳐 진행되는 이번 공개채용에서 지원 자격으로 요구하는 최소 인정경력은 별도로 없으며, 각 직무에 맞는 경험과 역량이 있다면 지원할 수 있다.입사 지원은 토스증권 채용 홈페이지를 통해 할 수 있다. 또한 회사 비전과 일하는 방식 등 지원자에게 도움이 될 수 있는 영상 콘텐츠를 제작, 유튜브와 채용 홈페이지를 통해 공개할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>대환대출인프라, 취급 범위·한도 오락가락 혼선</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000749522?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>가이드라인 없어 금융사마다 기준 제각각대환대출인프라가 출범했지만, 혼선이 빚어지고 있다. 금융당국과 은행들이 신용대출 범위를 제각각 해석해 실제로 은행들이 취급할 한도가 얼마인지 오락가락하는 상황이 이어지고 있다.금융위원회는 31일 네이버페이·뱅크샐러드·카카오페이·토스·핀다·국민카드·웰컴저축은행 앱에서 기존에 받은 신용대출을 더 유리한 조건으로 갈아타는 대환대출인프라 서비스를 시작했다. 이들 플랫폼 외에도 갈아타기를 원하는 53개 금융회사 앱에서 직접 신청할 수도 있다.모바일뱅킹을 이용중인 사용자 [사진=뉴시스 ]출시 첫날 오전 9시부터 12시30분까지 이뤄진 대환대출 건수는 834건(216억원)에 그쳤다. 출시 전 특정 플랫폼에서만 사전 신청이 30만명을 넘어서며 수요가 빗발쳤던 것과 달리 사뭇 다른 모습이다. 금융위가 애초 기대했던 2금융권 고신용자의 은행 이동도 없었다. 이날 이뤄진 대환대출의 90%는 은행에서 은행 간 이동이었다.소비자들은 불만을 토로했다. 서울에 거주는 40대 A씨는 "신용도가 950점 이상이고 총부채상환비율(DSR)도 70% 이상 한도가 남았는데도 부결됐다"면서 "주변에서도 승인된 사례를 찾기 어렵다"고 말했다. 그는 "운영 기준과 대상에 대한 안내가 필요하다"고 지적했다.서울에 거주하는 30대 B씨도 "기존 대출 조회랑 틀린 게 없어 보인다"면서 "심지어 기존 대출보다 금리가 높은데 누구를 위한 서비스인지 모르겠다"고 평가했다.갈아탈 수 있는 신용대출의 범위와 기준을 명확하게 제시하지 않은 탓에 금융회사별 운영 기준도 제각각인 탓이다.금융회사 관계자는 "금융위에서 대환대출인프라로 갈아탈 수 있는 신용대출의 범위를 명확하게 제시하지 않았다"면서 "애초 어느 상품을 어디까지 취급해야 하는지부터 기준이 없다"고 말했다.그는 "금융위는 은행의 경우 취급 한도를 신규 신용대출의 10% 또는 4천억원까지로 규정했는데, 신규 신용대출의 기준을 주지 않아 자율적으로 제출했고, 은행마다 기준이 달라 어느 고객을 어디까지 받아야 하는지도 기준이 없는 상황"이라고 전했다.플랫폼 회사 관계자는 "금융당국은 가이드라인을 주지 않고 무한 경쟁을 통해 금리를 낮추는 효과를 기대했겠지만, 금융회사로선 무리해서 금리를 낮춰 고객을 유인할 이유가 없고 소비자로서도 장점이 크지 않아 보인다"면서 "플랫폼 입장에선 수수료를 깎아서라도 금리를 낮춰야 하는 상황"이라고 설명했다.금융위 관계자는 "각 금융회사가 플랫폼과 조율을 거쳐 시스템을 안정화하고 있다"면서 "참여 금융회사도 늘고 있어 점차 개선될 것으로 전망한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.05.19.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>토스증권, MTS 서비스 개시 26개월 만에 가입자 500만 명 돌파</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002145545?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>[토스증권 제공][헤럴드경제=권제인 기자] 토스증권은 MTS(모바일트레이딩시스템) 서비스 개시 26개월 만에 가입자 500만명을 돌파했다고 19일 밝혔다.국내 전체 주식 투자 인구 중 35%가 해당 서비스에 가입한 셈이다. 한국예탁결제원에 따르면 지난해 연말 기준 국내 주식 투자 인구는 1440만명이다.토스증권은 모바일 최적화된 설계와 지속적인 개선, 고객 수요에 앞선 서비스 개발이 성장세를 이끈 것으로 평가했다. 해당 노력이 해외주식 서비스에서 20% 넘는 시장점유율을 확보하는 등 실질적인 성공으로 이어졌다는 설명이다.2021년 3월 첫선을 보인 토스증권 MTS는 잘 사용하지 않는 기능과 투자 지표를 과감히 생략하며 고객의 투자 경험을 새롭게 설계했다. 기존 증권사의 MTS가 HTS(홈트레이딩시스템)를 작은 화면에 옮겨 기능이 많지만, 사용성 개선이 필요하단 지적이 있어왔다.또한, ‘해외주식 리얼타임 소수점 거래 서비스’ 등의 개발은 해외주식 시장점유율 상승을 견인했다. 지난해 4월 선보인 이 서비스는 비싼 해외주식을 소수점 단위로 살 수 있는 서비스에 시차 없는 실시간 거래를 제공했다. 그 결과 1년이 지난 올해 4월 기준 토스증권의 해외주식 시장점유율은 21%로 업계 최상위 수준을 기록하고 있다.토스증권 관계자는 “500만 가입자 돌파는 초보 투자자와 함께 성장한다는 초기 목표를 넘어, 모든 투자자에게 ‘투자하면 생각나는 첫 번째 증권사’로 향하는 중요한 이정표”라며 “올 하반기 선보일 WTS(웹트레이딩시스템)와 해외옵션 등 신규 서비스는 토스증권다운 또 다른 투자 경험을 고객에게 제공하게 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.05.18.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>알뜰폰, 그곳에선 왜 '비명'이 새어 나오나 [視리즈]</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/665/0000000970?sid=105</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>[視리즈] 알뜰폰 엇갈린 시선➊  가입자 1400만명 앞둔 알뜰폰중소 사업자는 고사할 위기시장 장악한 이통3사 자회사자본 탄탄한 금융사 뛰어들어도매대가 낮추면 숨통 트일까중소 알뜰폰 사업자의 처우를 두고 언론의 평가가 엇갈리고 있다.[일러스트=게티이미지뱅크, 더스쿠프 포토]# 알뜰폰이 눈부시게 성장하고 있습니다. 올해 안에 가입자 수 1400만명을 넘을 거란 장밋빛 전망이 쏟아집니다. 이만하면 '소비자 가계 통신비 인하에 기여한다'는 출범 당시의 목표도 어느 정도 달성한 듯합니다. '0원 요금제' 같은 공격적인 마케팅으로 소비자들의 지갑 부담을 덜어주고 있죠.# 하지만 이곳에선 여전히 비명이 흘러나옵니다. 알뜰폰 시장을 이통3사 자회사가 빠르게 장악한 탓에 중소 알뜰폰 사업자들이 고사할 위기에 처해 있다는 이유에서입니다.# 왜 알뜰폰의 겉과 속이 이렇게 다른 걸까요? 알뜰폰 시장에서 지금 무슨 일이 벌어지고 있는 걸까요. 더스쿠프가 視리즈 알뜰폰의 비명을 통해 그 시장의 현주소를 냉정하게 살펴봤습니다. 그 첫번째 편입니다.알뜰폰 가입자가 올해 1400만명에 이를 거란 전망이 나온다.[사진=뉴시스]알뜰폰 가입자 수가 빠르게 증가하고 있습니다. 과학기술정보통신부의 통계자료에 따르면 지난 1월 알뜰폰 가입자 수는 1306만2190명으로 2012년 서비스를 출범한 지 11년 만에 1300만명을 넘어섰습니다. 3월에도 1363만3057명을 기록하면서 꾸준히 가입자 수가 늘고 있습니다.이 속도대로라면 올해 안에 가입자 1400만명을 달성할 수 있을 것으로 보입니다. 이통사 3곳의 평균 가입자 수가 2145만6909명이란 점을 감안하면, 상당히 많은 수입니다.그런데도 알뜰폰 업계의 분위기는 썩 좋지 않습니다. 내부에선 '위기'란 단어가 자꾸 흘러나옵니다. 시장이 커지고 있지만 정작 알뜰폰 사업자 대부분이 고전하고 있다는 이유에서인데, 틀린 말은 아닌 듯합니다.지난해 10월 과학기술정보통신부의 발표에 따르면, 알뜰폰 사업을 운용하는 53개사 중 알뜰폰 가입자 수가 10만명을 넘는 사업자는 19개에 그쳤습니다. 나머지 34개 업체의 가입자 수는 10만명을 밑돌았다는 얘깁니다. 심지어 그중 17개 업체는 가입자를 1만명도 모으지 못했습니다.그렇다고 가입자 10만명 이상인 19개 사업자의 상황이 괜찮은 것도 아닙니다. 가입자 100만명을 넘는 KT엠모바일을 필두로 미디어로그(LG유플러스 자회사)·LG헬로비전·SK텔링크 등 이동통신3사가 운영하는 알뜰폰 사업자 4개가 50만명 이상으로 상위권을 차지하고 있습니다.이들 업체를 제외하면 가입자 30만명 이상을 보유한 곳은 유니컴즈, 프리텔레콤, 큰사람, KB국민은행 등 4개에 불과합니다. 규모가 커진 알뜰폰 시장의 과실을 이통3사가 차지하고 있는 셈입니다. 약간 오래된 자료이긴 합니다만, 현재 이통3사 자회사의 알뜰폰 시장점유율은 전체의 51.0%(과학기술정보통신부·2022년 2월 기준)에 달하죠.[자료 | 과학기술정보통신부, 사진 | 뉴시스]이런 구조에서 KB국민은행·토스모바일 등 자금력이 탄탄한 기업을 제외한 중소 알뜰폰 사업자들이 버티기가 쉽지 않습니다. 앞서 언급한 19개 사업자 중 세종텔레콤은 지난해 매출 3243억원, 영업적자 55억원으로 2021년(75억원)에 이어 2년 연속 적자를 기록했습니다. 스테이지파이브도 매출 272억원, 영업적자 55원에 그쳤죠. 그나마 규모가 큰 알뜰폰 사업자들이 이러니, 영세한 사업자들의 상황이 어떨지는 불 보듯 뻔합니다.그래서인지 정부는 최근 중소 알뜰폰 사업자 달래기에 여념이 없습니다. 지난 3월 10일 과기부는 알뜰폰 간담회를 열고 ▲이통3사의 알뜰폰 시장점유율 제한 ▲다양한 5G 알뜰폰 요금제 출시 장려 ▲알뜰폰 회사들의 도매대가 인하 등을 추진하겠다고 밝힌 바 있습니다.특히 5G에서 알뜰폰 사업자에 힘을 실어주려는 모습을 보이고 있습니다. 간담회 이후 박운규 과기부 제2차관은 지난 4월 25일 기자들과의 만남에서 "5G 도매대가를 신속하게 낮출 수 있도록 노력할 것"이라고 재차 강조했죠. 5G 도매대가는 알뜰폰 사업자가 통신망을 빌린 대가로 이통3사에 지급하는 비용으로, 이를 책정하는 권한은 이통3사에 있습니다. 현재 알뜰폰 사업자들은 LTE(4G)에선 요금제의 40%, 5G에선 60%를 이통3사에 도매대가로 지불합니다.그렇다면 5G 도매대가가 뭐기에 과기부 차관이 나서 '5G 도매대가의 인하'를 언급했을까요? 답은 간단합니다. 과기부가 알뜰폰 육성 정책을 펼치는 이유 중 하나는 중소 알뜰폰 사업자들을 이통3사와 경쟁할 수 있도록 만들기 위해서입니다. 하지만 중소 사업자들의 주요 무대는 4G입니다. 5G 알뜰폰 가입자는 22만105명(3월 기준)으로, 전체 5G 가입자(2960만502명)의 0.7%에 불과합니다. 뒤집어 말하면 알뜰폰 사업자들이 성장하려면 5G 가입자를 늘려야 한다는 겁니다.그런데 언급한 것처럼 알뜰폰 사업자는 요금제의 60%를 이통3사에 지급해야 합니다. 당연히 5G 요금제를 짤 때 4G만큼의 가격 경쟁력을 만드는 게 쉽지 않습니다. 중소 알뜰폰 업체들이 5G 도매대가 인하를 요구하는 이유입니다. 인하한 만큼을 요금제에 반영할 수 있기 때문이죠.그럼 5G 도매대가를 인하하면 5G 알뜰폰 가입자도 늘어날까요? 이전의 통계를 보면 쉽게 답을 찾을 수 있습니다. 2020년 이통3사가 5G 도매대가를 한차례 낮춰주자 이듬해 5G 알뜰폰 가입자 수가 5905명(2020년 12월)에서 5만4815명(2021년 12월)으로 10배 가까이 늘어났습니다. 이는 이통3사가 도매대가를 낮추면 중소 알뜰폰 업체에 큰 도움을 준다는 걸 입증해 줍니다. 정부가 이통3사를 재차 설득해 도매대가를 낮추려 하는 건 이런 이유에서입니다.[자료 | 과학기술정보통신부, 사진 | 뉴시스]여기까지가 알뜰폰 시장의 현재 상황입니다. 알뜰폰 가입자는 늘어난 게 사실이지만, 그 속 업체간 불균형은 더 심화했습니다. 이 상황을 두고 언론은 저마다 각기 다른 해석을 내놓고 있습니다.한쪽에선 "알뜰폰의 혜택을 보는 소비자가 늘어났으면 된 것 아니냐"면서 "기업의 흥망성쇠를 결정하는 건 시장의 몫"이라고 말합니다. '모로 가든 한양으로만 가면 된다'는 겁니다. 하지만 반론도 귀담아들을 만합니다. "지금은 알뜰폰의 수혜를 입는 소비자가 늘어났을지 모르지만, 멀리 보면 상황이 달라진다. 중소 알뜰폰 업체가 고사하면 결국엔 소비자 혜택도 줄어들 것이다."양쪽의 주장 모두 타당한 부분이 있습니다. 우린 이 상황을 어떻게 바라봐야 할까요? 이 이야기는 다음 편에서 자세히 이어가 보겠습니다.이혁기 더스쿠프 기자lhk@thescoop.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>웰컴저축銀, '대출 갈아타기' 서비스 가동…업계 유일 플랫폼 사업자</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004893399?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>/사진제공=웰컴저축은웰컴저축은행이 오는 31일 대환대출플랫폼 서비스를 시작한다.금융위원회에서 선정한 대환대출 인프라 구축 사업에 참여하는 대출비교플랫폼사업자 23개사 중 저축은행은 웰컴저축은행이 유일하다. 대환대출플랫폼은 오는 31일 플랫폼사 5개사(△네이버파이낸셜 △카카오페이△토스 △핀다 △뱅크샐러드) 5개사와 금융사 2개사 (△KB국민카드 △웰컴저축은행)까지 총 7개사가 우선 개시한다. 대환대출플랫폼은 금리 비교부터 실행에 이르기까지 하나의 플랫폼에서 모두 진행할 수 있는 시스템이다. 소비자는 대환대출플랫폼에서 각 금융회사의 대출을 비교하고 본인에게 유리한 대출상품을 찾아 대환대출을 신청할 수 있다. 대환대출플랫폼은 소비자가 금융기관을 방문하지 않고도 금융결제원망을 통해 대출 갈아타기가 가능한 것이 핵심이다.웰컴저축은행은 대환대출 비교서비스를 통해 고객은 20여개사 이상의 대출을 비교하고 신청할 수 있다고 밝혔다. 웰컴저축은행은 저축은행 중 가장 먼저 마이데이터 사업 인가를 획득하고 웰컴마이데이터 서비스를 통해 대출비교서비스를 제공했다. 특히 웰컴마이데이터 대출비교서비스는 출시 1년 만에 월 이용자가 5배 이상 증가했고 제휴금융사도 24개사로 늘어나는 등 지난 1년간 눈에 띄는 성과를 거뒀다. 빅테크 위주의 마이데이터 시장에서 중·저신용자에 특화된 대출비교플랫폼으로 자리매김한 웰컴마이데이터 서비스는 론칭 초기 7개 제휴사로 시작해 △지방은행 △저축은행 △캐피탈 △온라인투자연계금융업 △우수대부업체까지 제휴 금융사를 24개사로 늘렸으며 연말까지 시중은행을 포함해 40여개사 이상으로 확대할 계획이다.웰컴저축은행 관계자는 "더욱 편리하게 낮은 금리의 상품으로 전환하거나 부채를 통합할 수 있도록 돕는 대환대출대출 인프라 구축사업의 취지에 따라 개시일에 맞춰 선제적으로 플랫폼 구축을 완료했다"며 "웰컴저축은행 대출비교 및 대환대출플랫폼에 제휴 금융사를 지속 확대해 고객이 이자 부담도 줄이고 신용도를 관리하는데 도움이 될 수 있도록 플랫폼 운영에 힘쓸 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>신용대출 갈아타기, 이제 쉬워진다…올해 말엔 주담대도</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001061761?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;신용대출을 갈아타는 것이 내일(31일)부터 쉬워집니다. 내가 지금 빌린 데보다 이자가 더 싼 상품이 있는지 한눈에 비교할 수 있고, 또 바로 옮길 수 있는 것입니다. 주택담보대출도 올해 말쯤에 이런 것이 가능해집니다.유덕기 기자가 취재했습니다.&lt;기자&gt;고금리의 대출을 갈아타고 싶지만 금리 비교에다 은행들을 직접 방문해야 하다 보니 엄두를 못 내는 경우가 많습니다.[신용대출 이용자 : (이자가) 10만 원대에서 30만 원대로 점점 오르니까 이제 (갈아탈 상품을) 많이 찾아보는데 근무 시간에 이렇게 중간에 나가서 이러기가 사실 좀 많이 어려운 감이….]신용대출자는 내일부터 이런 불편함이 확 줄어들게 됩니다.스마트폰 앱을 통해 유리한 조건을 검색하고 갈아타기까지 가능한 '온라인·원스톱 대환대출' 서비스가 시작됩니다.토스나 네이버페이 같은 대출 비교 플랫폼이나 은행과 카드사 등 금융사 앱에 정보를 입력하면 금리와 상환 방식 등을 한눈에 비교할 수 있습니다.이어 갈아탈 상품을 결정하고 계약을 진행하면 금융결제원 시스템을 통해 기존 대출은 자동 상환되고 새로운 대출 가입을 진행할 수 있습니다.앱 설치부터 대출 갈아타기 결과 확인까지 약 15분이면 가능합니다.옮길 수 있는 기존 대출은 53개 금융사에서 받은 10억 원 이하의 신용대출이 대상입니다.스마트폰 이용에 익숙하지 않은 고령자라면 은행 영업점 한 곳만 방문해 대출 갈아타기를 신청할 수 있습니다.[김소영/금융위원회 부위원장 : 소비자의 지속적인 이동과 금융회사 간 경쟁의 결과 각 금융회사의 대출 금리가 일정한 범위 내로 수렴할 가능성(도 있습니다.)]금융당국은 대출 규모가 큰 주택담보대출에 대해서는 오는 12월부터 서비스한다는 계획인데, 표준화 등이 상대적으로 쉬운 아파트 담보 대출부터 시작됩니다.이에 따라 금융업계의 본격적인 금리 경쟁과 소비자 체감 등은 올 연말 이후 본격화될 전망입니다.(영상취재 : 박영일, 영상편집 : 박진훈, VJ : 김영래)</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.05.28.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>신규 주담대 3% 금리 급증…신용대출 금리도 3% 등장</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005265234?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>인터넷은행 주담대 금리 3% 비중 크게 늘어시중은행에선 3% 금리 신용대출 다시 나와3%대 금리의 가계 신규대출 비중이 급등하고 있다. 3%대 금리 주택담보대출은 인터넷은행을 중심으로 크게 늘었고, 그동안 자취를 감췄던 3%대 신용대출은 시중은행에서 모습을 드러내기 시작했다.28일 전국은행연합회가 공시한 '금리 구간별 취급비중'에 따르면 지난 4월 인터넷은행의 신규 주택담보대출 취급금액 중 대부분이 금리 3%대로 나갔다. 카카오뱅크는 82.7%, 케이뱅크는 75.8%가 금리 3.5~4% 구간에 집중됐다.카카오뱅크 관계자는 "지난달 새로 나간 주담대 평균 금리는 3.85%였다"며 "갈아타기 수요가 증가하고 있는데 4월 전체 주담대 신규 고객 중 대환 고객 비중은 59%"라고 설명했다. 이런 금리 수준은 5월에도 지속되고 있다. 23일 기준 카카오뱅크의 주담대 최저 금리는 변동금리 기준 3.676%, 고정금리 기준 3.59%다.작년 하반기 이후 사라졌던 금리 3%대 일반 신용대출도 재등장했다. 4월 기준 KB국민은행 전체 일반 신용대출 중 3%대 대출 비중은 3.5%를 기록했다. 하나은행은 1.10%였다. 시중은행 관계자는 "은행 대출금리의 기준이 되는 코픽스(COFIX·자금조달비용지수)와 은행채 금리가 내리면서 함께 하향 조정 됐다"고 했다.한편 오는 31일부터 원스톱 대환대출서비스가 시작된다. 기존 대출금리비교 서비스를 제공하던 토스·핀다·네이버파이낸셜·카카오페이·뱅크샐러드가 이 서비스를 제공한다. 핵심은 기존의 금리 비교에서 한단계 더 나아가 다른 은행의 저렴한 금리의 상품을 골라 그 자리에서 바로 갈아탈 수 있도록 해주는 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.05.17.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>토스모바일, SK텔레콤 망 요금제 대상 프로모션 진행</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000902286?sid=105</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>토스모바일 SK텔레콤 망 요금제 프로모션 소개 포스터. /토스모바일 제공        토스모바일은 17일 SK텔레콤 통신망을 사용하는 가입 고객을 대상으로 한 프로모션을 진행한다고 밝혔다.프로모션을 진행하는 요금제는 앞서 출시한 SK텔레콤 망을 사용하는 4종이다. 100GB 데이터 기본제공에 데이터, 통화·문자 무제한(5만9800원), 데이터 71GB 기본 데이터, 통화·문자 무제한(5만4800원), 데이터 15GB 기본, 통화 100분·문자 100건(3만5800원), 데이터 7GB 기본, 통화·문자 무제한(2만4800원)이다.월 데이터 사용량 71GB 요금제에 가입할 경우 3개월간 9700원에 서비스를 이용할 수 있다. 고용량 데이터 요금제를 3개월간 월 1만원 이하에 이용할 수 있는 파격 프로모션이다. 데이터 무제한 요금제 가입자들이 선호하는 100GB 요금제도 월 4만원 할인(월 1만98000원)을 제공한다.추가 데이터 제공 이벤트도 있다. 100GB와 71GB 요금제 고객에게는 24개월간 매달 150GB 추가 데이터를 제공한다. 15GB 요금제 가입자에게도 50GB 데이터를 매달 추가로 준다.토스모바일 관계자는 “이번 SK텔레콤 망 연동을 통해 토스 고객들에게 좀 더 많은 통신 요금제 선택지를 드리게 됐다”라며 “이번 오픈 프로모션을 계기로 좀 더 많은 토스 고객들이 토스모바일 가치를 느끼시길 바란다”라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>"신용 좋은 대출자도 힘들다"…빚 못 갚아, 늘어난 이자 460억</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003281545?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>5대 시중은행과 인터넷전문은행 3개사가 신용대출 및 주택담보대출 상환 연체자에 대해 부과한 지연배상금 규모가 지난 2년간 460억원에 이르는 것으로 나타났다. 금리 상승으로 이자 부담이 커진 탓에 빚을 제때 갚지 못한 대출자가 많았던 것으로 풀이된다.      서울시내 현금 인출기 모습.연합뉴스           21일 최승재 국민의힘 의원이 금융감독원으로부터 받은 자료에 따르면 KB국민·신한·하나·우리·NH농협은행과 카카오·케이·토스뱅크는 2021~2022년에 약 670만건의 지연배상금을 대출자에 부과해 460억원을 납부받은 것으로 나타났다. 지연배상금은 대출자가 이자를 연체했을 때 은행이 대출자에 추가로 부과하는 이자다. 대체로 대출 약정이자율에 3%포인트를 더한 이자율과 최고 15% 중에서 낮은 것을 적용해 지연배상 금액을 산출한다.      5대 시중은행 및 3개 인터넷은행이 1개월 미만 연체한 신용대출 차주에게 지연배상금을 납부한 건수는 2021년 139만건에서 지난해 145만건으로 4.3% 늘었다. 납부 총액은 26억9000만원에서 37억7000만원으로 40.1% 증가했다.      다만 1개월 이상 연체에 대한 지연배상금 납부 건수는 같은 기간 27만건에서 26만건으로, 납부 총액은 44억원에서 43억원으로 소폭 감소했다. 1개월 이상 연체하면 지연배상금이 많이 늘어나는 만큼 대출자들이 오래된 연체를 먼저 갚았기 때문이다.      고신용자(나이스신용평가 860점 이상 혹은 코리아크레딧뷰로 820점 이상)의 신용대출 지연배상금 납부액 증가율이 중·저신용자보다 큰 점도 눈에 띈다. 중·저신용자의 지연배상금 납부액은 2021년 54억원에서 지난해 61억원으로 12.7% 늘었다. 반면 고신용자의 경우 같은 기간 13억7000만원에서 19억4000만원으로 38.5% 증가했다.      최승재 의원은 “향후 경기 침체 우려 목소리가 나오는 가운데 고금리 현상이 이어질 것으로 보이는 만큼 부채 상황을 신중하게 관리해야 한다”며 “특히 고신용자도 대출 상환에 어려움을 겪고 있다는 점을 심각하게 받아들이고 원인을 면밀히 분석해 대책을 논의할 필요가 있다”고 말했다.      한편 온라인투자연계금융회사(P2P·온투회사)들의 연체율도 속속 20%를 넘어서고 있다. 대출 잔액 기준 업계 2위 규모인 투게더펀딩의 지난달 기준 연체율은 26.1%를 기록했다. 다온핀테크의 연체율도 지난달 말 기준 28.8%를 나타냈다. 부동산 경기 부진 여파로 부동산 관련 대출을 주로 취급하는 건전성에 경고등이 켜진 것이다. 이에 금감원은 연체율이 20%를 넘는 온투회사를 대상으로 건전성 관리 계획을 보고받고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>"15분에 대출 갈아탄다"…내일부터 스마트폰 '대환대출' 가능</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000345100?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>〈사진=금융위원회 제공, JTBC 자료사진〉     대출 이자가 어디가 가장 싼지를 휴대전화로 검색하고, 그 자리에서 대출을 갈아탈 수 있는 서비스가 내일(31일) 시작됩니다.   그동안 대출을 갈아타는 '대환대출'을 하려면 은행을 직접 찾아갔어야 했지만, 이제 비대면으로도 가능해진 겁니다.   금융위원회는 온라인·원스톱 대출 갈아타기 시스템인 '대환대출 인프라'가 내일부터 시작된다고 오늘(30일) 밝혔습니다.   온라인으로 금리를 비교해 금리가 더 낮은 곳으로 대환대출까지 마칠 수 있도록 하는 서비스입니다.   휴대전화로 네이버나 카카오 같은 플랫폼 애플리케이션의 대출 비교 메뉴나 시중 금융사 앱에 접속한 뒤 대환대출을 진행할 수 있습니다.     〈자료=금융위원회 제공〉     대출 갈아타기가 가능한 앱은 네이버페이, 뱅크샐러드, 카카오페이, 토스, 핀다, KB국민카드, 웰컴저축은행, NH농협은행, 신한은행, 우리은행, 기업은행, 하나은행, KB국민은행, 카카오뱅크, 케이뱅크, 토스뱅크 등이 있습니다.   소비자는 대출 갈아타기로 아낄 수 있는 이자와 기존 대출의 중도상환 수수료를 비교해 갈아탈지 말지 등을 결정하면 됩니다.   옮길 수 있는 대출은 일단은 보증이나 담보가 없는 10억원 이하의 신용대출에 한정됩니다. 직장인 대출이나 마이너스 통장 등도 포함됩니다.   중도상환수수료가 없는 대출은 대출을 받은 지 6개월 지난 이후에만 가능합니다.   서비스 이용 시간은 오전 9시부터 오후 4시까지로, 이용 횟수에는 제한이 없습니다.   금융위원회는 앱 설치부터 결과 확인까지 15분 내외가 소요될 것으로 보고 있습니다.   금융 당국은 대환대출 인프라 효과를 분석한 뒤 주택담보대출 갈아타기도 올해 안에 구축할 예정입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.05.16.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>애플發 간편결제 지각변동…유료화·해외결제·오프라인</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003361397?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>경쟁력 강화에 분주한 업계애플페이 건당 0.15% 수수료삼성, 카드수수료 무료 8월 종료카카오, 환전 없이 해외결제 확대네이버, 삼성페이 현장 결제 연동카드사 수수료에 수익 악화 우려지난 3월 애플의 간편결제 서비스인 애플페이가 국내에 들어오면서 간편결제 시장에 지각변동이 이어지고 있다. 삼성전자는 애플페이와 유사하게 카드사로부터 수수료를 받는 식으로 삼성페이 유료화 절차를 추진하고 있다.15일 카드업계에 따르면 신한·삼성·KB국민·현대·우리·롯데·비씨 등 7개 전업카드사의 삼성페이 무료 서비스 계약이 오는 8월 종료되는 가운데 신규 계약 때는 카드사에 서비스 수수료가 부과될 것이라는 관측이 지배적이다. 삼성전자는 그동안 카드사들과 서비스 계약을 하면서 삼성페이에 대해 별도의 수수료를 받지 않았다.애플은 국내에 애플페이를 도입한 현대카드로부터 건당 0.15%의 수수료를 받고 있다. 이를 계기로 유료화가 뉴노멀(새로운 기준)이 될 것으로 보인다.한국은행에 따르면 일평균 간편결제 이용금액은 2020년 4492억원에서 지난해 7326억원으로 오르는 등 가파르게 증가하는 추세다. 전체 이용금액 가운데 카카오페이·네이버페이·토스 등 전자금융업자(전금업자)의 비중은 2021년 49.7%에서 지난해 47.9%로 떨어졌다. 카드사와 은행들이 자사 애플리케이션을 통해 개별적으로 운영하는 간편결제의 비중도 같은 기간 27.6%에서 26.8%로 떨어졌다. 반면 삼성·LG전자 등 휴대폰 제조사의 간편결제 비중은 2021년 22.7%에서 지난해 25.3%로 증가했다.이들과 달리 카카오페이나 네이버파이낸셜 등 결제대행(PG)사 역할을 하고 있는 기존 간편결제 사업자들은 사업 구조가 달라 카드사에 수수료를 내고 있다. 카카오페이는 지난해 4분기 334억원의 당기순이익을 냈지만 올 1분기 당기순손실 24억원을 기록하면서 적자전환했다. 1분기 영업비용은 1년 전 같은 기간보다 24.2% 증가한 1545억원이 발생했다. 결제 서비스가 성장하면서 카드결제 지급 수수료가 증가한 영향으로 영업비용이 커졌다. 카카오페이와 네이버파이낸셜은 가맹점에 각각 1.01~1.40%, 0.84~2.18% 수준의 결제 수수료를 부과하고 있다. 온라인 결제의 경우 이렇게 벌어들인 수수료 가운데 약 80%가 카드사 몫으로 책정된다.카카오페이는 해외로 눈을 돌리고 있다. 신원근 카카오페이 대표는 이날 “카카오페이는 해외 11개국과의 기술 연동을 통해 해외 결제처를 확대하고 있고 한국을 많이 찾는 9개 국가와 협업을 맺어 해외 관광객의 결제 편의성을 높이고 있다”고 밝혔다. 일본·중국·마카오·싱가포르·프랑스에서는 본격적인 가맹점 확대에 돌입했으며 이탈리아·독일·영국·호주·말레이시아·필리핀에서는 기술 연동과 시연 작업이 진행 중이다. 신 대표는 연간 거래 100억건을 달성하겠다는 목표도 제시했으나 이날 카카오페이에서 두 시간 넘게 서비스 접속 장애가 발생하면서 이용자들이 등을 돌리고 있다.네이버파이낸셜은 최근 삼성페이와 연동해 네이버페이 앱에서 삼성페이 결제를 할 수 있게 했다. 약점으로 지목돼 온 오프라인 결제 시장 경쟁력을 강화하기 위해서다.한편 삼성전자에 안 내던 수수료를 내게 생긴 카드사들의 우려는 커지고 있다. 카드사들은 가맹점 수수료율 인하, 조달비용 상승 등으로 수익 감소에 직면한 상황이다. 카드사들이 연합해 한 카드사 앱에서 다른 회사 카드로 결제할 수 있는 오픈페이를 시장에 내놨지만 존재감이 미미하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>1시간 전부터 학생·군인 긴 줄…"자소서 들고 4시간 반 달려왔어요"</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004851056?sid=102</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>고졸 인재 채용 엑스포기업 134곳 참가…첫날 2만여명 모여인기 부스 앞 20m 넘게 대기줄"현장 실무자와 얘기하려니 떨려"채용담당자 "자소서 토대로 상담사내복지 등 날카로운 질문에 놀라"'2023 대한민국 고졸인재 채용 엑스포'에 참여한 우리은행 등 금융권 부스 앞이 상담을 기다리는 참가자들로 붐비고 있다. 이날 행사에서 리조트 업체 인스파이어 등 기업들은 공격적인 채용 계획을 밝혔다. 행사장은 전국에서 모인 중·고교생과 교사, 전역 예정 장병으로 오전부터 가득 찼다.   /최혁 기자“학생들이 현직 인사 담당자에게 면접 방식, 채용 계획을 듣는 경험은 학교에선 줄 수 없죠. 지난해 박람회에 방문한 후 학생들이 취업에 관해 의욕적으로 변한 것을 목격하고 올해도 꼭 데려와야겠다고 생각했습니다.”(안일복 서울 동명생활경영고 취업진로부장)“오전 6시부터 학교 친구 29명과 버스를 타고 4시간30분 넘게 달려왔습니다. 관심있는 기업인 삼성전자DS와 포스코, 한국전력 부스에 방문해 궁금한 것을 물어볼 수 있어 기대가 큽니다.”(경북 구미전자공업고 3학년 서영동 군)31일 경기 고양시 킨텍스에서 열린 ‘2023 대한민국 고졸인재 채용 엑스포’ 개막 1시간 전부터 행사장 입구는 전국 각지에서 온 방문객으로 북적였다. 행사 첫날 방문객은 2만여 명이 넘었다. 중·고교생과 인솔 교사, 군복을 입은 전역 예정 장병이 모여 인산인해를 이뤘다. ○취업상담에 자소서 첨삭까지참석자들은 입사 요령, 사내 분위기, 경험담 등 인터넷에서 찾기 어려운 정보를 듣기 위해 왔다고 입을 모았다. 특히 주요 기업 부스 앞에는 개막과 동시에 긴 줄이 생겼다. 스타벅스 부스에는 외식·호텔·관광을 전공한 특성화고 학생이 20m 넘게 늘어섰다. 김아름 스타벅스 인재확보팀 파트장은 “어린 학생들이 브로슈어를 꼼꼼히 보고 근로시간, 직급 체계, 사내 복지 등에 관해 날카로운 질문을 던져 깜짝 놀랐다”고 말했다.기업은 방문한 학생들에게 조언을 아끼지 않았다. 핀테크 기업 토스의 상담 전문 계열사인 토스CX 부스엔 박람회가 끝날 때까지 10m 넘는 줄이 유지됐다. 김채은 채용매니저는 “오늘 부스에 약 400명이 방문했는데 이 중 3분의 2가 자소서를 인쇄해 가져왔다”며 “현직에서 일하고 있는 채용 담당자가 학생들의 자소서를 토대로 상담해줬다”고 말했다. ○현장에서 ‘원스톱 채용’도현장에서 즉석 채용한 기업도 인기를 끌었다. 이날 행사에 참여한 134개 기업 가운데 56곳(현장 46개·온라인 10개)이 현장 채용을 했다. 충북 영동미래고 금융회계과 3학년 김민지 양은 “현장 채용하는 부스에서 면접을 보기 위해 방문했다”며 “현장 실무자와 이야기하는 기회 자체가 흔치 않기 때문에 매우 떨린다”고 말했다.패션 브랜드 H&amp;M 부스는 점심시간에도 대기하는 학생으로 붐볐다. 인천생활과학고 패션스타일과 3학년 박채희 양은 “패션업계 취업을 위해 어떤 역량을 쌓아야 하는지 물었다”며 “글로벌 회사 취직을 위해서는 영어 회화 능력이 중요하다는 대답을 들었고, 영어 공부를 열심히 하려 한다”고 의지를 다졌다. 이날 H&amp;M 부스에서는 일부 희망학생에게 매장 근무직으로 일할 기회를 제공했다.식품전문기업 SPC 외식사업부는 방문한 학생들에게 현장 접수 후 본사 면접 기회를 제공했다. 부스에 방문한 현역 군인 지성록 씨(24)는 “오는 8월 제대를 앞두고 있는데 생생한 이야기를 들어 큰 도움이 됐다”고 말했다. ○특성화고는 AICE ‘관심’당장 취업하기보다 능력을 키워 입사하고자 하는 학생도 많았다. 특히 4차 산업혁명의 흐름에 발맞춘 인공지능(AI) 관련 자격증인 AICE 부스에 관심을 나타냈다. 부스 운영을 담당한 김창희 한경e아카데미원장은 “작년 광운AI고 등에서 선제적으로 시험을 도입하면서 전국 각 곳의 특성화고들이 관심을 보이고 있다”며 “KT·현대중공업 등 입사 시 서류전형 가산점이 있어 취업이 임박한 학생들이 브로슈어를 많이 받아 갔다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>대환대출 경쟁, 은행 창구에서도 벌어진다</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005265845?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>31일부터 원스톱 대환대출 서비스 시작대출금리 비교 앱 뿐 아니라 은행창구에서도 대환대출 빠르게 가능 시중은행 "신용대출 금리 경쟁 창구에서도 벌어질 것"오는 31일부터 다른 은행의 더 싼 금리의 신용대출로 즉시 갈아탈 수 있는 '원스톱 대환대출'이 시작되면서 각 은행 지점 창구에서도 즉시 대환대출 서비스가 이뤄지게 됐다. 원래 원스톱 대환대출은 토스·핀다·네이버파이낸셜·카카오페이·뱅크샐러드에서 신용대출에 한해 다른 은행의 저렴한 금리의 상품을 골라 바로 갈아탈 수 있도록 해주는 서비스로 알려졌다. 그런데 앱 뿐만이 아니라 은행 창구에서도 신청만 하면 바로 대환대출이 가능하다는 게 금융위의 설명이다. 26일 금융위원회 관계자는 "원스톱 대환대출 서비스에 깔린 인프라는 은행 창구에서도 그대로 활용할 수 있다"며 "창구에서 대환대출하는 것도 과거보다 훨씬 빠르고 간편해지기 때문에 온라인 뿐 아니라 오프라인에서도 신용대출 금리 경쟁이 불 붙을 것"이라고 했다. 현재까진 은행 창구에서 대환대출 신청할 때 복잡한 과정을 거쳐야 했다. 소비자가 대환대출을 신청하면 고객에게 새로 대출 해주는 은행이 기존에 대출 해줬던 은행에다가 먼저 해당 고객이 빌린 돈부터 상환 해야 했다. 은행원이 직접 상대방 은행에 연락해 상환 금액을 확인하고 송금한 뒤 상환영수증을 받는 절차가 번거로웠다. [이미지출처=연합뉴스]시중은행 관계자는 "은행원이 여러 차례 확인해야 하고 명확하게 정해진 규정도 없어 사고 우려 때문에 은행 창구에서는 대환대출 자체를 꺼렸다"며 "그러나 새로 도입되는 대환대출 인프라는 이런 절차를 간편하게 해줘서 창구에서도 금리 경쟁력 있는 신용대출 상품을 고객에게 보여주며 대환대출 영업을 할 수 있게 됐다"고 했다.대환대출 간소화의 핵심은 이런 거다. 새로 대출을 해주는 A 은행이 고객에게 대환대출 신청을 받으면, 금융결제원 시스템을 통해 원래 해당 고객에게 대출을 해줬던 B 은행 에게 고객 대신 바로 돈을 갚아준다. 이 절차가 끝나면 A 은행은 대환대출 신청자를 신규대출 고객으로 전환하고, 그때부터 고객은 A 은행에 돈을 갚으면 된다. 금융위원회는 이 과정에 약 10분가량이 걸릴 거라고 전했다.대환대출 시장의 규모는 기대와 달리 크지 않을 것으로 예상하는 시각도 있다. 금융위원회가 한도를 정해놨기 때문이다. 대환을 통해 이동할 수 있는 금액은 해당 금융회사 전년도 신규신용대출 취급금액의 10%다.하나금융경영연구소 보고서는 "이 한도로 계산해보면 대환대출 시장은 연간 최대 11조원, 올해는 약 7조원 규모(7개월분)일 것"이라며 "국내 신용대출 시장이 연간 250조원인 반면 대환대출 시장은 0.5%에 불과하다"고 했다. 특정 금융회사로 신용대출 고객들이 몰려 기존 시장의 판도를 바꾸기는 어려울 것으로 보인다는 의미다. 이에 금융위원회 관계자는 "대환대출 수요가 넘치면 추이를 봐가며 한도 조정을 할 것"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.05.25.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>은행권, 올해 ‘디지털지갑’ 진검 승부</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003102291?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>출처 : 게티이미지뱅크은행권이 하반기 디지털지갑(월렛) 서비스를 놓고 진검승부를 펼친다. 디지털지갑에 차별화된 비금융 혁신 서비스를 접목, 네이버 카카오 토스 등 금융 빅테크와도 플랫폼 경쟁에 나설 전망이다.25일 업계에 따르면 시중은행이 디지털지갑 서비스를 고도화한다. 특히 기존 제공 중인 행정안전부와 연계된 전자증명서, 행정알림 기능을 제공하는 국민비서 구삐, 결제를 위한 페이 서비스를 넘어 고객편의를 제고할 수 있는 혁신 서비스를 준비 중이다. 이를 통해 기존 자사 고객을 넘어 타행 고객들까지 끌어들인다는 전략이다.최근 가입자 수 360만명을 돌파한 KB국민은행 KB월렛은 행안부가 애플리케이션 프로그래밍 인터페이스(API)를 개방한 디지털공공서비스를 선보일 예정이다. 인천공항 내 소요시간 안내,  자동차 검사 예약, 국립자연휴양림 예약 등을 KB월렛 내에서 편리하게 이용할 수 있다. 이외에도 신분증과 각종 자격증을 디지털지갑에 담을 수 있는 서비스를 제공한다.국민은행은 현재도 KB월렛 내 NFC(New fun contents) 메뉴를 개설해 가상자산을 표방한 앱테크(애플리케이션+재테크) 등 차별화된 서비스를 제공하고 있다. 반려동물 전자등록 서비스도 호응도가 높다.신한은행은 ‘쏠지갑’을 대대적으로 개편할 계획이다. 단순히 새로운 서비스를 추가하는 데 그치지 않고 기능을 재정비한다. 특히 전자문서 등 문서보관함과 페이 서비스를 고도화 할 계획이다. 쏠지갑을 쏠 내에서도 고객 사용이 높은 핵심 기능을 모아놓은 서비스로 발전시킨다는 방침이다.신한은행은 쏠지갑에서 토큰뱅크와 연계해 디지털자산을 보관할 수 있는 NFT월렛 등 혁신 서비스를 선보이고 있다. 대체불가능토큰(NFT) 등을 필두로 다양한 디지털 자산을 관리할 수 있는 서비스를 제공한다는 계획이다.하나은행은 원큐지갑에서 기존 전자문서 발급을 은행 내 타 상품과 연계할 수 있는 서비스를 추진 중이다. 주민등록등본 등을 발급할 때 대출 등 관련 상품을 추천받는 등의 서비스가 나올 수 있다. 하나은행은 현재 국민비서 꾸삐, 행안부 연계 인증서 발급 등의 서비스를 제공 중이다.5대 은행 중 현재 디지털지갑이 없는 우리은행과 NH농협은행도 서비스를 빠른 시일 내 제공할 방침이다. 특히 우리은행은 하반기 서비스를 출시한다. 우리은행은 디지털지갑에 국민비서구삐, 전자문서 등을 담을 예정이다. 이외에도 변호사 자격증명서 등 자격증 관련 서비스를 선보이고, 디지털화폐 수납이 가능하도록 개발한다.은행 관계자는 “디지털자산 중요성이 커지고 또 다양한 영역으로 발전할 소지가 있는 만큼 디지털지갑 중요성은 점점 커질 것”이라며 “향후 금융회사에 디지털자산이 실제로 적용됐을 때 고객 자산을 디지털지갑에 어떻게 지킬지에 대한 고민도 이어가겠다”고 말했다.5대 은행 디지털지갑 현황</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>[소부장 현장속으로] “굳이?”를 “아하!”로 만든 플러그링크 전기차 충전소</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002149528?sid=105</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>플러그링크가 서울시 서초구 오피스텔에 구축한 프리미엄 주차공간 '플러그라운드 1.0'.[디지털데일리 이건한 기자] “전기차 충전소에 굳이 고급스러운 디자인을 입히는 게 큰 의미가 있나요? 수요도 한정적일 것 같은데요.”지난 24일 서울 서초구 오피스텔 상가건물인 ‘부띠크모나코’ 지하 5층에 설치된 전기차충전소 ‘플러그라운드 1.0’를 둘러본 뒤 기자가 플러그링크 관계자에게 던진 질문이었다.플러그라운드는 전기차 충전시설 사업자(CPO)인 플러그링크가 올해 4월 부띠크모나코에 첫선을 보인 전기차 충전소 브랜드다.가장 눈에 띄는 건 외형이다. 보통의 공동주택 전기차 충전 공간과 달리 플러그라운드는 멀리서도 존재감이 상당하다. 충전소 상단에 설치된 조명 간판을 필두로, 파란색과 검은색이 교차하는 독특한 디자인 패턴 덕분이다. 어디서든 주변과 구분된 공간이란 느낌을 주기엔 충분해 보였다.이는 플러그링크 디자인팀이 개발한 시그니처 패턴이다. 사선으로 연결된 조각 무늬는 충전소에 전기가 흐르는 모습을 형상화하고 있다. 이것이 중앙 주차선, 벽면 충전기 설치 패널과도 이어지게 함으로써 시각적 연결성을 더했다.충전기 패널에는 사용법과 함께 고장 시 이용자들이 손쉽게 신고할 수 있도록 관리번호를 별도로 부여했다. 기기의 이상 여부는 벽면에 부착된 충전기의 점멸등 상태로도 파악할 수 있다.일견 화려함만이 강조된 것처럼 보이는 이곳은 왜, 무엇을 위해 만들어졌을까? 플러그라운드는 구축 비용도 일반 충전소보다 비싸다. 단순히 ‘충전’이란 실용적 측면만 생각하면 도입은 필수적이라고 볼 수 없다.◆ 전기차 시대의 충전소는 ‘주유소’와 다르다플러그링크도 이를 인지하고 있다. 그만큼 플러그라운드를 당장의 수익 사업으로 보고 있지 않다. 그보단 회사의 중장기적 지향을 드러내는 수단이란 설명이다. 앞으로 점점 달라질 전기차 충전소 이용 문화를 선제적으로 연구하고 대응하겠단 의지도 담겼다.5년차 전기차 드라이버인 강인철 플러그링크 대표는 현재 전기차 충전소의 주 이용고객을 40~50대 남성들로 본다. 이들은 전기차를 구매할 만한 경제력을 갖고 있으면서 동시에 전기차를 새로운 휴식처로 활용하는 방법에 눈을 뜨기 시작한 세대다.내연기관과 다른 전기차의 기계적 특성은 미래의 충전소가 지금의 주유소처럼 단순히 연료만 채우고 떠나는 공간으로 남지 않을 것임을 예상하게 한다.강 대표에 따르면 엔진이 없는 전기차는 내연기관차와 달리 정차 중 진동과 소음이 거의 없다. 디지털 기기 탑재 비중도 높아 충전 중 차 안에서 냉난방과 함께 휴식을 취하거나 콘텐츠를 소비하는 측면도 내연기관보다 유리하다. 특히 거주공간용 완속 충전은 장시간 충전이 필요하다. 충전 중 유휴 시간에 차량 공간을 활용해볼 여지는 다양하다.플러그라운드에서 전기차가 충전 중인 모습. [사진=플러그링크]플러그링크는 이 점에 주목하고 있다. 물론 이 같은 문화가 아직 대중화되지 않았다. 그러나 충전 공간의 차별화 시도는 달라질 환경에서 소비자 공략과 사업 경쟁력 강화를 위해 꼭 필요한 시도란 인식이다. 플러그라운드에 ‘1.0’이란 버전명이 붙은 이유이기도 하다.강 대표는 “플러그라운드는 계속해서 버전 업 될 것”이라며 “스타트업의 강점을 십분 활용해 사용자들의 반응을 면밀히 살피고, 충전 경험을 빠르게 최적화하는 방향으로 진화하는 것이 목표”라고 말했다.플러그라운드가 처음 적용된 부티끄모나코는 오피스텔이 있는 주상복합시설로, 완속 충전을 주로 사용하는 주거지 맞춤형으로 디자인됐다.이후 적용처는 보다 다양화될 예정이다. 현재 과천 마사회 전국지사와 레츠런파크 경마공원도 그에 걸맞 새로운 형태의 플러그라운드 설치가 계획돼 있다. 강 대표는 “경마공원은 상업시설이자 테마파크인 만큼, 디자인 외에 콘텐츠 차별화 요소도 더해질 수 있다”고 설명했다.◆ 디자인 차별화는 시작일 뿐플러그라운드 1.0에 적용된 디자인은 차별화 공간이란 인식을 사용자에게 심어준다. 머무는 이들의 기본적인 만족도를 높여줄 수 있다. 이어질 다음 단계의 고민과 연구는 강 대표가 언급한대로 완속 충전소의 콘텐츠 및 문화공간으로서의 발전 가능성이다.강인철 플러그링크 대표.강 대표는 “실제 구현 가능성을 차치하더라도 지금은 다양한 아이디어에 대한 고민이 이뤄지고 있다”며 “예컨대 플러그라운드 내에 와이파이를 제공하고 OTT 사업자와 제휴해 무료 콘텐츠를 제공하는 것도 하나의 아이디어”라고 말했다.또한 체류시간이 급속 대비 긴 완속 충전소의 특성상 공간별 특성에 따라서도 다양한 특화 시스템을 만들어 적용할 수 있다. 요는 ‘정형화된 플러그라운드’는 없다는 것이다. 이를 위해 당분간 다양한 플러그라운드를 프로토타입으로 만들고 노하우를 확보하겠단 방침이다.상대적으로 고가의 비용을 들여 플러그라운드를 도입하는 사업자들은 어떤 효과를 기대할 수 있을까? 강 대표는 테슬라의 ‘슈퍼차저’를 예로 들었다. 수퍼차저는 전기차 대중화 시대를 이끈 테슬라가 만든 충전소 브랜드다.초창기 테슬라가 다양한 공간에 슈퍼차저를 입점시켰던 ‘설득 비결’은 “우리 충전기를 설치하면 고급차들이 많이 방문하게 된다”는 것이었다. 당시만 해도 테슬라의 전기차는 모델S, 모델X 등 고가차량 중심이었고, 이들 소유주들이 슈퍼차저가 있는 공간을 찾아 머물게 되면 그만큼 경제적 효과가 늘어난다는 논리였다.실제로 전기차 충전 인프라 확산 초기인 지금도 주요 호텔이나 펜션 등에서 충전소 도입에 더 열심인 이유도 충전기가 있으면 전기차 고객이 온다는 기본적인 마케팅 포인트 때문이다. 나아가 충전소 보급이 보다 대중화되면 다음 경쟁 포인트는 차별화된 충전 경험이 될 수 있다.플러그링크도 이를 기대하며 플러그라운드를 시작으로 보다 장기적인 프로젝트를 준비하고 있다. 단기적으론 충전기를 더 많이 보급하는데 힘을 쓰되, 중기적으론 고도화된 충전 경험 제공에 집중할 계획이다. 관건은 ‘고객이 충전을 하면서 무엇을 더 원할 것이냐’를 찾아내는 것이라고 한다.장기적으론 충전 서비스 플랫폼 회사로 거듭나는 목표가 있다. 요즘은 건물주가 직접 충전소를 구축하고 운영하려는 수요가 생겨나는 중이다. 그들에게 충전소 설치부터 운영 노하우 제공까지 ‘솔루션’으로 제공함으로써 전기차 충전 시장에서 보다 다각적인 사업 기회를 확보하려 한다.강 대표는 “결국 이론적으로 모든 차는 전기차가 될 것이고 그들의 킬러앱은 충전이다. 이를 중심으로 차와 관련된 여러 벨류체인을 충전 사업자가 플랫폼화할 수 있는 기회가 올 것”이라며 “토스가 간편송금에서 지금은 금융 플랫폼 사업자로 성장한 것이 좋은 예”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.05.28.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>“제발 저희 회사로 와주세요”...몸값 더 뛰었다는 ‘경력’ 개발자</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005136557?sid=105</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>원티드랩 개발자 평균연봉 분석신입채용은 줄고 경력선호 뚜렷 [사진 = 연합뉴스]경기 침체에 대한 우려로 전반적인 채용 심리가 위축되는 가운데 고연봉으로 각광을 받는 개발자 직군의 연봉은 여전히 견조한 상승세를 기록하고 있는 것으로 나타났다.28일 채용 플랫폼 원티드랩이 개발자 경력별 평균 연봉을 분석한 자료에 따르면, 올해 1분기 개발자 평균 연봉은 6595만원을 기록하며 전년 동기 대비 5.47% 증가했다. 채용 공고 자체는 감소하면서 시장은 다소 위축된 가운데 평균 연봉은 꾸준히 상승하고 있는 것이다.경력별로 나누어 분석해보면 신입 개발자보다 경력직의 연봉 상승 폭이 컸다. 평균 연봉이 가장 크게 상승한 연차는 6~8년 차 개발자로, 전년 대비 9.01% 증가한 6303만원을 기록했다. 12~14년 차 개발자는 1분기 평균 연봉이 8.84% 증가한 7806만원을 기록하며 뒤를 이었다. 다만 0~2년 차의 신입 개발자의 평균 연봉은 4073만원으로, 지난해 동기 대비 2.23% 상승에 그쳤다.경기 불확실성으로 인해 많은 기업이 채용에 보수적으로 접근하면서, 신입 개발자보다 경력직을 선호하는 현상이 나타나고 있는 것으로 풀이된다.올해 초부터 주요 국내 빅테크는 비용 감축의 일환으로 채용 기조의 변화를 주고 있다. 일례로 카카오는 세자릿수 채용을 이어오던 신입 공채를 지난해 두 자릿수 규모로 감축했다. 네이버 및 많은 개발자를 흡수하던 게임사들 또한 올해 신규 채용을 보수적으로 운용할 것으로 전망된다.한편으로는 금융과 같은 산업 전반에서 디지털 트랜스포메이션(DT)이 진행되면서 디지털 인력 수요가 증가한 것이 경력직 개발자 연봉 상승에 영향을 미친 것으로 보인다. 특히 대형은행의 경우 디지털 전환 사속화와 신사업 추진에 따라 대규모 신규 채용과 함께 경력 개발자 수시 채용에도 집중하면서 많은 인력을 흡수해오고 있다.대형은행 개발자 A씨는 “기존 은행 업무 외에도 신사업 쪽을 적극 추진하면서 해당 분야 육성을 위한 경력직 채용이 증가하는 분위기”라고 설명했다. 카카오뱅크, 토스뱅크, 케이뱅크와 같은 인터넷전문은행 또한 고연차 경력직 중심의 채용을 바탕으로 인력 확보에 집중하고 있다.원티드랩 관계자는 현재 상황에 대해 “당장 실무에 투입되어 성과를 낼 수 있는 경력직 채용에 보다 적극적인 것으로 보인다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>국민·하나은행, 더 저렴한 대환 상품 출시…우리銀, 우대금리 0.5%p 쏜다</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006837950?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>31일 대환대출 인프라 출범…금융권 금리 경쟁 예고핀테크 플랫폼도 고객 유치 경쟁 치열…뱅샐, 모든 대출 상품 금리 0.1%p 인하ⓒ News1 DB(서울=뉴스1) 서상혁 기자 = 핀테크 플랫폼을 통해 자유롭게 대출을 갈아탈 수 있는 대환대출 인프라가 31일 가동되는 가운데, 은행권이 고객 유치를 위해 금리 경쟁에 뛰어들었다. 하나은행은 금리상승기 금리 변동 속도가 낮은 '신잔액 코픽스'를 준거금리로 삼고, 부수거래 없이도 최저 금리를 적용받을 수 있는 대환대출 인프라 특화 상품을 마련했다. KB국민은행도 기존 비대면 신용대출 대비 더 낮은 금리, 더 많은 한도가 제공되는 특화 상품을 개발했다.우리은행도 마케팅 차원에서 대환대출 인프라 이용 고객에게 0.5%포인트(p)의 우대금리를 제공하기로 했다. 신한은행도 이날부터 비대면 신용대출 상품의 금리를 낮춘다.금융권에 따르면 하나은행은 대환대출 인프라에 특화된 신용대출 상품 '하나원큐 신용대출 갈아타기'를 개발했다. 준거금리로는 '신잔액 기준 코픽스'가 적용되며, 부수거래 없이도 최저 수준의 금리가 제공될 예정이다. 대출 차주 입장에선 사실상 더 낮은 금리를 적용받게 된 셈이다.KB국민은행은 대환대출 인프라 전용 비대면 신용대출 상품을 준비 중이다. 기존 주력 신용대출 상품 대비 더 낮은 금리, 더 많은 한도를 부여하기로 가닥을 잡았다. 우리은행은 대환대출 인프라를 통해 대출을 갈아타는 차주에게 0.5%포인트(p)의 우대금리를 적용할 예정이다. 또 자체 앱을 통해 신용대출을 갈아탈 경우 중도상환해약금과 인지세 등 1인당 소요되는 대출 거래비용을 최대 10만원까지 지원하기로 했다. 신한은행은 비대면 전용 신용대출 상품의 금리를 인하하고, 한도를 높이는 '새단장' 작업을 진행했다. 31일 대환대출 인프라를 비롯해 신한은행 비대면 창구에서 개선된 상품을 판매할 계획이다. 이밖에 농협은행도 마케팅을 준비 중이다.대환대출 인프라란 은행과 저축은행 등 금융권의 대출 상품을 모바일 애플리케이션(앱)을 통해 비교해 보고 갈아탈 수 있도록 하는 서비스를 말한다. 31일부터 신용대출 상품에 한해 가동된다.비대면으로 기존 대출금 상환·신규 대출 실행이 이뤄지도록 하는 금융결제원의 '대출 이동 시스템'과 각 금융회사의 대출 상품을 한데 모아 비교할 수 있도록 도와주는 '대출 중개 플랫폼'이 합쳐진 형태다. 전체 53개 금융회사 중 오케이저축은행·롯데캐피탈을 제외한 51개사, 23개 플랫폼 중 네이버페이·카카오페이·토스·핀다·뱅크샐러드·KB국민카드·웰컴저축은행이 참여한다.그간 은행권은 대환대출 인프라 참여에 소극적인 모습을 보여왔다. 빅테크 종속이 가속화될 수 있어서다. 은행원들 사이에서는 "대환대출 인프라 출시로 사실상 은행의 '리테일'은 끝났다"는 말이 나올 정도였다.하지만 금융당국이 은행의 경쟁을 촉진하는 차원에서 대환대출 인프라를 '은행권 경영·영업 관행·제도 개선 태스크포스(TF)'의 주요 과제로 선정하는 등 압박을 가하자 입장을 선회한 것으로 보인다. 더군다나 대출 이동 인프라를 통해 상품을 공급하지 않아도 기존 고객의 이탈이 가능해진 구조상, 경쟁력 있는 상품을 내놓지 않으면 다른 은행에 고객을 빼앗길 수밖에 없다.한편 핀테크 플랫폼의 마케팅도 활발하다. 네이버페이에서 대출을 갈아타는 모든 사용자들에게 이자 부담을 더 줄일 수 있는 '이자 지원 포인트 티켓'을 제공한다. 뱅크샐러드는 대환대출 서비스 '대출 갈아타기'에 입점한 모든 대출 상품의 금리를 0.1%p 인하할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.05.17.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>토스모바일, SKT망 상품 출시…"이달까지 가입하면 2년간 150GB 추가"</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011863580?sid=105</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>기사내용 요약KT·LGU+ 이어 SKT 구축…3사 망 상품 모두 확보출시 기념 3개월 요금 할인·데이터 추가 제공 이벤[서울=뉴시스] 토스모바일이 KT와 LG유플러스 망 요금제를 오픈한 데 이어 새롭게 SK텔레콤 망 연동 상품까지 확보했다. (사진=토스모바일 제공) *재판매 및 DB 금지[서울=뉴시스] 심지혜 기자 = 알뜰폰 토스모바일이 KT, LG유플러스에 이어 SK텔레콤 통신망 요금제 상품을 출시한다. 이로써 이통3사의 모든 망을 이용한 상품을 선보이게 됐다. 토스모바일은 SK텔레콤 통신망 요금제 상품 출시를 기념해 해당 상품 가입 고객을 대상으로 이벤트를 진행한다고 17일 밝혔다. 지난해 10월 비바리퍼블리카(토스)의 자회사로 편입된 토스모바일은 지난 2월 전국 오픈 당시 KT와 LG유플러스 망 요금제를 선보인데 이어 새롭게 SK텔레콤 망 상품을 확보, 라인업을 확대했다. 알뜰폰 사업자 중 3사 망을 모두 연동한 곳은 10곳 뿐이다. 토스모바일은 SK텔레콤 통신망 상품 출시 기념으로 오는 24일까지 월 데이터 사용량 71GB 요금제(5만4800원)와 100G 요금제(5만9800원)에 가입하면 가격을 할인해 준다. 3개월간 71GB 요금제는 9700원에, 100GB 요금제는 1만9800원에 제공한다. 이와 함께 달 말까지 가입하는 고객에게는 데이터를 추가로 제공한다. 100GB, 71GB 요금제 가입자에게는 24개월 간 매달 150GB를 추가로 제공한다. 15GB 요금제 가입자를 대상으로는 50GB를 준다. 일례로 100GB 요금제에 가입하면 3개월간 1만9800원에 이용할 수 있고, 2년간 매월 데이터 250GB를 쓸 수 있다. 가입 가능한 요금제는 앞서 출시된 바 있는 4종으로 ▲월 5만9000원·데이터 100GB(통화·문자 무제한)▲월 5만4000원·71GB(통화·문자 무제한) ▲월 3만5000원·15GB(통화100분·문자100건) ▲월 2만4800원·7GB(통화·문자 무제한)이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>전경련, 정의선 이어 이승건 앞세워 MZ세대와 소통</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005137165?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카 이승건 대표전국경제인연합회(전경련)가 정의선 현대차그룹 회장에 이어 이승건 토스 대표를 앞세워 MZ세대와 소통에 나선다.전경련은 다음달 23일 국민소통 두번째 프로젝트인 ‘토크콘서트’를 개최한다고 30일 밝혔다.콘서트는 서울 동대문 브이스페이스에서 열릴 예정이다. MZ세대 300여명과 이승건 비바리퍼블리카(토스) 대표, 장지호 닥터나우 대표, 방송인 타일러 라쉬가 참여한다.이승건 대표 등은 ‘꿈을 향한 공감 동행’을 주제로 청년들에게 도전과 열정에 관한 이야기를 나눠줄 예정이다. 이 대표는 간편송금 서비스 ‘토스’를 출시한 스타트업 창업자이며, 장 대표는 국내 최초로 비대면 진료와 처방 약 배송 서비스를 도입했다.참석 희망자는 전경련 홈페이지(www.fki.or.kr)를 통해 내달 1일부터 신청할 수 있다. 접수는 선착순으로 마감된다.앞서 지난 2월 전경련 미래발전위원회는 뉴웨이 구상을 발표했다. 뉴웨이 구상의 핵심 중 하나는 국민소통이다. 이를 위해 전경련은 지난 25일 한국판 버핏과의 점심인 ‘갓생한끼’를 열었다. 이날 정의선 현대차그룹 회장은 MZ세대들과 햄버거를 함께 먹으며 꿈과 도전에 대한 이야기를 나눴다. 토크콘서트는 갓생한끼에 이은 전경련의 두번째 국민소통 프로젝트다.전경련은 또한 이달 초 청년 전경련 자문단(청년전자) 1기 출범을 완료했다. 청년전자는 10대 1명, 20대 7명, 30대 2명으로 구성됐다. 청년전자 1기는 10월 말까지 활동한다. 전경련 사업에 대해 수시 모니터링 후 MZ 관점 의견, 관련 사업 아이디어 등을 자문할 예정이다. 김병준 전경련 회장직무대행과도 만나 의견을 나눌 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>[ET] 쿠팡‧배민 신화는 더 이상 안 나올까?…구조조정 나선 국내 스타트업계</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011489803?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>■ 프로그램명 : 통합뉴스룸ET■ 코너명 : ET WHY?■ 방송시간 : 5월22일(월) 17:50~18:25 KBS2■ 출연자 : 이재용 회계사■ &lt;통합뉴스룸ET&gt; 홈페이지https://news.kbs.co.kr/vod/program.do?bcd=0076&amp;ref=pMenu#20230522&amp;1[앵커]하나의 뿔을 가진 전설 속의 동물, 유니콘. 그만큼 보기 드물다는 의미에서 재계에선 기업가치 1조 이상인 스타트업을 '유니콘'이라고 부릅니다. 중고 거래할 때나 집 구할 때, 여행 갈 때, 또 옷을 살 때도 한 번 쯤 이용해보셨을 이들 기업이 바로 한국의 유니콘인데요. 요즘 이 시장에 심상치 않은 신호가 감지되고 있습니다. 스타트업 재무 컨설턴트 이재용 회계사 함께하겠습니다. 네, 회계사님, 안녕하세요. [답변]안녕하세요. [앵커]한 1, 2년 전만 해도 스타트업 하면 유니콘이 10개네, 20개네 승승장구하지 않았습니까? 요즘 정말 힘든 게 맞나요? [답변]그렇죠. 과거에 유니콘들이 대부분 투자 유치를 하면서 자금을 수혈해서 성장을 해왔는데요. 지금은 스타트업계에서는 보릿고개를 넘어서 요즘에는 빙하기다. 거의 투자 시장이 얼어붙었다고 표현을 하고 있습니다. [앵커]그게 스타트업들의 어떤 자체 퍼포먼스 이런 성과가 떨어진 거예요, 아니면 투자자들이 투자를 안 해주고 있는 거예요? [답변]성과도 약간 코로나19 이후에 조금 어려워진 것도 맞기는 한데 사실 매출액 자체는 잘 크고 있거든요. 그런데 아무래도 투자자들이 주식시장이 어려워지다 보니까 자금 회수가 좀 안 되고 있습니다. 그래서 앞단에 투자를 하는 것도 점점 어려워지고 있는 상황이죠. [앵커]그럼 어려운 환경에서 스타트업들이 고전하고 있다는 말씀이신데. [답변]그렇죠. [앵커]우리가 이름을 들으면 알 만한 그런 기업들도 있나요? [답변]네, 대표적으로는 금융 서비스를 하는 토스라는 기업이 있고요. 그리고 여행 갈 때 쓰는 야놀자, 그리고 패션, 쇼핑할 때 쓰는 무신사나 중고 거래하는 당근마켓 정도를 꼽아볼 수 있을 것 같습니다. [앵커]대부분 다 이름도 들어봤고 잘 되는 줄 알았는데 어떤 문제가 있는 거예요? [답변]문제가 있다기보다는 주로 매출액은 잘 나오는데 영업 이익이 잘 안 나오거나 아니면 적자 폭이 커지고 있는 그런 상황입니다. [앵커]한 번 볼까요? [답변]네, 제가 2022년 실적을 몇 개 꼽아봤는데요. 일단 이름 아시는 것처럼 굉장히 잘 크고 있는, 매출이 잘 나오고 있는 기업이 많은데 적자 폭이 상당합니다. [앵커]그러네요. [답변]이 중에 앵커님이 좀 쓰시는 서비스가 있으세요? [앵커]뭐 컬리도 쓰고 당근마켓도 쓰고 하는데 당근마켓 같은 경우는 이게 한 2조 원 가치 받는 기업 아닙니까? 매출 규모가 499억, 이 간극이 왜 이렇게 커요? [답변]그렇죠. 투자, 워낙에 유저가 많다 보니까 대부분 쓰잖아요. 중고 거래할 때 거의 전 국민이 다 쓴다고 해서 사실 예전에는 인원수만 많으면, 고객 수만 많으면 투자 밸류를 굉장히 높게 받을 수 있었습니다. 그래서 투자금을 굉장히 많이 받았는데요. 하지만 아직은 매출을 어떻게 내야 될지를 좀 고민하고 있는 것 같아요. 광고 매출이 주로 500억 정도 나오는데 원래 유저를 기반으로 한 1,200만 명, 1,300만 명만 명이 쓰는 서비스다 보니까 매출액이 더 나와야 되는데 아직은 기대치에 비해서는 매출이 좀 잘 안 나오고 있는 게 아쉽습니다. [앵커]근데 컬리도 2조 원 매출인데 영업 손실이 2,335억 원이라면 저거 뭐 밑지고 장사한다는 그런 뜻인가요? [답변]그렇죠. 아무래도 컬리 같은 경우도 물건을 1만 원어치를 팔면은 대략 한 7,200원 정도가 재료비가 나오고, 한 3,900원 정도가 인건비, 광고선전비, 시설비 같은 걸로 씁니다. 그래서 결론적으로는 1만 원으로 팔아도 대략 한 1,000원에서 1,100원 정도 적자를 보고 있는 상황입니다. [앵커]근데 최근에는 스타트업의 구조조정 얘기도 많이 나오잖아요. 좀 짚어주실 만한 사례가 있을까요? [답변]네, 제가 주요 구조조정하고 있는 네 개의 스타트업을 꼽아봤는데요. 그린랩스 같은 경우는 스마트팜이라고 해서 농가에 비닐하우스나 전자제품들을 설치해 주는 스마트팜을 하고 있고요. 뱅크샐러드는 금융 자산 관리 서비스, 앱 화면에서 내가 어떤 자산을 어떻게 쓰고 있는지 볼 수 있고, 부동산 정보 하고 있는 직방 그리고 육류, 초신선 돼지고기를 살 수 있는 정육각을 꼽아볼 수 있습니다. [앵커]얼마전에 초록마을도 인수했더라고요. [답변]그렇죠. 초록마을을 한 900억 정도의 인수를 했는데요. 정육각 같은 경우가 아무래도 내가 초록마을도 인수했고 매출액도 커졌는데 그럼 다음 라운드에 투자를 해 주셔야 되는 거 아닙니까? 하는데 사실 그 이후로 투자를 못 받았어요. [앵커]그런데 이미 2021년, 2022년 사이에 다 1,000억 대 정도 투자를 받은 회사들이잖아요. [답변]그렇죠. [앵커]구조조정하고 있다는 건 이 돈 다 썼다는 얘기인데 어디다 쓴 거예요? [답변]불과 1년에서 2년 정도 걸린 거죠. 그래서 예를 들면 그린랩스 같은 경우는 농산물 유통을 했어요. 내가 뭐 사과, 배를 사서 중간 도매상에게 팔겠다 했는데 제가 재무제표 보니까 매출 원가율이 99%가 나왔습니다. 즉 9,900원에 사서 1만 원에 판 거예요. 그러다 보니까 나머지 인건비 하고 나면 영업 적자가 상당히 많이 발생해서 1,700억 거의 다 썼다, 라고 보여지고요. 그리고 뱅크샐러드 같은 경우도 1,350억 2년에 걸쳐서 투자받았는데 매년 영업 적자가 400억에서 500억 정도 나오고 있어요. 왜냐하면 매출액을 어디서 가져와야 될지 어려움을 많이 겪고 있거든요. [앵커]결국 구조조정 나섰다는 얘기는 설비에 대한 구조조정입니까, 아니면 인력 감축을 의미하는 겁니까? [답변]그렇죠. 여기는 스타트업이 대부분 설비는 없고 결국은 사람이 설비인데, 사람을 도저히 이 구조로는 버틸 수가 없다. 그래서 인력을 30%, 50% 줄여서 우리가 생존가능한 기간을 좀 늘려보겠다, 라는 시도라고 보시면 될 것 같습니다. [앵커]그런데 보통 이게 벤처의 성장 공식이라는 게 적자를 내도 괜찮아, 이게 마케팅 비용 쓰면서 매출 규모 늘리고 고객 규모도 늘리면 결국 따라오게 되어 있어, 라는 거였잖아요. 이제 이 공식이 안 통하는 거예요? [답변]그게 작년 초까지만 해도 맞는 공식이었습니다. 왜냐하면 투자자, 벤처 투자자들이 주로 매출액 내지는 회원 수 정도 보고 그 정도가 잘 충족됐으면 '잘했네, 그럼 다음 라운드 투자해 줄게' 라고 해서 투자 기반으로 성장할 수 있는 상황이 됐는데요. 근데 이제는 갑자기 투자자들이 어떻게 보면 돌변한 거죠. '아니 작년에는 됐는데 올해는 안 될 것 같아'. [앵커]그러니까 금융 환경이 바뀌었다는 거예요? [답변]그렇죠. 그게 어쩔 수 없는 게 투자자분들이 과거에 투자했던 기업들이 상장을 하거나 M&amp;A를 통해서 자금이 회수돼야 그다음 투자를 할 수가 있는데 뒷단이 막혀 있다 보니까 앞단에도 점점 어려워지게 된 거죠. [앵커]뭐가 막혔다는 거죠, 지금? [답변]막혔다, 라는 게 인플레이션으로 인해서 금리가 인상되다 보니까 주식시장이 폭락했잖아요. 그러다 보니까 신규 상장 IPO가 계속해서 실패하는 사례가 나오고 있습니다. 그러다 보니까 투자자들도 돈이 묶인 거죠. [앵커]그런데 일반 비즈니스 같은 경우에는 무조건 흑자가 돼야 되지만. [답변]그렇죠. [앵커]이런 벤처 같은 스타트업은 적자가 나더라도 그 회사의 성장성 보고 투자받는 거 아니에요? [답변]그렇죠. 아무래도 규모가 커지면 나중에 내가 100억 매출 할 때랑 1조 원 매출할 때랑 '절약은 1조 원일 때 하면 되지. 그러니까 1조 원 될 때까지 돈은 내가 넣어줄게'가 기존의 문법이었던 거죠. 지금은 미안한데 내가 아직 돈이 없어. 그러니까 이제는 '네가 알아서 수익을 거둔 다음에 그 돈으로 성장했으면 좋겠어' 약간 이런 상황으로 바뀐 거죠. [앵커]그러면 스타트업들 입장에서는 좀 억울할 수도 있을 것 같은데요? [답변]억울하죠. 작년까지는 계속 잘한다, 잘한다. 매출액만 찍어. 회원만 많이 모아와, 하던 투자자들이 미안한데 이제는 안 될 것 같아, 라고 하니까 스타트업 입장에서는 굉장히 어려운 상황이죠. [앵커]그럼 방금 말씀하신 그런 주요 스타트업들 현재 보유하고 있는 현금으로 생존 가능한 기간, 이 업계에서는 런웨이라고도 표현하던데 이거 한 얼마 정도 보고 계시는 건가요? [답변]네, 런웨이라고 하는데 지금 투자 시장이 굉장히 빙하기라고 표현한 게 약 한 만 1년 정도 됐어요. 작년 한 5월부터 투자 시장이 막히기 시작했거든요. 그런데 보통 스타트업들이 투자를 받고 나서 그 돈으로 한 2년 정도를 생존해야지, 라고 마음먹어요. 그런데 지금 만 1년이 지났으니까 대부분의 기업들이 6개월 내지는 1년 미만의 현금을 가지고 있다고 판단이 됩니다. 그러면 지금 이 상황이 6개월 정도 흐르면 아마 좀 더 많이 어려워지는 스타트업이 많아질 것 같습니다. [앵커]이런 겨울이 한 언제까지 지속될까요? 이거는 미국 금리 어떻게 될 거냐, 부동산 시장 언제 좋아질 거냐랑 같은 질문인데. [답변]그렇죠. 미국에 물어봐야 될 것 같기는 한데 아무래도 좀 뒷단의 제일 큰 시장부터 점점 점점 작은 시장으로 여파가 내려오기 때문에 앞으로도 아마 1, 2년 이상은 좀 어려움이 지속된다라고 봐야 될 것 같습니다. [앵커]그러니까 이런 매크로 환경과는 별개로 한국 스타트업들의 내재적인 성장률을 어떻게 보세요? 지금 보면 2000년대 초반 닷컴 버블하고 비교하면서. [답변]그렇죠. [앵커]그때와 다를 거냐 아니면 비슷하게 갈 거냐 이걸 좀 우려하는 분들이 계셔서요. [답변]사실 제일 중요한 건 매크로이기는 한데 매크로를 빼고 본다, 라고 한다면 2000년이랑 지금 2023년은 좀 많이 다르기는 합니다. 왜냐하면 2000년대에는 닷컴, 뭐뭐 닷컴만 붙이면 막 100억, 200억씩 쉽게 투자받을 수 있었어요. 기억나시죠? 근데 지금은 어떻게 보면은 자본시장보다 기술의 발전이 더 빠른 시기거든요. 눈만 뜨면 막 새로운 기술들이 나오다 보니까 예전에는 그때는 기술 구현이 안 돼서 안 됐던 서비스가 지금은 기술은 가능한데 어떻게 보면 사람이나 자본이 따라오지 못하는 상황이 있었죠. [앵커]사실 우리가 어떻게 보면 잠재적인 투자자이면서 또 소비자잖아요, 스타트업에. 이런 옥석 가리기가 필요할 것 같아요. 좋은 스타트업, 나쁜 스타트업 구별할 수 있는 팁 짧게 하나 주시면요? [답변]이게 좀 어렵긴 한데 저 같은 경우는 회계사다 보니까 비용을 많이 봅니다. 쭉 인건비, 임차료, 광고 선전비 보면서 매출액 대비 비율을 보는데요. 그게 작년이랑 올해 대비해서 얼마나 효율적으로 나오는지를 보면 얼마나 이 회사가 경영을 잘하는지를 판단할 수 있을 것 같습니다. [앵커]그 회사의 재무제표를 읽어라. [답변]그렇죠. [앵커]이거 전자공시시스템 들어가면 볼 수 있죠? [답변]그렇죠. 전자공시시스템 검색하셔서 들어가시면 웬만한 이름 있는 스타트업은 다 확인하실 수 있습니다. [앵커]여기까지요. 지금까지 ET WHY 이재용 회계사와 함께했습니다. 고맙습니다. [답변]감사합니다. ■ 제보하기▷ 전화 : 02-781-1234, 4444▷ 이메일 : kbs1234@kbs.co.kr▷ 카카오톡 : 'KBS제보' 검색, 채널 추가▷ 네이버, 유튜브에서 KBS뉴스를 구독해주세요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.05.18.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>인뱅, 개인사업자 상품 확대…건전성은 과제</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011866846?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>기사내용 요약카뱅, 보증서 대출·토뱅, 노란우산공제개인사업자 시장 넓혀…"기업금융 진출"[서울=뉴시스] 김근수 기자 = 서울 시내 한 식당에서 가게 주인이 장사 준비를 하고 있다. 2023.01.12. ks@newsis.com[서울=뉴시스]이주혜 기자 = 인터넷은행들이 개인사업자 대상 상품과 서비스를 확대하고 있다. 기업금융으로 포트폴리오를 다양화하기 위해서다. 다만 높아지는 연체율 등 건전성 관리는 과제다.18일 금융권에 따르면 카카오뱅크는 개인사업자 보증서 대출을 25일 출시해 사업자 대출 커버리지를 확대할 예정이다. 카카오뱅크는 신용보증재단중앙회와 소상공인 상생금융을 위한 보증료 지원 업무 협약을 체결했으며 연말까지 대출 실행 고객에게 보증료의 50%를 지원한다. 카카오뱅크는 최근 여신거래약정서 약관을 일부 변경하며 소상공인 정책자금 대출 출시 가능성도 열어뒀다. 개인사업자 대출의 원리금 납부 기간을 기존 1개월에서 다양한 조건으로 약정할 수 있게 했다.앞서 카카오뱅크는 개인사업자 신용대출 상품을 선보였다. 카카오뱅크는 지난해 11월 개인사업자 대출과 통장, 카드 등 '개인사업자 뱅킹'을 출시했다. 1월에는 '간편 세금 조회·신고 서비스'를 내놓았다. 부가가치세와 종합소득세 등 개인사업자가 어렵게 느끼는 세무 신고를 간편하고 저렴하게 해결할 수 있는 서비스다.윤호영 카카오뱅크는 지난달 기자간담회에서 "개인사업자 뱅킹은 기업금융 진출의 첫 발이라고 볼 수 있다"며 "보증서 대출도 선보이는 등 여신 상품의 커버리지를 꾸준히 확대해 고객 편의에 기여할 계획"이라고 말했다. 토스뱅크는 8일부터 소기업·소상공인 사업주를 대상으로 '노란우산공제' 가입 서비스를 지원한다. 노란우산공제는 소기업·소상공인이 폐업이나 노령 등 생계 위협이 가능한 상황에서 생활의 안정을 기하고 사업재기의 기회를 제공받을 수 있도록 만들어진 공제제도다. 토스뱅크의 편리하고 직관적인 사용자 경험을 공제 가입부터 납입, 관리 절차에 접목해 사업에 바쁜 소상공인들이 편리하게 이용할 수 있도록 했다. 토스뱅크는 지난해 2월 인터넷은행 3사 중 가장 먼저 개인사업자 신용대출인 '사장님 대출'을 출시했다. 이어 '사장님 마이너스통장'을, 신용보증기금과 손잡은 '사장님 대환대출' 서비스를 내놓으며 관련 상품을 확장했다.케이뱅크도 지난해 개인사업자 보증서 담보대출과 개인사업자 신용대출을 선보였다.인터넷은행들이 개인사업자 대출에 적극적으로 나서고 있으나 최근 늘어나는 연체율은 해결해야 할 과제다.카카오뱅크의 1분기 기준 연체율은 0.58%로 전 분기보다 0.09%포인트 상승했다. 케이뱅크는 0.82%로 같은 기간 0.03%포인트 내렸다. 다만 기업 고정이하여신 비율은 0.33%로 지난해 말보다 0.04%포인트 뛰었다.인터넷은행 관계자는 "고객 영역을 넓히고 리테일에서 기업금융으로 뻗어가기 위해 개인사업자 대출에 나서는 추세"라면서 "개인사업자 대출의 건전성 우려가 최근 커진 것은 사실이지만 리스크 관리와 신용평가모형 고도화에 힘쓰고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.05.28.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>"장사 잘 됐는데 나가는 돈이 너무 많다" 카드사 실적 부진에 '수익 다각화' 고민</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005018883?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>카드사 1·4분기 당기순이익 급감.. 하나카드는 63%↓카드사용 늘었는데 조달+대손비용 급증해 '역마진'애플페이發 수수료 유료화에 카드사들 긴장민간 데이터 전문기관+CB사 등 데이터 사업동남아시아 시장 진출로 수익률 제고 노려"비용 상승에 뾰족한 수는 없다" 진단도 4일 오전 서울 시내의 한 편의점에서 한 소비자가 카드 결제를 하고 있다. 여신금융협회에 따르면 지난 2월 신용카드와 체크카드를 합친 전체 카드의 평균 승인액은 4만4천857원으로 전월 대비 2.2% 감소했다고 밝혔다. 2023.04.04. 사진=뉴시스  삼성페이. 뉴스1.[파이낸셜뉴스]1·4분기 카드사들의 당기순이익이 급감하면서 카드업계의 고민이 커지고 있다. 각 사는 민간 데이터 전문기관 등 데이터 사업 진출과 동남아시아 시장 활성화를 통해 수익 구조를 다각화한다는 방침이다. 하지만 조달비용과 대손비용 등 '나가는 돈'이 줄어들지 않는 이상 역(逆)마진 구조를 개선하기 쉽지 않다는 우려도 나온다. 애플의 간편결제 서비스 애플페이의 국내 상륙으로 삼성페이도 유료화를 선언하면서 안 내던 수수료까지 부담해야 해서다.     ■"카드 사용 늘었는데 왜 웃지를 못하니" 1분기 당기순익 '급감'  28일 여신금융협회에 따르면 올해 1·4분기 전체카드 승인금액은 277조 5000억원, 승인건수는 63억 7000만건으로 전년동기대비 각각 11.5%, 11.9% 늘었다. 최근 숙박과 음식점업 등 대면활동 중심으로 내수가 회복하고 해외여행이 정상화되면서 여행과 여행 관련 산업 매출이 증가한 데 따른 것이다.   하지만 내수 회복으로 인한 매출 증가가 당기순이익으로 이어지지는 못하고 있다. 1·4분기 주요 7개 카드사 당기순이익은 부진했다. 업계 1위 신한카드의 당기순이익은 전년동기대비 5.3% 감소한 1667억을 기록했다. 삼성카드는 9.5% 감소한 1455억원이었다. KB국민카드는 당기순익이 820억원으로 전년동기대비 31% 감소했으며 현대카드는 7.9% 감소한 708억원을 기록했다.   하나카드는 당기순익이 1년새 63% 급감해 202억원 순익을 냈다. 롯데카드와 우리카드 당기순익 또한 40% 이상 급감했다. 롯데카드는 전년동기대비 40.5% 줄어든 544억원, 우리카드는 46.5% 감소한 458억원이었다. 영업이익도 현대카드에서만 유일하게 늘었다. 현대카드 1·4분기 영업이익은 전년동기대비 1.5% 증가한 약 957억원을 기록했다.   매출이 늘어도 '나가는 돈이 더 많은' 역마진 구조가 실적 부진의 이유다. 지난해 여전채(AA+) 3년물 금리는 연초 2% 중반대에서 11월 6%대로 치솟았다. 수신기능이 없는 카드사가 주로 여전채 발행을 통해 자금을 조달하는 점을 고려할 때 지난해 4·4분기 조달비용이 급상승해 역마진이 날 수밖에 없는 구조였다. 이미 카드 수수료를 대폭 낮춘 상황에서 조달비용마저 늘었고, 대출 연체율이 올라가면서 대손비용도 크게 늘었다.   1분기 카드대금·할부금·리볼빙·카드론의 1개월 이상 연체율은 현대카드(0.95%)를 제외하고 모두 1%대를 기록했다. 아직 1% 초중반대 수준으로 '위험수준' 2%를 넘어가지는 않았지만 상승하는 추세라 당국에서도 손실흡수능력 제고를 압박하고 있다. 이에 신한·삼성·KB국민·우리·하나카드의 1분기 대손비용은 전년동기대비 약 67% 증가한 7665억원에 달했다.     ■페이 유료화까지 '사면초가' 카드사, 데이터사업+해외 시장 노린다  특히 올해 하반기 삼성페이가 유료화에 나서면서 카드사들은 조달비용·대손비용 상승과 페이 수수료 납부라는 삼중고를 맞았다. 네이버파이낸셜과 카카오페이, 토스 등 간편결제 3사가 결제 시장에서 몸집을 키우고 있는 것도 부담이다.   이런 상황에 카드사들은 데이터사업과 해외시장으로 시선을 돌리고 있다. 이미 포화상태인 국내 결제시장에서 영업이익을 끌어올리기 어렵단 판단에서다.   카드업계 관계자는 "애플페이발(發)로 삼성페이 수수료 부과가 예상되고 네이버, 카카오에서도 순차적으로 수수료를 부과할 것이라는 우려가 있다"라며 "또 빅테크사가 금융업에 진출해서 빅테크와 경쟁을 해야 하기 때문에 안팎으로 어려운 상황"이라고 전했다.   이에 카드사들은 민간 데이터 전문기관, 마이데이터, 신용평가(CB) 사업 진출에 속도를 내고 있다. 신한과 삼성, 비씨카드는 금융위원회의 민간 데이터 전문기관으로 예비 지정됐고 본인가를 준비 중이다. 데이터 전문기관은 금융·비금융사에서 개인의 익명·가명 데이터를 받아 결합할 수 있어 상품 출시 등 다양한 분야에 활용 가능하다. 신한과 KB국민, 현대카드 등은 마이데이터 사업에 진출해 있고, 삼성카드도 본인가를 신청한 상태다. 하나카드는 SKT와 손잡고 데이터 가명정보 결합 사업 등을 추진 중이다.   비현금 결제시장이 커지고 있는 동남아시아에서의 수익 창출에도 열을 올리고 있다. 신한카드는 카자흐스탄, 인도네시아, 미얀마, 베트남에 법인을 두고 있고 KB국민카드도 캄보디아, 인도네시아, 태국에 진출했다. 롯데카드는 베트남 법인, 우리카드는 미얀마와 인도네시아 법인에서의 실적 개선에 힘을 쏟고 있다.   하지만 '뾰족한 방법이 없다'는 우려도 나온다. 카드업계 또다른 관계자는 "활성 고객수나 매출 등 중요 지표가 좋아졌는데 조달비용과 대손비용 급상승으로 1분기 순이익이 크게 떨어졌다"면서 "즉 장사가 안 돼서 돈을 못 버는 게 아니라 장사가 잘 되는데 나가는 돈이 많은 게 문제"라고 진단했다. 그러면서 "데이터 사업이나 해외 시장 진출도 이미 추진 중인 부분이었기 때문에 현재 위기상황에 대한 뾰족한 대책은 없다"고 말했다. 다만 "1분기에 선제적으로 충당금을 많이 쌓고 리스크 관리를 해놔서 2분기에는 대손비용이 줄어들 여지가 있고, 여전채 금리가 안정되면 1분기보다 실적이 나아질 수 있다"고 덧붙였다. #삼성페이 #여신금융협회 #삼성카드 #신한카드 #카드사 #마이데이터 #대손비용 #애플페이 #카드사당기순이익 #민간데이터전문기관 #여전채금리</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.05.25.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>만보 걷고 포인트 받고 채팅방에서 마음 다잡고 …</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005135476?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>눈물의 짠테크 어디까지 해봤니짠테크 체험해보니…최근 인플레이션 시대를 맞아 젊은이들이 다양한 짠테크 방식을 공유하며 어려운 시대를 헤쳐가기 위해 힘을 모으고 있습니다. MZ세대에게 유용한 짠테크 방법 몇 가지를 소개합니다.토스 만보기 포인트 적립앱테크▷ 토스 '만보기'토스 만보기 서비스는 지난해 사용자 400만명을 넘긴 히트작입니다. 토스 앱 내 '혜택' 탭에 접속해 이용 가능하며 '걷기 미션'과 '방문 미션'을 통해 하루 최대 토스 포인트 140원을 수령할 수 있습니다. 포인트 적립 등 리워드 외에도 걸음 수를 분석해 보여주는 것이 특징입니다. '실시간 분석'은 연령대별 평균 기초대사량을 기준으로 소비한 칼로리를 계산해주고, 같은 성별 및 연령대와 비교해 상위 몇 %에 해당하는지 보여줍니다. 다만 포인트가 500원 이상 돼야 출금할 수 있다는 점, 140원이 하루 상한이라는 점이 단점이죠.NH투자증권 시드 앱 화면▷ NH투자증권 '시드'NH투자증권이 지난달 출시한 증권업계 최초의 앱테크 서비스 '시드'를 사용해봤습니다. △클릭만 해도 받을 수 있는 포인트(클릭형) △미션 달성하고 포인트 쌓기(액션형) 등을 통해 다양한 유형과 난이도의 미션이 주어집니다. 참여를 통해 획득한 리워드(NH포인트)는 국내 주식 소수점(100원 단위) 매매, 해외 주식 소수점(1000원 단위) 매매, 펀드 등에 투자할 수 있으며 현금으로 전환도 가능합니다. 미성년자 등 상대적으로 시드머니(투자금)가 많지 않은 사람들이 투자할 수 있는 기회를 제공한다는 것은 장점이지만 토스 만보기처럼 걷기만 해도 적립되는 자동형 적립 시스템이 없다는 것이 단점입니다.공유경제▷ 리본즈 '명품 렌트'리본즈의 명품 렌탈 서비스는 원하는 기간에만 빌려서 이용할 수 있는 예약형 서비스와 월 정액료를 내고 무제한으로 이용할 수 있는 구독형 서비스 두 가지가 있습니다. 다양한 브랜드의 명품을 합리적인 가격으로 이용할 수 있죠. 특히 결혼식, 여행 등 특별한 상황별로 명품을 추천해주는 서비스가 있는 것이 장점입니다. 다만 구독료를 따로 지불해야만 상품 할인을 받을 수 있어 추가 비용 문제가 있습니다.거지방 소비내역 평가오픈채팅방▷ 거지방원하는 사람은 누구든 쉽게 들어갈 수 있어요. 카카오톡 오픈채팅 검색창에 '거지방'을 검색하면 되는데 △닉네임 옆에 누적 금액 기록하기 △하루 소비 내역 공개하기 등 규칙이 있습니다. 예를 들어 어제 4만6500원의 저녁을 먹었다면 채팅방에 '어제 먹은 곱창+맥주 =46500원'이라고 올리면 됩니다. 이후 거지방 참여자들이 소비 내역을 보고 소비를 평가합니다. 지출할 때마다 채팅방에 공개해야 하고 닉네임 옆에 누적 금액을 적다 보니 돈을 절약하는 데 도움이 됩니다. 다만 자발적으로 지출 내역을 공개한다는 점에서 절약을 꾸준히 실천하긴 어려울 수 있습니다. [김대연 경제경영연구소 인턴기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.05.24.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>대환대출 가동 초읽기…토스 '대출 갈아타기' 사전 신청 30만명 넘었다</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004891311?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>/사진제공=토스토스는 이달 말 출시를 앞둔 대환대출 서비스 '대출 갈아타기' 사전 신청자가 30만명을 넘어섰다고 24일 밝혔다. 지난 10일 처음 사전 신청을 받은 지 2주 만이다.대출 갈아타기는 금융당국이 추진하는 온라인·원스톱 대환대출 인프라 도입에 발맞춰 선보일 예정이다. 대환대출 인프라에는 약 53개 금융사와 23개 대출 비교 플랫폼 업체가 참여한다. 토스는 대출 갈아타기 서비스를 통해 대환대출 절차와 관리 측면에서 혁신적인 고객 경험을 준비하고 있다고 밝혔다. 고객은 앞으로 새로 대출받을 금융기관만 결정하면 기존처럼 대출이 있는 곳과 새로 받을 곳을 번갈아 방문하지 않아도 된다. 또 여러 금융기관의 대출 상품을 한눈에 비교해 자신에게 가장 유리한 대출 상품을 선택할 수 있다. 여기에 대환대출 이후 대출 상환과 신용점수 관리 등 부가 기능도 대출 갈아타기 서비스를 통해 제공받을 수 있다.토스 관계자는 "금융회사 간 실시간 대출 이동 서비스는 우리나라가 전 세계에서 처음 시도하는 것으로 더 나은 금융 활동을 위해 금융당국과 플랫폼, 여러 금융사가 오랜 시간 준비했다"며 "토스는 대출 비교 플랫폼 1위 사업자로서 이번 대출 갈아타기 서비스에도 완벽한 고객 경험을 제공해 사전 신청 고객들의 성원에 보답할 것"이라 말했다.한편 토스는 월평균 1조원 이상의 개인 신용대출 실행을 중개하며 현재 약 50% 이상의 시장점유율을 보이고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>전경련, 이승건 토스 대표·장지호 닥터나우 대표와 토크콘서트</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003103363?sid=105</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>이승건 비바리퍼블리카(토스) 대표, 장지호 닥터나우 대표가 전국경제인연합회 두번째 국민 소통 프로젝트 ‘드림워크 토크콘서트’에 MZ세대 멘토로 나선다.전경련은 이 대표, 장 대표와 방송인 타일러 라쉬를 초청해 23일 서울 동대문 브이스페이스에서 토크콘서트를 개최한다고 30일 밝혔다. 장성규 아나운서가 진행하며 MZ세대 300여명이 참석할 예정이다.(왼쪽부터)이승건 비바리퍼블리카(토스) 대표, 장지호 닥터나우 대표, 방송인 타일러 라쉬드림콘서트는 이달 25일 전경련 혁신계획 일환으로 열린 한국판 버핏과의 점심 ‘갓생 한 끼’에 이은 두 번째 국민소통 프로젝트다. 갓생 한 끼에서는 정의선 현대차 회장, 박재욱 쏘카 대표 등이 멘토로 나섰었다.이 대표와 장 대표 등은 MZ세대와의 소통과 젊은 세대들에게 선한 영향력을 확산하고자 행사에 참여하기로 했다. 이 대표가 이끄는 토스는 새로운 차원의 금융 경험으로 청년층에서 지지를 얻고 있다. 장 대표는 20대 사업가로 국내 최초 비대면진료 및 처방약 배송 서비스를 선보이며 효율적이고 안전한 의료 체계 구축을 선도하고 있다.토크콘서트 참석 희망자는 전경련 홈페이지를 통해 다음달 1일부터 신청할 수 있다. 접수는 선착순으로 마감된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>'15분 원스톱' 대환대출 이렇게 이용하세요</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005496705?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>비교·추천 받고 싶다면 플랫폼 이용금융사 앱에선 마이데이터 불필요[이데일리 서대웅 기자] 31일 가동되는 온라인·원스톱 대환대출 서비스는 크게 두 가지 방법으로 이용할 수 있다. 대출비교 플랫폼과 금융회사 애플리케이션을 통해서다. 여러 금융회사 대출 조건을 비교하고 싶다면 대출비교 플랫폼을, 갈아타려는 회사를 정해놨다면 금융회사 앱에서 바로 이용하면 된다.(자료=금융위원회)플랫폼 이용 시 마이데이터 가입 필수대출비교 플랫폼은 여러 금융회사 금융상품을 한눈에 비교할 수 있는 점이 특징이다. 이를 위해 마이데이터 가입을 해야 한다.우선 플랫폼 내 대환대출 메뉴에서 기존 대출 가운데 대환하고 싶은 대출을 선택한다. 이후 직장, 소득, 자산 정보를 최대한 정확히 입력해야 한다. 그래야 가장 적합한 대환 가능한 상품이 추천된다.자신의 정보를 입력하면 갈아탈 수 있는 금융회사와 대출 상품을 보여준다. 금리, 한도 등의 순으로 비교할 수 있다. 갈아탈 대출의 변동·고정금리 여부, 우대금리, 중도상환수수료 등을 확인해 선택하면 자동으로 해당 금융사 앱으로 이동하게 된다. 실제 대환은 해당 금융사 앱에서 새 약정을 체결해 진행된다.비교 추천 과정에선 플랫폼마다 차이가 발생한다. 플랫폼 회사들이 제휴를 맺은 금융회사 수가 다르기 때문이다. 제휴 은행만 놓고 보면 카카오페이(377300)는 7개 은행의 상품을 보여준다. 비바리퍼블리카(토스)는 6개, 네이버페이는 4개 은행과 제휴를 맺었다.현재 대출비교 플랫폼은 이들 빅테크 3사와 뱅크샐러드, 핀다, KB국민카드, 웰컴저축은행 등 7개사가 참여했다. 향후 신한은행과 키움증권도 이러한 플랫폼을 구축할 계획이다. 신한은행 앱에서 다른 은행 대출상품도 비교하고 해당 금융사로 바로 이동해 대환이 가능해진다는 의미다.(자료=금융위원회)금융사 앱에선 타사 상품 대환 불가금융사 앱에서 대환하는 방법도 있다. 금융사 앱에선 다른 금융사 대출 비교가 안 되거나 되더라도 타사 상품 대환은 불가능하다. 오직 자사 상품 대환만 가능하다. 다만 별도의 플랫폼 앱을 설치할 필요가 없고 마이데이터에 가입하지 않아도 된다.이용 방법은 대출비교 플랫폼과 비슷하다. 금융사 앱의 대환대출 메뉴에서 기존 대출 정보를 확인한 후 바꾸고 싶은 대출을 선택하면 된다. 해당 금융사 상품으로 대환하기 때문에 다른 금융사 앱으로 이동할 필요가 없다. 우선 은행 15곳, 저축은행 7곳, 카드 7곳, 캐피털 4곳 등 33개 금융회사가 자사 앱에서 대환 서비스를 제공할 예정이다.금융위원회는 대환을 완료하면 기존 대출을 완전히 갚은 사실과 새로운 금융회사에서 대출을 받은 사실을 모두 정확히 확인해야 한다고 당부했다.이번 온라인·원스톱 대환대출은 영업점에 방문하지 않고도 대출 갈아타기가 가능해진다는 점이 가장 큰 특징이다. 기존엔 금융회사 2곳을 방문하고 최소 2영업일을 기다려야 했다. 앞으로는 모바일 앱 설치부터 대환 결과 확인까지 15분 내외가 소요될 것으로 전망된다.대환 가능한 대출은 53개 금융회사에서 받은 10억 이하의 신용대출(마이너스통장 포함)이다. 무보증 상품이어야 한다. 다만 기존 대출을 서민?중저신용자대상 정책대출로 갈아타는 경우엔 보증 여부와 관계없이 가능하다. 금융위는 연내 주택담보대출도 온라인·원스톱 대환대출 대상에 포함시킬 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.05.24.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>핀테크사 BNPL 연체율 고공행진에도 '애플 모델' 주저하는 이유는?</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000044421?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>(사진=픽사베이)핀테크 업체들이 우선 구매한 뒤 결제는 나중에 하는 선구매 후결제(Buy Now Pay Later, 이하 BNPL)를 내놓은 지 햇수로 2년이 흘렀다. 연체율이 높아지는 부작용이 있지만 예견된 일인 데다 연체금액 자체도 위험 수준은 아니라고 핀테크 업계는 보고 있다.24일 금융업계에 따르면 금융위원회는 지난 2021년 11월 비바리퍼블리카가 신청한 선불전자지급수단 토스머니로 재화 또는 용역을 구매했을 때 결제금액 부족분을 다음달 지정한 날에 상환하는 후불결제 서비스를 허용했다.당시 금융위가 내건 조건을 보면 비바리퍼블리카는 1인당 후불결제 한도를 최대 30만원으로 정하고 대안신용평가시스템 등을 통해 개인별 한도를 차등 부여하도록 했다. 또 환금성 상품(귀금속, 상품권 등)과 유흥·사행성 관련 업종은 후불로 구매할 수 없도록 했다.금융위는 카드사 여신이 아닌 선불결제의 부수기능 성격을 강조할 수 있도록 이자가 발생하는 할부나 리볼빙, 현금서비스는 금지했다. 여기에 '신용'이나 '신용카드' 등 신용카드 결제로 오인할 수 있는 표현도 쓰지 못하게 했다.비바리퍼블리카와 같은 BNPL 서비스를 제공하는 카카오페이, 네이버파이낸셜도 비슷한 기준을 적용받는다. 네이버파이낸셜의 선불전자지급수단 네이버페이 금액 상한선이 30만원인 데 비해 카카오페이는 15만원인 점만 다르다.BNPL의 가장 큰 특징은 연체가 발생해도 연체정보가 공유되지 않아 신용점수에 영향을 미치지 않는다는 점이다. 연체정보 공유를 제한해 서비스를 이용하는 금융이력부족자의 제도권 금융 이용기회가 제한되는 상황을 최소화하기 위한 조치다.문제는 여기서 발생한다. 신용카드와 달리 연체정보가 공유되지 않으니 연체율이 올라가는 상황이 생기는 것이다.지난달 30일 최승재 국민의힘 의원이 금융감독원에서 받은 자료를 보면, 지난 3월 말 기준 국내에서 BNPL 서비스를 제공 중인 3개 업체의 연체율은 모두 전년 말에 비해 크게 올랐다.업체별로 보면 네이버파이낸셜의 3월 말 기준 연체율은 2.7%로 지난해 말 2.14%에서 소폭 올랐지만 전년 동기와 비교하면 1.26%에서 두 배 이상 늘었다. 토스의 경우 지난해 말 3.48%에서 5%로 뛰었다. 카카오페이 BNPL 연체율은 0.09%에서 0.51%로 상승했다.약 한 달이 지난 현재 3개 업체는 정확한 연체율을 밝히지 않고 있다. 관련 규정에 따라 연체율을 공시해야 하는 신용카드사와 달리 BNPL 서비스를 제공하는 핀테크 업체들에게 연체율 공개 의무는 없다.전문가는 BNPL 연체율 증가 추세를 우려하는 의견을 냈다. 서지용 상명대 경영학부 교수는 BNPL 연체율 상승에 대해 "업체 규모에 따라 연체 부담이 다른데 핀테크 업체의 경우 BNPL 부실이 상당한 부담으로 작용할 수 있다"면서도 "리스크 관리를 원활하게 하는 업체는 (극복도) 충분히 가능할 것"이라고 말했다.이와 달리 핀테크 BNPL 연체가 이미 예견된 일이었다는 평가도 함께 나온다. 금융업에 정통한 법조계 인사는 "처음부터 금융이력부족자도 이용할 수 있게 만든 서비스이고 연체정보도 공유하지 않도록 못박아 연체율은 올라갈 수밖에 없는 구조"라면서도 "신용카드 발급이 어려운 학생이나 저신용자도 후불로 결제할 수 있는 길을 터줬다는 점에서 긍정적"이라고 말했다.BNPL 연체율이 올라가는 상황에서 거론되는 대안 중 하나는 애플이 출시한 애플페이 레이터다. 할부가 어려운 국내 업체의 BNPL과 달리 수수료나 이자 없이 결제금액을 6주 동안 네 번에 걸쳐 상환하는 점이 특징이다. 결제 한도는 1000달러다.서 교수는 "후불결제 금액을 분할 상환하는 만큼 이용자가 부담을 줄일 수 있다는 측면에서 연체율을 낮추는 데 도움이 될 것"이라며 "금융위가 업체들과 협의해 리스크를 낮출 수 있는 방안을 모색하는 한편 인허가를 통해 정식 사업으로도 가능한지 타진할 필요가 있다"고 제언했다.다만 업계 내부에선 애플 모델을 고려하지 않는 분위기다. 연체율 자체는 높지만 신용카드와 비교하면 금액 자체가 높지 않고 서비스 제공 초기인 만큼 시간을 두고 지켜보자는 기류 때문이다.금융당국 자료를 보면 국내 신용카드사 연체액 총액은 지난해 말 기준 1조원을 훌쩍 넘겼다. 이에 비해 간편결제업체 BNPL 연체에 따른 총 채권액은 445억원 수준이다.업계 관계자는 "BNPL 연체율이 높은 것은 사실이지만 금액만 놓고 보면 신용카드 연체액에 비해 매우 낮다"면서 "서비스가 시행된 지 이제 1년을 갓 넘긴 상황이라 해외 모델이 대안으로 논의되는 상황은 아니다"고 전했다.이 관계자는 또 "BNPL이 자리잡은 국가가 많은 만큼 세부 내용은 다르다"며 "적용되는 법이나 기준, 규정도 모두 달라 해외 사례를 무조건 받아들이기 어려운 부분도 있다"고 덧붙였다.다만 신용카드업계가 주장하는 '동일기능 동일규제'를 적용받지 않기 위해서 앞으로도 핀테크업계가 애플의 분할상환 모델을 쉽사리 도입하기 어려울 것이라는 해석도 나온다. 이달 초 국회 정무위원회에서 의결된 전자금융거래법 개정안에는 후불결제 업무를 할 때 개정안 내 특별한 조항이 없는 한 여신전문금융업법(여전법) 내 신용카드업에 관련된 규정을 준용해야 한다는 내용이 삭제됐다. 핀테크 업계는 해당 조항이 있었을 경우 신용카드사와 동등한 규제를 받기 때문에 불이익이 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>토스증권, 공채 1기 뽑는다…전 직군 50여명 선발 예정</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004890338?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>/사진=토스증권 제공토스증권이 출범 후 처음으로 단독 공개채용을 진행한다고 22일 밝혔다.토스증권은 이날부터 다음달 11일까지 전 직군을 대상으로 대규모 공개채용을 진행한다. 채용 예정 인원은 총 50명이다. 채용 분야는 개발, 디자인, 컴플라이언스, 전략기획, 홍보, 재무 등이다.토스증권은 이번 공개채용을 통해 회사의 성장 속도를 높이고 향후 비즈니스 확장을 준비할 계획이다. WTS(웹 주식거래 시스템), 해외 옵션 서비스 등의 연내 출시를 앞두고 있으며 기존 서비스 고도화에도 힘쓸 것이라고 토스증권은 밝혔다.이번 공개채용에서 지원 자격으로 요구하는 최소 인정경력은 별도로 없으며 각 직무에 맞는 경험과 역량이 있다면 지원 가능하다. 입사 지원은 토스증권 채용 홈페이지를 통해 할 수 있다. 회사 비전 소개 등 지원자에게 도움이 될 수 있는 영상 콘텐츠를 제작해 유튜브와 채용 홈페이지에 공개할 예정이다.토스증권 관계자는 "지난 2년간 토스증권은 모바일에 최적화된 서비스로 고객의 지지를 얻으며 외적 성장과 함께 내실도 다져가고 있다"며 "이번 대규모 공채는 한단계 더 높은 곳을 향하기 위한 첫 번째 준비로 토스증권과 혁신을 함께할 많은 지원자의 참여를 기다린다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>수익성 악화된 유니콘 기업들</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005138007?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>야놀자·비바리퍼블리카 등 5개사1분기 영업이익 전년 대비 7% 감소지난 1분기 국내 주요 유니콘(기업가치가 10억 달러 이상인 비상장 벤처기업)들의 매출은 전년 동기 대비 소폭 늘었지만 수익성은 악화한 것으로 나타났다. 벤처투자업계에서는 유니콘 기업들도 성장 못지 않게 수익성을 중시하는 쪽으로 분위기가 바뀌었다며 스타트업 중에서도 이익을 낼 수 있는 기업들 위주로 ‘옥석가리기’가 진행될 것이라는 전망이 나오고 있다.31일 매일경제가 두나무·비바리퍼블리카·카카오모빌리티·야놀자·컬리 등 주요 비상장 기업들의 지난 1분기 실적을 분석한 결과 이들 기업의 매출액 총합은 1조5286억원으로 전년 동기(1조4229억원) 대비 7% 증가했다. 반면 영업이익은 같은 기간 1868억원에서 1744억원으로 7% 감소했다.1년 전과 비교해 수익성이 가장 많이 떨어진 기업은 야놀자였다. 지난 1분기 야놀자는 매출액 1536억원과 영업손실 119억원을 기록했다. 매출액은 전년 동기 대비 56% 증가했지만 영업이익은 전년 66억원에서 적자전환했다. 여행 수요 증가와 인수·합병으로 외형은 성장했지만 글로벌 사업을 확장하면서 투자 비용이 발생해 이익은 감소한 것으로 보인다.토스의 운영사인 비바리퍼블리카도 지난 1분기 598억원의 영업손실을 내 전년 동기 558억원 대비 손실 규모가 커졌다. 다만 매출액은 같은 기간 2252억원에서 3403억원으로 54% 늘어나면서 성장을 이어갔다.가상화폐 거래소 업비트를 운영하는 두나무의 영업이익과 매출액은 모두 감소했다. 매출액은 4268억원에서 3049억원으로 줄어들었고 영업이익도 2878억원에서 2119억원으로 감소했다. 다만 두나무는 매출 대비 영업이익이 차지하는 비중이 70%로 높은 수준을 유지하고 있는 것으로 나타났다.카카오모빌리티와 컬리는 수익성이 개선된 것으로 나타났다. 카카오모빌리티는 지난해 1분기 49억원의 영업이익을 내 전년 동기 3억원의 영업손실을 기록한 것에 비해 이익이 크게 개선됐다. 매출액이 1601억원에서 2202억원으로 늘어나면서 성장성도 유지한 것으로 보인다. 회사 측은 “모빌리티 서비스 특성상 1분기는 비수기에 해당함에도 불구하고 지속적인 기술 투자와 서비스 혁신으로 주차, 플랫폼 택시, 바이크, 대리, B2B 등 전체 사업영역에서 고른 성장세가 이어졌다”고 설명했다. 컬리는 매출액이 5127억원에서 5096억원으로 소폭 줄며 성장은 주춤했으나 영업손실 폭도 515억원에서 305억원으로 감소했다.벤처투자업계에서는 유니콘 기업들의 수익성이 악화한 가장 큰 이유가 경기 둔화 싸이클이 도래했기 때문이라고 보고 있다. 제품이나 서비스 수요는 감소하는데 자금 조달은 원활하게 이뤄지지 않으면서 이익이 줄어들었다는 분석이다.지난해 하반기부터 업계 분위기가 ‘성장’에서 ‘이익’을 중시하는 방향으로 바뀌었다는 목소리도 나온다. 한 벤처캐피탈 관계자는 “회사가 이익을 내고 있거나 투자가 원활하게 이루어지는 곳은 상관이 없지만 적자가 이어지는 회사들은 기업가치를 떨어트리면서까지 투자를 받거나 영속할지 못할 수도 있다”며 “과거 높은 기업 가치를 인정받은 유니콘 기업들조차 생존을 확신하지 못할 수 있다”고 말했다. 출처=금융감독원 전자공시시스템</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.05.26.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>GLN인터내셔널, 대만 타이신페이 국내 가맹점 QR 결제 개시</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000923864?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>GLN인터내셔널은 대만 타이신은행 전자지갑 타이신페이(台新Pay)를 통해 대만 관광객들이 국내 가맹점에서 편리하게 QR로 결제하는 서비스를 국내 최초로 개시했다. 한국을 여행하는 대만 관광객이 국내 편의점에서 상품을 결제하기 위해 타이신페이로 OR 결제 서비스를 이용하고 있다./사진=하나은행 하나은행에서 분사한 글로벌 간편결제 자회사인 GLN인터내셔널은 대만 타이신은행(Taishin International Bank) 전자지갑 타이신페이(Taishin Pay)를 통해 대만 관광객들이 국내 가맹점에서 QR로 결제하는 서비스를 개시한다고 26일 밝혔다.GLN-타이신의 QR 결제 서비스는 타이신 신용카드를 기반으로 한 포인트 결제 수단이다. 이를 통해 한국을 여행하는 대만 관광객들은 카드와 현금을 소지하지 않더라도 타이신페이를 이용해 원큐페이로 결제가 가능한 7만여개의 국내 가맹점에서 결제할 수 있다.이번 QR 결제 서비스는 GS25 매장을 비롯한 국내 편의점 및 면세점, 마트, 커피숍 등에서 사용 가능하며 국제카드 이용 대비 낮은 수수료의 혜택을 받을 수 있다. 타이신은 타이신페이을 이용하는 한국 방문 고객들을 위해 한국 결제 캐시백 프로모션을 진행할 예정이다.GLN은 2019년 타이신과의 제휴를 통해 대만을 방문하는 한국 관광객들이 하나은행, 하나머니, 토스앱을 통해서 대만 전역 3만개 가맹점에서 결제할 수 있는 서비스를 제공 중이다.특히 대만 편의점에서 100대만달러 이상을 구매하면 10대만달러를 즉시 할인해주는 행사를 진행 중이며 에버리치 면세점에서는 200대만달러 이하의 상품을 구매 시 동일 상품을 추가로 증정한다.이번 대만 타이신페이의 한국 가맹점 결제 서비스 개시를 통해 GLN은 한국과 대만의 양방향 결제 서비스를 제공할 수 있게 됐으며 추후 양방향으로 이용 가능한 ATM 출금 서비스까지 확대할 계획이다.김경호 GLN인터내셔널 대표는 "대만 타이신페이 손님들이 한국에서 보다 편리하게 QR 결제 서비스를 이용할 수 있게 돼 기쁘다"며 "향후 일본, 싱가포르, 베트남, 태국 등에서 전자지갑을 사용하는 손님들도 한국에서 결제서비스를 이용할 수 있도록 네트워크를 구축하고 제로페이 가맹점을 포함해 국내 전역 약 150만개 가맹점을 대상으로 서비스를 제공할 계획"이라고 밝혔다.한편 GLN인터네셔널은 하나은행이 글로벌 지불결제 네트워크 사업을 위해 2021년 7월 분사해 설립한 핀테크 자회사로 국내외 금융기관 등과의 협력체를 구성해 현재 일본, 베트남, 태국, 대만, 홍콩, 싱가포르, 라오스, 괌 등 글로벌 주요 지역에서 QR 결제, QR ATM 출금, 등록금 납부 서비스 등을 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.05.16.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>[지방은행 빅뱅]③'비용·디지털·해외' 과제 산적(끝)</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000746597?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>"효율 운영으로 투자 여력 확보해야"지방은행은 지역 내 촘촘한 점포에 기반해 관계형 금융에 강점을 지녔지만 비대면 거래 확산으로 영업 범위가 넓어지면서 경쟁력이 쇠퇴했다. 인터넷전문은행이 등장했던 2017년 이후 시중은행과 핀테크가 디지털 금융에 적극적으로 투자했던 반면 지방은행은 규모가 작아 시중은행만큼 투자하지 못해 경쟁에서 밀려났다.하지만 디지털 전환에 비용이 많이 소모되는 만큼 시중은행만큼의 투자는 어려운 게 현실이다. 이에 핀테크와의 협업이 대안이 될 수 있다. 실제로 광주·경남·대구·부산·전북은행이 토스 대출 비교 서비스에 입점한 후 대출금은 1조6015억원으로 증가했다. 지난 2019년(251억원) 대비 60배 이상 성장한 것이다.모바일뱅킹을 이용중인 사용자 [사진=뉴시스 ]그러나 장기적으로 지방은행의 독자 생존을 위해선 자생력을 기르고 자체적 디지털 경쟁력을 확보해야 한다. 이를 위해서는 투자 여력 확보를 위한 비용 절감이 필수적이다. 점포 축소를 최소화하면서도 비용을 줄일 관리 방안으로 기존 점포를 지역거점 점포와 주변 점포로 그룹화하는 '허브앤드스포크' 전략을 거론한다.유사한 지역에 있는 점포들을 하나의 그룹으로 묶어 소수의 '중심 점포'와 다수의 '주변 점포'로 분류한 후, 중심 점포는 거의 모든 은행 업무를 수행하는 반면 주변 점포는 입출금 등 간단한 업무만 수행하며 고객과의 접점 역할을 하는 것이다.최근 지방은행에선 수도권을 중심으로 지역거점 점포를 확대하고 있다. 경남은행은 올해 하반기 수도권에 영업센터를 신설하는 방안을 준비 중이다. 대형센터를 만들어 서울·경기 지역 등을 아우르겠다는 구상이다.대구은행도 올해 초 기업특화 영업조직인 '금융센터'를 신설하고 경기 성남시에 '성남금융센터'를 개점했다. 이 센터를 통해 우량자산 중심의 기업 고객을 유치하고 수도권 지역을 공략하겠다는 복안이다.해외 진출을 통한 수익원 확보도 과제다. 지난해 BNK·JB·DGB금융지주의 해외법인순익은 577억6천100만원에 그친다. 은행에서 해외법인 순익이 가장 높은 신한은행(4천682억원)의 12% 수준이다. 시중은행이 적극적으로 해외 진출을 늘리는 동안 지방은행은 소극적인 모습을 보여왔다.이병윤 한국금융연구원 선임연구위원은 "지방은행은 새로운 수익원을 개발하고 비용 절감을 도모하는 등의 노력을 할 필요가 있다"면서 "해외 진출을 늘리고 예금과 가계대출을 중심으로 모바일 경쟁력을 강화해야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.05.21.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>KB·토스에 카카오 본격 참전… 금융권 알뜰폰 경쟁 '격화'</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004193001?sid=105</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>잠잠하던 카카오 계열 '스테이지파이브'민원기 전 차관 영입···카톡과 본격 연계정부 알뜰폰 육성에 KB·토스 공세 확대기간통신사 전환한 해외 사례 재현 관심[서울경제] KB국민은행 계열의 ‘KB리브엠’이 정식 승인을 받고 비바리파블리카의 토스모바일이 0원 요금제를 내놓으면서 금융권 알뜰폰 업체들의 경쟁이 달아오르고 있다. 1금융권의 알뜰폰 시장 추가 진출 가능성이 언급되는 가운데 그간 잠잠하던 카카오(035720) 계열의 스테이지파이브(핀다이렉트)도 카카오페이와 합세해 본격적인 사업 확대에 나섰다. 정부가 가계통신비 인하를 위한 알뜰폰(MVNO) 육성에 적극 나서고 있는 가운데 제4이동통신사 후보자로까지 언급되는 금융사 등 자금력을 갖춘 기업들이 뛰어들며 알뜰폰 경쟁력이 한층 높아질 것이라는 관측이 나온다.21일 통신업계에 따르면 스테이지파이브는 지난 15일 카카오톡 내 카카오페이에 ‘통신·로밍’ 메뉴를 열었다. 전 국민이 사용하는 카카오톡에서 가입자 모집을 시작한 것이다. 통신 소비자들의 반응은 즉각적이다. 스테이지파이브 관계자는 “카카오톡에 통신 메뉴가 열린 후 가입자 유입이 전주보다 3배 이상 늘었다”고 전했다.알뜰폰 업계는 스테이지파이브의 움직임을 예의주시하고 있다. 2018년 카카오 계열사로 편입된 스테이지파이브는 2021년부터 알뜰폰 사업을 시작했다. 당시 카카오가 알뜰폰 사업에 본격적으로 참전하는 게 아니냐는 관측이 나왔지만 이렇다할 움직임은 없었고, 지난해 10월 기준 가입자는 5만 명을 밑돌았다. 업계의 한 관계자는 “골목상권 침해 논란 등에 공격적인 사업 확장을 자제했던 것으로 보인다”고 말했다.‘정중동’ 행보를 보이던 스테이지파이브의 기조가 변화한 것은 올 초 민원기 전 과학기술정보통신부 차관을 이사회 의장으로 영입하면서부터다. 민 전 차관은 과기정통부에서 한국의 세계 최초 5세대(5G) 이동통신 상용화를 주도한 인물이다. 이후 스테이지파이브는 카카오페이와 연계한 신규 요금제 출시에 나서며 공격적인 사업 확장에 나서고 있다.알뜰폰을 통해 통신 3사의 과점 체제를 개선하려는 정부 정책에 카카오가 전략을 바꾼 게 아니냐는 해석도 나온다. 과기정통부는 70개 이상 사업자가 난립하는 알뜰폰 시장에 신뢰도·자금력 있는 기업이 등장해 ‘메기’ 역할을 해주기를 기대하고 있다. 이에 금융위원회의 KB리브엠 정식 승인 과정에서도 적극적인 찬성 의견을 피력한 것으로 전해졌다.과기정통부에 따르면 지난해 10월 기준 가입자 10만 명 이상인 알뜰폰 사업자는 19개다. 이 중 가입자 50만 명 이상은 4곳으로 모두 통신 3사 자회사다. KB리브엠은 지난 달 기준 42만 명의 가입자를 모으며 ‘제3지대’로 부상하고 있다. 업계의 또 다른 관계자는 “알뜰폰의 가장 큰 문제는 낮은 접근성과 서비스 품질”이라며 “토스·카카오 등 플랫폼은 접근성이 높을 뿐만 아니라 24시간 응대가 가능해 궁극적으로 알뜰폰 이미지 개선도 이끌 수 있다”고 말했다.관심은 경쟁력 있는 알뜰폰 업체가 제4이통사로 성장할 가능성이다. 실제 외국에서는 알뜰폰(MVNO) 사업자가 기간통신사(MNO)로 변신한 사례가 많다. 정보통신정책연구원에 따르면 2008년부터 2021년까지 경제협력개발기구(OECD) 가입국에서 신규 기간통신 진입 사례는 19건이다. 일본 라쿠텐, 이탈리아 패스트웹, 독일 1&amp;1 등이 알뜰폰 성과를 바탕으로 기간통신사로 발돋움했다. 특히 알뜰폰 업체들의 통신 시장 점유율이 23%에 달하는 독일은 기존 기간통신사가 알뜰폰 업체를 인수하는 경우도 있었다.업계 한 관계자는 “해외에서는 유선인터넷사업자(ISP)가 무선 사업에 진출하는 일이 많지만 국내는 유·무선 모두 통신 3사가 장악해 한계가 있다”며 “정부가 국내에선 금융·포털·유통과 통신의 결합이 현실적이라는 판단을 내리고 관련 기업들의 알뜰폰 진출을 독려하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>플랫폼별 제휴 금융사 달라… "원스톱 맞나" 효용감 '뚝' [온라인 대환대출 개시 첫날]</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005020750?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>7개 플랫폼에 53개 금융사 참여하나銀 대출비교 플랫폼 4곳 입점대부분 은행권 소극적 행보 보여한번에 상품 비교·환승 어려워  '빅테크 종속'을 우려하며 대환대출 인프라 참여에 소극적이었던 은행권이 금융당국 압박에 대출비교 플랫폼 입점에 나서긴 했으나 대다수 시중은행이 미온적 태도를 보여 '대출 갈아타기'가 쉽지 않은 모양새다. 하나은행을 제외한 나머지 시중은행이 7개 대출비교 플랫폼 중 1~2곳에만 입점해 대형 은행의 여러 대출상품을 한눈에 비교하고 갈아타기는 어렵게 됐다.   ■하나은행, 7개 대출비교 플랫폼 중 '4곳' 입점…시중은행 중 최다   5월 31일 금융권에 따르면 대환대출 인프라 출시 첫날에 5대 시중은행(KB국민·NH농협·신한·우리·하나은행) 중 가장 많은 대출비교 플랫폼에 입점한 곳은 하나은행이다. 하나은행은 △카카오페이 △토스 △네이버페이 △핀다 등 이날 대출 갈아타기 서비스를 제공한 7개 플랫폼 중 4곳에 입점했다. 우리은행과 NH농협은행이 각각 2곳에, 신한은행과 국민은행은 단 1곳의 플랫폼에만 입점한 것과 대조적이다.   업계에서는 하나은행이 타행 대비 낮은 금리 경쟁력을 바탕으로 시중은행 중 가장 적극적인 행보를 보인다는 분석이 나온다. 은행연합회 소비자포털에 따르면 신용대출 금리가 정점에 달한 지난해 11월부터 지난달까지 하나은행은 6개월간 평균 신용점수와 서민금융을 제외한 신용대출의 평균 금리 수준이 5대 시중은행 중 최저 1~2위를 유지해왔다.   시중은행의 경우 신용대출 차주의 대부분이 이미 최저금리를 이용하고 있어 이번 대환대출 인프라를 통해 시중은행의 대출 갈아타기를 시도하는 고객은 지난해 말 고금리 신용대출을 이용했던 차주로 추측된다. 이에 타행 대비 금리가 낮고 접근성이 좋은 하나은행이 최대한 많은 대출비교 플랫폼에 입점하면 차주 입장에서는 선택지가 넓어진다.   ■대형 은행, 소극적인 입점 행보에 "갈아타기 어려워"   문제는 대부분의 은행이 눈치싸움에 나서며 소극적인 입점 행보를 보인 탓에 소비자들이 대출비교 플랫폼에서 타행의 대출로 갈아타기 어려워졌다는 것이다. 대출 갈아타기는 카카오페이 등 대출비교 플랫폼 앱과 국민은행 등 주요 금융사 앱에서 가능하다. 이때 대출비교 플랫폼에서는 마이데이터를 통해 제휴한 금융회사의 대출을 한눈에 확인해 타행으로 갈아탈 수 있는 반면 주요 금융사 앱에서는 해당 은행의 신규 대출상품으로만 대환할 수 있다.   현재 5대 은행의 상품을 한번에 비교하고 갈아타기 위해서는 카카오페이 앱을 이용해야만 한다. 토스, 네이버페이, 핀다 등의 대출비교 플랫폼을 이용하는 고객은 5대 시중은행 중 1~2곳의 대출상품만 비교 후 대환할 수 있고 뱅크샐러드, 웰컴저축은행 등 타 대출비교 플랫폼 업체에서는 아예 5대 시중은행의 대출상품으로 갈아탈 수 없다.   시중은행 관계자는 "대출비교 플랫폼의 인지도 등을 고려해서 각 금융사가 처음으로 입점할 플랫폼을 정했고, 현재 여러 대출비교 플랫폼과 제휴 논의 중"이라며 "다만 다음달 중으로 자체 플랫폼을 구축하려는 은행도 있어 카카오페이를 제외하고 모든 시중은행이 한 플랫폼에 들어가기는 쉽지 않을 것"이라고 말했다.   금융당국도 대출비교 플랫폼 입점 여부를 금융사 자율에 맡겼기 때문에 강제할 수 없다는 입장이다.   신진창 금융위원회 금융산업국장은 "입점 여부는 금융사와 그 플랫폼의 신뢰도·평판 등이 종합적으로 고려돼 결정되는 것이기 때문에 일률적으로 모든 플랫폼에 모든 시중은행이 입점해야 한다는 입장을 갖고 있지 않다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.05.29.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>[금전있슈] 은행 등쌀에 밀리고 밀린 대환 플랫폼…밥그릇 싸움은 계속</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003364753?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>31일 대환대출 플랫폼 서비스 네·카·토 사전접수로 본격 경쟁빅테크 종속 우려에 은행권 불만2021년 10월 출시 계획 미뤄져금리 압박·외풍 논란 속 재추진금전있슈는 ‘금융계 전년 동기 이슈(있슈) 점검’의 약자입니다. 금융업계에서는 해마다, 시기마다 비슷한 이슈가 반복됩니다. 한 시점의 작은 사건이 눈덩이처럼 커져 금융시장 전체를 흔들기도 합니다. 과거 금융 이슈, 지금은 어떻게 바라볼 수 있을까요. 금전있슈에서 파헤쳐 보겠습니다.서울 시내 한 은행에 붙은 대출 관련 광고물. 연합뉴스내 대출, 어느 금융사에서 몇 퍼센트의 금리로 얼마나(한도) 나오는지 매번 발품, 손품을 파는 일은 쉽지 않죠. 이러한 불편을 해결하고자 이달 말 원스톱으로 온라인에서 더 낮은 금리의 대출로 이동할 수 있는 대환대출 플랫폼이 출시됩니다. 금융사들의 치열한 밥그릇 싸움은 현재 진행형입니다.29일 금융권에 따르면 오는 31일 대환대출 플랫폼이 서비스를 시작합니다. 먼저 신용대출을 대상으로 서비스를 실시하고 올해 말 주택담보대출까지 확대할 예정입니다. 은행 19곳 등 53개 금융회사, 23개 대출비교 플랫폼이 참여합니다. 네이버파이낸셜·카카오페이·토스 등은 서비스가 시작되기도 전에 사전 신청을 받으며 열을 올리고 있습니다.1년 전까지만 해도 대환대출 플랫폼 도입 논의는 사실상 중단된 상태였는데요. 금융위원회가 원스톱·비대면 대환대출 인프라를 구축하겠다고 한 건 지난 2021년 초입니다. 당초 같은 해 10월 플랫폼 출범 예정이었으나, 지속적으로 미뤄지면서 사실상 무산된 것 아니냐는 말까지 나왔습니다. 금융사들은 빅테크에 금융사가 종속되는 것이 아니냐며 불만을 토로했죠.분위기가 달라진 건 지난해 하반기부터입니다. 고금리에 대출자들의 허리가 휘고 금융당국은 금융사에 대출금리 인하 압박을 본격화했습니다. 금융사 수장들의 인사철과도 맞물려서 외풍 논란이 거세던 때입니다. 금융사들은 대환대출 플랫폼 참여를 꺼렸지만, 반기를 들기 어려운 상황이었죠.지금까지도 은행은 걱정이 많습니다. 한 은행이 다른 은행에서 당겨올 수 있는 대출의 한도는 4000억원입니다. 예컨대 A은행이 다른 은행의 대출 4000억원을 끌어온다고 하더라도, 3개 은행이 합산 1조 2000억원의 대출을 가지고 가면 8000억원의 대출 잔액이 사라져버리는 셈입니다. 이를 방어하고자 KB국민·신한·하나은행 등에서는 금리가 낮은 대환대출 플랫폼 전용상품을 준비하고 있습니다.이번 대환대출 플랫폼 출시로 은행권과 핀테크의 애플리케이션(앱) 경쟁력 성적표가 여실히 드러날 것이란 관측도 나옵니다. 빅테크 종속 우려가 이어지면서 신한은행과 하나은행 등은 아예 자체 앱에 대환대출 서비스를 탑재하기로 했습니다.2금융권의 고민도 깊어집니다. 저축은행은 1분기 적자가 예상되는 상황인데, 유동성 방어는 쉽지 않고 연체율은 오르고 있습니다. 여기에 기존 대출 고객의 이탈 가능성도 커졌습니다. 수신기능이 없는 카드사들도 상황은 마찬가지입니다. 다만 2금융권에서 1금융권으로의 이동은 많지 않을 것이란 관측입니다. 은행권이 리스크 관리를 강화하고 있기 때문입니다.금융소비자들은 플랫폼에서 금리가 낮은 순서대로 정렬된 상품들을 한눈에 볼 수 있게 될 전망입니다. 기본금리 기준으로 정렬되는데, 이에 대한 불만도 나옵니다. 은행마다 대출금리를 책정하는 전략이 다른데, 기본금리를 비교적 높게 책정하는 대신 우대금리를 폭넓게 적용하는 방법을 쓰기도 합니다. 우대금리를 조정하면 변동성에 대응하기가 쉽기 때문입니다. 시중은행 관계자는 “금리순으로 정렬되는 것이 부담스럽다. 특히 기본금리순으로 정렬하면 우대금리를 적용해 실제 적용받게 되는 금리와 차이가 생긴다”고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.05.17.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>[THE FINANCE] 예금·파킹통장 만기까지 기다리지 마세요, 원하는 날에 이자 당겨쓰세요</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002801347?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>토스·케뱅·카뱅 등 '선이자 지급 상품' 인기인터넷은행 3사.    인터넷은행을 중심으로 '선이자 지급 상품'이 확산하고 있다. 이를 통해 고객들은 상품 만기까지 기다릴 필요 없이 가입 이후 원하는 날짜에 이자를 받을 수 있다. 즉시 받은 이자는 재투자 등에 활용할 수 있다. 지난해 3월 지금 이자 받기 서비스를 국내 금융사 최초로 선보인 토스뱅크가 올 3월에는 '먼저 이자 받는 정기예금'을 출시했다. 먼저 이자 받는 정기예금은 출시 이후 가입액이 나흘 만에 1000억원, 15일 만에 5000억원을 돌파하는 등 큰 인기를 끌었다.  해당 상품은 고객이 가입하는 동시에 즉시 이자를 준다. 예를 들어 1억원을 3개월간(92일 기준) 맡기는 고객은 세전 금액인 약 88만원을 받을 수 있다.토스뱅크는 이날부터 고객들의 요청에 따라 1인1계좌 가입제한을 없앴다. 고객은 목돈 예치의 목적에 따라 계좌 개설 제한 없이 원하는 수만큼 먼저 이자 받는 정기예금에 가입할 수 있게 된다. 연 3.5% 금리의 이 상품의 가입 한도는 최소 100만원에서 최대 10억원까지다. 가입 기간은 3개월이나 6개월로 짧게 유치해 고객 편의에 따라 운용할 수 있다.케이뱅크도 올 1월 파킹통장인 플러스박스에 '바로 이자받기' 서비스를 추가했다. 플러스박스의 금리는 연 2.60%다. 최대 3억원까지 예치가 가능하다.시장의 반응이 뜨겁자 카카오뱅크도 원할 때 이자 받는 서비스를 선보일 계획이다. 카카오뱅크는 자사 파킹 통장인 세이프박스의 약관을 개정해 오는 24일부터 '고객이 요청한 날' 이자를 지급하는 서비스를 선보인다. 기존에는 매월 네 번째 금요일을 기준으로 결산해 토요일에 세이프박스가 연결된 카카오뱅크 입출금통장 또는 개인사업자통장으로 이자를 지급해왔다. 세이프박스는 계좌 속 금고로 자유로운 입출금을 통해 통장의 여유자금을 간편하게 분리해 관리할 수 있는 상품이다. 최대 보관 한도는 1억원이다. 하루만 맡겨도 연 2.40% 금리를 제공한다.여기에 1금융권까지 뛰어들었다. Sh수협은행은 지난달 모바일뱅킹 앱 전용 파킹통장 'Sh매일받는통장'을 선보이며 지금 이자받기 서비스도 제공한다고 밝혔다. 고객이 직접 모바일뱅킹 앱으로 이자받기를 신청하면 전일까지의 이자를 즉시 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>KB국민카드 “대환대출 서비스, KB페이에서 손쉽게 이용하세요”</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000045593?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>대환대출 전용상품인 ‘KB국민 이지대환대출’ 함께 출시KB페이 앱과 네이버페이서 신청 가능…토스 등 확대 예정[제공 KB국민카드][이코노미스트 윤형준 기자] KB국민카드가 오는 31일 대환대출 서비스가 시행됨에 따라 플랫폼 구축을 완료하고, 전용 대출상품인 ‘KB국민 이지대환대출’을 출시한다고 30일 밝혔다.‘KB국민 이지대환대출’은 KB국민카드 회원뿐만 아니라 비회원도 대상으로 하며, KB페이 및 전용 상담센터, 네이버페이에서 신청할 수 있다. 이 상품은 공공 마이데이터를 통한 실시간 소득정보를 반영해 한도를 부여한다. 또한 대출신청 프로세스 전 과정을 모바일 또는 인터넷 신청으로 진행해 고객 편의성을 높였다.아울러 KB국민카드는 대환대출 전용상품을 카카오페이, 토스 등 다른 대환대출 플랫폼과 제휴를 통해 판매 채널을 확대할 예정이다.KB국민카드 관계자는 “선제적인 플랫폼 구축 완료를 통해 KB페이 내에서도 바로 대출 이동제 서비스를 이용할 수 있게 시스템과 전용상품까지 준비했다”며 “다른 플랫폼 입점 확대와 자체 플랫폼의 제휴처 확대를 통해 고객의 금융비용 부담을 낮추기 위한 대환대출 서비스의 취지를 살려 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.05.21.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>늘어나는 대출연체…2년간 지연배상금만 460억원</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005491055?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>2021~2022년, 5대 은행 및 인뱅 3사 기준대출 연체에 부과한 지연배상금 금액최승재 의원 "부채 상황 관리해야"[이데일리 노희준 기자] 지난 2년간 주요 시중은행과 인터넷뱅킹 3사가 연체 차주에게 부과한 지연배상금 건수가 670만건에 달하는 것으로 나타났다. 지연배상금이란 차주가 매월 납부해야 할 이자를 내지 못해 연체할 경우 연체 상황에 따라 은행이 부과하는 배상금이다.국회 정무위원회 소속 국민의힘 최승재 의원이 금융감독원을 통해 KB국민·신한·우리·하나·농협은행 등 5대 은행과 카카오·케이·토스은행 등 3개 인터넷은행에서 제출받은 자료에 따르면, 이들 은행은 2021년과 2022년 신용대출과 주택담보대출금 상환을 연체한 차주에게 총 670만건의 지연배상금을 부과해 460억원을 거둬들였다.지연배상금은 대출 이자율에 3%를 더한 이자율 혹은 15% 중 낮은 금리를 적용한다. 통상 연체기간에 따라 증가하는데, 연체기간 1개월 미만까지는 약정 이자에만, 1개월 이후부터는 원금에 가산된다. 2021년부터 지난해까지 신용대출 기준 5대 시중은행과 3대 인터넷은행의 1개월 미만 연체에 대한 지연배상 납부 건수는 2021년 139만건에서 지난해 145만건으로, 납부한 총액은 26억9000만원에서 37억7000만원으로 크게 증가했다.반면 1개월 이상 연체에 대한 납부 건수는 2021년 27만건에서 지난해 26만건으로 소폭 감소했고, 납부액도 2021년 44억3000만원에서 지난해 43억으로 소폭 감소했다. 1개월 이상 연체될 경우 원금에까지 지연배상금이 부과되는 구조라 1개월 이상 연체 금액을 먼저 상환한 것으로 풀이된다.지연배상금 납부액은 고신용자 신용대출에서 큰 폭으로 증가했다. NICE 860점, KCB 820점 이상 고신용자 지연배상금 납부액은 137억원에서 194억원으로 38.5% 증가했다. 반면 NICE 860점, KCB 820점 미만 중저신용자 지연배상금 납부액은 2021년 54억에서 지난해 61억으로 12.7% 증가하는 데 그쳤다. 5대 시중은행 주담대 고신용자 지연배상금 납부액도 2021년 9억원에서 지난해 13억원으로 43% 증가했다.더 큰 문제는 중저신용자 주담대에 대한 납부액이다. 중저신용자 주담대 납부 건수는 고신용자와 비슷하고, 납부액은 2021년과 지난해 각각 154억원, 132억원에 이르렀다. 고신용자가 2021년과 지난해에 각각 9억원과 13억원을 납부한 것과 비교하면 10배에 달하는 금액이다.특히 인터넷 은행의 지연배상금 증가폭이 두드러진다. 3대 인터넷 은행의 2021년 1개월 미만 지연배상금 납부건수는 3만4000건에서 지난해 15만1000건으로 4배 가까이 늘었고 금액도 1억3000만에서 7억7000만으로 6배 가까이 증가했다. 1개월 이상 지연배상금 또한 건수는 같은기간 1만3000건에서 지난해 2만8000건으로 2배 이상, 금액기준으로는 3억2000만원에서 4억8000만으로 50% 이상 증가했다. 인터넷은행의 경우 지난해 고신용자 지연배상금 납부액이 전년 대비 121.4% 증가할 동안 중저신용자 납부액은 2021년 1억400만에서 지난해 5억5000만원으로 4배 가까이 늘어 중저신용자 연체 문제가 심각했다. 최승재 의원은 “최근 금리가 급격하게 인상되면서 지연배상금 부과 및 납부 규모가 상당히 큰 폭으로 증가하고 있다”면서 “많은 전문가가 경기침체를 우려하고 있고 차제에 금리가 더욱 오를 것으로 예상되는 만큼 부채 상황을 주시하고 신중하게 관리할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>대출 이자 낮춰볼까?…어디 이자가 가장 쌀까? [이슈체크]</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000337933?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>■ 경제현장 오늘 '이슈체크' - 권혁중 경제평론가스마트폰 앱을 통해 신용대출을 금리가 조금이라도 낮은 대출로 갈아탈 수 있는 대환대출 플랫폼이 오늘(31일)부터 본격 가동했습니다. 은행에 직접 가지 않고도 15분 정도면 대출 갈아타기가 가능해 소비자들의 기대가 높은데요. 대환 대출 플랫폼, 정말 소비자들에게 유리한 대출을 소개해주는지 자세히 알아보겠습니다. 권혁중 경제평론가 모셨습니다.  Q. 대환대출이란 무엇인가요?- 전통금융 vs. 빅테크 '11조' 쩐의 전쟁- 오늘 온라인 대환대출 개시…어떤 대출?- 설치부터 결과까지 15분이면 싼 이자로- 10억 원 이하 금융사 신용대출 대상- 51개 금융사·7개 플랫폼 대환대출 우선 시작Q. 대출 갈아타기인데 앱을 활용하면 되나요?Q. 갈아타기가 가능한 대출과 안 되는 대출은 뭐가 있나요?- 대환대출 서비스 이용방법은- 대출비교 플랫폼·금융회사 앱서 이용 가능- 플랫폼별 비교 가능 금융사 제각각- 금리·상환방식·우대금리 등 고려·결정해야- "옮기고 싶은 곳 있다면 해당 금융사 앱 이용"- "금융사 앱, 해당 회사 상품으로만 대환 가능"- 인터넷은행 비상금대출은 대환대출 불가- "카드론, 기존대출 확인 여부 상이"- "7월 1일부터 모든 카드론 조회 가능"- 우선 신용대출만…연내 주담대로 확대Q. 서비스 이용에 횟수 제한이 있나요?- 중도상환수수료 없는 대출, 서비스 횟수 제한?- 대출계약 실행 6개월 후에만 이용 가능- 대환대출 통해 갈아탄 경우도 포함- 기존 오프라인 방식 대환은 미해당Q. 정부는 대환대출 서비스로 무엇을 기대하고 있나요?- 은행권, 대환대출 가동에 "고객 이탈 막아라"- 대환대출 서비스, 정부가 기대하는 바는- 고금리 대출 차주, 상대적 저금리로 이동 가능- 2 금융권 고신용자, 1 금융권 상품 이동도- "대환대출 서비스로 이자 경감 혜택 기대"- "금융사 대출금리, 일정 범위로 수렴할 가능성"- "새로운 경쟁 시스템으로 긍정적 효과 지속"Q. 은행과 비은행권간에 총부채원리금상환비율(DSR)이 다른데 대출이 이동할 때 어떻게 적용되나요? - DSR 다른 은행-비은행, 대출 이동 가능할까- 동일 여신 취급기준 따라 대출조건 산정- 금융권 간 갈아타기 적극 활용 가능해- 기존 대출은 새 금융사가 실시간 상환- 대환대출로 DSR 한도 초과하지 않아- 금융사 간 대출이동시스템으로 실시간 확인Q. 네이버 카카오 토스 핀다 등 대출 비교앱이 금융사 앱보다 활성화가 잘 돼 있습니다. 대환대출은 사실상 대출비교 앱에서 다 이뤄지지 않을까요?- 대출비교 앱에서 대부분 이뤄지지 않을까- 이자 부담 덜어줄 대환대출, 15분이면 완료- "은행으로 갈아탈 경우 대출금 받을 계좌 개설해야"- "금융사 앱에 접속하면 시간 더 단축돼"- 금융사 간 상환절차는 모두 실시간 처리- 대출계약 완료 즉시 대환대출 절차 종료- "앱에서 대환대출 결과 즉시 확인 가능해"Q. 대출비교 앱을 제대로 활용하지 못하는 분들을 위한 배려는 뭐가 있나요?- 고령자 등 앱 이용 어렵다면 어떻게?- 은행 영업점 방문해 대출 갈아타기 신청 가능- 금융사 간 상환 처리 전산화한 대출이동시스템- 새 금융사서 대출 확인·상환 절차 간편해(자세한 내용은 동영상을 시청하시기 바랍니다.)당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>"주담대 대환대출은 12월 목표"[일문일답]</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011886027?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 최홍 기자 = 금융위원회가 신용대출 관련 대환대출 플랫폼을 구축한 데 이어 오는 12월 주택담보대출(주담대)에 대한 대환 플랫폼도 구축하기로 했다.금융위는 30일 이같은 내용의 '온라인·원스톱 대환대출 플랫폼' 개시 관련한 주요사항을 발표했다.신진창 금융위 금융산업국장 "이번 신용대출 대환 플랫폼의 경험과 인프라를 바탕으로 주담대 대환 플랫폼의 보강 방안을 강구할 것"이라고 말했다.다음은 신 국장과의 일문일답 내용.-주담대 대환대출 출시는 12월이라고 했는데 구체적으로 언제쯤 예상하나. 별도의 인프라를 구축하는지, 아니면 현재의 신용대출 대환 플랫폼 인프라에 얹어서 가는 방식인가."주담대를 대상으로 한 대환대출 플랫폼은 12월에 시작하는 것을 목표로 하고 있다. 그러나 주담대 대환대출은 플랫폼에서 원스톱으로 구현하기 어려운 점이 있다. 따라서 등기나 표준화 측면에서 가격 확인이 용이한 아파트 대상의 주담대부터 대환대출을 시작하는 것을 생각하고 있다. 이번 신용대출 대환 플랫폼을 통해 쌓인 경험과 인프라가 향후 주담대 인프라 구축에 도움이 될 거로 생각한다. 향후 어떤 부분을 보강해야 하는지 지속해서 점검하고 준비할 계획이다."-네이버·카카오·토스·핀다의 대출비교 앱이 더 금융사 앱보다는 활성화가 많이 돼 있는데, 어떻게 다른 금융사들의 신용대출 대환대출 플랫폼 참여를 유도할 계획인가."기본적으로 플랫폼에 입점하는 금융사의 숫자는 가급적 많은 회사가 참여하는 것이 경쟁을 촉진하고 소비자에게도 도움 될 수 있다고 생각하고 있다. 그러나 입점 여부는 금융사와 그 플랫폼의 신뢰도·평판 등이 종합적으로 고려돼 결정되는 것이기 때문에 일률적으로 모든 플랫폼에 모든 시중은행이 입점해야 한다는 입장을 갖고 있지 않다. 다만 현재 유력한 플랫폼의 경우 모든 시중은행이 다 참여하고 있다. 또 모 시중은행은 다음달 중으로 자체 플랫폼을 구축할 계획입니다. 이런 점에서 플랫폼별 금융사 입점 상황은 다를 수밖에 없다."-대환대출 대상이 되는 신용대출의 총규모가 궁금하다. 그리고 시행 초기에는 쏠림 방지를 위해 제한을 둔다고 하셨는데 그 제한을 뒀을 때 이동 가능 규모가 궁금하다."이건 시범운영 단계라고 말씀을 드렸고, 시범운영 단계에 있어서 개별 금융사가 신규 유치할 수 있는 신용대출 규모는 전년도 신규 취급액 10%(6800억원) 또는 4000억원 중에 작은 것으로 생각한다. 따라서 4000억 정도의 신용대출을 취급할 것이다. 계속 취급 동향을 살펴볼 예정이고, 필요하면 탄력적으로 신규 취급액 기준도 조정해 나갈 계획이다. 현시점에서는 어느 정도로 대출이 이동하게 될지 예단하기 어렵다."-은행권과 비은행권 간 총부채원리금상환비율(DSR) 기준이 다른데 대출이 이동하게 됐을 때 DSR은 어떻게 적용되는가. 소득이 감소해 DSR 기준이 내려갔을 때도 같은 조건으로 대환대출이 가능한지 궁금하다."신용대출의 한도 규제나 DSR 적용 기준은 기본적으로 동일하게 적용된다. 전체 프로세스로 보면 플랫폼에서 어떤 잠재적인 고객이 대출 신청을 하게 됐을 때 해당 금융사의 앱에 가서 최종적으로 대출을 신청하게 된다. 그 앱에서 확인하는 과정에서 DSR 적용 등이 다 고려된다. 다만 기존 대출은 제외하고 DSR 계산을 새로 하게 된다."-가격비교 플랫폼이라는 게 원래는 성공하려면 한눈에 최저가를 쉽게 찾을 수 있어야 하는 게 성공 공식이다. 그런데 지금 이 플랫폼을 보면 결국 금리조건이 매우 복잡해 가격비교 플랫폼이라는 특성과 맞아떨어지긴 힘든 게 아니냐는 생각이 든다."현재도 금융상품 가격을 비교·추천하는 플랫폼은 운영되고 있다. 상품을 비교·추천해서 소비자에게 어느 정도 한눈에 보여 주고 소비자가 합리적인 선택을 할 수 있게 하는지는 그간 여러 비교·추천 플랫폼 운영 과정에서 많이 진전시켰다고 생각한다. 그런 진전된 모습이 이번에 신용대출 대상 대환대출 플랫폼에 반영돼 있다. 오늘 발표한 서비스의 핵심은 기존 대출을 신규 대출로 자동으로 대환하게 하는 것이다."-결국 대환대출 이용이 가능한 앱은 대출 비교·추천 플랫폼과 금융회사 앱 2개로 나뉘는데, 대환대출 플랫폼은 타사 상품도 같이 적용되는 반면 금융사 앱은 타사 상품 이용이 불가능하고 타사 상품을 자사 상품으로만 갈아타게 돼 있다. 금융사 앱에서도 타사 상품 대환이 가능한지 궁금하다."개별 은행의 경우에도 대출 상품을 자기 계열사 앱에다가 포함할 개연성은 있다. 그런 의사를 우리에게 소개한 금융사도 있다. 향후 금융사 앱에서 타 은행 대출 상품을 소개하고 계열 금융사의 대출도 소개할 개연성이 다분하지만, 현재로서는 은행의 앱에서는 해당 은행의 신규 대출 상품만 제공하는 것으로 돼 있다．"</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.05.21.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>“이기영, 父 죽여 놓고 송금 메모에 ‘아버지상’ 적어 농락”…택시기사 딸의 호소</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000903227?sid=102</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>온라인 커뮤니티에 글 올려“무기징역 납득 못해 탄원서 냈다” “사형제 부활 국민청원…의견 보태달라”택시기사와 동거녀를 잔인하게 살해하고 시신을 유기한 혐의로 구속된 이기영. /뉴스1        택시기사와 동거녀를 살해한 이기영(32)이 1심 법원에서 무기징역을 선고 받은 가운데, 자신을 숨진 택시기사의 딸이라고 밝히며 “슬픔과 더불어 분통 터지는 상황”이라고 호소하는 글이 온라인 커뮤니티에 올라왔다.20일 오후 네이트판에는 ‘이기영 살인사건의 피해자였던 택시기사의 딸입니다’라는 제목의 글이 업로드됐다.글 작성자는 “사람을 두 명이나 죽인 살인범에게 사형 아닌 판결이 내려질 것이라고 생각하지 않았기 때문에, 저희 가족은 슬픔과 더불어 분통 터지는 상황이 됐다”면서 “혹여 수사 과정이나 재판에 있어서 누가 될까 언론에 한마디 내뱉는 것도 정말 조심스럽고 노출을 극도로 자제해왔지만 돌아가는 상황을 보아하니 이대로 가만히만 있는 것이 정답은 아닌 것 같다. 인터넷 공간을 빌려 더 많은 사람들에게 공론화하고 공감을 얻고 싶어 글을 작성하게 됐다”고 썼다.이기영은 지난해 12월 20일 밤 경기 고양에서 음주운전을 하다 택시와 접촉사고를 낸 뒤 “합의금과 수리비를 주겠다”며 파주 소재 아파트로 택시기사를 유인, 둔기로 살해하고 시신을 옷장에 숨긴 혐의를 받는다. 앞서 작년 8월에는 동거하던 50대 여자친구 A씨를 살해하고 시신을 공릉천변에 유기한 혐의도 있다.지난 19일 의정부지법 고양지원 형사1부(부장판사 최종원)는 이기영에게 무기징역을 선고했다. 재판부는 “검찰이 사형을 구형했는데, 사형제도는 인간의 생명을 박탈하는 극히 예외적 형벌이고 명백히 정당화할 수 있는 특정한 사실이 있을 때 허용돼야 한다”며 양형 이유를 밝힌 바 있다.이기영이 살해한 택시기사의 통장에서 이체된 내역. 이체 내역 메모에 '아버지상'이라고 적었다. /네이트판 캡처        글 작성자는 “작년 12월 25일 새벽, 아버지인 척 카톡을 주고받으며 전화 통화는 끝끝내 피하는 이기영에게 이상함을 느낀 어머니께서 불안함을 느끼며 경찰서에 가자고 하셨다”며 “이기영은 저희 가족과 카톡을 하는 내내 본인이 교통사고를 냈는데 사망자가 생겨 그 뒷처리를 하고 있다고 거짓말을 했기 때문에, 설마하니 대화상대가 아버지가 아닐 거라고는 꿈에도 생각하지 못했다”며 당시 상황을 설명했다.그러면서 “그러나 경찰서에 도착하여 택시 차량번호를 부르며 사고 조회를 한 결과, 교통사고 접수가 아예 없다는 얘기를 듣게 됐고, 이때부터 저희는 무언가 일이 크게 잘못되었다는 것을 느끼고 손발이 떨리고 심장이 쿵 떨어지는 기분을 처음 알게 됐다”고 회상했다. “지금도 그 날의 충격은 말로는 표현할 수가 없다”며 “평범한 가족이었다면 맛있는 음식을 먹고 대화하며 행복해야 했을 성탄절이 이제 저희 가족에게는 끔찍한 기억으로만 남게 됐다”는 호소도 덧붙였다.글 작성자는 또 이기영이 자신의 아버지를 살해한 후 아버지 휴대전화에 ‘토스’ 애플리케이션을 다운 받아 잔고를 자신의 통장으로 이체하면서 ‘아버지상’이라고 메모해 이체했다고 폭로했다. 그러면서 “남의 아버지 죽여놓고 사람 우롱하는 전형적인 싸이코패스”라며 “너무 큰 충격에 말도 나오지 않았다”고 토로했다.이 글 작성자는 아버지의 얼굴이 심하게 훼손돼 장례지도사가 시신을 보지 못하도록 극구 말렸지만 남동생이 결국 확인했다며, 이후 오랜 시간 트라우마에 시달리며 힘들어했다는 고백도 덧붙였다.아울러 작성자는 “재판 결과를 도저히 납득할 수 없어 탄원서를 제출했다”며 “사형제도의 부활과 집행, 혹은 대체 법안에 대해 건의하는 국민청원을 했다”며 “접수 처리 후 공개 청원이 됐을 때 의견을 보태주면 큰 힘이 될 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>삼양사, 日 식품소재박람회 ‘IFIA 2023’ 참가</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002305891?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>식품소재 '난소화성말토덱스트린' '알룰로스' 집중 조명 ◆…. IFIA Japan 2023에 참가한 삼양사의 홍보 부스 전경 사진=삼양사 제공      삼양사가 일본 식품소재박람회에서 스페셜티(Specialty, 고기능성) 소재를 선보이며 현지 판로 확대에 박차를 가하고 있다고 22일 밝혔다.   삼양그룹 식품 계열사인 삼양사는 지난 이달 17일부터 19일까지 일본 도쿄 빅사이트(도쿄국제전시장)에서 열린 '일본국제식품소재 박람회 2023(IFIA Japan 2023)'에 참가했다.   행사 기간 동안 삼양사 부스에는 1200명 이상의 참관객이 방문해 성황을 이뤘다.   IFIA는 식품소재와 식품 첨가물 분야의 신제품이나 신기술 등을 발표하는 행사로 전 세계 300여개 업체와 약 3만명의 참관객이 방문하는 국제 식품박람회다. 삼양사는 올해로 3년째 전시회에 참가해 우수한 기술력과 스페셜티 소재를 선보였다.   삼양사는 이번 전시회에서 건강기능성 원료로 쓰이는 난소화성말토덱스트린을 비중 있게 소개했다.   식이섬유의 일종인 난소화성말토덱스트린은 △식후 혈당상승 억제 △혈중 중성지질 개선 △배변활동 원활에 도움을 줄 수 있는 건강기능식품 소재다.   삼양사는 화이버리스트(Fiberest)라는 브랜드로 분말 및 액상형 난소화성말토덱스트린을 생산하고 있다. 대량생산에 성공했으며 물에 녹는 식이섬유의 일종으로 프리바이오틱스의 한 종류 이다.   전시회 기간 중 현장 세미나도 열어 설탕 대비 낮은 감미도, 이미/이취 개선, 우수한 냉동/해동 안전성 등 난소화성말토덱스트린의 기능성과 물성에 따라 적용 가능한 식품 유형별 연구 데이터를 소개해 현지 고객사들의 큰 관심을 모았다. 아울러 현장 부스에서는 실제 소재가 적용된 제품을 카테고리별로 나눠서 전시해 세미나 내용에 대한 방문객의 이해도를 높였다.   삼양사의 대표 식품 소재인 '알룰로스' 홍보에도 공을 들였다. 알룰로스는 무화과, 포도 등에 있는 단맛 성분으로 설탕과 비슷한 단맛을 내지만 칼로리는 '제로' 수준으로, 최근 제로 슈거 열풍 속에서 주목받는 대체 감미료다.   삼양사는 2016년 자체 개발한 효소를 이용해 액상 알룰로스 대량 생산에 성공해 '트루스위트(TRUSWEET)'라는 브랜드로 액상형 알룰로스를 판매하고 있다. 현재 알룰로스는 국내 탄산음료, 유제품, 소스 등 다양한 식품군에 폭넓게 사용되고 있다.   또한 삼양사는 '케스토스'와 같은 신규 식품 소재 홍보에도 적극 나섰다. 케스토스는 프락토올리고당의 주요 성분으로 삼양사가 국내 최초로 개발에 성공했으며, 아산병원과 공동연구 결과 피부 상태 개선 효과를 동물실험에서 확인됐다.   앞으로도 삼양사는 국내외 식품소재박람회에 적극 참가해 스페셜티 홍보에 박차를 가할 방침이다. 오는 30일부터 내달 2일까지 나흘간 일산 킨텍스에서 열리는 서울국제식품산업대전 'SEOUL FOOD 2023'에도 참가해 삼양사의 프리바이오틱스 소재를 알린다.   삼양사 이상훈 식품BU장은 "이번 전시회 참가는 난소화성말토덱스트린의 판촉 강화를 위한 영업 기회 확대 차원에서 의미가 깊다"며 "앞으로도 삼양사의 우수한 기술력과 식품 소재를 선보일 수 있는 기회를 지속적으로 마련할 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.05.16.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>현대차증권, 신규 MTS ‘내일’ 오픈</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000944359?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>사진|현대차증권[스포츠서울 | 홍성효기자] 현대차증권이 기존 MTS ‘THE H Mobile’을 리뉴얼한 신규 MTS ‘내일’을 오픈했다.이번에 오픈한 현대차증권 MTS ‘내일’은 직관적이고 간편한 사용자 환경 및 경험(UI·UX)구축에 최적화됐다. 개인화된 콘텐츠, 다양한 주문 방식 등으로 MTS 플랫폼의 경쟁력을 확보했으며 빠른 검색, AI 투자정보 제공 및 영상 상담 시스템 도입 등을 도입했다.홈 화면을 전면 개편해 투자종목 및 관심 종목을 쉽게 확인할 수 있도록 하고 당일 시장 이슈 키워드 등을 한 눈에 확인할 수 있게 해 홈 화면을 개인화했다. 또 네이버 및 토스 인증을 추가 도입하고 복수 계좌 개설 기능을 추가해 다양한 계좌를 한번에 개설할 수 있도록 절차를 간소화했다.투자 콘텐츠는 종목 관련 속보, 이슈, 공시 등 요약 정보 및 특허 기반 분석정보를 실시간으로 제공하는 ‘AI투자정보’를 활용했다. 아울러 현대차증권 리서치센터의 리포트를 짧고 읽기 쉽게 가공한 ‘현포트’도 확인할 수 있다.간편주문, 자동주문(적립식 매수 주문, 분할 매매) 등 고객의 니즈에 맞게 주문 방식도 다양화했다. 거래 시 매수금액 ‘충전하기’ 기능도 추가하여 거래 단계에서 매수금액 추가 희망 시 현대차증권 혹은 타사(오픈뱅킹)에서 자금을 가져올 수 있게 됐다.현대차증권의 신규 MTS ‘내일’은 구글 플레이스토어(Android) 또는 앱스토어(IOS)에서 다운로드 받을 수 있다. 기존 현대차증권 MTS ‘THE H Mobile’을 이용 중인 고객도 신규 MTS ‘내일’을 이용하기 위해 앱을 새로 다운로드 받아야 한다.한편 현대차증권은 신규 MTS ‘내일’의 오픈을 맞아 오픈 이벤트도 준비했다. 이벤트 기간은 8월 31일까지로 대상은 디지털 RP형 CMA 계좌개설 완료 및 100만원이상 납입 고객이다. 대상 고객 전원 스타벅스 기프티콘을 지급하며 6개월 평균잔고 금액(100만원~10억)의 0.1%는 캐시백으로 지급한다.또 오는 6월 말까지 신규 MTS ‘내일’에서 국내주식 거래가 이루어진 고객 대상으로 월 거래 금액(100만원~10억)의 0.1%를 캐시백으로 지급하는 이벤트도 함께 진행중이다. 자세한 이벤트 내용은 현대차증권 홈페이지 및 스마트금융센터로 문의하면 된다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.05.26.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>인뱅 3사 ‘지금 이자 받기’ 금리 높이며 경쟁 가열…시중은행은?</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000045450?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>토스뱅크, 지난해 업계 최초 ‘지금 이자 받기’ 서비스 출시 후 흥행케이뱅크 이어 카카오뱅크도 같은 서비스 내놔시중은행 “비용 늘리는 같은 수신 상품 운용 불필요”(위에부터) 카카오뱅크, 케이뱅크, 토스뱅크 로고 [사진 각 사][이코노미스트 이용우 기자] ‘지금 이자 받기’ 서비스가 인터넷은행에서 흥행하며 금리 경쟁까지 벌어지고 있다. 이 서비스는 토스뱅크를 시작으로 최근 카카오뱅크(323410)까지 인터넷은행 3사가 모두 도입했다. 자금 유치을 위해 인터넷은행에서 해당 신상품이 연달아 출시되고 있지만, 정작 시중은행에서는 이 서비스 출시에 소극적인 모습이다. 카카오뱅크, 토스뱅크·케이뱅크 이어 동일 서비스 제공26일 금융권에 따르면 카카오뱅크는 지난 24일 파킹통장인 세이프박스에 ‘이자 바로 받기’ 서비스를 제공한다고 밝혔다. 지금까지 카카오뱅크는 세이프박스를 통해 한 달에 한 번, 매월 네번째 금요일의 다음날에 이자를 지급한 바 있다. ‘지금 이자 받기’ 서비스는 토스뱅크가 지난해 3월 은행업계에서 처음으로 내놨다. 이후 케이뱅크가 올해 1월 같은 서비스를 출시했고, 이번에 카카오뱅크도 해당 서비스를 내놓으면서 이 상품은 인터넷은행의 주요 상품으로 자리 잡았다. 해당 상품을 이용하는 고객은 빠르게 증가한 것으로 나타났다. 토스뱅크에 따르면 ‘지금 이자 받기’ 서비스는 출시 1년 동안 298만명의 고객들이 이용했고, 이용 횟수는 1억5000만회를 넘었다. 고객이 받은 이자는 총 2670억원에 달해 1인당 평균 8만9600원을 받았다. 이용 연령대는 ▶20대 25.4% ▶40대 23.9% ▶30대18.6% ▶50대 15.4% ▶10대 11% ▶60대 5.5% 등이었다. ‘지금 이자 받기’ 서비스를 고객이 선호하는 이유는 한 달에 한 번이나 한 주에 한번 받았던 것과 달리 매일 이자를 받으면 그만큼 더 복리효과를 누릴 수 있기 때문이다. 아울러 수시입출식 통장처럼 예금을 자유롭게 이동시킬 수 있다는 장점도 있다.  인터넷은행에서는 매일 이자를 받기 위해 고객이 모바일 앱에 자주 들어오면서 월간활성이용자(MAU)도 증가하는 효과도 있다고 봤다. 한 인터넷은행 관계자는 “인터넷은행은 기존 시중은행의 고객들을 끌어와 자금을 유치해야 하는 입장”이라며 “‘지금 이자 받기’ 등 서비스가 새로운 인기 서비스로 자리 잡으면서 고객 확대에 기여한 것으로 보고 있다”고 설명했다. 금융권에선 인터넷은행 3사가 모두 ‘지금 이자 받기’ 서비스를 내놓은 만큼 향후 고객의 자금 유치를 위해 금리 경쟁이 더 심해질 수 있다고 보고 있다. 실제로 ‘지금 이자 받기’ 서비스를 먼저 내놓은 토스뱅크의 이 상품 금리는 연 2.0%다. 5000만원이 초과하면 연 2.8%를 제공한다. 이후 케이뱅크가 비슷한 서비스를 내놓으며 연 2.6% 금리를 제공하고 있고, 이번에 카카오뱅크도 토스뱅크보다 높은 연 2.4% 금리를 내놨다. 시중은행 “기존 상품으로도 수신 관리 가능”5대 은행 로고. 위에서부터 국민은행, 신한은행, 하나은행, 우리은행, 농협은행 [사진 연합뉴스]인터넷은행의 해당 상품 흥행에도 불구하고 시중은행들은 비슷한 서비스가 아직 필요하지 않다는 입장이다. 수신 자금에 큰 변동이 일어나지 않고 있고, 자금 부족에 따른 대출 지급 우려도 없다는 게 기존 은행들의 설명이다. 현재 정기예금 금리 등이 낮아지면서 시중은행의 수신 규모는 다소 줄어든 상황이다. KB국민은행·신한은행·하나은행·우리은행·NH농협은행 등 5대 은행의 4월 말 정기예금 잔액은 805조7827억원으로, 지난해 말보다 12조6539억원 감소했다. KB국민은행의 경우 올해 1분기 원화예수금은 338조2000억원으로 3개월 사이에 4조1000억원(1.2%) 감소했고, 신한은행은 5985억원(0.2%) 줄어든 292조5000억원을 기록했다. 반면 카카오뱅크의 1분기 수신 잔액은 총 40조2000억원으로 처음으로 40조를 넘었고, 케이뱅크 수신액은 16조6400억원으로 지난해 같은 기간보다 5조1000억원(44.2%) 증가했다. 케이뱅크는 이와 관련해 “케이뱅크는 수신에서 업계 최고 수준의 금리를 제공하고 있다”며 “‘모바일 돼지저금통’으로 불리는 단기 적금 상품을 선제적으로 출시했고, ‘바로 이자 받기’ 서비스도 추가해 상품 경쟁력을 강화했다”고 전했다. 반면 시중은행들은 기존에 있는 상품 운용만으로도 수신 규모가 유지되고 있고, 연 2%가 넘는 파킹통장을 만들 경우 비용이 급증해 오히려 손해가 커질 수 있다는 입장이다. 한 시중은행 관계자는 “인터넷은행과 시중은행의 고객 유치 방법에는 차이가 있다”며 “성장성이 필요한 입장에서 고객이 몰리는 예금 통장을 내놓을 필요가 있지만, 안정적인 자금 운용이 필요한 시중은행에서는 인터넷은행에서 내놓은 서비스를 출시할 필요성이 크지 않은 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>여전히 높은 대출 금리에…은행권 ‘부실채권’ 급증</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000045242?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>5대 은행 1분기부실채권 전분기보다 10% 증가지난해 같은 기간 동안에는 7% 감소높은 금리 탓 연체율 상승...지연배상금도 빠르게 늘어서울시내 은행 현금인출기 앞에서 시민이 순서를 기다리고 있다. [사진 연합뉴스][이코노미스트 이용우 기자] 국내 대형은행에서도 연체율이 상승하며 은행 업계 전체에 자산건전성 악화 우려가 커지고 있다. 금융사마다 높은 금리 탓에 부실채권이 증가하며 대손충당금을 더 쌓아야 하는 여건이 하반기로 갈수록 커지고 있다는 전망이다. 5대 은행 고정이하여신 규모 3개월 만에 ‘3500억원↑’22일 금융권에 따르면 코로나 펜데믹 이후 은행권의 연체율이 오르고 부실채권으로 여겨지는 고정이하여신이 크게 증가하는 것으로 나타났다. 은행들이 부실대출 채권을 매각하며 지표 관리에 나서고 있는데도 대출자의 이자 부담이 커진 상황이라 부실채권이 계속 늘고 있다는 분석이다. 올해 3월 말 기준으로 KB국민은행·신한은행·하나은행·우리은행·NH농협은행 등 5대 은행의 고정이하여신액은 총 3조8240억원으로 3개월 사이에 10%(3481억원) 증가했다. 지난해 3월에는 전분기보다 6.9%(2480억원) 감소했는데 올해 들어 증가 속도가 빠른 상황이다. 고정이하여신은 대출 연체 기간이 3개월 이상인 부실채권(NPL)을 말하는데 고정, 회수의문, 추정손실 여신이 이에 해당한다. 은행별로 올해 1분기 신한은행의 고정이하여신액은 전분기 보다 14.2% 증가한 9060억원, NH농협은행은 15.7% 늘어난 8668억원, KB국민은행은 13.7% 확대된 8172억원, 하나은행은 2.7% 증가한 6810억원, 우리은행은 0.18% 늘어난 5530억원 등을 기록했다. 1분기 연체율은 5대 은행 평균이 0.27%로 낮은 수준을 기록하고 있지만, 4월에 들어서는 0.30%로 높아지며 점차 상승하는 모습이다. 이는 기존 대출자들이 감당해야 하는 금리 수준이 여전히 높기 때문으로 분석된다. 한국은행 경제통계시스템에 따르면 지난 3월 기준으로 가계대출 금리는 연 5.01%, 기업대출은 연 5.23%를 기록했다. 가계대출 금리는 전달보다 0.06%p 올랐고, 기업대출은 0.01%p 내렸다. 500만원 이하 소액대출의 연체율은 6.76%로 전달보다 0.06%p 높아지면서 매달 오름세를 유지하는 중이다. 신규 주택담보대출의 경우 최저 금리가 최저 연 3% 후반까지 떨어졌지만 기존에 은행 고객들이 보유하고 있는 대출들은 보통 6개월 단위씩 금리가 변동되기 때문에 아직도 높은 수준에서 금리가 적용되고 있는 모습이다. 연체 발생에 따른 지연배상금도 증가하고 있다. 최승재 국민의힘 의원이 금융감독원으로부터 받은 자료에 따르면 2021년부터 지난해 말까지 5대 은행과 케이뱅크 카카오뱅크(323410), 토스뱅크 등 3대 인터넷은행에서 신용대출 및 주택담보대출 연체 때문에 고객이 낸 지연배상금은 670만건에 총 460억원을 기록했다. 지연배상금은 대출자가 매월 납부해야 할 이자를 내지 못해 연체가 발생할 경우 은행이 부과하는 배상금이다. 대출 당시 금리나 신용 상황에 따라 최대 15%에 달하는 금리를 적용해 지연배상 금리가 부과된다. 특히 연체가 1개월을 넘으면 이자만 아니라 원금에 지연배상금이 가산돼 금액이 더 빠르게 늘어난다. 이 자료에 따르면 1개월 미만 연체에 대한 지연배상 납부 건수는 2021년 말 139만건에서 지난해 말 145만건, 납부액은 26억9000만원에서 37억7000만원으로 크게 증가했다. 1개월 이상은 1개월 이상 연체에 대한 납부 건수는 2021년 말 27만건에서 지난해 말 26만건, 납부액도 44억원에서 43억원을 기록했다. 업계에선 연체가 1개월 이상 되지 않도록 대출자가 지연배상금까지 모두 상환했다고 보고 있다. 하지만 올해도 대출 금리가 계속 올랐던 만큼 1개월 이상 연체에 따른 배상액도 증가할 것으로 예상된다. 37조원 달하는 코로나 금융지원…은행 수익 악화로 ‘부메랑’서울시내 은행 현금인출기 앞으로 시민이 지나가고 있다. [사진 연합뉴스]은행권은 올해 하반기로 갈수록 연체율이 더 오르면서 부실대출 확대로 인한 대손충당금 추가 적립이 불가피할 것으로 보고 있다. 특히 오는 9월에 코로네 펜데믹 기간 동안 중소기업과 소상공인에게 지원된 대출 만기 연장과 이자 상환 유예가 종료될 예정으로, 이에 따른 연체율 상승이 예상된다. 업계에 따르면 5대 은행의 코로나 금융지원금은 37조원에 달하는 것으로 나타났다. 현재 각 은행의 1분기 기준 고정이하여신 대비 대손충당금 적립 비율은 모두 200%를 넘고 있다. 하지만 금융당국은 연체율 상승 우려가 높은 상황이라 지금보다 더 충당금을 쌓을 필요가 있다고 보고 있다. 이럴 경우 충당금 확대로 인한 순이익 감소도 예상된다. 한 시중은행 관계자는 “최근 대출금리 인하는 은행 영업점에서 대출 상품 판매가 저조하다는 것을 의미한다”며 “올해는 기업들 실적도 부진하면서 가계의 어려움이 커지고 있어 은행도 연체율 상승에 대비하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>"터치 몇 번으로 월이자 6만원 줄였어요"</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004851002?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>대환대출 서비스 이용해보니10여분 만에 '대출 환승' 성공마이너스통장, 연 5.51%→3.9%하루 만에 1819건·474억원 이동카카오페이, 24개 금융사 제휴네이버페이 13곳·토스 17곳 맞손금융권의 온라인·원스톱 대환대출 플랫폼이 시행된 31일 오후 서울 시내에 설치된 시중은행들의 ATM기와 카카오페이 대출 비교 서비스 '대출 갈아타기' 화면 모습. 사진=연합뉴스직장인 A씨는 31일부터 시작된 대환대출 비교 서비스를 통해 마이너스 통장 금리를 1.61%포인트 낮추는 데 성공했다. 연 5.51%로 5000만원의 마이너스 통장을 쓰고 있는데 대환대출 비교 플랫폼 앱에서 10여 분 만에 연 3.9%(우대금리 적용)의 최저 금리 상품으로 갈아탔다. 금액으로 따지면 월 6만원가량 이자를 아낄 수 있게 됐다. 그는 “영업점을 찾지 않아도 다양한 은행의 대출 금리를 비교하고 갈아타기까지 할 수 있어 편하다”고 했다. ○은행 방문 없이 갈아타기 가능금융위원회에 따르면 이날 대환대출 서비스 이용 건수는 1819건으로, 약 474억원의 대출 자산이 이동한 것으로 나타났다. 세부적으로는 은행 간 대출 이동 비중이 전체의 90.5%에 달했다. 금융위가 이날 오전에 이뤄진 대출 이동 사례를 분석한 결과 B저축은행에서 연 15.2% 금리에 8000만원을 대출받은 한 차주는 은행권의 연 4.7% 신용대출로 갈아탔다. C은행에서 연 9.9%의 한도 대출을 1500만원 받은 차주는 D은행의 연 5.7% 금리 상품으로 대출을 갈아탔다.네이버페이 카카오페이 토스 등 빅테크 앱뿐 아니라 신한은행 등 은행 앱에서도 이 서비스를 이용할 수 있다. 휴대전화 인증 등의 절차를 거쳐 터치 몇 번에 약 10분 만에 갈아타기가 가능했다. 한 이용자는 “소득, 직장, 자산 정보만 입력하면 최저 금리와 최대한도 기준으로 갈아탈 수 있는 대출 상품이 제시된다”며 “대환도 은행끼리 직접 진행해 편하다”고 말했다.대환대출 서비스 이용 시간은 매 영업일 오전 9시부터 오후 4시까지다. 중도상환수수료가 없는 대출이면 대출 계약을 실행한 지 6개월이 지나야 갈아타기를 할 수 있다. ○플랫폼별 비교해 봐야대환대출 비교 플랫폼이 출시된 31일 신용대출 갈아타기를 진행한 화면.  네이버페이 캡처플랫폼별로 입점 은행이 달라 여러 플랫폼에서 상품을 비교해야 하는 불편도 있다. 카카오페이는 5대 시중은행을 포함한 1금융권 10개사 등 모두 24개 금융회사와 대출 갈아타기 업무제휴를 맺었다. 네이버페이는 13곳, 토스는 17곳과 손을 잡았다. 업계 관계자는 “대환대출 비교 서비스의 이용이 많아지면 향후 입점 은행도 플랫폼별로 늘어날 것으로 예상한다”고 했다.비교 결과 기존 대출이 있는 은행의 금리가 가장 낮은 것으로 조회돼 갈아타기를 신청했지만 ‘다른 은행’이 아니어서 갈아타기가 불가능한 은행도 있었다. 금융위 관계자는 “정책적으로 막아둔 것은 아니다”며 “현재 충분히 가능한 것으로, 은행이 자체적으로 해소할 수 있는 문제”라고 했다.시장에서는 대환대출 플랫폼 출시로 금융회사 간 금리 인하 경쟁이 치열해질 것으로 보고 있다. 하지만 대환대출 서비스로 개별 금융회사가 신규로 유치할 수 있는 신용대출 규모가 제한돼 있어 활발한 경쟁이 어려울 것이란 지적도 나온다. 현재 금융회사별로 전년도 신규 신용대출 취급액의 10% 또는 4000억원 중 적은 금액만 신규 대환대출 유치가 가능하기 때문이다.업계 관계자는 “지난해 전 금융권 신규 신용대출 취급액은 110조원”이라며 “이를 고려하면 전체 신용대출의 10%만 해당 서비스의 대상이 된다”고 말했다.올해 12월에는 주택담보대출로 대환대출 비교 서비스가 확대될 예정이다. 금융위 관계자는 “과거엔 대출을 갈아타려면 금융사 두 곳을 방문해 최소 2영업일을 기다려야 했다”며 “이번 인프라 가동으로 편의성이 크게 개선될 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.05.16~2023.05.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.05.16~2023.05.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1분기 채무조정 신청, 작년 전체의 절반 육박… 가계부채 적신호</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003498662?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>6만3375명 신청… 작년의 46%향후 연체 예상한 신속조정 폭증최근 2년 은행권 지연배상금 460억고신용자 배상 급증… 부실 심화 우려프리랜서 번역가로 활동 중인 A 씨(62)는 2016년 영어교재를 제작, 판매하는 사업을 시작했다. 하지만 신종 코로나바이러스 감염증(코로나19) 확산으로 주 거래처인 학원들이 잇따라 문을 닫으면서 경영 사정이 악화됐고 결국 2년 전 폐업했다. 이후 A 씨는 번역으로 생계를 이어오다 올해 2월 개인 채무조정을 신청했다. 사업 실패로 떠안은 1억7000만 원의 채무를 갚을 방법이 마땅치 않았기 때문이다. 경기 침체와 급격한 금리 상승으로 대출 상환에 어려움을 겪는 ‘한계 채무자’가 늘어나고 있다. 올 1분기(1∼3월)에 채무조정을 신청한 대출자만 전년도의 절반에 육박한 것으로 나타났다. 고신용자의 연체율이 높아지는 조짐도 보이고 있어 가계 부채에 적신호가 커졌다는 우려가 나오고 있다. 21일 윤영덕 더불어민주당 의원이 신용회복위원회로부터 받은 자료에 따르면 1분기 채무조정 신청자 수는 총 6만3375명이었다. 지난해 전체 신청자(13만8344명)의 45.8%에 해당하는 수준이다. 석 달 만에 전년도의 절반에 육박하는 채무조정 신청이 접수된 것이다.  채무조정은 빚이 많아 정상적인 상환이 어려운 사람의 재기를 지원하는 제도로 연체 기간에 따라 신속채무조정, 프리워크아웃, 개인워크아웃 등으로 구분된다. 최근에는 신속채무조정을 신청한 인원이 가장 큰 폭으로 늘어났다. 2020년 한 해 동안 신속채무조정 신청자는 7166명에 불과했지만 올 1분기 신청자만 1만4465명이었다. 신속채무조정은 정상적으로 채무를 갚고 있으나 연체가 우려되는 사람과 1개월 미만 단기 연체자의 채무 상환을 유예하거나 상환 기간을 연장해주는 것이다. 윤 의원은 “상환 금액을 감당하지 못해 향후 채무를 이행하지 못할 것이라고 전망하는 대출자가 많아졌다는 의미”라고 해석했다. 실제로 은행권에서도 대출 부담을 이겨내지 못하는 소비자들이 늘어나고 있다. 최승재 국민의힘 의원에 따르면 2021∼2022년 고객이 신용대출, 주택담보대출의 연체로 5대 시중은행(신한, KB국민, 우리, 하나, NH농협)과 3대 인터넷은행(카카오뱅크, 케이뱅크, 토스뱅크)에 낸 지연배상금은 460억 원이었다. 지연배상금은 대출자가 매달 납부해야 할 이자를 내지 못했을 때 은행이 연체 상황에 따라 고객에게 부과하는 배상금이다. 통상 은행은 대출 금리에 3%포인트를 더한 이자율과 15% 중에서 낮은 금리를 적용해 부과한다. 문제는 최근 고신용자들이 내는 신용대출 지연배상금도 큰 폭으로 증가했다는 점이다. 중저신용자 지연배상금이 2021년 57억5000만 원에서 지난해 61억7900만 원으로 약 7.5% 증가했는데, 같은 기간 고신용자의 배상금 납부액은 13억7000만 원에서 18억9800만 원으로 약 38.5% 늘었다. 코로나19로 유동성이 풍부한 시기에 대출 규모를 늘렸던 고신용자들도 상환에 어려움을 겪고 있다는 얘기다. 은행 중에서는 인터넷은행의 지연배상금이 크게 늘었다. 3대 인터넷은행의 1개월 미만 지연배상금은 2021년 1억3000만 원에서 지난해 7억7000만 원으로 6배가량 증가했다. 최 의원은 “고신용자 및 인터넷은행의 단기 연체에 따른 지연배상금이 급등한 것은 우려할 만한 대목”이라고 말했다. 전문가들은 금리가 가파르게 상승하면서 중저신용자뿐 아니라 고신용자들도 대출 상환에 어려움을 겪고 있다고 진단한다. 앞으로 경기가 보다 악화되면 대출 부실이 더욱 심해질 것이란 우려도 나온다.  서지용 상명대 경영학부 교수는 “고금리로 대출받은 사람들이 많은 상황이고 이에 대한 부실이 본격화되고 있는 상황”이라며 “적어도 올해 하반기까지는 부실이 계속해서 증가 추세를 보일 것”이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.05.24.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>토스, 대환대출 서비스 사전 신청자 30만명 넘어</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000923215?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>사진=토스  토스는 이달 말 출시를 앞두고 있는 대환대출 서비스 '대출 갈아타기' 사전 신청자가 30만명을 넘어섰다고 24일 밝혔다. 지난 10일 처음 사전 신청을 받은 지 2주만이다. '대출 갈아타기'는 금융당국이 추진하는 온라인·원스톱 대환대출 인프라 도입에 발맞춰 선보일 예정이다. 대환대출 인프라에는 약 53개 금융사와 23개 대출 비교 플랫폼 업체가 참여하고 있다.토스의 '대출 갈아타기' 서비스를 통해 고객은 앞으로 새로 대출받을 금융기관만 결정하면 기존처럼 대출이 있는 곳과 새로 받을 곳을 번갈아 방문하지 않아도 된다.또 여러 금융기관의 대출 상품을 한눈에 비교해 자신에게 가장 유리한 대출 상품을 선택할 수 있다. 이자 부담을 줄일 기회를 얻게 되는 것이다. 여기에 대환대출 이후 대출 상환과 신용점수 관리 등 부가 기능도 '대출 갈아타기' 서비스를 통해 제공받을 수 있다.토스 관계자는 "금융회사 간 실시간 대출 이동 서비스는 우리나라가 전 세계에서 처음 시도하는 것으로 더 나은 금융활동을 위해 금융당국과 플랫폼, 여러 금융사가 오랜 시간 준비해 왔다"라며 "토스는 대출 비교 플랫폼 1위 사업자로서 이번 '대출 갈아타기' 서비스에도 완벽한 고객 경험을 제공해 사전 신청 고객들의 성원에 보답할 것"이라 밝혔다.한편 토스는 월평균 1조 원 이상의 개인 신용대출 실행을 중개하며 현재 약 50% 이상의 시장점유율을 보이고 있다. 토스는 대출 비교 서비스를 통해 개인 신용대출 플랫폼에서 선보인 노하우를 바탕으로 대환대출 시장에서도 소비자 권익을 높이는 서비스를 선보인다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>"정보 제때 받으세요"…토스뱅크, 투자소식 알림 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001102956?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>토스뱅크가 고객들이 투자에 참고할 수 있는 정보들을 모바일로 받아볼 수 있는 ‘투자소식’ 알림 서비스를 출시한다토스뱅크 ‘투자소식’ 알림 서비스는 토스뱅크가 작년 8월부터 운영 중인 ‘목돈 굴리기’의 후속 서비스이다.‘목돈 굴리기’에 대한 고객의 관심이 높은 만큼 투자 정보에 대한 고객의 필요를 해결하고, 알림으로 고객의 접근성을 높여 편리하게 투자 상품과 정보를 제공하기 위해 ‘투자소식’ 알림서비스를 기획했다.‘목돈 굴리기’는 시장 내 경쟁력 있는 투자 상품들을 토스뱅크가 자체 선별하여 소개하는 서비스로 출시 9개월 여만에 2조 850억원을 기록하며 빠른 성장세를 이어오고 있다.토스뱅크 ‘투자소식’ 에서는 국내 대형 증권사 상품들 중 우수한 경쟁력을 가진 상품들을 선별하여 소개하고, 자산관리 전문가들이 소개하는 유용한 투자 정보, 제휴사 새 상품 등을 모아 소개한다.기존 국내 재테크와 투자 정보들이 부동산과 주식에 집중된 경향이 있어 예.적금이나 주식 이 외의 다양한 금융투자상품에 대해 고객은 알거나 찾기에 불편했다.토스뱅크는 이번 ‘투자소식’ 알림 서비스를 통해 상품과 정보를 고객이 참고할 수 있도록 알려주고, 모바일에서 편리하게 받아 볼 수 있게 했다.  ‘투자소식’을 받기 원하는 고객들은 토스뱅크 내 ‘목돈 굴리기’ 화면에서 ‘새 소식 알림받기’ 배너를 클릭하면 된다.토스뱅크 관계자는 “고객들이 복잡하고 어려운 투자 상품과 정보들을 얻기 위해 일일이 여러 채널들을 찾아다녀야 하는 수고로움을 알림 서비스로 편리하게 제공하고자 한다”며 “토스뱅크가 자체 선별하여 제공하는 유익한 투자 정보들을 통해 고객들이 투자 포트폴리오를 다양화하고 수익성도 함께 높여갈 수 있기를 기대한다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.05.21.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>흩어진 멤버십을 한곳에…토스, 지역 기반 통합 멤버십 내놓는다</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004192906?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>금융위에 관련 부서업무 신고[서울경제] 모바일 금융 플랫폼 토스가 멤버십을 한곳에 모으고, 지역 기반으로 혜택을 제공하는 ‘통합 멤버십 서비스’를 준비한다.21일 정보기술(IT) 업계에 따르면 토스 운영사 비바리퍼블리카는 지난달 28일 카드 결제내용을 바탕으로 이용자가 방문한 매장 정보를 지도에 구현하는 부수 업무를 금융위원회에 신고했다. 신고 내용에는 흩어져 있는 각종 멤버십을 마이데이터로 불러오는 ‘멤버십 지갑’도 포함됐다.비바리퍼블리카는 이용자 결제 정보를 토대로 거래가 많은 지역에 있는 제휴 매장에서 쿠폰·포인트를 제공하는 방식으로 서비스를 운영할 것으로 예상된다. 또 소상공인이 운영하는 기존 멤버십과 연동해, 토스 앱에서 멤버십 발급, 관리, 리워드 지급 기능을 지원할 것으로 보인다.비바리퍼블리카의 통합 멤버십 서비스는 그동안 추구해온 ‘금융 슈퍼 앱’ 비전과 맞닿아 있다. 비바리퍼블리카는 고객이 금융과 관련한 서비스가 필요할 때 어렵고 복잡한 탐색 과정을 거치거나 고민할 필요 없이 토스에 들어오면 모든 것을 해결할 수 있게 만든다는 목표다.비바리퍼블리카 관계자는 “이용자 친화 측면에서 신규 서비스들을 고민하고 있다”면서도 “정식 출시 시점은 확정되지 않았다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>'갓생한끼'에 용기 얻고 토크콘서트 간다</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000741840?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>전경련, 6월 23일 '꿈을 향한 공감 동행' 주제로 개최토스 이승건·닥터나우 장지호·타일러 라쉬, '멘토'로 나서25일 서울 영등포구 전경련회관에서 열린 한국판 버핏과의 점심 '갓생한끼'에서 정의선(가운데) 현대차그룹 회장과 박재욱(왼쪽) 쏘카 대표, 노홍철 노홍철천재 대표 등이 MZ세대와 소통하고 있다. 전경련 제공'한국판 버핏과의 점심' 행사를 연 전국경제인연합회가 두 번째 국민 소통 프로그램으로 토크 콘서트를 마련했다. MZ세대(1980년대 초~2000년대 초 출생)와 시대 리더가 함께 꿈을 향한 도전과 열정, 혁신 등의 이야기를 나누는 시간을 만들겠다는 계획이다.전경련은 다음 달 23일 '꿈을 향한 공감 동행'을 주제로 토크 콘서트 '드림워크'를 서울 동대문의 한 스튜디오에서 연다고 30일 밝혔다. 강연자인 드림 멘토(Dream Mentor)로는 이승건 비바리퍼블리카(토스) 대표와 장지호 닥터나우 대표, 방송인 타일러 라쉬 등이 나서며 아나운서 장성규가 사회를 맡는다. 이 대표는 2015년 간편송금 서비스 토스를 출시해 국내 핀테크 최초로 유니콘 기업(기업가치 1조 원 이상)으로 키웠고, 장 대표는 국내 최초 비대면 진료 및 처방 약 배송 서비스를 도입했다. 라쉬는 지적인 이미지를 가진 미국 출신 방송인이자 작가다.이들 멘토는 꿈을 향해 도전하는 젊은 세대에게 선한 영향력을 확산하고자 이번 행사 참여를 결정했다고 전경련 측은 설명했다."꿈을 향한 도전과 열정 이야기 나눌 예정"토크콘서트 '드림워크' 참여 멘토토크콘서트 참석 희망자는 전경련 홈페이지에서 다음 달 1일부터 신청(선착순 마감)하면 된다.앞서 전경련은 올해 2월 내놓은 혁신안 중 하나로 국민 소통 프로젝트를 추진하기로 했으며 25일 한국판 버핏과의 점심 갓생한끼를 통해 정의선 현대차그룹 회장과 박재욱 쏘카 대표, 노홍철 노홍철천재 대표 등이 MZ세대 30명과 소통하는 행사를 진행했다. 이상윤 전경련 CSR본부장은 "버핏과의 점심이 일대일 맞춤형 멘토링과 재능기부였다면 토크콘서트는 한국판 테드(TED) 형식의 시대 리더와 소통 공감을 나누는 행사"라며 "전경련이 미래를 준비하는 청년들에게 꿈과 희망의 허브가 될 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.05.18.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>인뱅이 쏘아올린 '모임통장' 경쟁…시중은행도 뛰어든다</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006813824?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>KB국민은행 이어 하나·우리은행도 모임통장 출시 검토중'공짜예금' 요구불 예금 확보 차원…MAU 확대에도 기여ⓒ News1 DB(서울=뉴스1) 김정은 기자 = 인터넷전문은행이 주도했던 '모임통장' 시장에 시중은행들도 뛰어들고 있다. 저원가성 예금인 이른바 '공짜예금' 유치는 물론 은행들이 큰 관심을 두고 있는 월간활성이용자수(MAU) 확대에도 기여할 수 있어서다. 모임통장이란 각종 모임의 회비를 모으고 비용을 관리할 수 있는 통장이다.18일 금융권에 따르면 최근 KB국민은행은 기존에 쓰던 통장 그대로 사용하면서 모임 통장을 운영할 수 있는 'KB국민총무서비스'를 출시했다. KB국민총무서비스는 모임 통장 운영을 위해 전용 통장 신규 개설이 필수인 시중 상품과 달리 기존에 쓰던 통장에 모임 관리 기능을 추가해 쓸 수 있다.하나은행도 올해를 목표로 모임통장 출시를 준비하고 있다. 앞서 하나은행은 지난 3월 특허청에 하나 모임통장'으로 상표권을 출원, 현재 특허청이 해당 상표권을 수리한 상태다. 우리은행 역시 모임통장 출시를 검토중이다.은행권에 '모임통장 열풍'을 불러온 장본인은 카카오뱅크다. 카카오뱅크의 모임통장 고객 수는 지난 3월 말 기준 880만명, 잔액 기준으로는 5조5000억원을 달성했다. 카카오뱅크는 지난 2018년 12월 모임통장을 선보인 바 있다.이에 토스뱅크도 지난 2월 모임통장을 내놨다. 토스뱅크는 '공동 모임장'이라는 개념을 새롭게 적용하며 차별점을 뒀다. 토스뱅크의 모임통장은 출시 일주일 만에 계좌 개설 수 7만좌를 돌파하기도 했다. 케이뱅크 역시 내달 중 모임통장을 출시할 계획이다.은행권이 모임통장 출시에 속속 나서면서 요구불 예금 유치 경쟁은 한층 치열해질 전망이다. 요구불 예금이란 정기예금과 달리 입금과 인출이 자유로운 은행 예금을 말한다. 수시 입출식 통장이 대표적인 요구불 예금 상품이다. 유동성이 높은 대신 연 0.1%대로 금리가 매우 낮아 은행의 수익성에 기여하는 바가 크다.모임통장의 성격상 예적금이 아닌 수시 입출식 형태에 대한 수요가 높고, 금리에 대한 민감도도 낮아 은행들 입장에선 눈독을 들일 수밖에 없다는 설명이다. 또 모임통장이 애플리케이션(앱) 기반 서비스인 만큼 MAU 확보에도 기여할 수 있다는 판단이다.시중은행 관계자는 "저원가성 예금인 요구불 예금 확보는 은행의 중요한 사업"이라며 "모임통장은 수시로 입출금이 가능해야 하니까 예적금보다는 수시 입출식으로 될 거고, 개인통장이 아니라서 금리에도 덜 민감하기 때문에 시중은행의 관심도가 높아지고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.05.29.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사, 건전성 악화에 중·저신용자 대출 증가 폭 줄어</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000905224?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>국내 인터넷은행 3사가 시중은행들과 비교해 눈에 띄는 성장성이 보이지 않는다는 평가가 나오고 있다./조선비즈DB        인터넷은행들의 중·저신용자 대상 신용대출 증가세가 둔화된 것으로 나타났다. 최근 자산 건전성 지표가 악화되면서 신용등급이 상대적으로 낮은 고객들에 대한 대출 비중을 줄인 것으로 풀이된다.29일 각 인터넷은행에 따르면 올 1분기 말 기준 중·저신용자 대상 잔액 기준 신용대출 비중은 카카오뱅크 25.7%, 케이뱅크 23.9%, 토스뱅크 42.06%로 각각 집계됐다.카카오뱅크와 토스뱅크는 중·저신용자 대출 비중이 전분기 대비 0.3%포인트, 1.69%포인트 각각 늘었지만, 케이뱅크는 1.2%포인트 줄었다.지난해 4분기에는 전분기 대비 증가 폭이 카카오뱅크 2.2%포인트, 케이뱅크 0.4%포인트, 토스뱅크 1.37%포인트를 각각 기록했다. 올 들어 인터넷은행 3사의 중·저신용자 대출 비중 증가 폭이 감소한 셈이다.인터넷은행들의 중·저신용자 대출 증가세가 줄어든 것은 최근 자산 건전성 지표가 눈에 띄게 악화됐기 때문이다.올 1분기 말 기준 카카오뱅크의 연체 기간 3개월 이상 고정이하여신 잔액은 1250억원으로 전년 동기 대비 92.6% 증가했다. 케이뱅크는 1123억원으로 같은 기간 126% 급증했다. 고정이하여신 비율은 카카오뱅크가 0.43%로 지난해 같은 기간보다 0.18%포인트 상승했고, 케이뱅크도 0.64%에서 0.94%로 0.3%포인트 올랐다.연체율도 계속 오르고 있다. 카카오뱅크의 경우 연체율이 지난해 1분기 0.26%에서 올 1분기에는 0.58%로 올랐다. 케이뱅크 역시 같은 기간 0.48%에서 0.82%로 상승했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.05.17.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>‘5월의 바캉스’…때이른 더위에 여름 상품 불티</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003224071?sid=103</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>백화점, 수영복·샌들·선글라스 판매량 급증온라인몰, 민소매 원피스·남성 반바지 불티 “7~8월 바캉스 시즌 매출 90% 넘겼다”선풍기·에어컨 등 여름 할인 행사 앞당겨전국 대부분 지역의 낮 기온이 30도 이상 오르며 초여름 날씨를 보인 지난 16일 서울 광화문광장 분수대에서 아이가 더위를 식히고 있다. 문재원 기자아직 늦봄인데도 한낮 30도를 웃도는 때이른 더위에 여름 상품이 불티나게 팔리고 있다.예년과 달리 4∼5월 기록적인 이상고온 현상이 연일 이어지자 서둘러 폭염에 대비하는 고객들이 늘고 있어서다.17일 유통업계에 따르면 일찌감치 찾아온 더위에 7∼8월 바캉스 시즌 못지않게 여름 상품 매출이 크게 늘고 있다. 롯데백화점은 5월 들어 16일까지 선글라스와 수영복 매출이 전년 동월 대비 각각 20% 늘었다.롯데백화점 관계자는 “최근 롯데월드몰에 수영복 편집샵 ‘멀티풀’을 오픈했는데 고객들이 줄을 섰다”면서 “고객 호응에 힘입어 롯데월드몰에서는 리조트룩 콘셉의 ‘클로브’, 본점 영플라자에서는 ‘카린’ 선글라스 팝업 행사를 펼치고 있다”고 말했다.롯데월드몰의 수영복 편집샷 ‘멀티풀’. 롯데백화점신세계백화점은 4월부터 이달 15일까지 샌들, 레인부츠 등 여름 신발 매출이 지난해 동기에 비해 65.8% 증가했다고 17일 밝혔다. 바캉스 시즌인 7월과 8월 샌들 매출의 90%를 넘어선 수치다.신세계 관계자는 “무더위에 크록스가 지난해보다 한 달 앞서 팝업스토어를 열었다”면서 “프리미엄 슬리퍼인 브라질 ‘카카토스’와 이탈리아 ‘드시에나’ 등 신규 브랜드들도 속속 입점해 젊은 고객 모시기에 나서고 있다”고 말했다.롯데하이마트는 이달 1∼14일 얼음정수기 매출이 2주 전(4월17∼30일)보다 50% 증가했다. 같은 기간 음식물처리기와 블렌더 매출도 각각 30%, 25% 늘었다.롯데하이마트 관계자는 “오는 25일까지 테팔, 필립스 등 유명 브랜드 여름 주방가전 할인 행사를 진행한다”면서 “행사상품 구매 시 롯데모바일상품권도 3만·5만원 선물로 증정한다”고 말했다.온라인몰에서도 ‘5월의 바캉스’ 시즌이 시작된 분위기다. SSG닷컴은 이달 10~16일 여름 패션 상품 매출을 알아본 결과 지난달에 비해 2배가량 늘었다. 특히 반바지 판매량이 290% 급증했고 슬리퍼와 샌들 등 여름 신발은 96% 증가했다. 가전은 에어컨과 제습기 매출이 각각 95%, 41% 신장했다.SSG닷컴 관계자는 “여느 때 보다 올해는 뜨거운 여름이 예상되는 만큼 오는 22일부터 1주일간 ‘여름 가전 첫 세일’ 행사를 통해 280여 종 제품을 최대 40% 할인 판매한다”고 말했다.최근 불티나게 팔리고 있는 이마트PB ‘일렉트로맨 선풍기’. SSG닷컴11번가는 5월 들어 16일까지 계절 가전인 선풍기 매출이 지난달 같은 기간에 비해 143%, 에어컨은 41% 늘었다. 특히 한여름 여성들에게 인기 있는 민소매 원피스는 370%, 남성 반바지는 297% 판매량이 급증했다. 화장품 선파우더·쿠션 160%, 키즈 수영복도 동기간 43% 증가했다.11번가 관계자는 “무더위를 시원하게 날릴 수 있도록 아이스크림 라이브 방송을 오는 23일 오후 7시 ‘LIVE11’을 통해 진행한다”면서 “미니멜츠 5가지 인기맛으로 구성한 세트(30개)를 30%가량 할인된 가격에 만날 수 있다”고 말했다.쿠팡쿠팡은 와우회원을 대상으로 여름 가전을 최대 65% 할인하는 기획전을 오는 28일까지 진행한다. 삼성전자 등 국내외 인기 가전브랜드 30곳 이상이 참여해 에어컨·선풍기·서큘레이터 등 냉방가전부터 냉장고·제습기·모기퇴치기 등까지 3000여 개 가전제품을 합리적 가격에 선보인다. 제휴카드로 구입하면 추가 8% 할인혜택도 받을 수 있다.쿠팡 관계자는 “에어컨·냉장고 등 대형가전을 로켓배송해 설치해주는 로켓설치 서비스도 선보인다”면서 “오후 2시 이전에 주문하면 익일 배송하는데 고객이 직접 배송날짜를 정할 수도 있다”고 말했다.기상청에 따르면 지난해 4월 최고기온 평균은 19.7도였다. 하지만 올해 4월은 서울 낮 기온이 28.4도까지 치솟는 등 34년 만에 4월 중순 최고 기온을 기록했다. 5월 들어서도 이른 더위는 꺾이지 않아 서울의 낮 최고기온이 30도를 오르내리는 등 초여름 날씨를 보이고 있다.11번가</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.05.21.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>"이기영, 父 죽여놓고 '아버지상' 메모"...택시기사 딸의 호소</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005490801?sid=102</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>[이데일리 박지혜 기자] 동거녀와 택시기사를 살해한 이기영(32)에게 1심 법원이 무기징역을 선고한 가운데, 자신을 피해 택시기사의 딸이라고 밝힌 누리꾼은 “슬픔과 더불어 분통 터지는 상황”이라고 호소했다.지난 20일 오후 네이트 판에는 ‘이기영 살인사건의 피해자였던 택시기사의 딸입니다’라는 제목의 글이 올라왔다.택시기사와 동거녀을 살해한 이기영이 지난 1월 6일 오후 경기도 파주 공릉천변에서 검찰 관계자들에게 시신을 매장했다고 진술한 부근을 손으로 가리키고 있다 (사진=연합뉴스)글쓴이는 “어제 이기영 관련 1심 재판이 무기징역으로 판결 나며 끝났다. 사람을 두 명이나 죽인 살인범에게 사형 아닌 판결이 내려질 거로 생각하지 않았기 때문에 제 가족은 슬픔과 더불어 분통 터지는 상황이 됐다”라고 밝혔다.글쓴이는 아버지의 실종 신고를 한 지난해 12월 25일 당시 상황을 설명하기도 했다.그는 “아버지인 척 카카오톡(카톡)을 주고받으며 전화 통화는 끝끝내 피하는 이기영에게 이상함을 느낀 어머니께서 불안함을 느끼며 경찰서에 가자고 하셨다”며 “이기영은 제 가족과 카톡을 하는 내내 본인이 교통사고를 냈는데 사망자가 생겨 그 뒤처리를 하고 있다고 거짓말했기 때문에 설마하니 대화 상대가 아버지가 아닐 거라곤 꿈에도 생각하지 못했다”고 했다.이어 “그러나 경찰서에 도착해 택시 차량번호를 부르며 사고 조회를 한 결과, 교통사고 접수가 아예 없다는 얘길 듣게 됐고 이때부터 저희는 무언가 일이 크게 잘못됐다는 것을 느끼고 손발이 떨리고 심장이 쿵 떨어지는 기분을 처음 알게 됐다”고 덧붙였다.글쓴이는 “결국 위치 추적 요청과 함께 아버지의 실종 신고를 하고 저희가 할 수 있는 것은 그저 아버지가 무사히 돌아오시길 바라며 기다리는 것밖에 없었다”며 “그러나 정오가 되어 제 전화로 경찰이 알려준 사실은 아버지 부고 소식이었다”고 전했다.그러면서 “평범한 가족이었다면 맛있는 음식을 먹고 대화하며 행복해야 했을 성탄절이 이제 제 가족에게는 끔찍한 기억으로만 남게 됐다”고 토로했다.글쓴이는 자신의 아버지 행세를 한 이기영이 보낸 카카오톡 메세지라며 그 일부를 공개했다.그는 “(이기영이) 아버지 살해 직후 저희 아버지 휴대전화에 토스 앱을 내려받아 기존 잔고를 본인 통장으로 이체한 사진”이라며 “남의 아버지 죽여놓고 보란 듯이 ‘아버지상’이라고 메모해 이체해 사람 우롱하는 전형적인 사이코패스”라고 주장하기도 했다.글쓴이는 “(이번) 재판 결과를 도저히 납득할 수 없어서 탄원서를 제출했다”며 그 내용 일부를 다음과 같이 전했다.“1심에서 재판부는 피고인이 본인의 죄를 인정한 점과 공탁한 사실을 참작하여 양형 이유로 들었습니다. 공탁과 합의에 대해서 저희 유족 측은 지속적으로 거부 의사를 명확히 밝혀왔습니다. 피해자가 받지 않은 공탁이 무슨 이유로 피고인의 양형에 유리한 사유가 되는 것인지 저희는 이해가 되지 않습니다. 저희가 합의를 거부했으니 공탁금은 본인에게 되돌아가는 것으로 알고 있는데, 이런 형식적인 공탁제도가 도대체 누구를 위한 제도인지 모르겠습니다”“피해자가 가해자를 죄를 용서할 수 없다면 그의 사과를 거부할 수 있는 권리도 당연히 있는 것이고, 용서할 수 없는 죄를 지은 사람의 강제된 사과는 피해자에게 있어 도리어 폭행과 같습니다. 또한 금전적인 이유로 범죄까지 저지른 피고인이 순수하게 반성의 의도로 공탁을 했다고 보기도 어렵습니다. 구속되고 약 5개월간 피고인은 반성문 한 장 제출하지 않았다고 들었습니다. 이런 피고인이 정말 반성의 여지가 있다고 보시는 건지 의문입니다”아울러 글쓴이는 “국민청원 접수 중이다. 사형제도의 부활과 집행, 혹은 대체 법안에 대해 건의하는 내용이다. 접수 처리 후에 공개 청원이 됐을 때 의견 보태주시면 저희에게 큰 힘이 될 것 같다”며 “이기영과 같은 살인범이 사회에 더 이상 나오지 못하도록 이번 기회에 법 제도가 개선되길 간절히 바란다”고 강조했다.앞서 지난 19일 의정부지법 고양지원 형사1부(최종원 부장판사)는 강도 살인 및 특정범죄가중처벌에 관한 법률상 보복살인 등의 혐의로 구속된 이기영에게 무기징역을 선고하고 30년간 위치추적 전자장치(전자발찌) 부착을 명령했다.재판부는 “피해자의 지인들에게는 피해자가 살아 있는 것처럼 메시지를 보내는 등 범행을 미리 계획했고, 살해 방법 역시 매우 잔혹하다”고 지적했다. 이어 “피고인은 살해 행위와 그 이후의 범행까지도 철저히 계획한 다음 스스럼없이 계획대로 했다”면서 “피해자들의 시체를 유기한 후 일말의 양심의 가책 없이 피해자의 돈을 이용해서 자신의 경제적 욕구를 실현하며 아무렇지 않게 일상생활을 유지하는 등 인면수심에 대단히 잔혹한 태도를 보였다”고 덧붙였다. 재판부는 또 “만일 법이 허용했더라면 가석방 없는 무기징역형을 선택해서 피고인을 사회로부터 격리하는 방안을 고려했을 수 있을 만큼 대단히 잔혹한 범죄에 해당한다”면서 “유가족들의 고통 역시 감히 상상할 수 없을 만큼 크다는 점을 재판부가 충분히 고민하고 인식하고 있음을 다시 한번 말씀드린다”고 밝혔다.다만 검찰이 구형한 사형 선고는 극히 예외적으로만 허용된다면서 이기영의 경우 사형이 명백히 정당화되긴 어렵다고 설명했다.선고 때까지 반성문 한 장조차 내지 않은 이기영은 선고 뒤 무덤덤한 표정으로 고개를 숙인 채 아무 말도 하지 않았다.이기영은 지난해 8월 함께 살던 여성을, 12월에는 택시기사를 연이어 살해했다.그는 음주운전 사고를 낸 뒤 피해자인 택시기사를 집으로 유인해 둔기로 때려 숨지게 한 뒤 시신을 옷장에 숨겼고, 당시 만나던 여자친구의 신고로 덜미가 잡혔다.경찰 수사 과정에서 과거 같이 살던 여성을 살해해 시신을 인근 하천에 유기하고 피해자 카드로 8000여만 원을 탕진한 사실도 추가로 드러났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>15분 만에 대출 갈아탈 수 있어요...‘대환대출 인프라’ 오늘부터 서비스 개시</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000082364?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>은행 영업일 오전 9시~오후 4시 이용 가능이용 횟수 무제한, 반복 조회 시 신용점수 영향 없어 (금융위 제공)금융 소비자가 영업점을 방문하지 않고 스마트폰 앱을 통해 기존에 받은 신용대출을 더 유리한 조건으로 한 번에 갈아탈 수 있는 ‘대환대출 인프라’가 31일 시작됐다.금융위원회에 따르면 이날 개시되는 ‘온라인·원스톱 대환대출 인프라’는 1·2금융권 53개 금융회사의 대출 상품과 조건을 비교할 수 있다. 금융결제원의 ‘대출 이동 시스템’과 각 금융사의 대출 상품을 모아 비교할 수 있도록 도와주는 ‘대출 비교 플랫폼’이 합쳐진 형태다.업계에서는 연간 10조∼11조원을 대환대출 시장 규모로 추산하고 있다. 금융위가 대환대출 서비스로 개별 금융회사가 신규 유치할 수 있는 신용대출 규모를 전년도 신규 신용대출 취급액의 10% 또는 4000억원 중 적은 금액으로 설정했기 때문이다. 지난해 전 금융권 신규 취급액 기준 신용대출은 110조원 규모다.다만 대출 비교 플랫폼 앱과 주요 금융 회사 앱별로 제공하는 서비스가 다를 수 있어 확인이 필요하다. 대출 비교 플랫폼(네이버페이, 뱅크샐러드, 카카오페이, 토스, 핀다 등)과 주요 금융 회사 앱(NH농협은행, 신한은행, 우리은행. KB국민은행, 하나은행 등)에서는 다른 금융사의 상품과 금리 등을 비교·확인할 수 있지만 ‘갈아타기’는 대출 비교 플랫폼에서만 가능하다. 특정 금융 회사 앱에서는 자사 금융회사의 다른 대출 상품으로만 갈아탈 수 있다. 유리한 조건의 대출 상품이 있다면 해당 금융회사 앱으로 이동해 새로운 대출을 실행하면 된다.53개 은행, 저축은행, 카드, 캐피털사에서 받은 10억원 이하의 보증·담보가 없는 신용대출만 대환대출인프라에서 갈아탈 수 있다. 기존 대출을 새희망홀씨·햇살론과 같은 서민·중저신용자 대상 정책대출로 갈아타는 것은 보증 여부와 관계없이 가능하다. 연체대출이나 법률분쟁, 압류 및 거래정지 상태에 있는 대출은 갈아탈 수 없다. 금융당국은 은행권 등과 협의를 통해 대출금 규모가 큰 주택담보대출(주담대)을 대상으로 하는 대환대출 인프라도 연내 구축할 예정이다.대환대출 서비스는 은행 영업시간인 영업일 오전 9시부터 오후 4시까지 이용할 수 있으며 이용 횟수의 제한은 없다. 다만 중도상환 수수료가 없는 대출의 경우 대출계약을 실행한 지 6개월이 경과한 이후에만(오프라인은 미해당) 이용 가능하다.플랫폼이나 금융회사 앱에서 대출 조건을 반복 조회해도 신용점수에 영향이 없기 때문에 최대한 꼼꼼하게 따져본 뒤 유리한 조건의 상품을 선택하면 된다. 기존 대출금은 금융결제원 망을 통해 자동 상환된다.금융위는 앱을 설치하는 것부터 새 대출 계약을 완료하기까지 소요되는 시간이 15분 남짓이라고 설명했다. 금융위는 “과거 소비자가 대출을 갈아타려면 금융회사 영업점 두 곳을 방문하며 최소 2영업일을 기다려야 했다”며 “인프라 가동으로 편의성이 크게 개선될 것”이라고 설명했다.한편 우리은행은 기존 타행 대출을 자사 대출로 갈아타는 고객에게 6월 말까지 중도상환 해약금과 인지세 등 대출 거래 비용을 최대 10만원까지 지원한다. KB국민은행, 신한은행, 하나은행 역시 대환대출 인프라 전용 상품을 출시할 계획이다.네이버페이를 운영하는 네이버파이낸셜은 ‘네이버페이 대출 갈아타기’를 통해 ‘전 국민 이자 지원 이벤트’ 사전신청 접수를 시작했다. 뱅크샐러드는 대환대출 서비스의 모든 대출 상품에 대해 0.1%포인트 추가 금리 인하를 지원한다. 카카오페이는 대환대출 플랫폼 중 유일하게 5대 은행을 모두 입점시켰으며 지난 10일 사전신청을 받기 시작한 토스는 2주 만에 30만명이 넘는 신청자가 몰렸다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.05.22.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>제2의 ‘토스’ 부산서 나오나…푸드트래블 ‘퍼스트펭귄’ 선정</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000041615?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>‘부산 핀테크허브’ 입주 스타트업인 ㈜푸드트래블이 신용보증기금(KODIT)의 ‘퍼스트펭귄’에 선정되며 성장 잠재력을 인정받았다. 푸드트래블은 국내 최초 푸드 모빌리티 플랫폼 ‘기프트럭’을 운영 중이다.‘부산 핀테크허브’ 입주기업 푸드트래블이 신용보증기금의 보증제도 ‘퍼스트펭귄’에 선정됐다. 푸드트래블 제공푸드트래블은 KODIT의 유망 스타트업 보증제도 ‘퍼스트펭귄’에 선정됐다고 22일 밝혔다. 이 사업은 미래 유니콘 기업으로 성장할 수 있는 기업을 발굴해 밀착 육성하는 KODIT의 대표 스타트업 지원 제도다. 창업 5년 이내 기업만 참여할 수 있다. 참여 후 성과를 낸 대표적 사례가 간편 송금 애플리케이션 ‘토스’를 개발한 ‘비바리퍼블리카’다.푸드트래블은 2021년 2월 부산 남구 핀테크허브에 입주했다. 2년간 성장 단계별 전문 육성 프로그램을 지원받았다. 데이터 기반 비즈니스 모델(BM)고도화 및 기업홍보(IR) 컨설팅, CEO 역량 강화 교육, 대기업과의 협업 등 정성적 지원과 전문 인력 확보, 임대료 및 인건비 등 정량적 지원을 받았다. 입주 후 연 매출액은 40배 이상 성장했다. 올해는 100억 원 이상 매출을 예상한다.푸드트래블의 기프트럭 서비스는 삼성 현대 SK 포스코 등 10대 기업을 포함한 1300여 곳에서 이용 중이다. 재구매율도 높아 서비스의 지속 가능성도 높게 평가된다. 박상화 푸드트래블 대표는 “이번 퍼스트펭귄 선정에는 부산 핀테크허브를 운영 중인 글로벌핀테크산업진흥센터의 도움이 컸다. 다양한 지원을 통해 성장할 수 있었다”며 “앞으로 부산의 스타트업이 함께 성장하고 협력할 수 있는 기회의 장이 마련 되는 계기가 됐으면 좋겠다”고 말했다.권기룡 글로벌핀테크산업진흥센터 이사장은 “부산의 테크 스타트업이 빠르게 성장할 수 있는 기업 친화적 프로그램을 지속해서 만들겠다. 앞으로 제2의 푸드트래블이 많이 나올 수 있게 지원하겠다”고 말했다. 부산 핀테크허브는 다음 달 9일까지 신규 입주기업을 모집한다. 자세한 내용은 홈페이지(finpc.org) 를 참고하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.05.29.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>“대출비교 선두 토스, 대출 갈아타기도 1등 할 것”</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004195796?sid=105</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>김슬아·최락현 토스 대출비교 총괄 인터뷰최락현(왼쪽) 토스 대출비교 서비스 사업 총괄과 김슬아 토스 대출비교 서비스 제품 총괄이 지난 25일 서울 강남구 토스 본사에서 서울경제신문과 인터뷰하고 있다./사진 제공=비바리퍼블리카[서울경제] “토스는 편리한 사용성과 다양한 제휴사를 바탕으로 비대면 대출 비교 서비스에서 선두주자를 달리고 있습니다. 토스가 비대면 대출 시대를 연 것처럼 앞으로 대환대출 서비스로 금융산업의 온라인화에 기여하고 압도적인 1위를 이어가겠습니다.”금융당국이 주도하는 대환대출 인프라 서비스 도입이 하루 앞으로 다가온 가운데 김슬아 토스 대출비교 서비스 제품 총괄과 최락현 토스 대출비교 서비스 사업 총괄은 최근 서울경제신문과 만나 이 같은 자신감을 드러냈다.토스는 이달 31일 금융당국이 추진하는 온라인·원스톱 대환대출 인프라 도입에 발맞춰 ‘대출 갈아타기’ 서비스를 출시할 예정이다. 해당 서비스가 개시되면 이용자들은 영업점 방문 없이 기존 대출보다 유리한 조건의 다른 금융사 대출로 간편하게 갈아탈 수 있다.김슬아 토스 대출비교 서비스 제품 총괄이 지난 25일 서울 강남구 토스 본사에서 서울경제신문과 인터뷰하고 있다./사진 제공=비바리퍼블리카김 총괄과 최 총괄은 대환대출 서비스가 1금융권과 2금융권 간 ‘금융 단층’을 일정 부분 해결하는 역할을 할 것으로 기대했다. 저신용자들이 좀 더 낮은 금리의 혜택을 보는 것은 물론 고신용자들의 대출 접근성도 높여줄 수 있기 때문이다. 최 총괄은 “저축은행이 총부채원리금상환비율(DSR) 한도가 더 나오지만, 기존에 고신용자들은 저축은행에 찾아갈 생각도 못 했다”며 “플랫폼을 통해 자연스럽게 고신용자들이 저축은행 상품을 알게 될 것이고, 이를 공략해 더 낮은 금리의 대출 상품도 나올 수 있을 것”이라고 말했다. 이어 그는 “반대로 저축은행 고객 중 우량한 차주들은 시중은행이나 지방은행으로도 원활하게 대출 상품을 갈아탈 수 있을 것”이라고 덧붙였다.이들이 강조한 토스의 경쟁력은 기존에 확보한 고객 경쟁력이다. 기존에 서비스했던 토스의 ‘대출 받기’ 서비스는 5월 기준 누적 대출 실행 건수 157만 건 이상, 누적 대출 실행액 25조 6300억 원에 이르고, 토스에서 단 한 번이라도 대출 비교를 해본 이용자 수가 600만 명에 달하는 등 높은 사용률을 보이고 있다. 김 총괄은 “대환 대출을 이용하려면 마이데이터 등록을 해야 하는데 이미 토스 활성 사용자의 80%가 이미 마이데이터 등록이 되어 있어 대출 이용이 편리할 것”이라며 “대출 조회 후에 더 낮은 대출 상품을 찾지 못한 고객에게는 응원금을 지원하는 프로모션도 추가로 진행하는 등 고객 혜택을 강화할 계획”이라고 말했다.최락현 토스 대출비교 서비스 사업 총괄이 지난 25일 서울 강남구 토스 본사에서 서울경제신문과 인터뷰하고 있다./사진 제공=비바리퍼블리카다양한 제휴처는 물론 높은 사용 편의성도 강점으로 꼽았다. 최 총괄은 “우대 금리 혜택이나 중도 상환 수수료, 부수 거래 등의 다양한 정보를 한눈에 보기 편하도록 사용자 경험·환경(UI·UX)을 준비했다”며 “대출받기 서비스를 처음 4곳의 금융사 상품에서 시작해 현재 50개 넘게 제공하는 것처럼 대환대출 제휴처도 계속해서 늘릴 것”이라고 말했다. 업계에서는 대환대출 서비스가 나오는 시점에 토스가 가장 많은 금융 제휴사를 확보할 것으로 내다보고 있다.두 총괄은 대환대출 서비스가 나오기까지 많은 이해관계자의 노력에 대해 감사함을 표시했다. “대환대출 서비스는 2021년에도 한 번 추진됐었지만, 업권별로 너무 이해관계가 복잡했기 때문에 좌초된 경험이 있어요. 이번에도 과연 도입될 수 있을지에 대한 업계 안팎의 의구심이 있었습니다. 하지만 금융위원회에서 잘 중재해주신 덕분에 불과 6개월여 만에 출시하게 되어 감개무량합니다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.05.19.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>美치킨브랜드 윙스탑, 서울대입구역에 2호점 개점</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005489998?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>9가지 치킨 플레이버 제공총 64석 좌석·테이블 마련커플팩 메뉴. 윙스탑 제공.[이데일리 이지은 기자] 지난 1월 강남에 첫 번째 플래그십 레스토랑을 오픈한 윙스탑이 오는 25일 서울대입구역 인근에 2호점을 오픈한다고 19일 밝혔다.윙스탑 서울대입구역점에서는 윙스탑만의 특별한 시즈닝 작업인 소스앤토스(Sauced-and-Tossed)를 고객의 눈으로 직접 확인할 수 있도록 오픈 키친 형태로 운영할 계획이다. 1인 방문객부터 파티, 가족 모임 등 다양한 형태의 단체 방문객을 맞이할 수 있도록 총 64석의 좌석과 테이블이 마련됐다. 최근 윙스탑은 전 세계 2000번째 레스토랑 개점을 달성했다. 이처럼 미국, 영국, 캐나다, 싱가포르 등 다양한 국가에서 윙스탑이 치킨 윙으로 인기를 끌고 있는 이유는 치킨의 플레이버(맛)를 원하는 대로 선택할 수 있기 때문이다. 미국인들이 좋아하는 레몬페퍼, 정통 미국식 버팔로 소스인 오리지날 버팔로, 아시아에서만 판매하는 스윗 스파이시소이 등 9가지의 플레이버를 제공하는 윙스탑의 치킨 맛이 새롭고, 신선한 맛을 추구하는 MZ세대들의 입맛을 사로잡은 것이다.또한 윙스탑은 치킨 1마리 메뉴가 아닌 윙과 봉 6조각, 레귤러사이즈 사이드, 디핑 소스, 음료를 포함한 싱글팩 세트 메뉴를 구성해 8900원에 판매하고 있다. 이러한 메뉴 구성이나 가격 정책은 런치플레이션에 해답을 제시할 뿐 아니라 고객들의 다양한 입맛까지 사로잡아 많은 직장인들과 학생들이 윙스탑을 찾고 있다는 분석이다.윙스탑 관계자는 “강남점을 찾는 많은 고객이 2호점 위치에 대한 문의가 많았다”며 “서울대입구역은 젊은 MZ세대가 많이 활동하면서 직장인 수요도 많아 합리적인 가격으로 치킨 식사 솔루션을 제공하는 윙스탑의 콘셉트에 맞는 위치”라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>대환대출 인프라 점검하는 김소영 금융위 부위원장</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011886583?sid=004</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>[성남=뉴시스] 고승민 기자 = 김소영 금융위원회 부위원장이 30일 대환대출 인프라 관련 현장방문을 위해 경기 성남 금융결제원 분당센터를 찾아 관계자들과 대화를 하고 있다. 금융위원회는 31일 오전9시부터 온라인, 원스톱 대출 갈아타기 서비스를 개시한다고 밝혔다. 대출 갈아타기가 가능한 앱은 크게 대출 비교 플랫폼 앱(네이버페이, 뱅크샐러드, 카카오페이, 토스 등)과 주요 금융회사 앱(NH농협은행, 신한은행, 우리은행. KB국민은행, 하나은행 등) 등이다. 2023.05.30. kkssmm99@newsis.com[사진 영상 제보받습니다] 공감언론 뉴시스가 독자 여러분의 소중한 제보를 기다립니다. 뉴스 가치나 화제성이 있다고 판단되는 사진 또는 영상을 뉴시스 사진영상부(n-photo@newsis.com)로 보내주시면 적극 반영하겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.05.23.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>신용대출, 7개월 만에 5%대 하락 … '대환대출' 문 열면 금리 더 내려가나</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000922849?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>KB국민·신한·우리·하나·NH농협 등 5대 은행의 지난 4월 신용대출 평균 금리는 5.872%다. 사진은 서울 시내의 한 시중은행 대출창구 모습./사진=뉴스1 연 7%대로 올라섰던 은행권의 신용대출 금리가 5%대로 내려왔다. 금융당국이 은행권에 대출금리 인상을 자제할 것을 당부했고 시중은행들은 상생금융을 앞세워 가산금리를 내린 효과다. 이달말 신용대출 상품을 갈아탈 수 있는 '대환대출 플랫폼'이 문을 여는 가운데 고객을 유치하기 위한 금융회사의 대출인하 움직임이 이어질 전망이다. 23일 금융권에 따르면 KB국민·신한·우리·하나·NH농협 등 5대 은행의 지난달 신용대출 평균 금리는 5.872%로 집계됐다. 신용대출 평균 금리가 5%대로 하락한 것은 지난해 9월(5.852%) 이후 7개월 만이다.신한은행과 우리은행이 신용대출 평균 금리가 연 5.60%로 가장 낮았고 KB국민은행이 연 6.27%로 가장 높았다. 5대 은행에서 취급한 신용대출 평균 금리는 지난해 10월 6.446%, 11월 7.016%로 상승하다가 ▲12월 6.918% ▲올해 1월 6.496% ▲2월 6.146%로 하락세를 이어갔다. 이후 3월 6.190%로 주춤했던 신용대출 평균 금리는 4월 5%대로 낮아지며 지난해 11월과 비교해 5개월 새 1.14%포인트 줄었다.신용대출 금리는 은행채에 가산금리를 더해 정한다. 금융투자협회 채권정보센터에 따르면 올 초(1월9일)까지만 해도 4.373%에 달했던 은행채 5년물(무보증·AAA) 금리는 지난 12일 기준 3.843%로 0.53%포인트 낮아졌다. 은행채 6개월물(무보증·AAA) 금리도 같은 기간 연 4.003%에서 연 3.627%로 0.376%포인트 떨어졌다. 정부가 시중은행들에 금리인상을 최소화할 것을 주문하고 있는 것도 영향을 끼쳤다는 분석이다.금융위원회에 따르면 53개 금융사들과 23개 대출비교 플랫폼 업체가 참여하는 대환대출 인프라가 이달 말 가동된다.대환대출 인프라는 토스, 카카오페이 등의 대출비교 플랫폼에서 은행, 저축은행, 캐피탈 등 여러 금융기관 대출상품을 비교해 더 낮은 금리의 상품을 선택한 다음, 연결된 해당 금융사 앱으로 이동해 갈아타는 방식이다.인프라가 가동되면 은행을 직접 방문하지 않고도 전체 신용대출 시장의 90% 이상을 차지하는 19개 은행과 저축은행 18곳, 카드 7곳, 캐피탈사 9곳 등의 신용대출을 더 저렴한 다른 대출로 갈아탈 수 있다. 대환대출 상품은 6개월 이상의 개인 신용대출이 대상이다. 금융당국은 대환대출 인프라가 가동되면 금융사들간 금리 경쟁이 활발하게 이뤄져 자연스럽게 금리를 낮추는 효과가 있을 것으로 기대하고 있다.이에 대해 김주현 금융위원장은 "대환대출 제도 목적에 맞지 않게 소비자에게 과도한 수수료 부담을 지우지 않아야 한다"며 "최근 금융시장의 여러 불확실성을 감안하면 이 제도의 성공적 안착을 위해 세심한 관리와 노력이 필요하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.05.23.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>대환대출 흥행특명 내린 금융당국 “이자부담 경감 성과지표 마련하라”</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002147146?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>31일 플랫폼 오픈 금리경쟁 사활신한銀·네·카·토·핀·뱅 6곳 시작오는 31일부터 시작되는 대환대출 플랫폼을 곧바로 열 수 있는 금융사는 신한은행과 네이버·카카오·토스를 포함해 6곳에 불과한 것으로 나타났다. 그외 플랫폼 기업들은 입점할 제휴처를 찾지 못해 대환대출 서비스를 시작할 수 있을지 조차 불투명한 상황이다.다만, 금융당국은 대환대출 플랫폼이 은행들의 금리인하 경쟁에 불을 붙일 수 있는 불쏘시개 역할을 할 수 있는 만큼 신경을 곤두세우고 있는 것으로 전해졌다. 이와 관련, 대환대출 플랫폼 출시 이후 이자부담 경감 등의 성과지표를 마련해 줄 것도 주문한 것으로 알려졌다.23일 금융권에 따르면 오는 31일 열리는 대환대출 플랫폼 서비스를 시작할 수 있는 은행·핀테크는 신한은행과 네이버·카카오·토스·핀다·뱅크샐러드 등 6곳이다. 최근 핀테크 업계가 즉시 대환대출 플랫폼을 열 수 있는 핀테크사를 자체적으로 조사한 결과 다섯 곳을 제외한 다른 업체들은 제휴처를 찾지 못해 오픈이 거의 불가능한 상황인 것으로 전해졌다. 애초 대환대출 플랫폼이 되겠다고 한 기업은 11곳이 훌쩍 넘었었다.한 핀테크 관계자는 “핀테크의 경우 (금융사와의)제휴가 어떻게 될지 확실치 않은 상황”이라며 “구체적으로 오픈 일자가 나온 곳은 네·카·토·핀 4사 정도인 것으로 파악됐다”고 말했다. 뱅크샐러드의 경우 기한에 맞춰 플랫폼을 열기 위해 밤샘 작업에 돌입한 상황이다.이에 따라 사실상 대환대출 플랫폼이 네이버와 카카오, 토스 등 3각 구도로 경쟁이 펼쳐질 거란 전망이다. 금융위윈회 측도 토스, 카카오 등이 진행중인 사전신청 이벤트 등에 초반 트래픽이 집중되면 인프라에 과부하를 발생시킬 우려가 있다며 특별 관리를 지시한 것으로 전해진다.이에 중소 핀테크 업체들 사이에선 우려의 목소리가 나오고 있다.또 다른 핀테크 관계자는 “대형 금융사가 네·카·토와 제휴맺고 나면 그외 플랫폼에 입점하려 하지 않는다”며 “아예 플랫폼을 오픈할 수 있을지 의문인 상황”이라고 말했다.업계 상황과 상반되게 금융당국은 플랫폼을 대상으로 대대적인 홍보활동을 적극 권장하고 있다. 금융당국이 플랫폼사에 전달한 당부사항엔 “개시일정과 이용방법 등을 정확하고 폭넓게 미리 알림으로써 긍정적 반응과 충분한 흥행을 도모하라”고 돼 있다.당국은 대환대출 플랫폼에 사활을 거는 모습이다. 해외 은행 파산 사태로 은행권 과점 해소를 위한 방안으로 거론된 챌린저 뱅크에 제동이 걸려서다. 이런 상황에서 대환대출 플랫폼은 은행의 금리 경쟁을 유도할 결정적 방법으로 인식된다.금융당국은 지난 11월부터 금융위의 공식 채널을 통해 홍보활동을 펼쳤지만 대중적 인지도가 여전히 부족하다고 판단하고 있다. 금융위는 주요 포털뿐 아니라 금융 인플루언서와 협업해 홍보하는 방안을 검토 중인 것으로 전해진다.플랫폼 업체들도 대환대출 플랫폼 출시 이후 성과지표를 마련해 금융당국에 전달할 방침이다.금융위 측은 플랫폼사를 대상으로 “기존 대출을 직접 낮은 금리로 이동해 이자부담을 낮추는 경우를 중심으로 성과지표를 충분히 마련, 유연 활용하되 은행 간 경쟁 시스템 마련을 통해 전반적인 금리 수준이 낮아지는 등의 효과가 있음을 강조하여 보완하라”고 했다. 홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.05.28.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>KT 대학생 서포터즈, ‘Z세대 트렌드 키워드’ 선정</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/117/0003734018?sid=103</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>[마이데일리 = 구현주 기자] KT는 공식 대학생 마케팅 서포터즈 ‘Y퓨처리스트’가 대학내일20대연구소와 협업해 ‘Z세대(1995년 이후 출생세대) 트렌드 키워드’를 선정했다고 28일 밝혔다.Z세대 트렌드 키워드는 총6가지다.첫째 ‘겟생’은 단순히 열심히 삶을 살아가는‘갓생’에서 더 나아가 잘 놀고 잘 쉬는 것까지 포함해 삶의 조화를 추구하는 삶의 형태를 말한다. 둘째 ‘제로칼로리 캠퍼스’는 캠퍼스 내에서는 시간을 절약하고 에너지를 아끼며 캠퍼스 외에서 다양한 경험을 선호하는 대학 생활을 반영했다. 셋째 ‘왓츠인마이백’은 조용하게 쉬는 ‘힐링’에 더해 내면 마음을 살펴볼 수 있는 공간 트렌드에 주목했다. 넷째 ‘Z-OURNEY’는 Z세대가 핫플레이스를 방문하는 여정을 표현하며 인기 있는 공간이 그 주변으로 확산되는 현상을 짚었다. 일례로 Z세대는 을지로에 놀러 가면서도 주변에 있는 신당동까지 탐색한다.다섯째 ‘잼테크’는 ‘재미’와 ‘재테크’ 합성어로 MZ세대(1980년 이후 출생세대)가 열광하는 토스 등 금융 플랫폼 특징으로 재미를 뽑았다. 지인과 함께 포인트를 받거나, 캐릭터를 공유하고 함께 미션을 수행하는 과정을 재밌게 느끼면서 자연스럽게 재테크로 이어진다.여섯째 ‘쇼트폴리오’는 기존 포트폴리오와는 다르게 온라인 플랫폼에서 가볍게 나를 전시하는 Z세대 특징에 주목했다. Y퓨처리스트 발표 내용은 오는 30일 KT Y SNS(소셜네트워크서비스)와 대학내일20대연구소 온라인 채널에 게시될 예정이다.구강본 KT 커스터머사업본부장 상무는 “트렌드 키워드를 상품 기획과 마케팅에 반영해 Z세대 고객이 원하는 혜택을 적극 제공하겠다”고 말했다.[사진 = KT](구현주 기자 winter@mydaily.co.kr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.05.26.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>"대출 10분 만에 갈아탄다" 네이버·카카오·토스, '대환대출 경쟁' 치열</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000923964?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>사진=이미지투데이 금융권 공동 '온라인·원스톱 대환대출 인프라'가 오는 31일 본격 가동을 앞두면서 네이버파이낸셜·카카오페이·토스·핀다 등 플랫폼사들의 움직임이 빨라지고 있다. 입점 금융사 확대, 금리 추가 인하, 비교 서비스 기능을 강화하며 대출 갈아타기 수요자들을 빠르게 흡수하는 모습이다.26일 금융권에 따르면 오는 31일 '온라인·원스톱 대환대출 인프라'가 개시되면 금융 소비자는 금융회사에서 받은 대출을 영업점 방문 없이  스마트폰 등을 통해 약 10분 만에 유리한 조건의 다른 금융사 상품으로 옮길 수 있다. 대환대출 인프라에는 약 53개 금융사와 23개 대출 비교 플랫폼사가 참여한다.가장 발 빠르게 대환대출 수요 확보에 나선 곳은 토스다. 토스는 지난 10일 대환대출 서비스 '대출 갈아타기' 사전 신청을 시작했으며 2주 만에 신청자 30만명이 몰렸다.토스 대환대출 서비스는 금융기관의 대출 상품을 한눈에 비교할 수 있도록 제공한다. 사용자는 자신에게 가장 유리한 대출 상품을 선택할 수 있으며 대환대출 이후 대출 상환과 신용점수 관리 서비스도 이용할 수 있다.토스는 월평균 1조원 이상의 개인 신용대출 실행을 중개하며 현재 약 50% 이상의 시장 점유율을 보이고 있다. 대출 비교 서비스를 통해 개인 신용대출 플랫폼에서 선보인 노하우를 바탕으로 대환대출 시장에서도 사용자 권익을 높이는 서비스를 선보인다는 계획이다.카카오페이는 플랫폼 중 유일하게 5대 은행과 손잡고 대환대출 서비스를 선보인다. 카카오페이는 그동안 1금융권을 비롯한 다양한 금융사들과 대환대출 서비스 논의를 이어왔다. 그 결과 플랫폼 중 유일하게 KB국민·NH농협·신한·우리·하나은행 등 시중 5대 은행 모두와 협업하게 됐다.카카오페이 관계자는 "대환대출 서비스 제공의 최우선 목적은 사용자의 이자절감 효과 등 편익 제고"라며 "앞으로도 사용자 효익 확대 및 금융 혁신 차원에서 금융당국의 정책 및 지침에 발맞춰 대출 중개 사업을 진행할 것"이라고 전했다.네이버파이낸셜은 이자지원 포인트를 덤으로 얹어준다. '네이버페이 대출 갈아타기' 서비스를 사전 신청하면 이자 부담을 추가로 줄일 수 있는 '이자지원 포인트 티켓'이 제공된다. 티켓의 상세 혜택은 오는 31일 확인할 수 있다.네이버파이낸셜 관계자는 "고금리 시기에 네이버페이에서 더 좋은 조건의 대출로 갈아타고 '이자 지원 포인트 티켓'으로 이자 비용도 지원받아 부담을 한 층 더 줄일 수 있다" 며 "사용자들이 네이버페이를 통해 대출 갈아타기의 혜택을 가장 크게 체감할 수 있도록 준비 중"이라고 말했다.사진=네이버파이낸셜 뱅크샐러드는 모든 대출 상품의 금리를 0.1%포인트 추가로 인하하며 '최저금리'로 승부수를 던진다.뱅크샐러드의 '대출 갈아타기' 서비스는 고객이 대환을 원하거나 추가 대출을 받고 싶을 때 최저금리와 최대한도가 계산된 정보를 바탕으로 이자를 최대로 절약할 수 있는 상품을 추천한다. 대출 갈아타기를 통해 대출 상품에 가입한 사용자에 한해 대출금리를 0.1%포인트 추가로 낮춰 준다.뱅크샐러드 대출 갈아타기 금리 인하 서비스는 이달 출시한 '대출 최저금리 보장 이벤트'를 대환대출까지 확장시킨 개념이다. 뱅크샐러드에 따르면 대출금의 0.1%포인트가 캐시백되는 대출 최저금리 보장제 실시 이후 고객들의 대출 실행 건수는 한 달 만에 40% 이상 증가했다.핀다는 대출 비교 기능을 강화했다. 금리순, 한도순, 상환기간순 등 원하는 조건에 따라 현재 갈아탈 수 있는 금융사의 대출 상품을 자유롭게 비교할 수 있다.아울러 사용자가 선택한 상품들만 모아서 상세하게 비교할 수 있는 '장바구니' 기능, 사용자가 연동한 마이데이터를 바탕으로 가장 갈아타기 좋은 상품을 알려주는 추천 기능도 탑재할 예정이다.이혜민 핀다 공동대표는 "타사가 따라하기 힘든 대환대출 노하우를 담아 서비스를 준비했고 출시 이후에도 더 많은 제휴사와 상품이 빠르게 입점될 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>대환대출 플랫폼 첫날…"이자 절감" vs "상품·정확도 부족"</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002717687?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>"높은 금리 추천" "다중채무자라 거절"일부 혼선에도 3시간 만에 216억 이동금융당국 "조건 비교 범위 지속 확대"금융권의 온라인·원스톱 대환대출 플랫폼이 시행된 31일 오후 서울 시내에 설치된 시중은행들의 ATM기와 카카오페이 대출 비교 서비스 '대출 갈아타기' 화면 모습. ⓒ연합뉴스[데일리안 = 김효숙 기자] 금융사 지점을 방문하지 않고도 스마트폰 애플리케이션을 통해 기존 신용대출을 더 낮은 금리의 상품으로 갈아탈 수 있는 대환대출 플랫폼이 31일 본격 가동됐다. 서비스 시행 첫날, 이용이나 접속은 대체로 원활히 진행됐지만 기존 대출 조회 시스템이 정확하지 않거나 기대보다 대환 상품군이 적어 아쉽다는 목소리도 나왔다.금융권에 따르면 이날 오전 9시부터 네이버페이·뱅크샐러드·카카오페이·토스·핀다 등 대출 비교 플랫폼과 은행 등 금융사 앱 등에서 대출 갈아타기(대환대출) 서비스가 시작돼 오후 4시까지 운영됐다.대환대출 서비스는 기존 신용대출을 가진 차주가 여러 금융사의 대출 상품을 한꺼번에 조회한 후, 더 유리한 조건의 대출 상품이 있다면 해당 금융사 앱으로 이동해 갈아탈 수 있도록 한 서비스다. 금융결제원 망을 통해 기존 대출금은 자동 상환되며 새 대출 계약을 마무리하기까지 15분 내외가 걸린다는 게 금융위원회의 설명이다.40대 차주 A씨는 이날 오전 카카오페이를 통해 유리한 조건의 대출로 갈아탔다. A씨는 "마이데이터로 조회해보니 기존 대출 금리보다 0.9%포인트(p) 낮은 상품이 있어 앱으로 편하게 대환했다"며 "계산해보니 연간 20만원 정도 이자비용을 절감할 수 있을 것 같다"고 말했다.카카오페이 대출 갈아타기 서비스 포스터. ⓒ카카오페이다만 서비스의 완성도를 지적하는 의견도 많았다. 기존 대출이 완벽하게 조회되지 않거나, 이용자들이 몰려 접속 장애가 발생하는 등 크고 작은 불편이 잇따르면서다.저축은행과 캐피탈 등 2금융권 대출 3건을 가진 30대 차주 B씨는 이날 카카오페이, 토스, 핀다를 통해 대환대출을 알아봤지만 기존 보유 계약 3건 중 2건만 조회가 가능했다. 또 특정 플랫폼에서는 다중채무자란 이유로 대출이 거절됐다.B씨는 "플랫폼 세 곳 모두 가진 대출 정보가 정확히 뜨지 않았다"며 "대환대출 통해 이자를 절감할 수 있는 기대도 있었지만 채무통합 원하는 소비자도 있는데 대출이 거절돼 아쉬웠다"고 말했다.현재 플랫폼을 통해 기존 대출 정보를 조회할 수 있는 금융사는 53개로, 여기 포함되지 않은 금융사의 대출을 보유한 차주의 경우 갈아타기 서비스를 이용할 수 없다.기존 대출보다 높은 금리 조건의 상품을 추천하는 사례도 있었다. 8%대 금리 신용대출을 가진 20대 C씨는 "갈아탈 수 있는 상품이 없다고 안내하면 이해하겠지만 지금 대출 보다 한도는 같으면서도 금리가 4%p 높은 상품을 추천받아 황당했다"며 "서비스를 찾는 이용자 대다수가 저금리로 갈아타려는 사람들일텐데 불리한 조건을 추천해주는 시스템이 이해가 안 간다"고 토로했다.이른바 손품을 들이는 수고에 비해 상품 수가 부족하다는 의견도 나왔다. 30대 차주 D씨는 "각 플랫폼마다 제휴를 맺은 금융사 수가 다르다보니 결국 모든 플랫폼 앱을 깔고 조회해봤는데 기대 보다 갈아탈 수 있는 상품이 적었다"며 "한달 뒤 금융사들이 더 입점하면 다시 시도해보려 한다"고 말했다.이날 오전 접속 지연 없이 빠른 속도로 조회가 가능하던 서비스는 오후가 되자 이용자들이 몰리면서 조회 기능이 일시적으로 멈추기도 했다.대출비교 플랫폼 대출 갈아타기 서비스 오류 화면. ⓒ데일리안금융위에 따르면 이날 오전 9시부터 낮 12시 30분까지 대환대출 인프라를 통해 총 834건의 대출이 이동했다. 대환대출을 통해 상환이 완료된 대출금 기준으로 216억원 규모다. 은행에서 은행으로 이동한 사례가 전체의 90%에 육박하는 것으로 나타났다.금융위 관계자는 "일부 금융사를 조회하는 과정에서 응답이 지연되는 경우가 있었지만 점차 시스템이 안정화하면서 오류가 줄고 있다"며 "시스템 안정화와 금융사의 추가 입점에 따라, 플랫폼을 통해 소비자가 비교할 수 있는 대출조건의 범위는 계속 늘어날 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.05.24.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>"이자 비싸네"…앱 열고 10분 만에 더 싼 대출로 갈아타기 끝</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004891033?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>[MT리포트]대출 전쟁 열린다(上)[편집자주] 오는 31일부터 온라인에서 클릭 몇 번으로 더 싼 대출로 갈아탈 수 있는 대환대출 서비스가 세계 최초로 시작된다. 고금리 시대, 더 낮은 이자를 찾아 이동하는 '대출 노마드'가 늘어날 것으로 예상된다. 이들을 정착시키려는 은행을 비롯한 금융회사간 금리 경쟁도 기대된다.━'세계최초' 클릭 몇 번에 싼 대출로 갈아탄다…연 12조 머니무브━클릭 몇 번으로 더 싼 금리의 신용대출로 갈아탈 수 있는 대환대출 서비스가 이달말부터 시작된다. 기존 대출을 갚고, 새로 받기 위해 은행창구를 찾아갈 필요가 없다. 대환대출 인프라 구축은 세계 최초다. 급격한 '머니무브'를 막기 위해 대환 대상은 우선 연 12조원 규모가 될 것으로 전망된다. 23일 금융당국에 따르면 오는 31일부터 '온라인·원스톱 대환대출 인프라'가 도입된다. KB국민·신한·하나·우리·NH농협은행 등 은행 19곳과 저축은행, 카드사, 캐피탈사 등 53개 금융회사가 참여한다. 대환 대상은 담보가 없는 신용대출이다. 참여 금융사는 전체 신용대출의 90% 이상을 차지한다. 대출을 직접 비교하고 갈아탈 수 있는 대출비교 플랫폼에는 금융회사, 빅테크, 핀테크 등 23개 기업이 참여한다. 카카오페이, 네이버파이낸셜, 토스, 핀다 등이 금융회사를 유치하기 위한 치열한 경쟁을 펼치고 있다. 소비자는 대환대출 플랫폼에서 각 금융회사의 대출을 비교하고 대환대출을 신청할 수 있다. 새로운 대출을 제공하는 금융회사가 소비자의 대출금을 대신 상환하고, 소비자는 새 대출을 받는 형식이다. 금융회사 간 상환절차가 금융결제원망을 통해 중계하고, 전산화한 것이 핵심이다. 대환대출 인프라 구축은 세계 최초다. 대출상품을 온라인 비교하는 서비스는 해외에도 존재하나 주요 금융회사 간 대출이 실시간 이동할 수 있는 통합시스템이 이제까지 없었다. 금융당국은 대환대출 인프라를 통해 금융회사 간에 지속적인 금리경쟁이 일어나기를 기대한다. 또 대출정보 부족과 대출이동 불편으로 기존 대출을 유지하는 '잠금효과'가 해소돼 소비자의 선택권이 개선될 것으로 본다. 다만 과도한 '머니무브' 부작용을 최소화하기 위해 대환 대상을 지난해 신규 취급된 신용대출 금액의 10%로 제한했다. 대환대출에 참여하는 금융회사의 지난해 신규 취급액은 약 120조원으로 올해 대환대출 대상은 연 12조원 가량이 될 것으로 전망된다. 월별로 나눠 관리하면 월 약 1조원의 신용대출이 이동할 수 있는 셈이다. 향후 실제 대환 이용 금액, 금융회사·업권 간 경쟁력이 확인되면 대환 대상이 더 늘어날 것으로 예상된다. 이와 함께 대출 쏠림을 막기 위해 중도상환수수료가 없는 신용대출은 6개월에 한 번 대환대출을 이용할 수 있도록 제한할 계획이다. 중도상환수수료가 있는 경우에는 제약 없이 대환이 가능하도록 추진한다. 금융당국은 대출비교 과정에서 발생하는 조회수수료, 중개수수료가 소비자에게 전가되지 않도록 관리·감독할 예정이다. 플랫폼 중개 건수가 일정기간 누적된 이후에는 금융업권별·금융상품별 수수료율을 구체적으로 공시하도록 할 계획이다. 금융당국 관계자는 "연말까지 국민 대다수가 이용하는 주택담보대출도 이동이 가능하도록 인프라를 구축할 예정"이라며 "소비자 편의를 최대한 개선할 수 있는 방안을 마련하겠다"고 말했다. 은행권의 주담대는 약 800조원에 이른다.━ 10분 만에 대출조회부터 갈아타기까지 '한번에'━사진=금융위원회# A저축은행에서 1000만원의 신용대출을 보유하고 있던 30대 직장인 김모씨는 14%의 금리를 적용받고 있었다. 금리 부담이 심해지자 김씨는 평소 자주 쓰던 핀테크 애플리케이션에 접속해 갈아탈 수 있는 대환 상품을 확인했다. 그 결과 자신이 B은행의 8%대 금리 상품을 이용할 수 있다는 사실을 알게 됐다. 앱 내에서 터치 몇 번으로 김모씨는 대출금리를 절반가량 낮췄다. 걸린 시간은 10분 내외였다. 오는 31일 비대면 대환대출 서비스가 실시된 후 펼쳐질 풍경이다. 금융당국은 이 같은 서비스를 가능토록 금융결제원, 53개 금융사, 23개 플랫폼사와 함께 비대면 대환대출 인프라를 구축했다. 이를 통해 앞으로는 한 앱에서 간편하게 대출을 갈아타 이자 부담을 줄일 수 있게 될 전망이다.지금까지는 소비자가 더 낮은 금리로 대출을 갈아타려면 각 금융사에서 일일이 상품별 금리 수준을 확인해야만 했다. 또 어렵게 최적의 상품을 찾았다 하더라도 실제 대환대출을 실행하기 위해서는 금융사의 영업 창구까지 방문해야 하는 번거로움이 있었다. 금융사 직원도 소비자의 대환대출을 위해 새 대출을 해주는 금융사에서 대출을 일으킨 뒤 기존 금융사에 갚는 과정을 하나하나 도맡아야만 했다. 비대면 대환대출 서비스가 시작되면 이런 복잡한 과정들이 한 앱 내에서 즉시 이뤄진다. 소비자는 자신이 이용하는 대출비교 플랫폼에서 본인 명의의 모든 대출을 확인한 뒤, 대환할 대출을 선택할 수 있다. 이후 대환할 대출의 금융회사 간 대출 조건을 비교하고, 갈아탈 대출을 선택할 수 있다. 소비자가 대출을 갈아탈 때 실질적으로 이득을 보는지 확인하기 위한 절차도 마련된다. 예컨대 소비자는 대환 상품의 기본금리와 다양한 조건에 붙는 우대금리 등도 함께 확인할 수 있다. 소비자가 중도상환수수료가 있는 상품을 이용하고 있다면, 갈아타는 시점에 중도상환수수료를 얼마나 내는지도 볼 수 있다. 소비자는 깎이는 이자 수준과 내야 할 중도상환수수료 금액을 비교한 뒤 최종적으로 대출을 갈아탈지를 결정할 수 있다. 같은 소비자더라도 금융사별로 적용받는 대출금리가 다른 이유는 각사의 조달비용과 신용평가시스템(CSS)이 다른 데 있다. 통상 1금융권인 은행이 조달비용이 가장 적어 2금융권인 카드, 캐피탈사, 저축은행 등보다 대출금리가 낮다. 또 최근에는 금융사들이 CSS에 다양한 비금융정보를 접목해 고도화하는 만큼 같은 소비자에 적용되는 금리도 각사별로 제각각이다. 다만, 모든 소비자가 대환대출 서비스를 통해 더 낮은 금리의 상품으로 이동할 수 있는 건 아니다. 이미 최저수준의 금리를 적용받고 있는 소비자의 경우 더 낮은 금리의 대환 상품을 찾지 못할 수도 있다. 소비자는 대출을 갈아타기 전 본인이 주거래은행의 대출을 통한 우대금리 등을 적용받고 있는지도 꼼꼼히 따져볼 필요가 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.05.19.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>“정부가 카드모집인을 부끄러운 직업으로 만들었다”[이코노 인터뷰]</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000045110?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>[카드모집인은 어디로 갔나] ③ 이승수 전국신용카드설계사협회 회장“경품비 제한 부당…온라인 발급, ‘체리피커’ 급증으로 카드사도 수익 악화”당국에 여전법 시정 요청했지만 변화 없어…“벽 보고 얘기하는 듯해”이승수 전국신용카드설계사협회 회장이 줄어드는 카드모집인에 대한 견해를 말하고 있다. [사진 최기원 PD][이코노미스트 윤형준 기자] 신용카드가 아직은 낯설던 1991년, 카드 발급 한 장에 수당 2500원을 받으며 열심히 뛰어다니던 서른한 살 청년은 어느덧 예순셋 주름 깊은 장년이 됐다. 바로 이승수 전국 신용카드설계사협회 회장의 역사다. 당시 ‘한 달만 해봐야겠다’, ‘1년만 더 해보자’ 했던 것이 벌써 32년이 흘렀다.이 회장은 카드모집인(설계사)이라는 직업을 ‘사랑한다’고 말했다. 보험모집인이나 자동차 영업사원들은 대개 가족이나 지인 등 연고로 영업을 하지만, 카드모집인은 연고 없이도 할 수 있는 일이기 때문이다. 그는 일반 시민들도 잘 어필하면 흔쾌히 카드를 사용해주는 것을 보고 많은 성취감과 긍지를 느껴왔다.하지만 이 회장은 어느 순간부터 잘못된 잣대가 자신들을 옥죄어오기 시작했다고 토로한다. 경품비 제한이나 1사 전속주의 등 약 20년간 바뀌지 않은 규제는 물론이거니와 빅테크와 형평성에 맞지 않는 불공정 경쟁이 결국 모집인들을 떠나게 만든다는 것. 지난 19일 ‘이코노미스트는’ 이 회장과 만나 카드모집인이 급감하는 추세에서도 업계 선배로서 역할을 끝까지 다하겠다는 그의 목소리를 들었다.“서민 일자리 뺏는 게 핀테크의 취지인가”이 회장은 ‘연회비 10%’ 경품비 규칙에 대해 입을 열었다. 여신전문금융업법 따르면 카드모집인은 신용카드 연회비의 10%를 초과하는 경품을 제공할 수 없다. 가령 2만원짜리 연회비인 신용카드를 발급한다면 2000원까지만 보상을 줄 수 있는 셈이다.이 회장은 “카드 사태 이후 발급 남발을 막기 위해 시행령을 만든 건데, 문제는 그 당시나 지금이나 국민 1인당 카드 발급 매수가 4.5장 정도로 달라진 게 없다는 것”이라며 “오히려 온라인 발급으로 ‘체리피커’(실속만 빼먹는 소비자)가 늘고 있어 발급 남발을 막자는 취지가 무색해졌다”고 풀이했다.현재 토스, 네이버페이 등 온라인 플랫폼에서 카드를 발급받고 일정 기간 일정 금액을 이용하면 10만원에서 많으면 20만원 가까운 캐시백이 진행된다. 이 회장은 “카드사 입장에서도 처음에는 빅테크에 들어가는 비용이 많지 않았는데 지금은 모집인들을 관리하는 비용만큼 예산이 투입된다고 한다”며 “20~30대가 6개월도 안 돼 카드를 폐기하고 신규 발급받고를 반복하다 보니 카드사에서도 수익이 나질 않는 상황”이라고 설명했다.이 같은 온라인 플랫폼과 경쟁하다보니 모집인들은 ‘울며 겨자 먹기’로 본인의 비용을 들여 신규 고객을 유치할 수밖에 없는 게 현실이다. 이 회장은 “젊은이들이 ‘인터넷에선 16만원 주는데 왜 모집인을 통하면 3만원밖에 안 주냐’는 식으로 요구하다 보면 고스란히 모집인들의 개인 비용이 빠져나갈 수밖에 없다”며 “이로 인해 실질 소득은 줄어드는데도 드러나는 연봉은 많이 받는 것처럼 나타나게 된다”고 설명했다.이어 “빅테크 기업들이 월등한 기술을 갖고 세계에서 경쟁해 글로벌 기업이 돼야 하는데 결국 국내에서 서민들의 일자리를 뺏고 있다”며 “결국 이런 제도 아래에선 모집인들은 ‘범죄자’가 될 수밖에 없다”고 말했다.‘1사 전속주의’도 모집인들의 발목을 잡는 두 번째 족쇄다. 1개 금융사와만 모집업무 위탁계약을 맺어야 하는 ‘1사 전속주의’는 온라인 플랫폼에 대해서는 2020년 규제 완화가 이뤄졌으나, 모집인들은 여전히 규제를 받고 있다. 이 또한 2003년 카드 사태 이후 무분별한 카드 발급을 막기 위한 목적으로 만들어졌다.이 회장은 “카드 발급 남발이 걱정이라면 3개월에 타사 카드 두 장 이상 발급 금지 등의 제한을 두면 될 것”이라고 진단했다.“지킬 수 있어야 법…기울어진 운동장에서 일해”카드설계사협회는 변화하는 시대에 맞춰 카드 모집인에게도 빅테크와 똑같은 잣대를 적용해달라는 요청을 금융당국에 하고 있다. 최소한 보험 모집인처럼 3만원으로 경품비 제한을 늘려줄 필요가 있다는 입장이다. 하지만 이 회장은 금융위원회로부터 돌아오는 답변은 ‘재고해보겠다’가 끝으로 시간이 흘러 다시 찾아가면 담당자는 바뀌어 있기 일쑤라고 토로했다. 그는 “마치 벽이랑 얘기하는 것 같다”고 지적했다. 전국신용카드설계사협회가 지난 2020년 8월 동아일보에 게재한 호소문. [사진 전국신용카드설계사협회]이 회장은 “카드 모집인이 7500명이 있지만 연회비 10분의 1만 고객에게 제공하는 모집인은 거의 없을 것”이라며 “왜 불가능한 것을 정부에서 방관하는지 모르겠다”고 지적했다. 이어 “모집인들은 대부분 고연령층이고 서민인데도 법의 보호를 받지 못하고 오히려 기울어진 운동장에서 일해야 한다”고 덧붙였다.이 회장은 “남들에게 무슨 일을 하고 있냐는 질문을 받으면 ‘카드모집인을 하고 있습니다’라고 말하기 부끄러운 직업을 된 현실이 안타깝다”고 털어놨다. 통념과 다르게 모집인들은 법을 지키고 공정한 영업을 하기 위해 애쓰는 사람들이 많다는 것이다. 그는 정부에서 다시 한번 모집인들의 이런 속 이야기를 귀 기울여주기를 당부했다.그는 이 같은 숱한 어려움에 모집인이 10명, 5명만 남더라도 직업을 계속할 것이라고 전했다. “같은 일을 10년 하면 준전문가, 20년 하면 달인이라고 하듯이 진짜 일 잘 하는 사람은 ‘오래 하는 사람’이라고 생각한다”며 “후배들에게 노하우를 전달할 수 있는 ‘오래 하는 사람’으로 남고 싶다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.05.26.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>사전신청 30만 몰린 ‘대환대출’ 뭐길래…네카토 ‘각축전’</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000045430?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>오는 31일부터 모바일 앱에서 대출 갈아타기 가능54개 금융사·23개 플랫폼 참여…빅테크 3사도 개시(왼쪽부터) 네이버페이, 카카오페이, 토스 CI. [제공 각 사][이코노미스트 윤형준 기자] 모바일 앱에서 간편하게 더 낮은 금리로 대출을 갈아탈 수 있는 온라인 대환대출 서비스가 이달 말부터 시작된다. 서비스 초기부터 이용자를 확보하기 위해 네이버파이낸셜·카카오페이·토스 등 빅테크 회사들은 각자 앱의 편의성과 우수성을 내세우며 적극적인 홍보에 나서고 있다.26일 비바리퍼블리카(토스)에 따르면 대환대출 서비스 ‘대출 갈아타기’ 사전 신청자가 30만명을 넘어섰다. 지난 10일 처음 사전신청을 받은 지 2주 만이다.온라인 대환대출 서비스는 금융당국이 추진해 온 혁신금융의 일환으로 오는 31일부터 선보여질 예정이다. 차주들은 앞으로 새로 대출받을 금융기관만 결정하면 기존처럼 대출이 있는 곳과 새로 받을 곳을 번갈아 방문하지 않아도 되며, 자신에게 가장 유리한 대출 상품을 선택할 수 있어 이자 부담을 줄일 수 있다. 현재 대환대출 인프라에는 약 53개 금융사와 23개 대출비교 플랫폼 업체가 참여하고 있다.토스 관계자는 “금융회사 간 실시간 대출 이동 서비스는 한국이 전 세계에서 처음 시도하는 것”이라며 “토스는 대출비교 플랫폼 1위 사업자인 만큼 이번 ‘대출 갈아타기’ 서비스에도 뛰어난 고객 경험을 제공할 것”이라고 말했다.카카오페이도 대환대출 서비스를 선보인다. 특히 KB국민은행・NH농협은행・신한은행・우리은행・하나은행이 모두 입점한 대환대출 서비스는 카카오페이 ‘대출 갈아타기’가 유일하다. 현재 카카오톡이나 카카오페이앱에서 사전신청이 가능하다.카카오페이 관계자는 “대환대출 서비스 제공의 최우선 목적은 사용자의 이자절감 효과 등 편익 제고”라며 “앞으로도 금융당국의 정책과 지침에 발맞춰 대출 중개 사업을 진행할 것”이라고 전했다.네이버페이를 운영하는 네이버파이낸셜의 경우 ‘네이버페이 대출 갈아타기’ 개시를 예고하며, ‘전 국민 이자 지원 이벤트’ 사전신청 접수를 시작했다. 네이버페이에서 대출을 갈아타는 모든 이용자들에게 ‘이자 지원 포인트 티켓’이 제공될 예정이며, 이벤트 페이지에서 미리 티켓을 신청할 수 있다.네이버파이낸셜 관계자는 “네이버페이서는 이자 비용도 지원받아 부담을 한 층 줄일 수 있다”며 “대출 갈아타기의 혜택을 크게 체감할 수 있도록 준비 중이다”고 말했다.핀다도 대환대출 서비스 사전신청을 받고 있다. 핀다에 따르면 사전신청에 하루 평균 4000여 명이 몰릴 정도로 대기 수요가 높다. 뱅크샐러드의 경우 대환대출 서비스의 모든 대출 상품의 금리를 0.1%p 추가 인하 지원키로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.05.16.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>[단독] ‘해외여행 특수’ 트래블월렛, IPO 채비… 글로벌·B2B로 유니콘 도전</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001608762?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>여러 증권사와 ‘IPO 주관사 선정’ 사전 협의B2B 지불결제서비스, 하반기 실적 반영 기대해외여행 수요 회복에 힘입어 핀테크 스타트업 트래블월렛이 기업공개(IPO)를 위한 준비에 착수했다. 여행용 선불카드 트래블페이 사용량이 급증한데다 기업 대상 지불 결제 서비스를 시작하며 성장에 대한 자신감을 얻었다는 평가다. 트래블월렛은 타깃 시장을 글로벌로 확장하며 토스 이후 명맥이 끊겼던 핀테크 유니콘(기업가치 1조원 이상의 비상장 스타트업)에 도전할 계획이다.15일 투자은행(IB) 업계에 따르면 트래블월렛은 최근 IPO 주관사 선정을 위해 복수의 증권사와 사전 협의를 마쳤다. 이르면 하반기 중 입찰제안요청서(REP)도 발송할 예정이다. 트래블월렛에 투자한 벤처캐피탈(VC) 관계자는 “올해는 영업이익 흑자가 예상되며 본격적인 성장 궤도에 오를 것으로 보인다”고 말했다.트래블월렛은 외화 충전식 선불카드 ‘트래블페이 카드’의 운영사다. 앱을 이용해 38개 외화를 미리 충전하면 전 세계 1억 곳의 온·오프라인 비자(VISA) 가맹점에서 이용할 수 있다. 달러, 유로, 엔화 등 주요국 통화의 환전 수수료는 무료다. 평균 2.5%에 달하는 해외 결제 수수료도 없다. 해외 결제 시 부가 비용을 고려하지 않아도 된다는 점 때문에 최근 해외여행 예정자들 사이에서 인기다.코로나19 사태 종료 후 해외여행 수요가 늘며 실적도 가파른 성장세다. 트래블페이 카드의 거래액은 출시 첫 해인 재작년 94억원에 불과했지만 지난해엔 2100억원을 기록했다. 올해는 1분기에만 2460억원으로 급증했다. 이 기간 신규 페이먼트 발급자수는 53만명으로 지난해 전체 발급자수(54만6000명)와 맞먹는다.올해는 트래블페이뿐 아니라 클라우드 기반의 B2B(기업 간 거래) 지불결제 서비스로 사업 영역을 확장한다. 대상은 글로벌 기업들이다. 하반기부터는 기업 대상 지불 결제 서비스 매출이 반영될 전망이다. 현재 트래블월렛의 주요 수익원은 해외 결제에 따른 가맹점 수수료로, 1분기에만 40억원의 매출을 올려 지난해 전체 매출(약 27억원)을 훌쩍 넘어섰다.김형우 트래블월렛 대표는 국민일보와의 통화에서 “기업들이 국제 정산과 관련해 필요로 하는 지불 결제 인프라 및 솔루션이 향후 주력 사업이 될 것”이라며 “하반기가 돼야 확실해지겠지만 매출액 300억원 이상, 영업이익 흑자 전환은 맞출 수 있을 것”이라고 말했다. 그러면서 “지불 결제 사업은 결국 데이터 처리가 핵심인데 트래블페이를 운영하며 충분한 노하우를 쌓았다”고 강조했다.시장 안팎에서 보는 트래블월렛의 기업가치는 현재 2000억~4000억원 수준이다. 지난 3월 시리즈C 투자를 진행했는데 197억원 모집에 600억원이 몰렸다. VC업계 불황에도 사업 모델의 다변화, 가파른 성장세로 주목을 받았다는 후문이다. 당시 인정받은 기업가치를 공개하지는 않았으나 시장 관계자들은 1600억원 수준으로 추정하고 있다. 트래블월렛은 IPO를 앞두고 글로벌 지불 결제 서비스를 궤도에 올려 유니콘 기업으로 인정받겠다는 계획을 세운 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.05.24.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>카카오뱅크도 ‘매일 이자’···파킹통장으로 다시 맞붙는 인터넷은행</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003225544?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>인터넷은행 로고. 각사 제공인터넷전문은행 토스뱅크와 케이뱅크에 이어 카카오뱅크도 ‘매일 이자’ 서비스에 가세했다. 저원가성 예금인 ‘파킹통장(수시입출식 통장)’ 고객을 유치하려는 인터넷은행의 경쟁이 뜨겁다.카카오뱅크는 24일 자사 파킹통장인 ‘세이프박스’에 대해 ‘이자 바로 받기’ 서비스를 시작한다고 밝혔다. 종전까지 카카오뱅크는 한 달에 한 번 세이프박스 예금에 이자를 지급했다.카카오뱅크는 “고객이 이자 수령을 원할 때 카카오뱅크 애플리케이션(앱)에 접속해 어제까지 쌓인 이자를 조회한 뒤 ‘받기’ 버튼을 누르면 바로 이자를 받을 수 있다”고 말했다.이자를 매일 받는 서비스는 지난해 3월 인터넷은행 3사 중 토스뱅크가 최초 출시했고, 케이뱅크가 올해 1월 합류했다. 카카오뱅크까지 해당 서비스를 개시하면서 3사가 대등하게 경쟁하게 됐다.카카오뱅크 제공3사가 매일 이자를 주는 세이프박스, 플러스박스(케이뱅크), 토스뱅크 통장은 수시입출식 통장이지만 일반적인 보통예금(연 0.1%)보다 금리가 높다. 이날 현재 카카오뱅크는 해당 통장에 세전 연 2.4%, 케이뱅크는 2.6%, 토스뱅크는 최고 2.8%(5000만원 이하는 2%)의 금리를 제공하고 있다.하지만 이들 상품은 정기 예·적금(연 3~5%)보다 금리가 낮아, 은행으로선 이자 비용이 비교적 적게 든다. 전체 수신 잔액 중에서 이런 저원가성 예금의 비중이 클수록 은행의 예대금리차(대출금리-저축성수신금리)가 커지고 이자 이익이 늘어날 수 있다.카카오뱅크의 경우 지난 1분기 저원가성 예금의 비중이 56.8%으로, 전체 은행권(39.4%)에 비해 현저히 높았다. 수신 잔액 40조2000억원 중 22조9000억원이 세이프박스, 모임통장 등 저원가성 예금이다. 증권가에선 카카오뱅크가 지난 1분기 깜짝 실적(순이익 1019억원)을 기록한 배경 중 하나로 저원가성 예금 비중이 높다는 점을 꼽았다.시중은행 정기예금 금리가 3%대로 떨어져 인기가 시들해지고, 투자 기회를 기다리는 대기성 자금이 늘어나는 것은 파킹통장 서비스를 강화한 인터넷은행에 호재가 될 것으로 보인다. 대기성 자금이 파킹통장으로 유입될 가능성이 있다. KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 지난달 정기예금 잔액은 805조7827억원으로, 지난해 말보다 12조6539억원 줄었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.05.18.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>토스뱅크 굴비 적금, 짠테크 통했다… 출시 한달 만에 30만좌 돌파</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000921742?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크  토스뱅크는 지난달 선보인 '굴비 적금'이 한달여 만에 30만좌를 넘어섰다고 18일 밝혔다.고객들이 저금하는 과정에서 느낄 수 있는 재미요소에 주목한 결과 하루 평균 1만명이 몰리는 등 높은 호응을 이끌어내고 있다.토스뱅크에 따르면 지난 한달간 '굴비 적금'에 가입한 고객들은 가입 후 횟수 제한 없이 1원 이상 자유롭게 저금할 수 있는 부분에 재미를 느끼는 것으로 나타났다.최근 한달간 가장 많이 입금한 고객은 총 338번에 걸쳐 입금하며 하루 열 번 이상 '굴비 적금'을 찾았다. 저금이 이뤄질 때마다 '밥상' 위의 반찬들이 풍성해지는 것을 보며 고객들이 게임을 하는 것과 같은 성취와 만족감을 느낀 것으로 토스뱅크는 분석했다.'굴비 적금'은 고객이 입금할 때마다 천장 위에 매달려 있는 굴비가 밥상으로 조금씩 내려오는 '이색 적금'이다. 고객이 5번 이상 저축하면 굴비가 밥상에 도달해 고객들이 원하는 반찬을 하나씩 추가할 수 있다.'굴비 적금' 금리는 최고 연 5.0%(세전)로 기본금리 연 2.0%에 연 3.0%포인트 우대금리가 최대 적용된다. 별다른 조건 없이 6개월 만기까지 유지할 경우 자동으로 우대금리가 적용되는 구조다.'굴비 적금'은 MZ세대는 물론 전 연령대에서 호응을 얻고 있다. 가입 연령대를 분석한 결과 40대(26.0%)가 가장 많았고 20대(24.5%), 30대(23.2%), 50대 이상 (20.6%), 10대(17세 이상, 5.7%) 순을 이뤘다.토스뱅크 관계자는 "'굴비 적금'을 통해 돈 모으는 과정의 즐거움을 새로운 고객 분들께서도 경험할 수 있도록 이번 이벤트를 준비했다"고며 "토스뱅크는 앞으로도 고객 친화적인 상품과 서비스를 제공하는데 최선의 노력을 다하겠다"고 말했다.한편 '굴비 적금' 가입 기간은 6개월 만기로 1인 1계좌에 한하여 가입할 수 있다. 최초 가입 금액은 0원으로 설정해 보다 많은 고객들이 편하게 가입할 수 있다. 납입한도는 매달 최대 30만원까지며 한도 내에서 횟수 제한 없이 자유롭게 납입할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>"싼 이자에 대출 뺏고 뺏긴다" 대환대출 플랫폼 내일 출격</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000924342?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>대환대출 서비스가 오는 31일부터 시작된다./사진=이미지투데이 대출자들이 핀테크사 플랫폼 등을 통해 원스톱으로 대출을 갈아탈 수 있는 '대환대출' 서비스가 내일(31일) 본격 출시한다. 대출자들이 대환대출 인프라를 통해 고금리 속 대출금리 인하 효과를 얼마나 볼 수 있을지 관심이 쏠린다.30일 금융권에 따르면 금융위원회는 오는 31일 대환대출 인프라를 본격적으로 가동한다.이번 대환대출 인프라에는 은행 19곳, 저축은행 18곳, 카드 7곳, 캐피탈사 9곳 등 금융사 53곳과 토스·카카오페이·네이버파이낸셜 등 23개 대출비교 플랫폼 업체가 참여한다.대환대출은 하나의 플랫폼에서 클릭 몇 번만으로 기존 대출을 금리가 더 저렴한 다른 대출 상품으로 갈아탈 수 있는 서비스를 말한다. 여러 금융기관의 대출 상품을 한눈에 비교해 자신에게 가장 유리한 대출 상품을 선택할 수 있어 이자 부담을 줄일 것으로 기대된다.플랫폼을 통해 대환대출이 이뤄지다 보니 고객으로선 새로 대출받을 금융기관만 결정하면 기존처럼 대출이 있는 곳과 새로 받을 곳을 번갈아 방문하지 않아도 된다는 장점이 있다.기존에는 차주가 기대출을 상환하고 타 대출로 옮기기 위해선 영업점을 방문하거나 유선 연락을 통해 확인 서류를 전달해야 하는 번거로움이 있었지만 대환대출 인프라가 가동되면 터치 몇 번만으로 은행 등을 직접 방문하지 않고도 대출을 갈아탈 수 있다.대환대출 인프라가 활성화되면 금융사 간 대출 금리 경쟁이 확산할 것으로 보인다.소비자들이 한눈에 금리 수준을 비교할 수 있으며 금융사들은 고객 이탈을 막거나 유치를 위해 대출금리를 내릴 수밖에 없는 구조로 대환대출 인프라가 운영되기 때문이다.다만 대환대출 대상은 담보가 없는 신용대출로 한정된다.금융당국은 우선 6개월 이상의 개인 신용대출을 대상으로 대환대출 서비스를 시작한 뒤 올해 12월부터 주택담보대출로 대환 대상을 확대할 예정이다.주택담보대출 대환대출은 부동산 등기이전 등이 부가절차가 필요하다는 설명이다. 6월부터는 다수 금융사의 금리를 비교해 예·적금 상품에 가입할 수 있는 '온라인 예금상품 중개서비스'도 출시될 예정이다.━고객 쟁탈전 '활활'… 전용 상품 출시에 금리 인하까지━금융사에선 이미 고객 쟁탈전에 돌입한 모습이다. KB국민은행과 신한은행, 하나은행은 대환대출 인프라 전용 상품을 출시할 계획이다.기존 비대면 신용대출 상품을 리뉴얼해 금리를 내리거나 한도를 올리는 등 우대조건 기준을 낮춰 경쟁력을 높일 것으로 보인다.우리은행은 기존 다른 은행 대출을 자사 대출로 갈아타는 고객에게 6월 말까지 중도 상환해약금과 인지세 등 대출 거래 비용을 최대 10만원까지 지원하기로 했다.핀테크사도 대환대출 유치에 적극적이다. 우선 카카오페이는 핀테크 사 중 유일하게 5대 시중은행(KB국민·신한·하나·우리·NH농협은행)을 모두 입점시켰다.지난 10일 사전 신청을 받기 시작한 토스의 경우 2주 만에 30만명이 넘는 신청자가 몰렸다. 네이버파이낸셜은 '네이버페이 대출 갈아타기' 개시를 예고하며 '전 국민 이자 지원 이벤트' 사전 신청 접수를 시작했다. 네이버페이에서 대출을 갈아타는 모든 이용자에게 '이자 지원 포인트 티켓'을 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.05.19.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>'뒤처진 퍼스트무버' 우리금융의 새로운 도전</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000016434?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>창간10주년기획[DX인사이트] '디지털 최초' 다수 보유했지만…추억 속 영광'공급망금융 플랫폼' 기업금융서도 혁신 가속작년 이후 '재도약' 데이터·AI로 '초개인화' 집중'핀테크(Fintech)'란 신조어가 쓰인 지도 벌써 10여년이다. 금융과 정보통신(IT) 기술의 융합으로 금융환경이 180도 바뀌리라는 게 화두였다. 자연스럽게 금융회사의 '디지털 전환'은 생존을 위한 핵심 경영전략으로 자리 잡았고 금융회사들은 앞다퉈 정보통신 기술이 융합된 새로운 서비스를 내놓기 시작했다. 새로운 서비스는 시도하는 자에게만 허락된다. 하지만 위험부담도 뒤따른다. 성공이 담보되지 않아서다. 특히 새로운 도전에는 적지 않은 비용과 인력이 소요된다. 성공하지 못한다면 그 후폭풍은 만만치 않다. 새로운 시도가 어려운 이유이자, 이를 감행하는 주체가 '선구자'로 칭송받는 이유다.금융권에서는 이런 위험부담을 지고도 가장 적극적으로 새로운 시도를 한 곳이 우리금융지주다. 금융과 디지털이 이제 막 융합됐던 10여년 전에도 그랬고 지금도 그렇다. 5월2일부터 5일까지 인천 송도에서 열린 ADB 연차총회 현장에 우리금융지주가 마련한 '우리원비즈' 플랫폼 전시장/사진=우리금융지주 제공빛바랜 '과거'의 영광우리금융지주의 전신인 우리은행은 디지털 기술을 접목한 다양한 시도를 국내 금융권에서 가장 먼저 해왔다. 이 중 일부는 이제 시중은행 모두가 제공하는 서비스로 자리 잡았다. 하지만 '타율'은 높지 않다. 냉정하게 말해 성공 사례보다 실패를 찾기가 더욱 쉽다. 가장 먼저 도전에 나섰지만 현시점에서 디지털 경쟁력이 앞서 있다고 보기도 어렵다는 평가가 지배적이다.모바일 뱅킹의 청사진을 처음 그린 것이 바로 우리은행이다. 이제는 모든 은행의 최대 고객 접점이 된 플랫폼 형태 최초의 모바일 뱅킹이 바로 우리은행의 '위비뱅크'였다. 우리은행은 이를 바탕으로 금융권 최초 모바일 주택 관련 대출, 소상공인 대출, 간편해외송금 등의 서비스를 연달아 선보였다.금융서비스에만 국한한 것도 아니었다. 플랫폼으로의 진화를 위해 금융권 최초의 모바일 메신저인 '위비챗'도 선보였고 결제 데이터가 다량 확보된다는 점에 착안해 금융권 최초의 오픈마켓인 '위비마켓'도 선보였다. 디지털을 통한 금융과 비금융의 결합은 물론, 이를 하나의 '플랫폼'으로 선보이는 방식을 이미 활용했던 셈이다. 하지만 시계를 현재로 돌려보면 높은 점수를 받기 어렵다. 최초 모바일 뱅크였던 '위비뱅크'는 이제 역사 속으로 사라졌다. '위비챗'도 '위비마켓'도 이제는 서비스가 사실상 중지됐다. '위비'라는 수식어로 설명 가능했던 '최초'의 영광은 이제 과거의 추억이 됐다. 우리금융의 디지털 혁신을 총괄하고 있는 옥일진 우리금융지주 디지털IT부문 전무는 "최초라는 도전은 좋았지만 고객의 눈높이에 맞지 않았던 부분이 있었다"며 "그 당시에는 서비스를 제공하기 위한 역량이 테크기업 등에 비해 부족했던 부분도 있었다"라고 당시를 분석했다. 그렇다고 해서 우리은행의 도전을 '과욕'이었다고 평가할 수 있을까?우리은행과 우리금융지주라는 회사에서 큰 성과는 거두지 못했지만, 금융산업 전반에 혁신의 계기가 됐다는 점은 간과할 수 없다. 이젠 모든 은행이 플랫폼 형태의 모바일 뱅킹 서비스를 제공하고 있으며 아예 이를 뼈대로 삼은 인터넷전문은행까지 자리 잡았다.메신저 서비스도 이제는 인공지능(AI) 기술이 결합한 챗봇 서비스로 발전했다. 다양한 은행들이 이를 고객과의 소통창구로 활용하고 있다. 간편 모바일 송금 서비스는 은행은 물론 핀테크 기업까지 진출했고, 새로운 비이자 이익 수익원으로도 떠오르고 있다. /그래픽=비즈워치재도약 기틀 잡고 다시 '최초'로우리금융은 과거의 경험을 발판 삼아 새로운 변화에 맞설 태세를 갖추고 있다. 우리금융지주는 지난 2018년 회현동 우리은행 본점 인근 남산센트럴타워(현 우리금융디지털타워)에 디지털전략을 펼칠 인원들을 한데 모은 둥지를 마련했다.단순히 '이사'만 한 것이 아니다. 수평적인 분위기에서 아이디어가 샘솟을 수 있게 조직문화도 수년에 걸쳐 바꿔왔다. 실무 부서 바로 옆 사무실에 회장 전용 사무실을 만들어 둔 것도 직급과 계급에 상관 없이 언제든 '아이디어'를 내놓을 수 있는 분위기 조성을 위해서였다. 성과도 나오기 시작했다. 한동안 소식이 없었던 디지털 금융 '최초' 타이틀을 다시 하나둘 따냈다. △금융과 공공 데이터를 연계한 건강보험 납부내역 조회 서비스 △행정안전부 모바일 운전면허증 활용 실명확인 서비스 △개인형 퇴직연금(IRP) 비대면 계좌 전환 등이 대표적이다.특히 우리은행은 글로벌 공급망 붕괴로 어려움에 부닥친 중소기업을 돕기 위해 공급망금융 플랫폼도 금융권 최초로 출시했다. 이 서비스는 중소·중견기업의 운전자금 지원 등 금융서비스와 원자재 조달, 제품 생산·유통·판매까지 전 구매서비스를 한 번에 처리할 수 있는 플랫폼이다. 금융권서 보기 드문 기업금융에서의 디지털 혁신이다.이 서비스는 이달 초 인천 송도에서 열린 ADB(아시아개발은행) 연차총회에 전시돼 전 세계 금융권 인사들에게 우리금융의 디지털 저력을 알렸다. 15일 옥일진 우리금융지주 디지털IT부문 전무가 비즈워치와 인터뷰에서 우리금융지주의 디지털전환 전략에 대해 설명하고 있다. /사진=곽정혁 pd새로운 시작…방점은 '초개인화'우리금융 내부에서는 지난해를 기점으로 디지털 전환이 새 전환점을 맞았다고 보고 있다. 모바일 뱅킹 서비스를 중심으로 금융 서비스의 대고객 접근성을 높인 것이 '디지털 1.0'이라면 이제는 금융 소비자에게 초개인화된 서비스를 제공하는 기업이 살아남는 '디지털 2.0' 시대로 접어들었다는 분석이다.옥일진 전무는 "금융소비자가 편리하게 금융서비스를 누릴 수 있게 된 것이 우리나라 금융에서의 디지털 1.0이었다"며 "과거에는 매우 뒤처져 있는 수준이었지만 매우 빠른 속도로, 세계에서 내로라할 정도로 수준이 올라왔다"고 말했다. 이어 "디지털 2.0부터는 말로만 하던 초개인화 된 서비스 부분에서 각축전이 벌어질 것"이라며 "바로 이 부분에서 1~2년 사이에 금융회사 간 격차가 나타날 것"이라고 강조했다. 디지털 2.0의 변화를 이끄는 것은 지난해 본격화한 마이데이터 사업이다. 고객이 보유하고 있는 다양한 데이터를 금융회사가 활용할 수 있게 됐기 때문에 모든 금융회사가 추구하는 '내 손안에 작은 비서'를 구현할 기반이 마련됐다는 이유에서다. 옥 전무는 "앞으로의 초개인화 서비스는 고객이 묻지 않아도 알아서 원하는 금융서비스를 제공할 수 있어야 한다"며 "그리고 이 과정에서는 인공지능 기술이 접목돼야 한다"고 설명했다. 이어 "금융회사는 전 산업을 둘러봐도 활용가능한 데이터를 가장 많이 쌓아둔 업권"이라며 "이 데이터를 적재적소에 활용하고 이를 자동으로 분류하는 인공지능 기술을 더해 우리금융지주의 디지털 경쟁력을 끌어올릴 것"이라고 강조했다.옥일진 전무 "DX, 금융 서비스의 질 높였다"- 금융권의 디지털 전환이 우리 삶을 어떻게 바꾸어 놨다고 보는가▲ 사실 금융권은 일찌감치 전산화하면서 디지털 전환의 시작을 매우 일찍 했다. 다만 최근 인터넷전문은행의 등장 등 금융환경이 변화하면서 금융소비자가 누릴 수 있는 서비스의 질이 바뀌게 된 것이 중요하다. 특히 마이데이터 산업이 본격적으로 시작되면서 과거 일부 고액 자산가 고객에게만 제공되던 서비스들을 모든 고객이 활용할 수 있게 됐다. 질 높은 금융서비스가 대중적으로 제공될 수 있도록 하는 촉매제 역할을 한 것이 금융의 디지털 전환이 가장 크게 기여한 부분이라고 본다. - 보수적인 금융회사가 기업 문화까지 바꿔가며 디지털 전환에 사활을 걸고 있다▲ 기업가치를 보면 알 수 있다. 카카오뱅크, 토스 등이 금융지주사보다도 기업가치가 높았던 적이 있다. 기업은 투자자와 주주들이 원하는 가치를 내야 하는데 현재 시장이 원하는 것이 금융회사의 디지털 전환이다. 이와 동시에 2030세대, 10대 등이 디지털 환경에 매우 익숙하다. 이들은 곧 미래 핵심고객이다. 이들에게서 경쟁력을 끌어내지 못하면 전통적인 금융회사라도 생존할 수 없다. 디지털 전환이 없다면 서서히 죽어갈 뿐이라고 본다. - 디지털을 접목한 금융서비스라고 해도 새로운 것은 점점 드물다▲ 이미 매우 상향평준화 된 상황이다. 고객에게 편리함과 효용을 주는 부분은 세계에서도 매우 앞선 수준이다. 이제는 새로운 것을 준비해야 하는 시점이다. 변화하는 시기다. 말로만 하던 초개인화 서비스를 제공해야 한다. 이러한 변화는 앞으로 1~2년 빠르게 나타날 것이다. - 우리금융지주는 어떤 것을 준비하고 있는가▲ 초개인화된 서비스를 제공하기 위해서는 금융회사가 보유하고 있는 다양한 데이터를 활용할 수 있어야 한다. 그리고 이는 사람이 하는 것이 아닌 인공지능이 해야 한다. 금융 플랫폼 안에서 고객에게 필요한 것이 어떠한 것인지 고객이 원하지 않더라도 먼저 알아서 해답을 내놓을 수 있는 서비스를 제공할 수 있도록 하려고 한다. 현재 이를 위해서 데이터 가공능력, 인공지능 기술 향상에 집중하고 있다. 이와 동시에 우리은행 모바일 뱅킹 서비스 '우리WON뱅킹'의 MAU(월간활성화 사용자 수) 등 극대화를 위한 노력도 진행 중이다. 앱을 활용하는 트래픽이 늘어난다는 것은 고객에게 필요한 서비스를 적시에 제공한다는 의미도 있지만 새로운 사업을 펼쳤을 때 새로운 수익원으로 이어질 수 있는 기회가 늘어난다는 부분도 존재한다. 플랫폼으로의 경쟁력도 추구한다. 금융업이 추구하는 플랫폼이 다른 플랫폼과 다른 속성을 가지고 있다는 점도 고려하고 있다. 금융업은 신뢰, 안정, 정확과 같은 속성을 가지고 있다. 이 부분에서 고객이 원하는 종합적인 솔루션을 내놓는 것이 핵심기술(코어)이 될 것이다. 다양한 금융 서비스를 따로 기다리지 않고 제공받을 수 있는 플랫폼을 만들고자 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.05.17.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>토스모바일, SKT 통신망 요금제 출시...“3사 망 모두 연동”</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002713563?sid=105</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>프로모션 오는 22일까지...세달간 데이터 71G 요금제 9700원토스모바일은 SK텔레콤 통신망 요금제를 출시했다고 17일 밝혔다. ⓒ토스[데일리안 = 민단비 기자] 토스모바일은 SK텔레콤 통신망 요금제를 출시했다고 17일 밝혔다. 지난해 10월 비바리퍼블리카(이하 토스)의 자회사로 편입된 토스모바일은 지난 2월 전국 오픈 당시 KT와 LG유플러스 망 요금제를 출시한 데 이어 SK텔레콤 망 연동 상품까지 선보이며 라인업을 확대했다.SK텔레콤 통신망 요금제 상품 출시를 기념한 프로모션은 오는 22일까지 진행된다. 토스모바일 SKT 망 요금제 가입 고객이라면 누구나 할인가격을 누릴 수 있다.이달 말까지 월 데이터 사용량 71G 요금제의 경우 3개월간 9700원에 서비스를 이용할 수 있다. 데이터 무제한 요금제 가입자들이 선호하는 100G 요금제도 월 4만원 할인(월 1만9800원) 기회를 제공한다.이와 함께 이달 말까지 추가 데이터 제공 이벤트도 진행한다. 100G와 71G 요금제 고객에게는 24개월 간 매달 150G 추가 데이터를 제공하며 15G 요금제 가입자에게도 50G 데이터를 매달 추가로 준다.이번에 가입이 가능한 요금제는 앞서 출시된 바 있는 4종으로 ▲100GB 데이터 기본제공에 데이터, 통화, 문자 무제한(5만9800원) ▲데이터 71GB 기본, 데이터·통화·문자 무제한(5만4800원) ▲데이터 15GB 기본, 통화 100분·문자 100건(3만5800원) ▲ 데이터 7GB 기본, 데이터·통화·문자 무제한(2만4800원) 등이다.토스모바일 관계자는 “이번 SK텔레콤 망 연동을 통해 토스 고객들에게 좀 더 많은 통신 요금제 선택지를 드리게 됐다"며 “이번 오픈 프로모션을 계기로 좀 더 많은 토스 고객들이 토스모바일 가치를 느끼시길 바란다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>31일부터 대환대출 서비스 시작…15분이면 갈아탄다</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003775014?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>대출비교 플랫폼이나 갈아탈 금융회사 앱에서 이용 가능김소영 금융위원회 부위원장이 30일 오전 서울 정부서울청사 합동브리핑실에서 온라인·원스톱 대환대출 인프라 개시 관련 브리핑을 하고 있다. 금융위원회 제공오는 31일 출시되는 '대출 갈아타기 서비스'는 영업점을 방문할 필요 없이 스마트폰을 이용해 누구나 이용할 수 있다. 대출비교 플랫폼과 개별 금융회사 앱을 통해 클릭 몇 번이면 기존 대출 원리금부터 중도상환 수수료까지 간편하게 확인할 수 있다. 우선 개인 신용대출을 대상으로 운영되고 연내 주택담보대출로 확대될 예정이다.30일 금융위원회에 따르면, 대출 갈아타기 서비스를 이용하기 위해서는 애플 앱스토어나 구글 플레이 스토어에서 대환대출 서비스 제공 앱을 설치받아야 한다.대환대출 서비스란 소비자가 과거에 받은 대출을 더 나은 조건의 다른 금융회사 대출로 쉽게 옮겨갈 수 있는 서비스다. 옮겨가고 싶은 새 금융회사에 대출을 신청하면 기존 대출은 금융회사 간 대출이동시스템을 통해 안전하고 신속하게 옮겨진다.스마트이미지 제공대출 갈아타기가 가능한 앱은 크게 대출 비교 플랫폼 앱(네이버페이, 뱅크샐러드, 카카오페이, 토스 등)과 주요 금융회사 앱(NH농협은행, 신한은행, 우리은행. KB국민은행, 하나은행 등) 등 2가지가 있다.여러 금융회사의 상품을 한꺼번에 비교하기 위해 대출 비교 플랫폼 앱을 이용할 수 있다. 앱을 실행한 뒤 '대환대출 서비스' 항목을 선택하고 본인 인증을 완료하면 기존에 받은 대출 금리, 갚아야 할 금액 등을 확인할 수 있다.이때 '마이데이터 서비스'에 가입하지 않은 경우 자동으로 가입 절차로 이동하게 된다. 기존 대출 정보를 불러오기 위한 것이다. 이미 가입한 경우라면 본인이 기존에 받은 대출의 금리, 갚아야 할 금액 등을 바로 확인할 수 있다.기존 대출 정보를 확인했다면 다른 금융사로 바꾸고 싶은 대출을 선택한 뒤 본인의 소득과 직장, 자산 정보 등을 정확히 입력할 순서다. 이후 본인이 갈아탈 수 있는 금융회사와 대출상품 등이 조회되는데 금리, 한도 등 원하는 조건별로 정렬해 비교할 수 있다.금융위원회 제공갈아탈 대출상품을 선택하면 변동·고정금리 여부, 상환방식 등을 조회할 수 있다. 또 급여이체, 카드실적 등 우대조건을 입력하면 해당 대출에서 적용받을 수 있는 우대금리도 확인 가능하다.그런 다음 기존 대출을 갚을 때 내야 하는 중도상환수수료를 확인하는 절차를 거쳐야 한다. 대출 유지 기간에 따라 수수료 부담이 대출 갈아타기를 통해 아낀 이자보다 클 수 있기 때문이다.모든 정보를 감안해 새 대출을 최종 선택하면 이동하려는 금융회사 앱을 통해 대출 계약이 진행된다.신진창 금융위 금융산업국장은 "대출 상품의 금리를 비교하고 추천하는 과정까지는 기존 플랫폼들이 해오던 것"이라며 "그러나 대환대출 플랫폼의 핵심은 금융회사 앱에 가서 새 대출을 받고 종전 대출은 자동으로 상환할 수 있다는 것"이라고 설명했다.플랫폼 이용 시 앱 설치부터 마이데이터 가입과 계좌 개설(대출금 받기 위한 용도) 등을 모두 포함해 대략 15분 이내 갈아타기가 완료된다. 금융위 관계자는 "과거 소비자가 금융회사 두 곳의 영업점을 방문하며 최소 2영업일을 기다려야 했던 불편을 크게 개선한 것"이라고 강조했다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.05.20.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>[현장] 뜨거운 ‘블루 아카이브’ 한국 1.5주년 페스티벌…“이용자가 주인공”</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002148879?sid=105</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>20일 고양 킨텍스서 블루 아카이브 첫 단독 오프라인 행사 개최…즐길거리 한가득국내 정식 서비스 1.5주년을 맞은 블루 아카이브 첫 단독 오프라인 행사 ‘블루 아카이브 1.5주년 페스티벌’이 20일 경기도 고양시 킨텍스에 열렸다.[디지털데일리 왕진화 기자] “블루 아카이브가 출시됐을 때부터 즐겼는데, 처음 접했을 때에 비하면 정말 많은 이용자들이 즐기고 있어요. 이런 행사에 오면 이용자들이 게임을 더욱 재밌다고 느끼게 해주고 싶은 마음, 더 많은 이들이 좋아해주길 바라는 마음에 저도 열심히 참여하고 있어요.”20일 국내 정식 서비스 1.5주년을 맞은 블루 아카이브 첫 단독 오프라인 행사 ‘블루 아카이브 1.5주년 페스티벌’이 경기도 고양시 킨텍스에 열렸다. 이날 현장에서 만난 닉네임 ‘하야시’ 선생님(이용자)은 킨텍스 3홀 중앙광장에서 직접 블루 아카이브 콘셉트로 꾸민 바이크를 전시하고, 이용자 대신 가챠(뽑기)를 진행하며 현장 분위기를 이끌었다.김용하 총괄 PD 사진을 띄워놓고 가챠를 진행하면 원하는 캐릭터를 얻게 해준다는 일종의 ‘밈’도 활용해 현장 분위기는 더욱 뜨거웠다. 이용자들은 이미 마련돼 있는 행사를 단순하게 보는 데서 그치지 않고, 오히려 적극적으로 커뮤니티를 형성하거나 콘텐츠를 역으로 생산하며 분위기를 주도했다.국내 정식 서비스 1.5주년을 맞은 블루 아카이브 첫 단독 오프라인 행사 ‘블루 아카이브 1.5주년 페스티벌’이 20일 경기도 고양시 킨텍스에서 열린 가운데 차례대로 이용자들이 입장하고 있다.이날 현장에는 약 7000명 게임 이용자가 몰리면서 인산인해를 이뤘다. 넥슨에 따르면 해당 페스티벌 입장권은 지난달 20일 판매 개시 7분만에 전석 매진됐다.넥슨은 이용자들이 한 번에 몰릴 것에 대비해, 티켓 번호 순서대로 입장을 도왔다. 이용자들은 티켓 번호 맨 끝자리 숫자와 일치하는 야외 등록데스크 앞에서 대기를 해야 했다. 등록을 마친 이후에는 다시 한 번 행사장 옆 실내 공간에서 입장을 기다렸다. 그러나 이들은 대부분 지친 기색 하나 없이 기대에 가득찬 모습이었다.넥슨은 티켓 번호에 따라 시간대를 나눠 팝업스토어를 이용할 수 있도록 했다. 예를 들어 오전 10시부터 11시까지는 1번 이용자부터 500번 이용자까지 팝업스토어를 방문해 굿즈를 구매할 수 있었다.행사장에 들어서자 가상 소셜네트워크서비스(SNS) 브랜드인 모모프렌즈 마스코트 캐릭터 페로로 등이 이용자들을 맞았다. 이어 게임 첫 화면처럼 ‘시로코’가 반겼다. 시로코를 코스프레한 이들과 사진을 찍기 위해 긴 줄이 늘어섰다. 주변엔 게임 핵심 배경인 학원도시 ‘키보토스’가 구현돼 있었다.주요 학원인 ▲트리니티 종합학원 ▲게헨나 학원 ▲아비도스 고등학교 ▲밀레니엄 사이언스 스쿨을 콘셉트로 꾸민 부스와 학생들의 등신대가 마련돼 있었다. 이와 함께 특별한 굿즈를 구매할 수 있는 공식 팝업스토어가 운영됐다.행사 한정 상품으로는 태피스트리, 티머니 교통카드가 판매됐으며 이 밖에도 실용적인 굿즈들이 전시됐다. 이날 온라인 커뮤니티에는 현장에서 100만원 이상의 굿즈를 구매했다는 이용자가 영수증을 인증하면서 화제를 모으기도 했다.넥슨은 사전 선정된 84개팀의 이용자들이 직접 제작한 2차 창작 굿즈를 판매하는 부스도 지원했다. 특히 게헨나 학원 2차 창작 굿즈를 구매하기 위한 줄이 가장 길고 혼잡했다.20일 국내 정식 서비스 1.5주년을 맞은 블루 아카이브 첫 단독 오프라인 행사 ‘블루 아카이브 1.5주년 페스티벌’에 대형 바이크를 전시한 이용자 하야시(닉네임)가 포즈를 취하고 있다.20일 국내 정식 서비스 1.5주년을 맞은 블루 아카이브 첫 단독 오프라인 행사 ‘블루 아카이브 1.5주년 페스티벌’을 즐기기 위해 이용자들이 몰린 모습.행사장 가장 안쪽에는 메인 스테이지가 마련돼 있었다. 오전 11시 밴드 공연 1회차에선 지난 0.5주년 당시 호평 받았던 오리지널사운드트랙(OST) 공연 ‘사운드 아카이브’를 라이브로 선보였다. 밴드 편곡으로 ‘콘스탄트 모데라토’(Constant Moderato), ‘언웰컴 스쿨’(Unwelcome School) 등이 연주되자 팝업스토어나 중앙광장에 있던 이용자들이 순식간에 몰려들었다.디제잉 공연도 이용자의 눈과 귀를 사로잡았다. 블루 아카이브 배경음악을 작곡한 ‘노르’(Nor)와 ‘카루트’(KARUT)의 신나는 편곡으로 대기에 지쳤던 이용자들의 흥을 돋웠다. 이 밖에도 퀴즈 이벤트, 타임어택 이벤트 등이 곳곳에서 진행됐다.이날 오후 3시30분에는 김 PD가 퀴즈 이벤트 도중 메인 스테이지에 깜짝 등장해 감사 인사를 전했다. 이용자들은 김 PD의 이름을 외치며 화답했다.이처럼 다양한 게임 외적 즐길거리를 바탕으로 교류할 수 있는 넥슨 오프라인 행사에 블루 아카이브 이용자들은 호응을 아끼지 않았다. 메모를 통해 앞으로도 좋은 콘텐츠를 선보여달라는 응원의 메시지를 남기기도 했다.한편, 블루 아카이브는 지난 2021년 11월 한국 및 글로벌 237개국에 출시된 모바일 서브컬처 게임이다. 첫 출시 지역은 일본으로, 같은 해 2월 선출시된 바 있다. 이 게임에는 학원도시를 배경으로 다양한 학생들의 스토리가 담겼다.블루 아카이브 지식재산권(IP)은 게임을 넘어 다양한 콘텐츠와 상품군을 아우르는 영역으로 확장하고 있다. 개발사 넥슨게임즈는 블루 아카이브를 통해 일본 애니메이션 시장에 진출한다. 또, 공식 아트웍스도 오는 8월 정식 발매될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.05.26.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>[게시판] 비바리퍼블리카, 내달 8∼9일 개발자 콘퍼런스</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013967159?sid=105</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>슬래시23[비바리퍼블리카 제공. 재판매 및 DB 금지]▲ 모바일 금융 플랫폼 토스를 운영하는 비바리퍼블리카는 다음 달 8∼9일 테크 콘퍼런스 '슬래시23'를 연다고 26일 밝혔다. 토스, 토스뱅크, 토스증권 등 비바리퍼블리카 주요 계열사 개발 및 보안 전문가 30여 명이 발표에 나선다. 공식 홈페이지와 토스 공식 유튜브 채널에서 시청할 수 있으며, 발표 영상은 실시간 스트리밍 종료 직후 업로드된다. (서울=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.05.16.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>인터넷은행, 중·저신용대출 비중 30% 돌파… 잔액은 2배 넘게 늘어</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000901877?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>일러스트=손민균        카카오뱅크·케이뱅크·토스뱅크 등 인터넷전문은행 3사의 중·저신용대출 잔액이 약 2년 반 만에 2배 넘게 증가한 것으로 나타났다.16일 국회 정무위원회 소속 송석준 국민의힘 의원이 금융감독원에서 제출받은 자료에 따르면, 이들 인터넷은행 3곳의 중·저신용대출 잔액은 2020년 6월 2조3900억원에서 지난해 말 8조5800억원으로 259% 증가했다.중·저신용대출은 개인신용평가회사 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%에 대한 대출이다.이 기간 인터넷은행 3사의 전체 가계 신용대출에서 중·저신용대출이 차지하는 비중은 17.4%에서 30.4%로, 13%포인트 상승했다. 중·저신용대출 연간 취급액 역시 2020년 8212억원에서 지난해에는 8조4882억원으로 10배 수준으로 늘었다.한편 KB·신한·하나·우리 등 4개 시중은행은 중·저신용대출을 축소한 것으로 나타났다. 이들 은행의 중·저신용대출 비중은 2020년 6월 25.2%에서 지난해 말에는 16.9%까지 떨어졌다. 대출 잔액은 이 기간 24조8600억원에서 16조5500억원으로 줄었다. 4개 은행의 연간 중저신용대출 취급액은 2020년 8조3666억원에서 지난해 2조8089억원으로 감소했다.앞서 금융당국은 지난 2021년부터 인터넷은행이 중저신용층에 대한 대출 공급을 확대하겠다는 출범 취지에 맞게 영업하도록 중저신용대출 비중 목표치를 공시하도록 했다.올해 연말까지 인터넷은행의 중저신용대출 비중 목표치는 ▲카카오뱅크 30% ▲케이뱅크 32% ▲토스뱅크 44%다. 지난해(25%, 25%, 42%)보다 상향 조정됐다. 올해 1분기 카카오뱅크의 중저신용대출 비중은 25.7%로 집계됐으며 케이뱅크와 토스뱅크는 오는 26일 공시할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>[1mm금융톡]청년이 주고객인데…인뱅, 청년도약계좌 불참</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005265704?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>윤석열 정부의 핵심 공약 중 하나인 '청년도약계좌'에 주요 시중은행이 참여하는 것으로 알려졌지만, 인터넷전문은행들은 불참한다. 오는 6월 출시가 예상되는 '청년도약계좌'는 매월 70만원을 5년간 납입하면 5000만원의 목돈을 만들 수 있는 상품으로 만 19~34세 청년이 대상이다.30일 금융권에 따르면 카카오뱅크·케이뱅크·토스뱅크 등 인터넷전문은행들은 이 상품을 취급하지 않기로 결정했다. 정작 20·30대가 주 고객층인 인터넷전문은행들이 청년들을 위한 정책금융 상품에 불참하면서 시중은행에서는 볼멘소리도 나온다.인터넷전문은행들은 불참 이유로 가구소득 중위 180% 이하 확인, 특별중도해지 관련 업무 처리 등 대면이 필요한 경우를 비대면 시스템으로 구현하기가 어렵다고 입을 모았다. 비슷한 이유로 인터넷전문은행들은 지난해 최고 10% 금리 혜택을 볼 수 있는 정책금융 상품인 '청년희망적금'도 취급하지 않았다. 한 시중은행 관계자는 "예·적금 상품보다 훨씬 까다로운 주택담보대출도 비대면 구현이 가능하다고 홍보하면서 기술은행을 표방하는 인터넷전문은행들의 자가당착 설명 같다"고 비판했다.인터넷전문은행들이 표면적으로 비대면 시스템의 한계라는 해명을 하고 있지만, 비용에 대한 부담을 지기 싫은 것이라는 시각도 있다. 청년도약계좌의 경우 정부가 예산을 지원하긴 하지만 고금리 상품이라 은행들도 일정 부분의 비용을 감내해야 한다. 예대금리차가 클수록 이익을 보는 구조인 은행들은 고금리 예금이 몰릴 경우 부담을 지게 되는 구조다.또 서버 비용 문제도 있다. 지난해 청년희망적금의 경우 가입 희망자가 한 번에 대거 몰리면서 은행 앱에서는 오류가 발생하기도 했다. 이 같은 상황은 앱으로만 영업하는 인터넷전문은행들에게 치명타다. 한 인터넷전문은행 관계자는 "추가 서버 구축에도 상당한 인력과 비용이 들 것"이라고 말했다. 이 때문에 금융권에서는 인터넷전문은행들이 매출이나 수익에 도움 되는 것만 하고 금융당국의 정책과 관련된 부담을 나누지 않으려 한다는 지적도 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.05.21.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>‘적신호’ 켜진 가계부채…2년간 지연배상금 670만 건</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004192903?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>지난해 주요 은행 지연배상금 규모는 460억 원고신용자 신용대출 및 중저신용자 주담대 부담 급증[서울경제] 코로나19가 유행했던 지난 2년 동안 은행이 신용대출 및 주택담보대출 연체에 부과한 지연배상금이 670만 건에 달하는 것으로 나타났다. 특히 중저신용자뿐만 아니라 고신용자도 대출 상황에 어려움을 겪고 있어 가계 부채에 적신호가 켜졌다는 분석이다.21일 금융감독원이 최승재 국민의힘 의원에게 제출한 자료에 따르면 2021년부터 지난해까지 5대 시중은행과 3대 인터넷은행에서 신용대출 및 주택담보대출의 연체 때문에 고객이 낸 지연배상금은 670만 건에 총 460억 원으로 집계됐다. 해당 은행은 KB국민은행, 하나은행, 우리은행, 신한은행, NH농협은행, 카카오뱅크, 케이뱅크, 토스뱅크 등이다.지연배상금이란 차주가 매월 내야 할 이자를 연체할 경우 은행이 부과하는 배상금이다. 일반적으로 대출 적용 이자율에 3%를 더한 이자율이나 15% 중 낮은 금리를 적용한다. 또 지연배상금은 연체 기간에 따라 증가하는데 연체 기간 1개월 미만까지는 약정 이자에만 지연배상금이 가산되지만, 1개월 이후부터는 원금에 지연배상금이 가산돼 금액이 급격히 늘어난다./사진 제공=최승재의원실2021년부터 지난해까지 신용대출 기준 5대 시중은행과 3대 인터넷은행의 1개월 미만 연체에 대한 지연배상 납부 건수는 2021년 139만 건에서 지난해 145만 건으로, 납부액은 26억9000만 원에서 37억7000만 원으로 급증했다. 반면 1개월 이상 연체에 대한 납부 건수는 2021년 27만 건에서 지난해 26만 건, 납부액도 44억 원에서 43억 원으로 소폭 감소했다. 이는 1개월 이상 연체될 경우 원금에도 지연배상금이 부과되는 만큼 1개월 이상 연체액을 최대한 먼저 상환했기 때문으로 보인다.지연배상금 규모는 신용에 따라서도 다른 모습을 보였다. 중저신용자 지연배상금 납부액이 2021년 54억 원에서 지난해 61억 원으로 12.7% 증가할 동안 고신용자는 13억7000만 원에서 18억9000만 원으로 38.5%나 늘었다. 같은 기간 5대 시중은행 주택담보대출에 대한 고신용자의 지연배상금 납부액도 2021년 9억 원에서 2022년 13억 원으로 43% 증가했다. 자산 급등기에 폭증한 대출의 상환에 고신용자도 어려움을 겪은 것으로 보인다.문제는 중저신용자들의 주담대에 대한 지연배상금 납부액이다. 중저신용자 주담대 지연배상금의 경우 납부 건수는 고신용자와 비슷하지만 납부액은 2021년과 지난해 각각 154억 원과 132억 원에 달했다.고신용자가 2021년과 지난해에 각각 9억 원과 13억 원을 납부한 것과 비교하면 중저신용자가 10배에 달하는 금액을 지연배상금으로 낸 것이다. 중저신용자의 주담대는 어려움을 넘어 위험 수준이라는 분석이 나온다./사진 제공=최승재의원실이밖에 시중은행과 인터넷은행 중에서는 인터넷 은행의 지연배상금 증가 폭이 두드러졌다. 3대 인터넷은행의 2021년 1개월 미만 지연배상금 납부 건수는 3만4000건에서 지난해 15만1000건으로 4배 가까이 늘었고 금액도 1억3000만 원에서 지난해 7억7000만 원으로 6배가량 증가했다. 1개월 이상 지연배상금도 건수는 2021년 1만3000건에서 지난해 2만8000건, 금액은 3억2000만 원에서 지난해 4억8000만 원으로 급증했다. 특히 고신용자들의 지연배상금 납부액이 전년 대비 121.4% 증가할 동안 중저신용자들의 납부액은 2021년 1억4000만 원에서 지난해 5억5000만 원으로 4배 가까이 늘었다.최승재 의원은 “대출이 연체되면 가산이자가 붙는 것은 당연하지만 많은 전문가가 경기침체를 우려하고 있고 금리가 더 오를 수도 있는 만큼 부채 상황을 주시하고 신중하게 관리할 필요가 있다”며 “고신용자의 신용대출 지연배상금 납부액이 증가하는 부분이나 중저신용자의 주담대 지연배상금이 지나치게 많은 점, 인터넷은행을 이용하는 중저신용자의 지연배상금 납부액이 증가하는 점은 심각하게 받아들여야 한다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>온라인 대환대출 오늘 개시…10조여원 '금리 경쟁' 막 오른다</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001104665?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>스마트폰 앱을 통해 기존에 받은 신용대출을 더 유리한 조건으로 한 번에 갈아탈 수 있는 대환대출 플랫폼이 31일부터 가동된다.금융위원회에 따르면 이날 개시되는 '온라인·원스톱 대환대출 인프라'에서는 53개 금융회사의 대출 상품과 조건을 비교할 수 있다.업계에서는 연간 10조∼11조원을 대환대출 시장 규모로 추산하고 있다.금융위가 대환대출 서비스로 개별 금융회사가 신규 유치할 수 있는 신용대출 규모를 전년도 신규 신용대출 취급액의 10% 또는 4천억원 중 적은 금액으로 설정했기 때문이다. 작년 전 금융권 신규 취급액 기준 신용대출은 110조원 규모다. 대출 갈아타기가 가능한 앱은 크게 대출 비교 플랫폼 앱(네이버페이, 뱅크샐러드, 카카오페이[377300], 토스, 핀다 등)과 주요 금융회사 앱(NH농협은행, 신한은행, 우리은행. KB국민은행, 하나은행 등) 등 2가지가 있다.특히 대출 비교 플랫폼에서는 기존에 받은 대출 금리 및 갈아탈 수 있는 여러 금융회사의 대출 상품을 한꺼번에 조회할 수 있다.유리한 조건의 대출 상품이 있다면 해당 금융회사 앱으로 이동해 새로운 대출을 실행하면 된다.기존 대출금은 금융결제원 망을 통해 자동 상환된다.금융위는 앱을 설치하는 것부터 새 대출 계약을 완료하기까지 소요되는 시간이 15분 남짓이라고 설명했다.옮겨가고 싶은 특정 금융회사가 있는 경우 해당 금융회사 앱에 바로 접속한 뒤 갈아타기를 진행하면 된다.해당 금융회사가 제시하는 대출 조건이 기존 상품에 비해 유리한지 확인한 뒤 대출 계약을 실행하면 된다.금융위는 "과거 소비자가 대출을 갈아타려면 금융회사 영업점 두 곳을 방문하며 최소 2영업일을 기다려야 했다"며 "인프라 가동으로 편의성이 크게 개선될 것"이라고 설명했다.대환대출 서비스는 은행 영업시간인 영업일 오전 9시부터 오후 4시까지 이용할 수 있으며 이용 횟수의 제한은 없다.플랫폼이나 금융회사 앱에서 대출 조건을 반복 조회해도 신용점수에 영향이 없기 때문에 최대한 꼼꼼하게 따져본 뒤 유리한 조건의 상품을 선택하면 된다.금융당국은 은행권 등과 협의를 통해 대출금 규모가 큰 주택담보대출(주담대)을 대상으로 하는 대환대출 인프라도 연내 구축할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.05.31.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>"첫날부터 접속 몰려"…대환대출 서비스, 직접 써보니</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011889279?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>오전 내내 이용자 몰려 접속 제한·인증 오류 지속돼복잡한 인증방식 반복돼…"고령자 등 이용 불편할 듯"[서울=뉴시스]한재혁 기자=31일 비바리퍼블리카(토스)의 '대출 갈아타기' 서비스가 접속자 폭주로 인해 접속이 지연되고 있다 2023.05.31 saebyeok@newsis.com *재판매 및 DB 금지[서울=뉴시스] 한재혁 기자 = "지금 내가 가진 대출보다 더 좋은 조건의 대출을 알게 됐다면? 즉시 그 대출로 갈아타면 됩니다."금융사를 방문하지 않고도 스마트폰으로 더 싼 이자의 대출로 갈아탈 수 있는 대환대출 서비스가 31일 가동을 시작했다. 출시 첫 날부터 대환대출을 받고자 하는 이용자가 급증해 다수 플랫폼에서 접속 지연이나 전산 오류가 발생하는 등의 상황이 벌어졌다.금융위원회에 따르면 대환대출 서비스에는 은행 19곳, 저축은행 18곳, 카드사 7곳, 캐피탈사 9곳 등 총 53개사가 참여했다. 이용시간은 오전 9시부터 오후 4시까지며 이날 기준으로 대환이 가능한 상품은 담보가 없는 신용대출로 한정됐다.이날 오전 9시 비바리퍼블리카(토스)와 대출비교 플랫폼 '핀다'의 애플리케이션(앱)을 사용해 대환대출 서비스를 이용해봤다. NH농협은행의 'NH새내기직장인신용대출'이 있었기 때문에 더 낮은 수준의 대출금리를 조회해보기 위해서다. 해당 업체들은 기존에 운영하던 앱에 새 카테고리를 추가하는 식으로 대환대출 서비스의 운영에 나섰다. 가령 토스는 '대출 받기' 탭에 접속하면 '대출 갈아타기' 카테고리가 신설돼 있어 마이데이터 가입만 거치면 바로 이용할 수 있다. 때문에 별도의 앱을 설치하는 등의 절차는 거치지 않아도 된다.다만 당초 '가입부터 조회까지 15분'을 슬로건으로 내세우던 것과는 달리 이용에는 난관이 다수 있었다. 첫날부터 이용자가 몰려 서비스가 마비되거나 초기 운영과정에서 기술적 오류가 발생하는 등의 문제가 발생해서다.토스 앱의 '대출 갈아타기' 서비스에는 이용자가 몰려 대환대출 서비스 출시 2시간30분 후인 오전 11시30분까지도 대환대출 서비스의 이용 자체가 불가능했다. 모든 인증을 끝내도 화면 하단에 위치한 '동의하고 알림 받기' 버튼을 누르고 대기하는 수밖에 없었다.핀다 앱에서는 인증 오류와의 싸움이 이어졌다. 카카오 인증서를 통해 마이데이터 서비스에 가입하는 데에 인증을 한 번 진행했다. 이후 대환대출 서비스를 위해서도 본인인증과 인증서를 통한 인증 등 2번째 인증을 해야했다. 대출을 조회를 앞두는 데까지만 해도 이미 12분이 소요됐다.인증서 제출이 이뤄졌음에도 10초 간격으로 인증 요청 팝업이 수신됐다. 게다가 해당 팝업을 읽지 않은 채 인증 절차를 기다리고 있을 경우 '인증에 실패했다'는 문구가 출력되면서 해당 절차를 처음부터 밟아야 했다. 도합 40분 가량의 실랑이 끝에 접속한 대환대출 조회에선 정작 갈아탈 수 있는 대출이 조회되지 않았다.핀다 관계자는 "대환대출 인프라가 오픈하기 약 열흘 전부터 일평균 4000여명의 고객분들이 서비스를 사전신청했던 만큼 서비스 오픈 첫날부터 고객들의 수요가 몰리고 있는 상황이다"라고 말했다.이같은 접속 지연 등의 문제의 원인으로는 수요 대비 수용량이 부족한 결제망이 지목된다. 현재 대환대출 서비스는 각 플랫폼이 금융결제원에 중도상환수수료 요청을 하면 금융결제원이 대출상품을 취급하는 각 금융사에 대환이 가능한 상품과 대출금리를 요청하는 가심사 과정이 나눠 이뤄진다. 이때 가심사 데이터를 플랫폼으로 전송하는 과정에서 각 금융사 서버에 부하가 발생한 것으로 전해졌다.금융결제원 관계자는 "플랫폼사와 결제원간 통신(조회응답)에는 특별한 문제가 없는 것으로 안다"며 "각 사에 문의해야 할 사항"이라고 설명했다.[서울=뉴시스]한재혁 기자= 대출비교 플랫폼 핀다의 대환대출 서비스 인증 과정에서 오류가 발생한 화면 2023.05.31 saebyeok@newsis.com *재판매 및 DB 금지제휴사 수 다르고 인증 절차 복잡해…개선 필요사항 다수플랫폼 간의 제휴사 수가 달라 정확한 대환대출이 어렵다는 지적도 있다. 이날 기준으로 토스는 농협은행과 하나은행을 비롯한 1금융권 6개사, 신한카드, KB캐피탈 등 2금융권 11개사를 포함해 총 17개사와 제휴를 맺고 대환대출 서비스를 제공한다. 6월 초까지 약 22개 금융사로 제휴처가 늘어날 예정이다.반면 카카오페이는 출시 당일에는 1금융권 8개사(KB국민은행·NH농협은행·신한은행·우리은행·하나은행·SC제일은행·광주은행·부산은행), 2금융권 8개사(JT저축은행·JT친애저축은행·모아저축은행·HB저축은행·예가람저축은행·고려저축은행·신한카드·JB우리캐피탈) 등 총 16개 금융사의 대환대출 서비스를 제공한다. 이후 6월초까지 총 24개까지 제휴사를 늘릴 예정이다.이 외에도 온라인 플랫폼 사용이 미숙한 계층의 이용 어려움이나 대환이 가능한 대출상품의 종류가 한정돼 아쉬움을 토로하는 반응도 있었다.서울 강서구에 거주하는 50대 중반 A씨는 "인증절차가 까다로워 조회까지에만 30분이 걸렸다"며 "개인정보 보호가 민감하다는 건 알겠지만 같은 인증을 여러 번 반복해야 한다. 이 정도면 나이가 더 많은 어르신들이 사용하기에는 여러모로 어려울 것 같다"고 말했다.충남 홍성군에 거주하는 30대 중반 B씨도 "막상 사용해보니 생각했던 것보다 편리해서 좋았다. 그렇다보니 지난해에 받은 주택담보대출도 이렇게 비교할 수 있으면 좋을텐데 비교가 안돼서 아쉽다"고 했다.금융당국은 7월1일부터는 장기카드대출(카드론)을, 연내에는 주택담보대출을 플랫폼에서 조회할 수 있도록 한다는 계획이다. 금융위 관계자는 "주택담보대출을 대상으로 한 대환대출도 올해 12월에는 시작하는 것을 목표로 하고 있다"며 "등기나 표준화 측면에서 좀 더 가격 확인 등이 용이한 아파트 대상의 주택담보대출부터 대환대출을 시작하는 것을 (목표로) 생각하고 있다"고 설명했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.05.21.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>은행 대출자 지연배상금 460억…가계부채 '빨간불'</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002714484?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>은행 먹구름 이미지. ⓒ연합뉴스[데일리안 = 이세미 기자] 은행 대출자에 대한 지연배상금이 최근 2년 동안 460억원에 달했던 것으로 나타났다.21일 금융감독원이 최승재 국민의힘 의원에게 제출한 자료에 따르면 2021년부터 지난해까지 KB국민‧하나‧우리‧신한‧NH농협은행 등 5대 은행과 카카오·케이·토스뱅크 등 3대 인터넷은행에서 신용·주택담보대출을 연체한 고객이 낸 지연배상금은 총 460억원이었다. 건수로는 총 670만건이다.지연배상금은 대출 차주가 매달 납부해야 할 이자를 내지 못해 연체했을 때 상황에 따라 은행이 부과하는 배상금이다. 일반적으로 대출 적용 이자율에 3%를 더한 이자율이나 15% 중 낮은 금리가 적용된다.유형별로 보면 신용대출에서는 고신용자의 지연배상금 납부액이 2021년 137억원에서 지난해 194억원으로 38.5%나 증가한 것이다. 중저신용자 지연배상금 납부액도 같은 기간 54억원에서 61억원으로 12.7% 늘었다.중저신용자는 주택담보대출에서의 지연배상금이 2021년과 지난해에 각각 154억원과 132억원에 달했다. 고신용자는 2021년과 지난해에 각각 9억원과 13억원을 납부했다.은행 종류별로 나눠보면 특히 3대 인터넷은행의 1개월 미만 지연배상금 납부 건수가 2021년 3만4000건에서 지난해 15만1000건으로 네 배 가까이 급증했다. 같은 기간 금액도 1억3000만원에서 7억7000만원으로 여섯 배 가량 증가했다.1개월 이상 지연배상금도 건수 역시 2021년 1만3000건에서 지난해 2만8000건, 금액은 3억2000만원에서 4억800만원으로 급증했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.05.30.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>토스와 메가스터디의 공통점?…"직장어린이집 설치의무 미이행"</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005265841?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>정부, 직장어린이집 설치의무 실태조사 발표메가스터디, 한영회계법인, 코스트코 등 명단에서울 노원구의 한 어린이집. 사진은 기사내용과 무관정부가 직장 내 어린이집 설치의무를 이행하지 않은 사업장 27곳의 명단을 공개했다. 정부는 이들 사업장에 이행명령을 내리고 이행강제금을 부과해 직장 어린이집을 확충해나가겠다는 방침이다.31일 보건복지부와 고용노동부는 2022년 기준 직장어린이집 설치의무 이행 실태조사 결과를 발표했다. 조사에 따르면 지난해 말 기준 직장 어린이집 설치의무 이행률은 91.5%로 집계됐다. 설치의무 대상 사업장 1602곳 중 1088곳이 직접 어린이집을 설치했고, 378곳이 위탁보육으로 의무를 이행했다. 의무이행률은 2018년 90%를 돌파한 이후 꾸준히 증가하는 추세다.영유아보육법 제14조에 따르면 상시 여성 근로자가 300명 이상이거나 상시근로자가 500명 이상이면 반드시 직장 내 어린이집을 설치해야 한다. 법적으로 정한 사유 없이 의무를 이행하지 않거나 조사에 불응하면 정부가 해당 사업장을 공개한다.어린이집 설치의무를 이행하지 않은 사업장 136곳 중 명단이 공개된 사업장은 27곳이다. 해당 사업장 중에서는 애플리케이션(앱) 토스의 운영사인 비바리퍼블리카와 교육업체 메가스터디, 에듀윌 등이 이름을 올렸다. 전년에 이어 올해도 의무를 이행하지 않았던 사업장 6곳에는 한영회계법인, 딜로이트 안진회계법인, 코스트코 코리아 등이 포함됐다.정부는 직장어린이집 설치 의무를 이행하지 않은 136개 사업장을 지방자치단체에 통보해 설치 이행 명령, 이행강제금 부과 등 후속 조치를 이어갈 예정이다. 1회 이상 이행강제금이 부과된 이후에도 변화가 없으면 근로복지공단(직장보육지원센터)에서 개별 상담을 실시해 의무 이행을 유도할 계획이다.이기일 보건복지부 제1차관은 “직장어린이집은 이용 부모의 만족도가 높고, 일과 가정의 양립을 위한 중요한 역할을 하고 있다”며 “명단 공표 제도의 실효성을 제고해 더 많은 사업장에 직장어린이집이 설치되도록 하고 일하는 부모의 양육 부담을 줄여나가겠다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.05.17.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>때이른 더위에 여름용 가전·샌들 '불티'</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013946146?sid=103</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>롯데하이마트, 얼음정수기 매출 50%↑신세계백화점, 여름신발도 65.8% 급증  (서울=연합뉴스) 전성훈 기자 = 예년보다 일찍 찾아온 더위에 벌써 여름 가전이나 신발이 불티나게 팔려나가고 있다.     17일 롯데하이마트에 따르면 이달 1∼14일 대표적인 여름 주방가전인 얼음정수기 매출이 직전 2주(4월 17∼30일)와 비교해 50% 증가했다.     같은 기간 음식물처리기와 블렌더 매출도 각각 30%, 25% 늘었다.    4∼5월 기록적인 이상고온 현상이 연일 이어지자 서둘러 여름을 대비하려는 움직임이 나타난 것으로 보인다. [롯데하이마트 제공. 재판ㅁ내 및 DB 금지]서울 기준 4월 평균 낮 최고기온은 지난해 동기보다 9도가량 높은 28도까지 치솟았고, 이달 들어서도 30도를 오르내리며 초여름 날씨를 방불케 한다.     롯데하이마트는 오는 25일까지 테팔, 필립스 등 다양한 브랜드의 여름 주방가전 할인 행사를 한다. 행사상품 구매 시 롯데모바일상품권을 증정한다.     여름 신발도 인기다.    신세계백화점은 지난달 1일부터 이달 15일까지 샌들, 레인부츠 등 여름 신발 매출이 지난해 동기에 비해 65.8% 급증했다고 밝혔다.     일찌감치 찾아온 더위에 여름 신발이 7∼8월 바캉스 시즌 못지않은 판매고를 올리고 있다고 한다.     이에 여름 신발의 강자인 '크록스'는 지난해보다 한 달 앞서 팝업스토어를 열고 판촉에 나섰다.    프리미엄 슬리퍼를 내세운 브라질 '카카토스'나 이탈리아의 수제 슬리퍼 브랜드 '드시에나' 등 신규 브랜드도 속속 입점해 젊은 층의 니즈를 충족하는 신상품을 선보일 예정이다.[신세계백화점 제공. 재판매 및 DB 금지]    lucho@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.05.16.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>인뱅 ‘중·저신용 대출’ 10배 늘 동안 4대 은행은 66% 줄었다</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003223953?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>카카오·케이·토스, 3년간 8조 공급미 등 주요국 중앙은행 금리 인상에시중은행, 연체율 관리차 대출 축소인터넷은행은 상품 ‘공격적 판매’지난 3년간 인터넷전문은행의 중·저신용 대출 공급액은 10배 이상 증가했지만 4대 시중은행은 70% 가까이 감소한 것으로 나타났다. 이익 체력이 인터넷은행보다 뛰어난 시중은행이 중·저신용 대출을 더 적극적으로 공급해야 한다는 지적이 나온다.16일 국회 정무위원회 소속 송석준 국민의힘 의원이 금융감독원에서 제출받은 자료에 따르면 카카오·케이·토스뱅크 등 인터넷은행 3사의 연간 중·저신용 대출 공급액은 2020년 8212억원에서 지난해 8조4881억원으로 10배 이상 늘었다. 중·저신용은 신용평점 하위 50%(코리아크레딧뷰로 기준)를 말한다.같은 기간 KB국민·신한·하나·우리은행 등 4대 시중은행의 연간 중·저신용 대출 공급액은 8조3666억원에서 2조8089억원으로 66.4% 급감했다.은행별로 보면 KB국민은행의 중·저신용 대출 공급액은 2020년 2조7035억원에서 지난해 1조1145억원으로 줄었고 신한은행은 2조5997억원에서 5908억원으로 감소했다. 하나은행도 1조7712억원에서 7063억원으로, 우리은행은 1조2920억원에서 3972억원으로 줄었다.시중은행의 경우 미국·한국 등 주요국 중앙은행의 금리 인상으로 건전성 리스크가 커지자, 중·저신용 대출을 축소하며 연체율 관리에 나선 것으로 보인다.반면 인터넷은행은 중·저신용 대출 목표를 맞추기 위해 중·저신용 대출 상품을 공격적으로 판매했다. 앞서 당국은 취약차주 포용이라는 인터넷은행의 출범 취지를 달성할 수 있도록 각 사에 중·저신용 대출 비중의 목표치를 제출하도록 했다.그 결과 지난해 말 인터넷은행의 전체 가계대출 중 중·저신용 대출 비중은 30.4%로, 2020년 말(11.1%)보다 대폭 상승했다. 같은 기간 시중은행의 중·저신용 대출은 20.2%에서 16.5%로 줄었다.송석준 의원은 “4대 은행이 자본 규모와 이익 창출력에 비해 중·저신용 대출 공급에는 매우 보수적”이라고 말했다. 지난해 말 인터넷은행 3사의 총자산 대비 중·저신용 대출은 10.8%, 시중은행은 0.9%에 그쳤다.송 의원은 “인터넷은행의 연체율이 빠르게 상승하고 있고 제2금융권도 건전성 악화 등으로 중·저신용 대출에 관한 부담이 커지고 있다”며 “시중은행이 중·저신용 대출 공급 확대라는 금융 본래의 기능을 통해 사회에 기여하도록 금융당국이 유도할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.05.18.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>총무님 모시느라 바빠요…‘모임 푼돈’에 러브콜 보내는 은행들 [금융 라운지]</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005131789?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[사진 = 연합뉴스]최근 ‘모임통장’이 금융권 화두다. 4년 넘게 시장을 장악하고 있는 카카오뱅크의 아성에 맞서 은행들 시장 진입이 잇따른다. 예금금리 인하에 따른 ‘머니 무브’(시중 자금이 안전 자산에서 위험자산으로 이동하는 것), 실리콘밸리뱅크(SVB) 사태 이후 뱅크런 우려에 맞서 안정성 높은 ‘끈적끈적한(sticky) 예금’ 확보 차원이다.KB국민은행은 지난 11일 기존 통장을 모임 통장으로 쓸 수 있도록 하는 ‘KB국민총무서비스’를 출시했다. 금리 연 0.1% 내외 저원가성 예금이 은행들 중 가장 많아 상대적으로 덜 필요한데도 확보에 열심이다. 앞서 지난 2월엔 토스뱅크가 연 2%대 이자율과 모임카드 혜택을 앞세우며 모임통장을 출시했다. 하나은행과 케이뱅크도 모임통장 서비스를 준비 중이다.모임통장 자체가 새로운 건 아니다. 이용이 저조해 중단된 경우도 많다. 현재는 카카오뱅크가 편리성과 투명성, 카카오톡 연동을 비롯한 강점으로 지배적 사업자다. 그럼에도 불구하고 은행들이 시장에 눈독을 들이는 건 최근 예금이탈 추세에 대비해 ‘끈적끈적한 예금’을 확보하기 위한 목적이 크다. [사진 = 연합뉴스]‘끈적끈적한 예금’은 금리에 대한 민감도가 낮아 다른 곳으로 쉽게 옮겨가지 않는 상품이다. 급여통장, 모임 통장이 대표적이다. 특히 기업 영업이 필요한 급여통장과 달리 모임통장은 상품 경쟁력을 바탕으로 한번 유치하면 계속 이어진다는 점에서 더 각광 받는다. 한 은행 관계자는 “모임통장은 매월 현금이 꾸준히 들어오고, 여러 사람이 같이 쓰기 때문에 은행을 바꾸는 일이 거의 없다는 점에서 효자상품”이라고 했다.다만 모임통장이 끈적끈적한 예금인 만큼 기존 강자인 카카오뱅크 점유율을 어떻게 뺏어올지가 은행들 고민거리다. 토스뱅크는 체크카드를 여러 장 발급할 수 있다는 점을, KB국민은행은 별도로 통장을 신규 개설하지 않아 편리하다는 점을 내세운다. 은행권 관계자는 “막강한 카카오뱅크 모임통장 네트워크를 견제할 ‘한 방’이 아직 보이지 않는다”며 “당분간 카카오뱅크 모임통장 위세는 계속될 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.05.18.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>‘짠테크’ 통했다…토스뱅크 굴비적금, 한 달만에 30만 계좌 돌파</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005488577?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>20대부터 50대 이상까지 연령 무관하게 고루 가입[이데일리 정두리 기자] 토스뱅크가 지난달 선보인 ‘굴비 적금’이 한 달여 만에 30만 계좌를 넘어섰다고 18일 밝혔다. 고객들이 저금을 하는 과정에서 느낄 수 있는 재미요소에 주목한 결과 하루 평균 1만명이 몰리는 등 높은 호응을 이끌어내고 있다.토스뱅크에 따르면 지난 한 달간 ‘굴비 적금’에 가입한 고객들은 가입 후 횟수 제한 없이 1원 이상 자유롭게 저금할 수 있는 부분에 재미를 느끼는 것으로 나타났다. 지난 한 달간 가장 많이 입금한 고객은 총 338번에 걸쳐 입금하며, 하루 열 번 이상 ‘굴비 적금’을 찾았다. 저금이 이뤄질 때마다 ‘밥상’ 위의 반찬들이 풍성해지는 것을 보며, 고객들이 게임을 하는 것과 같은 성취와 만족감을 느낀 것으로 토스뱅크는 분석했다.‘굴비 적금’은 고객이 매번 입금할 때마다 천장 위에 매달려 있는 굴비가 밥상으로 조금씩 내려오는 ‘이색 적금’이다. 고객이 5번 이상 저축하면 굴비가 밥상에 도달해 고객들이 원하는 반찬을 하나씩 추가할 수 있다. 고객들은 이를 소셜미디어네트워크(SNS)를 통해 지인에게 공유할 수 있는데, 자주 저축할수록 밥상 위의 반찬들을 더욱 풍성해져 저축의 즐거움을 지인과 함께 체감할 수 있다.‘굴비 적금’ 금리는 최고 연 5.0%(세전)로, 기본금리 연 2.0%에 연 3.0%포인트 우대금리가 최대 적용된다. 별다른 조건 없이 6개월 만기까지 유지할 경우 자동으로 우대금리가 적용되는 구조다. 가입 연령대를 분석한 결과 40대(26.0%)가 가장 많았고, 20대(24.5%), 30대(23.2%), 50대 이상 (20.6%), 10대(17세 이상, 5.7%) 순을 이뤘다.토스뱅크는 오는 22일까지 토스뱅크 첫 거래 고객 대상 편의점 모바일 교환권을 제공 이벤트를 진행한다. 수시입출금통장인 ‘토스뱅크 통장’을 처음 개설하고 24시간 안에 ‘굴비 적금’을 개설하면 자동으로 응모가 이뤄진다. 이들 고객에게는 전국 GS25 편의점에서 사용할 수 있는 모바일 교환권(라면, 음료수, 초콜릿 등)이 제공된다. 이벤트 참여 후 밥상에 놓인 밥을 누르면 랜덤으로 교환권이 제공되며, 고객이 원할 경우 횟수 제한 없이 다시 뽑는 것도 가능하다.토스뱅크 관계자는 “토스뱅크는 앞으로도 고객 친화적인 상품과 서비스를 제공하는데 최선의 노력을 다하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.05.18.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>"최소 1개만이라도…" 금융당국 읍소에 대환대출 협약 나선 은행</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004888659?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>비대면 대환대출 구상도.오는 31일 비대면 대환대출의 본격 출시를 앞두고 은행들이 플랫폼사들과 상품 협약에 나서고 있다. 일부 시중은행들이 플랫폼 종속 우려로 상품 협약을 망설였지만, 금융당국의 읍소에 가까운 협조 요청에 마음을 바꾼 것으로 보인다. 과도한 '이자장사'를 하고 있다는 비판에서 벗어나기 위한 어쩔 수 없는 선택이기도 하다. 17일 금융업권에 따르면 최근 카카오페이는 KB국민·신한·우리·하나·NH농협은행 등 5대 시중은행 모두와 비대면 대환대출 상품 협약을 맺었다. 이외 토스, 네이버파이낸셜, 핀다 등 다른 플랫폼들도 5대 시중은행과 개별적으로 상품 협약을 진행하고 있는 것으로 알려졌다. 특히  시중은행들은 최소 1개 이상 플랫폼들과 모두 상품 협약을 맺은 것으로 알려졌다. 비대면 대환대출 인프라는 '비대면-원스톱'으로 여러 금융사의 대출상품을 비교한 후 갈아탈 수 있도록 돕는 시스템이다. 그동안은 고객이 대환대출을 하려면 오프라인 영업점을 방문해야 하는 등 번거로운 절차를 거쳐야만 했다. 앞으로는 한 앱에서 간편하게 비대면 대환대출이 이뤄질 전망이다. 낮은 금리의 대출로 갈아타면 이자 부담을 덜 수 있다.비대면 대환대출의 흥행은 플랫폼에서 얼마나 더 많은 금융사의 대출을 소개할 수 있느냐에 달려있다. 그런데 시중은행들은 연초까지 플랫폼사와 상품 협약 맺기를 꺼려왔다. 플랫폼 의존도가 높아지면 자신들이 플랫폼에 상품만 공급하는 하청업체로 전락할 것이란 우려에서다. 이에 일부 시중은행들은 비대면 대환대출 인프라를 활용해 본인들의 앱과 오프라인 창구에서 자사 대출로 고객을 끌어오는 영업 전략을 짜고 있었다. 시중은행들 사이에서 분위기가 바뀐 건 금융당국의 적극적인 협조 부탁이 이어져서다. 금융당국은 전체 가계대출 가운데 60%를 차지하는 은행의 상품들이 플랫폼에 진열돼야 비대면 대환대출 서비스의 효과가 극대화될 것으로 내다봤다.비대면 대환대출 인프라를 준비하며 진행된 수차례 실무회의에서 금융당국 관계자들은 은행들에 상품 협약 참여를 독려했다. 김주현 금융위원장은 지난 12일 서울 종로구 소재 정부서울청사에서 비대면 대환대출 인프라 구축 상황 점검을 위한 간담회에서 은행장들에게 상품 협약을 더 확대해달라고 요청한 것으로도 전해진다. 은행들이 손쉽게 막대한 이자이익을 벌어들인다는 비판이 거세지자 고육지책으로 플랫폼과의 상품 협약을 늘린 것도 있다. 고금리 기조 속에서 고객이 비대면 대환대출을 통해 손쉽게 낮은 금리의 대출로 갈아탈 수 있도록 돕는데 협조하겠다는 취지다. 플랫폼과 상품 협약을 맺는 게 이익이 된다는 판단도 작용했다. 오프라인 점포를 점차 줄이는 추세이기에 플랫폼을 통해 고객 접점을 더 확대할 수 있다는 이유에서다. 한 금융당국 관계자는 "오는 31일 비대면 대환대출 시작을 앞두고 더 많은 은행들이 플랫폼사와 상품 협약을 맺기를 요청하고 있다"면서 "시스템 개발에 걸리는 시간이 변수지만, 서비스 출시 시점에는 더 많은 플랫폼이 더 많은 시중은행과 상품 협약을 맺었을 것으로 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.05.28.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>집단대출 금리인하 치열 … 인터넷銀도 눈독</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005136461?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>1분기 신규 집단대출 11.8조중도금 대출규제 족쇄 풀리며시중銀, 집단대출 본격 공략상호금융권도 속속 상품 내놔카뱅, 내년 출시 목표로 추진집단대출이 시중은행의 새로운 먹거리로 떠오르고 있다. 고금리 여파로 개인 주택담보대출과 신용대출은 증가세가 주춤하고 있지만, 부동산 규제가 완화되고 주택 경기가 조금씩 살아나면서 집단대출은 성장세를 이어가고 있기 때문이다. 28일 은행권에 따르면 KB국민·신한·하나·우리·NH농협은행 등 5대 은행의 지난 1분기 신규 집단대출은 11조8509억원으로 작년 1분기(7조620억원)보다 67.8% 늘었다. 작년 4분기(9조8335억원)와 비교하면 20.5% 많다. 지난 4월 신규 집단대출 취급액은 3조333억원으로 1년 사이 61.7% 늘었다.A은행의 신규 집단대출은 작년 12월부터 지난 2월까지 3개월 연속 1조원을 돌파했다. B은행도 올해 2월과 3월에 1조1000억원이 넘는 집단대출을 취급했는데, 1년 전인 작년 2월과 3월보다 10배가량 급증한 규모다.집단대출은 재건축·재개발과 분양 등 정비사업에서 조합원과 입주 예정자를 대상으로 한꺼번에 승인이 이뤄지는 대출로 이주비와 중도금, 입주 등으로 구성된다. 단지별로 차이가 있지만 대출액 규모가 수백억~수천억 원대여서 은행 입장에서는 큰 실적을 낼 수 있다. '새 아파트'라는 확실한 담보물이 있어 건전성 관리에도 유리하다.시중은행 관계자는 "가계대출이 성장할 땐 마진이 적은 집단대출을 무리해서 늘릴 필요가 없었지만, 빚 줄이기(디레버리징) 기조가 뚜렷해지자 집단대출 순증에 나서는 분위기"라고 전했다. 집단대출 취급에 보수적이던 일부 시중은행은 물론 수협 등 상호금융업권까지 가세하면서 서울·수도권 단지 곳곳에서 영업 전쟁이 벌어지고 있다.하나은행은 전국 영업점에 본점 수준의 집단대출 현장 지원 시스템을 구축해 영업력을 강화하고 있다. 이용자 편의성을 높이기 위해 집단대출 모바일 서비스도 실시하고 있다. 농협은행은 대출 금리와 한도 경쟁력을 높여 실수요자가 많은 수도권 단지를 공략하고 있다. 가계대출 시장 강자인 국민은행도 집단대출 성장 전략을 짜고 있다. 미분양 물량에 대한 부담은 있지만, 올해부터 중도금 대출 관련 분양가 상한선과 한도 규제가 사라져 영업 환경이 좋아진 것도 은행들이 집단대출에 주목하는 이유다. 재건축·재개발 규제가 풀리며 단지들이 정비사업 추진을 서두르고 있고, 올해 아파트 입주 예정 물량이 44만3000가구로 작년(35만6891가구)보다 많아 집단대출 수요가 늘어날 여지도 있다.은행들 간 경쟁이 붙은 덕에 집단대출 금리는 하락하는 추세다. 실제로 몇몇 사업장에 입찰한 은행들 사이에서 "타사보다 금리를 0.01%포인트라도 낮추자"는 말이 나왔을 정도로 경쟁이 치열한 것으로 전해졌다.연 3%대 금리의 주담대로 시중은행을 위협하고 있는 인터넷은행도 집단대출에 눈독을 들이고 있다. 은행권에서는 카카오뱅크에 이어 토스뱅크와 케이뱅크도 집단대출 공략 채비에 나설 것으로 보고 있다. 카카오뱅크는 이미 내년 출시를 목표로 집단대출 상품을 개발하고 있다. 카카오뱅크는 주담대 호조로 지난 1분기 최고 실적을 냈는데, 집단대출 확대 역시 안정적으로 담보대출을 늘리려는 전략으로 풀이된다. 한편 지난달 가계대출도 8개월 만에 증가세로 전환하는 등 부동산 관련 대출이 늘어나는 모양새다. 금융위원회가 발표한 '4월 가계대출 동향'에 따르면 지난달 전 금융권 가계대출은 2000억원 증가했다. 가계대출 잔액은 지난해 9월 이후 계속 감소세를 보였지만, 지난달 증가세로 전환했다.[임영신 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.05.19.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>묻지마 투자 이제 그만 …'알짜 코인' 감별법 있다</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005132673?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>핵심지표로 코인 가치투자올해 들어 5월까지 비트코인은 약 60% 올라 주요 투자자산 중 가장 높은 수익률을 기록했다. 지난해 10월 첫 거래를 시작한 코인 앱토스는 지난 1월 한 달 동안 무려 5배 올랐다. 올 들어 미국 긴축정책과 은행 위기 등으로 글로벌 경제환경이 급변하면서 주식 등 기존 투자자산이 주춤하자 상대적으로 강세를 보인 코인 시장에 투자자의 이목이 집중됐다.그러나 코인 시장은 투자자 보호나 시장 안정을 위한 규제가 부재한 여파로 투자 관련 정보가 극히 제한돼 있다. 따라서 현재는 코인 투자에 필요한 정보와 지표를 민간 사업자나 플랫폼 등을 통해 직접 확인할 수밖에 없다. 국내에서는 크립토퀀트와 쟁글, 해외에서는 메사리와 난센 등 여러 코인 정보 회사가 활동하면서 투자에 유용한 지표를 제공하고 있다.코인의 대장 격인 비트코인 투자자라면 언제 사고 언제 팔아야 할지가 가장 중요한 지표다. 반면 안정성이 검증되지 않은 알트코인 투자자라면 어떤 코인을 사야 하는지에 대한 '옥석 가리기'가 가장 중요하다. 비트코인은 매매 타이밍을, 알트코인은 코인 내재 가치를 판별하는 데 도움이 될 여러 지표가 있다. 주식이나 채권에 투자할 때처럼 코인에 투자할 때도 각종 지표를 확인해보면 많은 도움을 얻을 수 있다. 코인 투자에도 발품이 필요하다는 얘기다.코인 시장의 주가순자산비율(PBR)인 MVRV역사상 가장 위대한 투자가로 꼽히는 워런 버핏은 가치 투자를 전 세계에 알린 대표적인 인사다. 가치 투자의 시작은 주가순자산비율(PBR)이 낮은 주식을 찾는 것에서 시작한다. 기업이 보유한 순자산 대비 주가가 얼마나 낮게 평가돼 있느냐가 바로 낮은 가치에서 시작해 높은 가치로 가는 여정의 첫걸음이기 때문이다.코인 시장에서도 PBR에 해당하는 지표가 있다. 바로 시가총액 대비 실현 시가총액 비율(Market Value to Realized Value·MVRV)이다. 실현 시가총액은 각 비트코인 보유자들이 구매한 가격과 개수를 곱해 구한 총액을 말한다. 즉 시중에 유통되는 비트코인의 총구매금액이라고 할 수 있다. MVRV가 3이라면 현 시가총액이 총구매금액 대비 3배 올랐다는 것으로 볼 수 있다. 일대일 대응이 되는 것은 아니지만 총구매금액을 기업의 순자산에, 현 시가총액을 기업의 전체 주식 가치에 대응시킬 수 있어 PBR처럼 현재 비트코인이 저평가 상태인지 고평가 상태인지 알 수 있는 지표로 사용할 수 있다.MVRV는 특히 코인 강세장이 시작하고 끝나는 타이밍을 잘 짚어내면서 신뢰도를 얻었다. 윤해성 업라이즈 최고투자책임자(CIO)는 "올해 코인이 급등하기 전인 작년 하반기 비트코인 MVRV는 0.7까지 떨어져 매수 타이밍이라는 신호를 보냈다"며 "증시 격언인 '무릎에 사서 어깨에 팔아라'에 MVRV를 적용하면 무릎이 1, 어깨가 3이라고 볼 수 있다"고 말했다.MVRV는 비트코인의 공개된 거래 데이터를 활용하기 때문에 다양한 곳에서 확인할 수 있다. 국내에서는 크립토퀀트에서 차트를 제공한다. 몇몇 코인 정보 사이트에서는 표준점수를 적용한 MVRV z 스코어를 제공하기도 한다. MVRV 비율과 큰 차이는 없다.코인 내재가치 평가 '네트워크 활성화' 지표비트코인을 포함한 가상화폐의 내재가치 평가는 아직도 논란거리다. 그럼에도 새로운 코인은 끊임없이 등장하고 뒤처진 코인은 거래소의 거래 지원 종료를 거쳐 소리 없이 사라진다. 주식 시장에서는 영업이익과 같은 기업의 실적이 주가를 판별하는 주요 지표가 되지만 코인에는 아직 이 같은 지표가 개발되지 않았다.그러나 코인의 주요 기술인 블록체인의 탈중앙화에 따르면 내재가치 판별에 도움이 되는 개념을 찾을 수 있다. 바로 네트워크 효과다. 한 상품에 대한 사용자 수요가 형성되면 다른 사람들의 선택에 큰 영향을 미친다는 개념이다. 멧커프의 법칙으로 구체화되는데, 네트워크의 가치는 이용자 수의 제곱에 비례한다는 공식이다. 제록스 연구원인 밥 멧커프가 정립한 법칙으로 인터넷 경제의 3법칙 중 하나로 꼽히며 페이스북 시가총액을 계산할 때 활용되면서 신뢰를 얻었다.코인에서 멧커프 법칙을 활용한 지표로는 시가총액멧커프비율(Network Value to Metcalfe Ratio·NVM)을 들 수 있다. NVM 역시 비트코인에서 주로 활용된다. 활성화된 지갑을 네트워크 사용자로 간주하고 사용자 대비 시가총액 비율을 구해 높으면 가치가 고평가됐고 낮으면 저평가된 것으로 판단한다. 지난 16일 기준 비트코인의 NVM은 0.43으로 비트코인 가격이 3만달러를 터치한 4월 중순 0.58까지 올랐다가 현재는 소폭 하락했다.또 다른 지표로는 일일 활성화 주소 수(Daily Active Address·DAA)를 들 수 있다. 이용자 수가 많을수록 네트워크 가치가 상승하는데 블록체인 네트워크에서는 이용자에 해당하는 것이 바로 지갑이다. 이더리움 등 다른 알트코인의 성장세를 가늠할 때 활용한다.이더리움의 활성화 주소 수는 2018년 탈중앙화 금융 열풍이 불었을 때 처음으로 70만개를 넘겼다. 당시 이더리움 가격은 사상 처음으로 1000달러를 돌파했다. 지난해 9월 머지 업그레이드 이후 약 50만개에 머무르면서 이더리움 가격도 비트코인이 60% 이상 오르는 데 비해 상대적으로 낮은 상승률을 기록하고 있다. 정석문 코빗 리서치 센터장은 "사용자가 추가될수록 유동성, 상호 교류, 호환성 개선 효과가 발생해야 해당 코인의 내재가치가 함께 오른다"며 네트워크 효과의 중요성을 강조했다.규제 없어 지표 신뢰성 수시 확인해야비트코인을 제외한 여러 알트코인은 투자 지표를 인위적으로 가공할 수 있다는 문제가 있다. 신생 코인에서 주로 발견할 수 있는 것으로 대규모 코인 무상 제공(에어드롭)을 통해 단기간에 사용자를 급격히 늘려 네트워크 효과의 인위적 부양을 꾀하는 것이다. 이는 최근 김남국 의원의 코인 투자와 관련해서도 논란이 된 바 있다.에어드롭은 특정 사용자에게 이득을 제공하기 위한 목적이라기보다 네트워크 사용자를 늘리고 고정시킴으로써 활성화를 유도하는 마케팅 기법이다. 올해 코인 시장에서 화제가 된 블러, 아비트럼 등이 에어드롭으로 사용자를 대규모로 늘린 대표적인 사례다. 이때 초기에 급격히 늘어난 사용자가 시간이 갈수록 이탈하기 때문에 코인의 가격도 우하향으로 흐를 가능성이 높다.비트코인 관련 투자 지표에서도 코인 거래소 내부 거래는 네트워크상에 포착되지 않는 점을 유념해야 한다. 이를 보완하기 위해 미국의 대표적인 거래소인 코인베이스와 전 세계 1위 거래소인 바이낸스 간 가격 차를 지표화한 코인베이스 프리미엄을 활용한다. 그러나 거래소 간 가격 차이를 보여주는 것에 불과하기 때문에 지표를 100% 보완할 수 없다는 것도 숙지해야 한다. [김용영 엠블록 에디터]</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.05.17.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>전세계 120조 달러 규모 'B2B결제' 카드 결제시장의 기막힌 블루오션</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005131508?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Cover Story 글로벌 결제기업 '비자' 대런 파슬로 비즈니스솔루션즈 총괄어음 활용한 기업 운용대금 결제이젠 카드 결제로 업무효율 높여모바일 결합한 지급결제 시스템글로벌 B2B 시장에서도 이뤄져금융기관·가맹점 네트워크 통해어떤 결제든 가능한 플랫폼 제공게티이미지뱅크결제는 모든 경제행위의 근간이 된다. 화폐는 필요한 재화를 구매하는 교환력을 갖춘 수단이다. 화폐의 교환력은 결제를 통해 표출된다. 그렇기에 결제가 경제에서 차지하는 비중이 매우 크다.결제는 경로 의존성을 지닌다. 예컨대 카드 결제 비중이 높은 국가는 다른 결제 수단이 생겨도 대부분의 사람이 계속 카드로 결제한다는 얘기다. 전 세계에서 카드 결제가 역성장하는 몇 안 되는 시장 중엔 중국이 있다. 중국에서는 QR코드 결제가 더 대중화됐다. QR코드가 이미 결제 기반 시스템으로 퍼져 있어 카드 결제 시스템이 쉽게 비집고 들어가지 못한다. 국내에서 QR코드 결제가 쉽게 확산되지 못하는 것과 반대다.한국에서 카드 결제는 여전히 확장되고 있다. 지난 3월 애플페이가 들어오면서 모바일 기기를 기반으로 한 결제 시스템이 점점 커지고 있지만, 그것 또한 기반은 카드 결제다. 가상 카드를 모바일에서 불러내 결제하는 식이기 때문이다.최근 카드 결제가 빠르게 확대되는 곳은 기업 간 결제 시장이다. 특히 중소규모 기업이 기업의 운용 자금을 결제할 때 카드를 쓰는 사례가 늘어나고 있다. 특히 국경을 오가는 결제에서도 기업이 상대 기업이 내미는 카드를 받아 대금을 결제해주는 일이 많아지고 있다.최근 매일경제 MK 비즈니스 스토리와 인터뷰한 글로벌 결제 기업 비자(VISA)의 대런 파슬로 비즈니스솔루션즈(VBS)사업부 글로벌총괄도 이런 점을 소개했다. 그는 "최근 지급 결제 시스템이 모바일로 들어오면서 기업 간 거래(B2B)의 소비자화 현상이 도래했다"고 말했다. 개인 휴대폰으로 지급 결제 업무를 하다 보니 일반 소비자들이 기업과 소비자 간 거래(B2C)에서 결제하는 것과 비슷한 결제가 B2B에서도 이뤄지길 기대하게 됐다는 얘기다.기존 기업은 기업어음 등을 활용해 운영 대금을 결제했다. 이는 대부분 현금 기반의 결제다. 신용카드가 없는 삶을 떠올리면 이해가 쉽다. 신용카드가 없다면 갑작스럽게 큰돈을 쓸 일이 생길 때 자금 흐름에 어려움을 겪을 수 있다. 결혼식을 앞두거나 자동차를 살 때는 할부 구매가 필요할 수도 있다. 기업이 결제 시스템을 활용해 자금을 다양한 전략으로 운용할 수 있다면 기업 운용의 효율성은 높아질 수밖에 없다.비자의 B2B 커넥트는 결제 기술을 개선할 수 있도록 도와 중소기업이 고객 요구를 충족시키고 공급업체에 자체 결제를 진행할 수 있도록 한다. 특히 글로벌 결제가 많은 기업 간 결제에서 비자의 네트워크는 절대적 영향력을 발휘한다. 비자 네트워크는 전 세계에 확산돼 있기 때문이다.비자에 따르면 최근 점점 더 많은 중소기업이 자본 운용 또는 공급업체에 대한 결제를 할 때 비자의 기업카드를 사용하고 있다. 중소기업은 비자 기업카드로 결제하고 매입채무회전기간(DPO)을 이자 없이 55일까지 늘릴 수 있다. 이는 이 기간 중요한 현금 흐름과 예산을 확보하는 데 많은 도움을 준다.직원들에게 복리후생이나 업무추진비를 제공하는 과정에도 쓰인다. 직원들이 먼저 지불하고 고용주가 추후 지급해주는 방식 대신 직원들에게 기업카드를 제공함으로써 내부 관리상 업무를 줄일 수 있다.비자에서만 20년 넘게 몸담아온 파슬로 총괄에게 결제 시장의 인사이트를 얻어보자. 다음은 파슬로 총괄과의 일문일답.―비자의 B2B 결제 사업에 대한 소개를 부탁한다.▷B2B 결제는 말 그대로 기업 간 대금 결제를 뜻한다. 예컨대 한 기업이 사업을 위해 출장 등의 비용으로 항공사를 여러 번 이용했다면 해당 금액에 대해 법인 자격으로 항공권 대금을 결제해야 한다. 이때 어음 등 방식을 쓰는 데 비자는 카드 결제 네트워크를 제공하는 것이다.B2B 결제 사업은 지난 20년간 비자가 하는 비즈니스의 중요한 축 중 하나였다. 비자는 다양한 서비스를 개발하고 다른 회사를 인수하면서 빠르게 성장하기 위해 노력해왔다.―비자가 B2B 시장을 공략하는 방향은 무엇인가.▷소비자가 이미 무수히 사용 중인 비자 결제 네트워크가 중소기업이나 대기업 같은 기업이 운용 자금을 결제하는 데도 최고 플랫폼이 되도록 하는 게 목표다.비자는 B2C에서나 B2B에서나 같은 목표를 세우고 있다. 비자가 수십 년간 확대해온 전 세계 금융기관, 가맹점과의 네트워크를 적극적으로 활용해 카드 결제를 포함한 모든 방식의 결제를 용이하게 할 수 있는 플랫폼이 되는 것이다.자체적으로 보유하고 있는 B2B 커넥트 플랫폼이나 비자 다이렉트 플랫폼, 파트너사 플랫폼이 될 수도 있다. 어느 플랫폼이든 결제가 쉽게 이뤄지게 하는 게 우리의 지향점이다.―비자가 B2B 시장에 특히 집중하는 이유가 있나.▷비자는 네트워크 기업이다. 네트워크가 필요한 곳이 있다면 구축하는 게 우리 업이다. 처음엔 결제의 중심에 전통 은행이 있었다. 50~60년 전 비자 같은 결제 네트워크 회사가 들어오면서 소비자 중심의 비즈니스를 성장시켜왔다. 지난 10년은 핀테크나 논뱅크가 결제 산업에 많이 들어왔다.그간 산업 발전을 돌이켜보면 비자는 궁극적인 B2B 사업자다. 우리 파트너사가 모두 기업이다. 비자가 소비자에게 직접 다가가지는 않기 때문이다. 우리는 늘 중간에 있다. 소비자와 기업일 수도 있고, 기업과 기업일 수도 있다. 그 모든 결제를 즉각적으로 투명하게 안전하게 결제할 수 있게 하는 것이 목표다.―B2B 결제 시장 전망은 어떤가.▷엄청난 블루오션이라고 생각한다. 전 세계 B2B 결제 시장 규모는 120조달러다. 아시아만 봐도 50조달러 규모고 한국은 1조달러를 웃돈다. 이 중 1%가량이 기존 카드 네트워크를 타고 이뤄지고 있다. 향후 공략해 나가야 할 영역이 아주 넓다는 얘기다.특히 B2B 시장엔 엄청난 규모의 돈이 흐른다. 앞으로도 기술이 변하고 디지털화될 가능성이 매우 크다. 이런 결제가 온라인이나 디지털 플랫폼 쪽으로 전환해 나간다면 카드 네트워크 사업 규모로 봤을 때 2배 이상 성장할 여지가 있다고 본다.게티이미지뱅크"수출입 의존도 높은 한국 B2B결제시장에 큰 기회"전자상거래 매출·채권 관리에서제약사·병원·약국 대금결제까지한국서 B2B결제 파트너십 논의중은행등 전통적인 협력사와 함께규모 작은 핀테크와도 제휴 필요코로나19 팬데믹은 끝났지만 사회에 미친 영향은 매우 컸다. 특히 지급결제 시장에도 많은 영향을 미쳤다. 한국은행이 2020년 집계한 자료에 따르면 온라인 쇼핑몰 등 전자상거래를 정산하는 전자지급결제대행서비스(PG)의 하루 평균 이용실적은 1782만건, 6769억원으로 팬데믹 이전보다 각각 32%, 15.3% 증가했다. 특히 음식 배달과 식생활 용품의 온라인 결제가 급증했다. 카카오페이, 토스 등 간편결제 서비스 이용 건수와 금액도 각각 8%, 12.1% 늘었다. 결제의 디지털화가 강력하게 진행된 것이다.이 같은 변화는 비자의 B2B 비즈니스에도 많은 영향을 미쳤다. 대런 파슬로 총괄은 "팬데믹으로 B2B 비즈니스에서 비자의 영향력이 더 빠르게 확장됐다"고 말했다.―팬데믹 이후 결제 시장이 많이 변했다.▷당연한 얘기지만 팬데믹 이후 모바일과 온라인 채널이 지불 결제 채널로 매우 커졌다. 특히 콘택트리스 결제도 시장마다 다양한 방식으로 확장되고 있다. 콘택트리스 결제는 애플페이처럼 카드 혹은 모바일 기기와 같은 결제수단을 단말기 근처에 가져가기만 하면 결제되는 방식을 말한다.아시아 시장은 이미 4분의 1 정도가 전자지갑을 사용한다. 전자지갑은 딱 애플페이 같은 형태의 결제인데, 실물카드가 아니라 가상카드를 모바일 기기와 같은 다양한 결제수단에 저장해놓고 근거리무선통신(NFC) 방식 등으로 결제하는 걸 말한다.북미시장과 같은 경우는 실물카드를 사용한 NFC 결제와 같은 카드 기반 비접촉식 결제를 선호한다. 나라마다 다양한 방식이 선호된다.―특히 모바일화가 매우 큰 변화인 것 같다.▷그렇다. 한국은 모두가 모바일폰을 쓰기 때문에 어색하게 들릴 수 있지만 팬데믹 기간 정말 많은 사람이 모바일폰으로 결제를 하게 됐다. 3년 후가 되면 경제인구의 75%는 Z세대(1997~2011년 출생)가 될 것이다. Z세대만 보더라도 휴대폰을 모든 소비와 업무에서 쓰게 될 것이다.―이 같은 변화가 B2B 결제에도 나타났나.▷소상공인의 구매 및 판매 행위, 기업의 회계, 경영관리부서의 경비 집행 및 구매 행위 상당 부분이 온라인화되었다. 이들이 개인 폰을 갖고 지급결제를 하게 됐다. B2B 결제의 소비자화 현상이 도래하게 된 것이다. 개인 폰을 갖고 지급결제 업무를 보다 보니 일반 소비자가 B2C에서 결제하는 것과 비슷한 결제가 B2B에서 이뤄지길 기대하게 된 것이다.실제 수치로도 나타난다. 비자에서 B2B 거래에서 실물카드로 결제된 것 대비 온라인 결제량을 비교한 결과 팬데믹 이전에는 B2B 결제에서 카드를 활용하는 비중이 10%였다면 팬데믹을 거치면서 30~50%까지 성장한 것으로 나타났다. 온라인 결제로의 전환도 마찬가지다. 비자는 이 시장이 확대되기까지 10년 정도는 걸릴 것으로 예상했다. 하지만 팬데믹 동안 2~3년으로 압축됐다.―B2B 결제가 급속도로 카드 네트워크에 들어온 이유를 더 자세히 설명해달라.▷중소기업 수준에서 카드 네트워크로 많이 편입된 게 컸다. 팬데믹 시기와 팬데믹이 조금 벗어난 시기로 나눠서 볼 수 있다.먼저 팬데믹 시기부터 보자면 소상공인은 팬데믹으로 가장 영향을 받은 집단이다. 폐업한 곳이 많다. 팬데믹 시기를 버텨낸 소기업은 대부분 온라인화를 잘한 기업이다. 비자가 세계 각지 소기업을 대상으로 설문조사를 해보니 성공적으로 살아남은 기업의 90%가 온라인에서 성공을 거뒀다.팬데믹 이후 시기를 보자면 공급망 문제가 소기업을 위협했다. 이에 더해 금리 인상으로 자금조달 비용이 올라가고 인플레이션도 높은 수준이었다. 소기업은 원자재 구매, 생산, 판매활동 등 기업 운영에 소요되는 비용인 '운전자금' 관리가 중요해졌다. 이 두 가지 이유가 B2B 결제 카드화가 빠르게 이뤄진 이유다.―운전자금 관리에 B2B 카드 결제가 중요한 이유는 무엇인가.▷카드 비즈니스의 핵심은 신용이다. B2C 결제를 생각해보자. 카드사는 카드 사용자의 신용도를 계산해서 필요한 시기에 결제가 되도록 도와준다. 결제대금은 추후에 갚으면 된다. 판매자는 대금을 즉시 받을 수 있다.소기업도 마찬가지다. 운전자금은 받을 대금, 지급할 대금 같은 걸 관리해야 하는데 비자가 이런 대금 결제 과정을 지원해주는 것이다.―이커머스 플랫폼의 발전도 큰 영향을 끼쳤다고 들었다.▷그렇다. 이커머스에 들어와 있는 소기업을 생각해봐라. 이전과 다르게 아주 작은 소기업도 이제 이커머스에 들어와 있다.온라인 쇼핑몰이나 배달앱을 떠올리면 된다. 이들은 사업을 위해 다양한 대금을 결제해야 한다. 하지만 자금 관리가 쉽지 않다. 이때 카드 네트워크를 활용하면 좀 더 자금 관리가 쉬워진다. 그동안은 카드를 받기만 했던 판매자가 카드를 사용하는 쪽이 되는 이유다.―한국 B2B 결제 시장은 어떻게 보는가.▷한국은 굉장히 큰 기회가 있는 시장이다. 인구구조만 봐도 디지털, 온라인 채널로 전환이 유용하다. 또 한국인은 기술 숙련도와 디지털 잠재력이 상당히 높다. 한국 경제구조가 수출입 의존도가 높고 국경 간 무역이 많은 점도 B2B 결제 시장이 커질 수밖에 없는 이유다. 기업 간 결제가 빈번하기 때문이다. 전자상거래에도 한국 업체들이 참여하고 있어 B2B 기회가 굉장히 크다.―한국 시장과 B2B 결제에서 협업 사례가 있나.▷정말 다양하게 추진하고 있다. 전자상거래 쪽은 B2B 여행 쪽, 온라인 인터넷 여행사, 헬스케어, 수출입과 관련된 그런 영역으로 파트너십 가능성을 항상 보고 있다.전통 은행과도 파트너십을 맺고 있다. 이른바 트레저리 테크라고 부르는 핀테크 기업과도 파트너십 기회를 모색하고 있다. 이미 한국에서 시장 영향력이 큰 이커머스 플랫폼 두 곳과 OTA 플랫폼 두 곳과도 논의를 진행 중이다.한국에서 집중하고 있는 주요 파트너십 분야는 운전자금 관리 쪽이다. 전자상거래 영역에서의 매출, 매입채권 관리, 헬스케어에서는 제약 도매상과 병원, 약국 간 대금 결제와 같은 분야를 보고 있다. 한국 외에 유럽, 북미는 조금 다른 산업을 중심으로 파트너십을 확장하고 있는데, 농업이나 광업 쪽 파트너십이 주효하다.―B2B 결제 사업을 확장하기 위해 집중하는 건 무엇인가.▷협업을 늘려나가는 것이다. 전통적인 덩치가 큰 파트너사와도 협력해야 하고, 규모가 작은 핀테크와도 협력을 늘려나가고 있다.대형 고객사는 현대화의 필요성을 느껴 변화를 꾀하고 있는 기업이 많다. 현재는 팬데믹 영향으로 작은 고객사와의 비즈니스도 크게 늘어나고 있다. 비자는 네트워크의 네트워크가 되기를 지향하기 때문에 이들 모두를 중개하는 역할을 할 것이다.덩치가 큰 파트너와 작은 파트너 둘 다 중요하다. 아직은 B2B 결제 시장에 전통적인 대기업 고객이 많다. 하지만 새로운 고객 중에서도 대기업이 있다. 현대화의 필요성을 느끼면서 변화를 꾀하는 곳이 있다. 최근에는 모바일 시대가 보편화되면서 규모가 작은 고객사와의 비즈니스도 중요해졌다.비자만의 힘으로 다 되는 건 아니다. 핀테크 기업이 뛰어난 민첩성과 유연성으로 최근 결제 네트워크에 진입하고 있기 때문에 대형 전통사업 비즈니스의 촉매로 작동하고 있다.대런 파슬로 글로벌 총괄은 미국 펜실베이니아대 와튼스쿨에서 경영학을 전공하고 같은 대학에서 국제관계학 학위를 취득했다. 비자에 합류하기 전에는 상업은행, 금융과 카드 결제 사업 부문 전략 개발을 담당하는 경영 컨설팅 회사 FIC에서 선임 프로젝트 매니저로 근무했다. 2003년 비자에 합류한 뒤로는 글로벌 프로세싱 사업, 글로벌 커머셜 솔루션과 영업 관리 등 다양한 분야에서 임원직을 맡아왔다. 현재 비즈니스솔루션즈에서 중소기업부터 큰 규모의 다국적 기업까지 다양한 규모의 기업과 정부기관을 지원하는 혁신적인 상품과 솔루션을 제공하며 VBS 사업부를 이끌고 있다.비자비자는 디지털 결제 분야의 세계적 기업이다. 세계적으로 가장 선호하는 결제수단이 되는 것을 회사의 목표로 한다. 비자는 200여 개국 소비자와 가맹점, 금융기관, 정부기관 사이에서 발생하는 결제를 처리하고 자금의 이동을 견인하고 있다. 비자는 설립 초기인 1958년부터 결제 네트워크에서 하나의 연결지점이 될 수 있도록 자사의 고유 네트워크인 비자넷을 확장 및 개선해 모든 형태의 지불 거래가 가능하도록 노력하고 있다.[최근도 기자 / 사진 한주형 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.05.16.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사, 중저신용대출 2년여 간 '6.2조원' 공급</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000044947?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>인뱅 3사 중저신용자대출 잔액 지난해 말 8.6조원3사의 중저신용자대출 비중 30.4%로 높아져시중은행서는 중저신용자 대출 급감(위에서부터) 카카오뱅크, 케이뱅크, 토스뱅크 로고. [사진 각 사][이코노미스트 이용우 기자] 인터넷은행들의 중저신용자대출 규모가 크게 증가했다. 반면 시중은행의 관련 대출은 계속해서 감소한 것으로 나타났다. 중저신용자들이 시중은행에서 대출이 안 되자 인터넷은행으로 몰렸다는 분석이다. 16일 국회 정무위원회 소속 송석준 국민의힘 의원이 금융감독원에서 제출받은 자료에 따르면 케이뱅크, 카카오뱅크(323410), 토스뱅크 등 인터넷은행 3사의 중저신용대출 잔액은 2020년 6월 2조3900억원에서 지난해 말 8조5800억원으로 259% 급증했다. 이에 인터넷은행 3사의 가계대출에서 중저신용자대출이 차지하는 비중은 같은 기간 17.4%에서 30.4%로 높아졌다. 중저신용대출은 개인신용평가회사 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%에 대한 대출을 말한다. 금융당국은 2021년부터 인터넷은행이 중저신용자대출을 확대하겠다는 출범 취지에 맞게 영업하도록 관련 대출의 비중 목표치를 공시하도록 했다. 올해 연말까지 인터넷은행의 중저신용대출 비중 목표치는 카카오뱅크 30%, 케이뱅크 32%, 토스뱅크 44%다. 지난해의 25%, 25%, 42%보다 상향 조정됐다.업계에서는 시중은행들이 중저신용자대출을 축소하면서 인터넷은행으로 관련 대출의 쏠림 현상이 있었다고 평가하고 있다. KB국민은행·신한은행·하나은행·우리은행 등 4대 시중은행의 중저신용대출 비중은 2020년 6월 25.2%에서 지난해 말에는 16.9%까지 떨어졌다. 대출 잔액은 이 기간 24조8600억원에서 16조5500억원으로 감소했다. 4대 은행의 연간 중저신용대출 취급액도 2020년 8조3666억원에서 지난해 2조8089억원으로 크게 줄었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.05.24.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>카카오뱅크도 ‘매일’ 이자 지급…인터넷 은행 ‘파킹통장’ 유치 경쟁 후끈</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003225731?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>토스·케이뱅크 이어 서비스 개시금리 2%대…정기예금보다 낮아비중 높을수록 은행 이익은 상승저원가성 예금인 ‘파킹통장’(수시 입출식 통장) 고객을 유치하려는 인터넷은행의 경쟁이 치열해지면서 토스뱅크와 케이뱅크에 이어 카카오뱅크도 ‘매일 이자’ 서비스에 가세했다.카카오뱅크는 24일 자사 파킹통장인 ‘세이프박스’에 대해 ‘이자 바로 받기’ 서비스를 시작한다고 밝혔다. 종전까지 카카오뱅크는 한 달에 한 번 세이프박스 예금에 이자를 지급했다.카카오뱅크는 “고객이 이자 수령을 원할 때 카카오뱅크 애플리케이션(앱)에 접속해 어제까지 쌓인 이자를 조회한 뒤 ‘받기’ 버튼을 누르면 바로 이자를 받을 수 있다”고 밝혔다.이자를 매일 받는 서비스는 지난해 3월 인터넷은행 3사 중 토스뱅크가 최초 출시했고, 케이뱅크가 지난 1월 합류했다. 카카오뱅크까지 해당 서비스를 개시하면서 3사가 대등하게 경쟁하게 됐다.3사가 매일 이자를 주는 세이프박스, 플러스박스(케이뱅크), 토스뱅크 통장은 수시 입출식 통장이지만 일반적인 보통예금(연 0.1%)보다 금리가 높다. 이날 현재 카카오뱅크는 해당 통장에 세전 연 2.4%, 케이뱅크는 2.6%, 토스뱅크는 최고 2.8%(5000만원 이하는 2%)의 금리를 제공하고 있다.하지만 이들 상품은 정기 예·적금(연 3~5%)보다 금리가 낮아, 은행으로서는 이자 비용이 비교적 적게 든다. 전체 수신 잔액 중에서 이런 저원가성 예금의 비중이 클수록 은행의 예대금리차(대출금리-저축성수신금리)가 커지고 이자 이익이 늘어날 수 있다.카카오뱅크의 경우 지난 1분기 저원가성 예금의 비중이 56.8%로, 전체 은행권(39.4%)에 비해 현저히 높았다. 수신 잔액 40조2000억원 중 22조9000억원이 세이프박스, 모임통장 등 저원가성 예금이다. 증권가에서는 카카오뱅크가 지난 1분기 깜짝 실적(순이익 1019억원)을 기록한 배경 중 하나로 저원가성 예금 비중이 높다는 점을 꼽았다.시중은행의 정기예금 금리가 3%대로 떨어져 인기가 시들해지고, 투자 기회를 기다리는 대기성 자금이 늘어나는 것은 파킹통장 서비스를 강화한 인터넷은행에 호재가 될 것으로 보인다. 대기성 자금이 파킹통장으로 유입될 가능성이 있다. KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 지난달 정기예금 잔액은 805조7827억원으로, 지난해 말보다 12조6539억원 줄었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.05.21.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>"이기영, 父 죽여놓고 '아버지상' 메모로 우롱"…숨진 택시기사 딸의 호소</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001213258?sid=102</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>택시기사·동거녀 살해범 이기영. 연합뉴스동거녀와 택시기사를 잇따라 살해한 이기영(32)에게 1심 법원이 무기징역을 선고했다. 이기영이 살해한 택시기사의 딸이라고 밝힌 네티즌은 "사형 아닌 판결은 생각하지 못했다"며 분노를 표했다.지난 20일 한 포털 온라인 커뮤니티에는 '이기영 살인사건의 피해자였던 택시기사의 딸입니다'라는 제목의 글이 올라왔다.작성자 A 씨는 "이기영 관련 1심 재판이 무기징역으로 판결나며 끝났다. 사람을 두 명이나 죽인 살인범에게 사형 아닌 판결이 내려질 것으로 생각하지 않았기 때문에 제 가족은 슬픔과 더불어 분통 터지는 상황이 됐다"라고 밝혔다.A 씨는 아버지가 사라졌던 지난해 12월 25일 상황을 설명했다. 그는 "아버지인 척 카카오톡을 주고받으며 전화 통화는 끝끝내 피하는 이기영에게 이상함을 느낀 어머니께서 불안함에 경찰서에 가자고 하셨다"라며 "이기영은 카톡을 하는 내내 본인이 교통사고를 냈는데 사망자가 생겨 그 뒤처리를 하고 있다고 거짓말했기 때문에 대화 상대가 아버지가 아닐 거라곤 꿈에도 생각하지 못했다"고 했다.이어 "그러나 경찰서에 도착해 택시 차량번호를 부르며 사고 조회를 한 결과 교통사고 접수가 아예 없다는 얘길 듣게 됐고, 이때부터 저희는 무언가 일이 크게 잘못됐다는 것을 느끼고 손발이 떨리고 심장이 '쿵' 떨어졌다"고 덧붙였다.A 씨 가족은 경찰에 위치추적을 요청하며 아버지 실종 신고를 했지만 이들에게 돌아온 건 청천벽력 같은 아버지의 부고 소식이었다. 결국 이들 가족에게 성탄절은 세상에서 가장 끔찍한 기억으로 남게 됐다.이기영이 택시기사 휴대전화에 토스 앱을 내려받아 본인 통장에 잔고를 이체한 내역서 일부. 피해자 딸이 온라인 커뮤니티에 공개했다.A 씨는 이기영의 엽기 행각에 분노하며 카톡 내용과 토스 이체 내역 일부도 공개했다.A 씨는 "(이기영이) 아버지 살해 직후 저희 아버지 휴대전화에 토스 앱을 내려받아 기존 잔고를 본인 통장으로 이체했다"며 "남의 아버지를 죽여놓고 보란 듯이 '아버지상'이라고 메모했다. 사람 우롱하는 전형적인 사이코패스"라고 적었다.그는 재판 결과를 납득할 수 없어 제출한 탄원서 내용도 공개했다. 탄원서에는 "1심에서 재판부는 피고인이 본인의 죄를 인정한 점과 공탁한 사실을 참작해 양형 이유로 들었다. 공탁과 합의에 대해 저희 유족 측은 지속적으로 거부 의사를 명확히 밝혀왔다. 피해자가 받지 않은 공탁이 무슨 이유로 피고인의 양형에 유리한 사유가 되는 것인지 저희는 이해가 되지 않는다. 저희가 합의를 거부했으니 공탁금은 본인에게 되돌아가는 것으로 알고 있는데, 이런 형식적인 공탁제도가 도대체 누구를 위한 제도인지 모르겠다"는 내용이 담겼다.또 "피해자가 가해자를 죄를 용서할 수 없다면 그의 사과를 거부할 수 있는 권리도 당연히 있는 것이고, 용서할 수 없는 죄를 지은 사람의 강제된 사과는 피해자에게 있어 도리어 폭행과 같다. 구속되고 약 5개월간 피고인은 반성문 한 장 제출하지 않았다고 들었다. 이런 피고인이 정말 반성의 여지가 있다고 보시는 건지 의문이다"라는 내용도 포함됐다.이기영은 지난해 8월 3일 파주시 주거지에서 동거녀이자 집주인이던 A(50) 씨의 휴대전화와 신용카드 등을 빼앗을 목적으로 A 씨의 머리를 둔기로 10여 차례 내리쳐 살해한 혐의를 받고 있다. 이튿날 A씨의 시신을 파주시 공릉천변 일대에 유기한 혐의도 있다.지난해 12월에는 음주운전 접촉 사고를 무마하기 위해 집으로 유인한 택시 기사 B(59) 씨의 이마를 둔기로 두 차례 내리쳐 살해하고 옷장에 시신을 유기한 혐의를 받는다.의정부지법 고양지원 형사1부(최종원 부장판사)는 지난 19일 강도 살인 및 특정범죄가중처벌에 관한 법률상 보복살인 등의 혐의로 구속기소 된 이기영에게 무기징역을 선고하고 30년간 위치추적 전자장치(전자발찌) 부착을 명령했다.재판부는 "피고인이 사체를 온수로 씻어 혈액의 응고를 막아 유기하기 쉽게 했고, 시신을 잘 찾을 수 없게 비가 많이 오는 날 공릉천에 유기했다"면서 "피해자의 지인들에게는 피해자가 살아있는 것처럼 메시지를 보내는 등 범행을 미리 계획했고, 살해 방법 역시 매우 잔혹하다"고 말했다.이어 "피고인은 살해 행위와 그 이후의 범행까지도 철저히 계획한 다음 스스럼 없이 계획대로 했다"면서 "피해자들의 사체를 유기한 후 일말의 양심의 가책 없이 피해자의 돈을 이용해서 자신의 경제적 욕구를 실현하며 아무렇지 않게 일상생활을 유지하는 등 인면수심에 대단히 잔혹한 태도를 보였다"고 설명했다.재판부는 또 "만일 법이 허용했더라면 가석방 없는 무기징역형을 선택해서 피고인을 사회로부터 격리하는 방안을 고려했을 수 있을 만큼 대단히 잔혹한 범죄에 해당한다"면서 "유가족들의 고통 역시 감히 상상할 수 없을 만큼 크다는 점을 재판부가 충분히 고민하고 인식하고 있음을 다시 한번 말씀드린다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.05.20.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>'빚 많은' 38개 그룹, 주채무계열 선정…카카오도 포함</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000016462?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>[금융 핫&amp;뉴]은행 기업 신용공여 잔액 1775.5조…10% 증가기업은행, 동유럽 거점 폴란드 진출하나금융·SK, 데이터 결합 업무협약 체결카카오·현대백화점 등 주채무계열 신규 편입고물가·고환율·고금리 등으로 국내 기업들이 경영에 어려움을 겪는 가운데 이들의 재무구조에도 경고등이 켜졌다. 주채무계열로 선정된 계열기업들이 38곳으로 2016년(39개) 이후 가장 많았다.이들에게 돈을 빌려준 은행들은 해당 계열기업에 대한 재무구조평가를 실시하는 등 위험 관리에 나서야 하는 상황이다.금융감독원은 지난해말 기준 총차입금 2조717억원 이상, 은행권 신용공여(대출) 잔액이 1조2094억원 이상인 38개 계열기업군을 올해 주채무계열로 선정했다. 전년도와 비교해 △이랜드 △카카오 △태영 △현대백화점 △한온시스템 △DN △LX 등 7개 계열이 신규 편입됐다. 동국제강 계열은 빠졌다.금감원은 은행업감독규정에 따라 전년말 총차입금이 직전연도 명목 국내총생산 0.1% 이상이고 전년말 은행권 신용공여 잔액이 이전연도 전체 은행권 기업 신용공여 잔액대비 0.075% 이상인 계열기업군을 주채무계열로 선정한다. 주채권은행은 주채무계열 재무구조를 평가해 평가 결과가 미흡한 계열에 대해선 재무구조개선약정 등을 체결하고 자구계획 이행을 점검하는 등 신용위험을 관리한다.올해 신규로 편입된 계열기업들중 카카오와 현대백화점, DN은 M&amp;A 등 투자확대를 위한 차입 증가로, LX는 LG그룹에서 친족분리돼 독립된 기업집단을 형성했기 때문이라는 설명이다.총차입금 기준 상위 5대 계열은 현대차그룹·SK·롯데·삼성·LG 순이었다. 주채무계열의 주채권은행은 우리은행이 11곳으로 가장 많았고 KDB산업은행(10개), 하나은행(8개)과 신한은행(6개), KB국민은행(2개)과 SC제일은행(1개) 등 6개 은행이다.이들 뿐 아니라 경영 환경이 녹록지 않은 국내 기업들의 은행 신용공여가 크게 증가했다. 작년 말 기준 은행의 기업 신용공여 전액은 1775조5000억원으로 전년 말 대비 163조원(10.1%) 증가했다.주채무계열 38곳의 은행권 신용공여액은 322조6000억원으로 같은 기간 45조5000억원(16.4%) 늘었다. 이들의 총차입금은 609조7000억원으로 전년 주채무계열 대비 63조4000억원 증가했다.주채권은행은 올해 주채무계열로 선정된 38개 계열에 대한 재무구조평가를 실시한다. 정성평가시 재무제표에 반영되지 않은 잠재 리스크를 충분히 반영하는 등 엄정한 평가가 이뤄지도록 유도한다는 게 금감원 입장이다.재무구조개선이 필요하다고 판단되는 계열은 주채권은행과 약정을 체결하고, 자구계획 이행상황을 정기적으로 점검하는 등 대기업 그룹 신용위험을 체계적으로 관리해야 한다.금감원 관계자는 "최근 수출 부진 등으로 인한 실적 악화 추세와 부동산PF(프로젝트 파이낸싱) 관련 우발채무 위험 등 리스크를 파악해야 할 것"이라고 말했다.기업은행, 동유럽 거점 폴란드 사무소 열었다IBK기업은행은 16일(현지시간) 폴란드 브로츠와프 지역에 사무소를 개소했다. 지난 3월15일 폴란드 금융감독원(KNF)로부터 사무소 설립 최종인가를 취득한 후 2개월 만이다.기업은행은 유럽내 새로운 사업전략 거점 구축을 추진해왔다. 이번 폴란드 사무소 설립으로 유럽 진출 발판을 마련하게 됐다는 설명이다. 사무소가 진출한 브로츠와프는 LG에너지솔루션과 포스코 등 국내 대기업과 협력 중소기업 진출이 집중된 남서부 최대 공업도시다.개소식에는 김성태 기업은행장을 비롯해 임훈민 폴란드 대사와 폴란드 재무부 차관 등이 참석했다.김성태 행장은 "유럽 생산거점이자 심장부에 위치한 폴란드에 사무소를 열어 기쁘다"라며 "향후 진출기업의 안정적 성장을 도모하고 폴란드 현지 중소기업 생태계를 키우는 등 기업은행의 차별화된 중소기업금융 역할 수행으로 상호 호혜적인 협력 관계를 공고히 하도록 힘쓸 것"이라고 말했다.산업은행, 1.1조 규모 유로화 공모채권 발행KDB산업은행은 유럽지역 투자자들을 대상으로 총 7억5000만유로(약 1조888억원) 규모 유로화 채권을 발행했다. 이 채권은 5년 만기 고정금리 형태다.이번 발행은 한국계 최초 선순위 유로화 공모채 발행이다. 국내 대표 정책금융기관으로서 유로화 신규 벤치마크를 수립해 다른 한국계 기관에 유리한 금리 가이드라인을 제공하는 역할을 했다는 게 산업은행 설명이다.산업은행 관계자는 "미국 국가 부채한도 협상 지연으로 금융시장 변동성 확대 우려 속에서 글로벌 투자자들의 높은 관심과 신뢰를 재확인했다"며 "국제신인도가 높은 한국계 정책금융기관 유로화 채권 발행에 대한 희소가치, 안전자산 투자에 대한 충분한 수요가 확보돼 성공적으로 발행했다"고 말했다.윤희성 수출입은행장, 호남 찾아 현장소통윤희성 한국수출입은행장은 전라남·북도 지역기업 2곳을 방문하고 중소·중견기업에 대한 금융지원 확대와 소통 강화를 약속했다.윤 행장은 전북 김제시에 있는 자동차용 알루미늄휠 제조업체 '하이호휠'과 전남 신안군 소재 조미김 전문 제조·수출 기업인 '신안천사김'을 찾았다. 이번 현장방문은 수출기업 현황을 직접 파악하고 수은의 실질적 지원책을 모색하기 위해 마련됐다.호동철 하이호휠 대표는 "차량 경량화를 위한 알루미늄휠 수요 증가가 기대되는 상황에서 2025년부터는 북미 현지 생산비중이 일정 수준 이상인 차량에 대해서만 무관세 혜택이 주어진다"며 "해외 생산기지 확보와 R&amp;D 확대가 필요하다"고 금융지원을 요청했다.윤희성 행장은 "소·부·장 산업은 미래 모빌리티 등 국가 첨단전략산업 근간일 뿐 아니라 공급만 안정화에도 중요하다"며 "기업이 필요로 하는 다양한 금융이 원활히 지원되도록 최선을 다하겠다"고 답했다.또 권동혁 신안천사김 대표는 "김은 아시안 푸드를 넘어 웰빙 간식으로 자리매김하고 있어 해외시장에서 수요가 확대되고 있다"며 "세계 김 시장에서 점유율을 높이려면 수은의 경쟁력 있는 자금이 적기에 지원돼야 한다"고 말했다.이에 대해 윤 행장은 "새롭게 떠오르는 수출 전략품목인 농수산물 수출 확대와 케이푸드 확산을 위해 해당 산업에 대한 금융지원을 강화하겠다"고 밝혔다.해외여행 가서 카드 사용 주의해야금융감독원은 국내외 여행 수요가 크게 증가하는 가운데 카드 도난분실, 복제 등에 따른 부정 사용도 늘어날 것으로 예상돼 각별한 유의가 필요하다고 당부했다.우선 소비자들은 출국 전 해외사용 안심설정 서비스를 신청하라는 조언이다. 이를 통해 카드 사용 국가와 2일 사용금액, 사용 기간 등을 설정하면 해외 각지에서 거액이 부정결제 되는 사례를 막을 수 있다.해외여행중 카드를 분실하면 즉시 신고해야 한다. 카드 도난분실에 의한 부정 사용이 전체 부정 사용의 대부분(96.7%, 2022년 기준)을 차지하는 만큼 사고 발생 즉시 카드사에 카드 정지와 재발급을 신청하면 피해를 막을 수 있다.해외에서 카드 회원이 카드 정지 신고 절차가 쉽지 않다는 점을 노려 부정 사용액이 갈수록 커지고 있다. 소비자들은 출국 전 카드사 애플리케이션을 다운받고 카드 분실신고 전화번호를 메모해두면 신고에 도움이 된다. 또 카드 뒷면 서명을 반드시 해야하고 카드 양도나 비밀번호 노출도 해선 안 된다. 카드결제 과정은 본인이 직접 확인하고 해외 사설 ATM기 사용도 삼가야 한다.하나금융과 SK ICT 6개사, 데이터 결합 맞손하나금융은 SK ICT 패밀리 3사와 금융·통신·미디어·유통 데이터 결합 신사업 추진 업무 협약을 체결하고 각 사들이 보유한 데이터 결합으로 금융취약계층을 위한 상생금융에 나선다.이번 협약은 하나은행·하나증권·하나카드와 SK그룹 SK텔레콤·SK브로드밴드·11번가가 참여한다. 양 그룹은 데이터전문기관인 금융보안원을 통해 가명결합(서로 다른 정보처리자가 공통으로 보유하고 있는 정보를 가명처리해 결합하는 과정)을 추진한다.이번 업무협약으로 각 참여사들이 보유한 데이터를 가명 결합해 중저신용과 금융 이력이 부족한 소비자 특화 대안 신용평가 모형을 고도화하고 새로운 사업 모델 발굴, 이종 사업간 데이터 결합 기반 데이터 사업 강화 등을 추진한다.특히 하나금융은 업종별 다양한 데이터를 활용해 금융소외계층의 대안 신용평가 모형을 고도화해 개인 대출 심사과정에 적용할 계획이다.황보현우 하나은행 데이터본부장은 "데이터 결합은 디지털 전환 시대를 이끌어 가는 피할 수 없는 키워드로 다양한 업종간 데이터 결합으로 새로운 부가가치 창출에 앞장설 것"이라고 말했다.토스뱅크 굴비적금, 한달 만에 30만계좌 돌파토스뱅크는 '굴비적금'이 한 달여 만에 30만 계좌를 넘어섰다고 밝혔다. 굴비적금은 이용자가 입금할 때마다 천장 위에 매달린 굴비가 밥상으로 조금씩 내려오는 이색 적금이다. 5번 이상 저축하면 굴비가 밥상에 도달해 고객들이 원하는 반찬을 추가할 수 있다. 기본금리 연 2%에 연 3% 포인트의 우대금리가 적용되며 특별한 조건 없이 6개월 만기까지 유지하면 자동으로 우대금리가 적용된다. 높은 금리에 재미요소를 더해 MZ세대는 물론 전 연령대에서 호응을 얻고 있다는 게 토스뱅크 설명이다. 토스뱅크 굴비적금은 6개월 만기로 1인 1계좌에 한해 가입할 수 있다. 최초 가입금액은 0원으로 설정해 많은 이용자가 가입할 수 있다. 납입한도는 매달 최대 30만원, 한도 내에서 횟수 제한 없이 자유롭게 납입할 수 있다.토스뱅크 관계자는 "굴비적금으로 돈 모으는 과정의 즐거움을 이용자들이 경험할 수 있을 것"이라며 "앞으로 고객 친화적인 상품과 서비스를 제공하도록 노력할 것"이라고 말했다.우리은행, 5.5% 고금리 적금상품 출시우리은행은 최고 연 5.5% 금리를 제공하는 '우리 퍼스트 정기적금'을 출시했다. 가입기간 1년으로 최고 월 50만원까지 우리WON뱅킹을 통해 가입이 가능하다. 기본금리는 2.5%로 직전 1년 동안 입출식 상품을 제외하고 우리은행 적금이나 예금상품을 보유하지 않았던 가입자에게는 3%포인트의 우대금리를 제공한다.우리은행은 이번 상품 출시로 지난해 4월 출시해 첫 거래고객에게 우대금리를 제공하는 우리 첫거래우대 정기예금과 함께 우리은행 예적금 상품이 없는 고객에게 혜택을 제공하는 예적금 라인업을 갖추게 됐다는 설명이다.우리은행은 이번 상품 출시를 기념해 '너의 목표까지 적금 버스 태워줄게' 이벤트를 30일까지 진행한다. 기간 중 상품을 가입하고 이벤트에 참여한 고객 가운데 추첨으로 10명에게 만기유지 응원금 100만원을 지급한다.친구 초대 이벤트를 통해 1명을 초대할 때 2000원씩 인 당 최대 100만원을 선착순 2만명에게 지급한다.화재보험협회, 일반보험 플랫폼 'BRIDGE' 오픈한국화재보험협회는 위험관리 정보를 제공할 일반보험 플랫폼 BRIDGE를 오픈했다. BRIDGE는 보험 플랫폼을 넘어 종합위험관리 플랫폼으로 확대·발전시키겠다는 비전을 담았다.구체적인 서비스 항목은 △지식&amp;통계 시스템 △위험관리 서비스 △보험지원 서비스 △컨설팅 서비스 △데이터 마켓 등이다.지식&amp;통계 시스템에선 협회가 50년간 보유한 위험관리와 보험 관련 정보, 국내·외 관련 법규와 각종 연구자료, 통계자료를 검색할 수 있다. 위험관리 서비스와 보험지원 서비스는 손해보험사를 위한 맞춤형 서비스다. 화재보험 인수에 필요한 언더라이팅 자료와 지도 기반 보험정보시스템, 보험가액평가 서비스를 제공한다.컨설팅 서비스는 방재컨설팅 등 위험관리가 필요한 고객에게 자연재해 정보와 하천 범람 위험 알리미, 각종 사고 정보 등 지도를 기반으로 확인할 수 있다. 데이터마켓에선 필요한 데이터를 구매할 수 있다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
